--- a/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>UUGRY</t>
   </si>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2351000</v>
+        <v>2239700</v>
       </c>
       <c r="E8" s="3">
-        <v>2244100</v>
+        <v>2137800</v>
       </c>
       <c r="F8" s="3">
-        <v>2202900</v>
+        <v>2098600</v>
       </c>
       <c r="G8" s="3">
-        <v>2236600</v>
+        <v>2130700</v>
       </c>
       <c r="H8" s="3">
-        <v>2223900</v>
+        <v>2118600</v>
       </c>
       <c r="I8" s="3">
-        <v>2183300</v>
+        <v>2079900</v>
       </c>
       <c r="J8" s="3">
-        <v>2115000</v>
+        <v>2014900</v>
       </c>
       <c r="K8" s="3">
         <v>2041100</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>339800</v>
+        <v>323700</v>
       </c>
       <c r="E9" s="3">
-        <v>304300</v>
+        <v>289900</v>
       </c>
       <c r="F9" s="3">
-        <v>311400</v>
+        <v>296700</v>
       </c>
       <c r="G9" s="3">
-        <v>329800</v>
+        <v>314200</v>
       </c>
       <c r="H9" s="3">
-        <v>276700</v>
+        <v>263600</v>
       </c>
       <c r="I9" s="3">
-        <v>257900</v>
+        <v>245700</v>
       </c>
       <c r="J9" s="3">
-        <v>260000</v>
+        <v>247700</v>
       </c>
       <c r="K9" s="3">
         <v>308200</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2011200</v>
+        <v>1916000</v>
       </c>
       <c r="E10" s="3">
-        <v>1939700</v>
+        <v>1847900</v>
       </c>
       <c r="F10" s="3">
-        <v>1891500</v>
+        <v>1802000</v>
       </c>
       <c r="G10" s="3">
-        <v>1906800</v>
+        <v>1816500</v>
       </c>
       <c r="H10" s="3">
-        <v>1947200</v>
+        <v>1855000</v>
       </c>
       <c r="I10" s="3">
-        <v>1925400</v>
+        <v>1834200</v>
       </c>
       <c r="J10" s="3">
-        <v>1855100</v>
+        <v>1767200</v>
       </c>
       <c r="K10" s="3">
         <v>1732900</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J12" s="3">
         <v>1600</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1700</v>
       </c>
       <c r="K12" s="3">
         <v>2100</v>
@@ -878,25 +878,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>62800</v>
+        <v>59900</v>
       </c>
       <c r="E14" s="3">
-        <v>30500</v>
+        <v>29100</v>
       </c>
       <c r="F14" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G14" s="3">
-        <v>39900</v>
+        <v>38100</v>
       </c>
       <c r="H14" s="3">
-        <v>22200</v>
+        <v>21200</v>
       </c>
       <c r="I14" s="3">
-        <v>19000</v>
+        <v>18100</v>
       </c>
       <c r="J14" s="3">
-        <v>29900</v>
+        <v>28400</v>
       </c>
       <c r="K14" s="3">
         <v>15000</v>
@@ -908,25 +908,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>508300</v>
+        <v>484300</v>
       </c>
       <c r="E15" s="3">
-        <v>487100</v>
+        <v>464100</v>
       </c>
       <c r="F15" s="3">
-        <v>471700</v>
+        <v>449400</v>
       </c>
       <c r="G15" s="3">
-        <v>470200</v>
+        <v>447900</v>
       </c>
       <c r="H15" s="3">
-        <v>455800</v>
+        <v>434300</v>
       </c>
       <c r="I15" s="3">
-        <v>871100</v>
+        <v>829900</v>
       </c>
       <c r="J15" s="3">
-        <v>851200</v>
+        <v>810900</v>
       </c>
       <c r="K15" s="3">
         <v>388400</v>
@@ -949,25 +949,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1530200</v>
+        <v>1457700</v>
       </c>
       <c r="E17" s="3">
-        <v>1421300</v>
+        <v>1354000</v>
       </c>
       <c r="F17" s="3">
-        <v>1391600</v>
+        <v>1325700</v>
       </c>
       <c r="G17" s="3">
-        <v>1502400</v>
+        <v>1431200</v>
       </c>
       <c r="H17" s="3">
-        <v>1379300</v>
+        <v>1314000</v>
       </c>
       <c r="I17" s="3">
-        <v>1368600</v>
+        <v>1303800</v>
       </c>
       <c r="J17" s="3">
-        <v>1337300</v>
+        <v>1274000</v>
       </c>
       <c r="K17" s="3">
         <v>1269600</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>820800</v>
+        <v>781900</v>
       </c>
       <c r="E18" s="3">
-        <v>822700</v>
+        <v>783800</v>
       </c>
       <c r="F18" s="3">
-        <v>811400</v>
+        <v>773000</v>
       </c>
       <c r="G18" s="3">
-        <v>734200</v>
+        <v>699400</v>
       </c>
       <c r="H18" s="3">
-        <v>844600</v>
+        <v>804600</v>
       </c>
       <c r="I18" s="3">
-        <v>814700</v>
+        <v>776200</v>
       </c>
       <c r="J18" s="3">
-        <v>777800</v>
+        <v>740900</v>
       </c>
       <c r="K18" s="3">
         <v>771500</v>
@@ -1023,25 +1023,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>43100</v>
+        <v>41000</v>
       </c>
       <c r="E20" s="3">
-        <v>79600</v>
+        <v>75900</v>
       </c>
       <c r="F20" s="3">
-        <v>54000</v>
+        <v>51500</v>
       </c>
       <c r="G20" s="3">
-        <v>-21100</v>
+        <v>-20100</v>
       </c>
       <c r="H20" s="3">
-        <v>-136500</v>
+        <v>-130100</v>
       </c>
       <c r="I20" s="3">
-        <v>182300</v>
+        <v>173700</v>
       </c>
       <c r="J20" s="3">
-        <v>-52600</v>
+        <v>-50100</v>
       </c>
       <c r="K20" s="3">
         <v>-54900</v>
@@ -1053,25 +1053,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1375000</v>
+        <v>1304600</v>
       </c>
       <c r="E21" s="3">
-        <v>1392200</v>
+        <v>1321200</v>
       </c>
       <c r="F21" s="3">
-        <v>1339800</v>
+        <v>1271400</v>
       </c>
       <c r="G21" s="3">
-        <v>1185900</v>
+        <v>1124900</v>
       </c>
       <c r="H21" s="3">
-        <v>1166500</v>
+        <v>1106500</v>
       </c>
       <c r="I21" s="3">
-        <v>1435000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1153100</v>
+        <v>1362500</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K21" s="3">
         <v>1109400</v>
@@ -1083,25 +1083,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>299900</v>
+        <v>285700</v>
       </c>
       <c r="E22" s="3">
-        <v>343800</v>
+        <v>327500</v>
       </c>
       <c r="F22" s="3">
-        <v>293500</v>
+        <v>279600</v>
       </c>
       <c r="G22" s="3">
-        <v>256100</v>
+        <v>244000</v>
       </c>
       <c r="H22" s="3">
-        <v>266400</v>
+        <v>253800</v>
       </c>
       <c r="I22" s="3">
-        <v>294600</v>
+        <v>280700</v>
       </c>
       <c r="J22" s="3">
-        <v>322000</v>
+        <v>306800</v>
       </c>
       <c r="K22" s="3">
         <v>350900</v>
@@ -1113,25 +1113,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>563900</v>
+        <v>537200</v>
       </c>
       <c r="E23" s="3">
-        <v>558600</v>
+        <v>532200</v>
       </c>
       <c r="F23" s="3">
-        <v>571900</v>
+        <v>544900</v>
       </c>
       <c r="G23" s="3">
-        <v>457000</v>
+        <v>435400</v>
       </c>
       <c r="H23" s="3">
-        <v>441600</v>
+        <v>420700</v>
       </c>
       <c r="I23" s="3">
-        <v>702400</v>
+        <v>669100</v>
       </c>
       <c r="J23" s="3">
-        <v>403100</v>
+        <v>384000</v>
       </c>
       <c r="K23" s="3">
         <v>365700</v>
@@ -1143,25 +1143,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>94100</v>
+        <v>89700</v>
       </c>
       <c r="E24" s="3">
-        <v>100200</v>
+        <v>95400</v>
       </c>
       <c r="F24" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="G24" s="3">
-        <v>-56900</v>
+        <v>-54200</v>
       </c>
       <c r="H24" s="3">
-        <v>91000</v>
+        <v>86700</v>
       </c>
       <c r="I24" s="3">
-        <v>-252500</v>
+        <v>-240500</v>
       </c>
       <c r="J24" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="K24" s="3">
         <v>-40400</v>
@@ -1203,25 +1203,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>469800</v>
+        <v>447600</v>
       </c>
       <c r="E26" s="3">
-        <v>458400</v>
+        <v>436700</v>
       </c>
       <c r="F26" s="3">
-        <v>561000</v>
+        <v>534400</v>
       </c>
       <c r="G26" s="3">
-        <v>513900</v>
+        <v>489600</v>
       </c>
       <c r="H26" s="3">
-        <v>350600</v>
+        <v>334000</v>
       </c>
       <c r="I26" s="3">
-        <v>954900</v>
+        <v>909700</v>
       </c>
       <c r="J26" s="3">
-        <v>372100</v>
+        <v>354500</v>
       </c>
       <c r="K26" s="3">
         <v>406200</v>
@@ -1233,25 +1233,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>469800</v>
+        <v>447600</v>
       </c>
       <c r="E27" s="3">
-        <v>458400</v>
+        <v>436700</v>
       </c>
       <c r="F27" s="3">
-        <v>561000</v>
+        <v>534400</v>
       </c>
       <c r="G27" s="3">
-        <v>513900</v>
+        <v>489600</v>
       </c>
       <c r="H27" s="3">
-        <v>350600</v>
+        <v>334000</v>
       </c>
       <c r="I27" s="3">
-        <v>954900</v>
+        <v>909700</v>
       </c>
       <c r="J27" s="3">
-        <v>372100</v>
+        <v>354500</v>
       </c>
       <c r="K27" s="3">
         <v>406200</v>
@@ -1311,7 +1311,7 @@
         <v>1000</v>
       </c>
       <c r="J29" s="3">
-        <v>18900</v>
+        <v>18000</v>
       </c>
       <c r="K29" s="3">
         <v>6700</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-43100</v>
+        <v>-41000</v>
       </c>
       <c r="E32" s="3">
-        <v>-79600</v>
+        <v>-75900</v>
       </c>
       <c r="F32" s="3">
-        <v>-54000</v>
+        <v>-51500</v>
       </c>
       <c r="G32" s="3">
-        <v>21100</v>
+        <v>20100</v>
       </c>
       <c r="H32" s="3">
-        <v>136500</v>
+        <v>130100</v>
       </c>
       <c r="I32" s="3">
-        <v>-182300</v>
+        <v>-173700</v>
       </c>
       <c r="J32" s="3">
-        <v>52600</v>
+        <v>50100</v>
       </c>
       <c r="K32" s="3">
         <v>54900</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>469800</v>
+        <v>447600</v>
       </c>
       <c r="E33" s="3">
-        <v>458400</v>
+        <v>436700</v>
       </c>
       <c r="F33" s="3">
-        <v>561000</v>
+        <v>534400</v>
       </c>
       <c r="G33" s="3">
-        <v>513900</v>
+        <v>489600</v>
       </c>
       <c r="H33" s="3">
-        <v>350600</v>
+        <v>334000</v>
       </c>
       <c r="I33" s="3">
-        <v>955900</v>
+        <v>910600</v>
       </c>
       <c r="J33" s="3">
-        <v>390900</v>
+        <v>372400</v>
       </c>
       <c r="K33" s="3">
         <v>412800</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>469800</v>
+        <v>447600</v>
       </c>
       <c r="E35" s="3">
-        <v>458400</v>
+        <v>436700</v>
       </c>
       <c r="F35" s="3">
-        <v>561000</v>
+        <v>534400</v>
       </c>
       <c r="G35" s="3">
-        <v>513900</v>
+        <v>489600</v>
       </c>
       <c r="H35" s="3">
-        <v>350600</v>
+        <v>334000</v>
       </c>
       <c r="I35" s="3">
-        <v>955900</v>
+        <v>910600</v>
       </c>
       <c r="J35" s="3">
-        <v>390900</v>
+        <v>372400</v>
       </c>
       <c r="K35" s="3">
         <v>412800</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>438700</v>
+        <v>418800</v>
       </c>
       <c r="E41" s="3">
-        <v>659300</v>
+        <v>629500</v>
       </c>
       <c r="F41" s="3">
-        <v>320400</v>
+        <v>305900</v>
       </c>
       <c r="G41" s="3">
-        <v>276100</v>
+        <v>263700</v>
       </c>
       <c r="H41" s="3">
-        <v>315400</v>
+        <v>301200</v>
       </c>
       <c r="I41" s="3">
-        <v>314200</v>
+        <v>300000</v>
       </c>
       <c r="J41" s="3">
-        <v>260800</v>
+        <v>249000</v>
       </c>
       <c r="K41" s="3">
         <v>418900</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>343800</v>
+        <v>328200</v>
       </c>
       <c r="E43" s="3">
-        <v>369000</v>
+        <v>352300</v>
       </c>
       <c r="F43" s="3">
-        <v>402100</v>
+        <v>383900</v>
       </c>
       <c r="G43" s="3">
-        <v>297200</v>
+        <v>283800</v>
       </c>
       <c r="H43" s="3">
-        <v>456700</v>
+        <v>436100</v>
       </c>
       <c r="I43" s="3">
-        <v>697300</v>
+        <v>665800</v>
       </c>
       <c r="J43" s="3">
-        <v>692000</v>
+        <v>660800</v>
       </c>
       <c r="K43" s="3">
         <v>393100</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19300</v>
+        <v>18400</v>
       </c>
       <c r="E44" s="3">
-        <v>21700</v>
+        <v>20700</v>
       </c>
       <c r="F44" s="3">
-        <v>29000</v>
+        <v>27700</v>
       </c>
       <c r="G44" s="3">
-        <v>37900</v>
+        <v>36200</v>
       </c>
       <c r="H44" s="3">
-        <v>52400</v>
+        <v>50000</v>
       </c>
       <c r="I44" s="3">
-        <v>106400</v>
+        <v>101600</v>
       </c>
       <c r="J44" s="3">
-        <v>51200</v>
+        <v>48900</v>
       </c>
       <c r="K44" s="3">
         <v>61800</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>131000</v>
+        <v>125000</v>
       </c>
       <c r="E45" s="3">
-        <v>436600</v>
+        <v>416900</v>
       </c>
       <c r="F45" s="3">
-        <v>99200</v>
+        <v>94700</v>
       </c>
       <c r="G45" s="3">
-        <v>198100</v>
+        <v>189100</v>
       </c>
       <c r="H45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I45" s="3">
-        <v>237100</v>
+        <v>226400</v>
       </c>
       <c r="J45" s="3">
-        <v>233400</v>
+        <v>222800</v>
       </c>
       <c r="K45" s="3">
         <v>65100</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>932600</v>
+        <v>890500</v>
       </c>
       <c r="E46" s="3">
-        <v>1486600</v>
+        <v>1419400</v>
       </c>
       <c r="F46" s="3">
-        <v>850500</v>
+        <v>812100</v>
       </c>
       <c r="G46" s="3">
-        <v>809300</v>
+        <v>772700</v>
       </c>
       <c r="H46" s="3">
-        <v>825800</v>
+        <v>788500</v>
       </c>
       <c r="I46" s="3">
-        <v>701900</v>
+        <v>670200</v>
       </c>
       <c r="J46" s="3">
-        <v>814700</v>
+        <v>777900</v>
       </c>
       <c r="K46" s="3">
         <v>939000</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>308500</v>
+        <v>294500</v>
       </c>
       <c r="E47" s="3">
-        <v>288800</v>
+        <v>275800</v>
       </c>
       <c r="F47" s="3">
-        <v>254000</v>
+        <v>242600</v>
       </c>
       <c r="G47" s="3">
-        <v>59900</v>
+        <v>57200</v>
       </c>
       <c r="H47" s="3">
-        <v>55300</v>
+        <v>52800</v>
       </c>
       <c r="I47" s="3">
-        <v>59700</v>
+        <v>57000</v>
       </c>
       <c r="J47" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="K47" s="3">
         <v>5700</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14419200</v>
+        <v>13767800</v>
       </c>
       <c r="E48" s="3">
-        <v>13950100</v>
+        <v>13319800</v>
       </c>
       <c r="F48" s="3">
-        <v>13452300</v>
+        <v>12844500</v>
       </c>
       <c r="G48" s="3">
-        <v>12968700</v>
+        <v>12382800</v>
       </c>
       <c r="H48" s="3">
-        <v>12561300</v>
+        <v>11993800</v>
       </c>
       <c r="I48" s="3">
-        <v>24149900</v>
+        <v>23058800</v>
       </c>
       <c r="J48" s="3">
-        <v>8257000</v>
+        <v>7884000</v>
       </c>
       <c r="K48" s="3">
         <v>11275100</v>
@@ -1806,22 +1806,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>262100</v>
+        <v>250200</v>
       </c>
       <c r="E49" s="3">
-        <v>255600</v>
+        <v>244000</v>
       </c>
       <c r="F49" s="3">
-        <v>242700</v>
+        <v>231700</v>
       </c>
       <c r="G49" s="3">
-        <v>210000</v>
+        <v>200500</v>
       </c>
       <c r="H49" s="3">
-        <v>187300</v>
+        <v>178900</v>
       </c>
       <c r="I49" s="3">
-        <v>297700</v>
+        <v>284300</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>24</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1126900</v>
+        <v>1076000</v>
       </c>
       <c r="E52" s="3">
-        <v>830000</v>
+        <v>792500</v>
       </c>
       <c r="F52" s="3">
-        <v>1265000</v>
+        <v>1207900</v>
       </c>
       <c r="G52" s="3">
-        <v>1345400</v>
+        <v>1284600</v>
       </c>
       <c r="H52" s="3">
-        <v>983600</v>
+        <v>939100</v>
       </c>
       <c r="I52" s="3">
-        <v>589500</v>
+        <v>562900</v>
       </c>
       <c r="J52" s="3">
-        <v>891300</v>
+        <v>851000</v>
       </c>
       <c r="K52" s="3">
         <v>740200</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17049300</v>
+        <v>16279000</v>
       </c>
       <c r="E54" s="3">
-        <v>16811100</v>
+        <v>16051500</v>
       </c>
       <c r="F54" s="3">
-        <v>16064600</v>
+        <v>15338800</v>
       </c>
       <c r="G54" s="3">
-        <v>15393200</v>
+        <v>14697800</v>
       </c>
       <c r="H54" s="3">
-        <v>14613400</v>
+        <v>13953200</v>
       </c>
       <c r="I54" s="3">
-        <v>13539000</v>
+        <v>12927300</v>
       </c>
       <c r="J54" s="3">
-        <v>13455600</v>
+        <v>12847600</v>
       </c>
       <c r="K54" s="3">
         <v>13083300</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>44500</v>
+        <v>42500</v>
       </c>
       <c r="E57" s="3">
-        <v>36100</v>
+        <v>34400</v>
       </c>
       <c r="F57" s="3">
-        <v>45500</v>
+        <v>43500</v>
       </c>
       <c r="G57" s="3">
-        <v>57000</v>
+        <v>54400</v>
       </c>
       <c r="H57" s="3">
-        <v>51800</v>
+        <v>49500</v>
       </c>
       <c r="I57" s="3">
-        <v>553100</v>
+        <v>528100</v>
       </c>
       <c r="J57" s="3">
-        <v>68100</v>
+        <v>65100</v>
       </c>
       <c r="K57" s="3">
         <v>52400</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>905200</v>
+        <v>864300</v>
       </c>
       <c r="E58" s="3">
-        <v>1085300</v>
+        <v>1036300</v>
       </c>
       <c r="F58" s="3">
-        <v>421600</v>
+        <v>402500</v>
       </c>
       <c r="G58" s="3">
-        <v>606600</v>
+        <v>579200</v>
       </c>
       <c r="H58" s="3">
-        <v>747400</v>
+        <v>713600</v>
       </c>
       <c r="I58" s="3">
-        <v>291100</v>
+        <v>278000</v>
       </c>
       <c r="J58" s="3">
-        <v>214700</v>
+        <v>205000</v>
       </c>
       <c r="K58" s="3">
         <v>165800</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>410300</v>
+        <v>391800</v>
       </c>
       <c r="E59" s="3">
-        <v>354400</v>
+        <v>338300</v>
       </c>
       <c r="F59" s="3">
-        <v>424700</v>
+        <v>405500</v>
       </c>
       <c r="G59" s="3">
-        <v>427800</v>
+        <v>408500</v>
       </c>
       <c r="H59" s="3">
-        <v>495500</v>
+        <v>473100</v>
       </c>
       <c r="I59" s="3">
-        <v>574400</v>
+        <v>548400</v>
       </c>
       <c r="J59" s="3">
-        <v>609600</v>
+        <v>582000</v>
       </c>
       <c r="K59" s="3">
         <v>641600</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1360000</v>
+        <v>1298600</v>
       </c>
       <c r="E60" s="3">
-        <v>1475700</v>
+        <v>1409100</v>
       </c>
       <c r="F60" s="3">
-        <v>891800</v>
+        <v>851500</v>
       </c>
       <c r="G60" s="3">
-        <v>1091400</v>
+        <v>1042100</v>
       </c>
       <c r="H60" s="3">
-        <v>1294700</v>
+        <v>1236300</v>
       </c>
       <c r="I60" s="3">
-        <v>770900</v>
+        <v>736100</v>
       </c>
       <c r="J60" s="3">
-        <v>892400</v>
+        <v>852100</v>
       </c>
       <c r="K60" s="3">
         <v>859800</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9199100</v>
+        <v>8783500</v>
       </c>
       <c r="E61" s="3">
-        <v>9143800</v>
+        <v>8730700</v>
       </c>
       <c r="F61" s="3">
-        <v>9125200</v>
+        <v>8712900</v>
       </c>
       <c r="G61" s="3">
-        <v>8414600</v>
+        <v>8034500</v>
       </c>
       <c r="H61" s="3">
-        <v>7843900</v>
+        <v>7489500</v>
       </c>
       <c r="I61" s="3">
-        <v>7665300</v>
+        <v>7319000</v>
       </c>
       <c r="J61" s="3">
-        <v>7766400</v>
+        <v>7415500</v>
       </c>
       <c r="K61" s="3">
         <v>7471200</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2468500</v>
+        <v>2357000</v>
       </c>
       <c r="E62" s="3">
-        <v>2376600</v>
+        <v>2269200</v>
       </c>
       <c r="F62" s="3">
-        <v>2399800</v>
+        <v>2291400</v>
       </c>
       <c r="G62" s="3">
-        <v>2389500</v>
+        <v>2281500</v>
       </c>
       <c r="H62" s="3">
-        <v>2327600</v>
+        <v>2222400</v>
       </c>
       <c r="I62" s="3">
-        <v>2238000</v>
+        <v>2136900</v>
       </c>
       <c r="J62" s="3">
-        <v>2919400</v>
+        <v>2787500</v>
       </c>
       <c r="K62" s="3">
         <v>2450700</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13027600</v>
+        <v>12439000</v>
       </c>
       <c r="E66" s="3">
-        <v>12996100</v>
+        <v>12408900</v>
       </c>
       <c r="F66" s="3">
-        <v>12416800</v>
+        <v>11855800</v>
       </c>
       <c r="G66" s="3">
-        <v>11895500</v>
+        <v>11358100</v>
       </c>
       <c r="H66" s="3">
-        <v>11466200</v>
+        <v>10948100</v>
       </c>
       <c r="I66" s="3">
-        <v>10674200</v>
+        <v>10191900</v>
       </c>
       <c r="J66" s="3">
-        <v>11035600</v>
+        <v>10537000</v>
       </c>
       <c r="K66" s="3">
         <v>10781700</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3360700</v>
+        <v>3208800</v>
       </c>
       <c r="E72" s="3">
-        <v>3167400</v>
+        <v>3024300</v>
       </c>
       <c r="F72" s="3">
-        <v>3000500</v>
+        <v>2864900</v>
       </c>
       <c r="G72" s="3">
-        <v>2855200</v>
+        <v>2726200</v>
       </c>
       <c r="H72" s="3">
-        <v>2508600</v>
+        <v>2395200</v>
       </c>
       <c r="I72" s="3">
-        <v>2016800</v>
+        <v>1925700</v>
       </c>
       <c r="J72" s="3">
-        <v>1570500</v>
+        <v>1499500</v>
       </c>
       <c r="K72" s="3">
         <v>1446000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4021700</v>
+        <v>3840000</v>
       </c>
       <c r="E76" s="3">
-        <v>3815000</v>
+        <v>3642600</v>
       </c>
       <c r="F76" s="3">
-        <v>3647800</v>
+        <v>3483000</v>
       </c>
       <c r="G76" s="3">
-        <v>3497700</v>
+        <v>3339700</v>
       </c>
       <c r="H76" s="3">
-        <v>3147200</v>
+        <v>3005000</v>
       </c>
       <c r="I76" s="3">
-        <v>2864700</v>
+        <v>2735300</v>
       </c>
       <c r="J76" s="3">
-        <v>2420000</v>
+        <v>2310700</v>
       </c>
       <c r="K76" s="3">
         <v>2301600</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>469800</v>
+        <v>447600</v>
       </c>
       <c r="E81" s="3">
-        <v>458400</v>
+        <v>436700</v>
       </c>
       <c r="F81" s="3">
-        <v>561000</v>
+        <v>534400</v>
       </c>
       <c r="G81" s="3">
-        <v>513900</v>
+        <v>489600</v>
       </c>
       <c r="H81" s="3">
-        <v>350600</v>
+        <v>334000</v>
       </c>
       <c r="I81" s="3">
-        <v>955900</v>
+        <v>910600</v>
       </c>
       <c r="J81" s="3">
-        <v>390900</v>
+        <v>372400</v>
       </c>
       <c r="K81" s="3">
         <v>412800</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>508300</v>
+        <v>484300</v>
       </c>
       <c r="E83" s="3">
-        <v>487100</v>
+        <v>464100</v>
       </c>
       <c r="F83" s="3">
-        <v>471700</v>
+        <v>449400</v>
       </c>
       <c r="G83" s="3">
-        <v>470200</v>
+        <v>447900</v>
       </c>
       <c r="H83" s="3">
-        <v>455800</v>
+        <v>434300</v>
       </c>
       <c r="I83" s="3">
-        <v>435500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>425600</v>
+        <v>414900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K83" s="3">
         <v>388400</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1076000</v>
+        <v>1025100</v>
       </c>
       <c r="E89" s="3">
-        <v>1054400</v>
+        <v>1004500</v>
       </c>
       <c r="F89" s="3">
-        <v>1061100</v>
+        <v>1010900</v>
       </c>
       <c r="G89" s="3">
-        <v>886400</v>
+        <v>844400</v>
       </c>
       <c r="H89" s="3">
-        <v>913400</v>
+        <v>870100</v>
       </c>
       <c r="I89" s="3">
-        <v>1029600</v>
+        <v>980800</v>
       </c>
       <c r="J89" s="3">
-        <v>814100</v>
+        <v>775500</v>
       </c>
       <c r="K89" s="3">
         <v>730200</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-804500</v>
+        <v>-766400</v>
       </c>
       <c r="E91" s="3">
-        <v>-903200</v>
+        <v>-860400</v>
       </c>
       <c r="F91" s="3">
-        <v>-869300</v>
+        <v>-828100</v>
       </c>
       <c r="G91" s="3">
+        <v>-781100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-819900</v>
       </c>
-      <c r="H91" s="3">
-        <v>-860600</v>
-      </c>
       <c r="I91" s="3">
-        <v>-855500</v>
+        <v>-814900</v>
       </c>
       <c r="J91" s="3">
-        <v>-808800</v>
+        <v>-770500</v>
       </c>
       <c r="K91" s="3">
         <v>-655000</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-811500</v>
+        <v>-773100</v>
       </c>
       <c r="E94" s="3">
-        <v>-935000</v>
+        <v>-890700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1040200</v>
+        <v>-990900</v>
       </c>
       <c r="G94" s="3">
-        <v>-875000</v>
+        <v>-833500</v>
       </c>
       <c r="H94" s="3">
-        <v>-911300</v>
+        <v>-868200</v>
       </c>
       <c r="I94" s="3">
-        <v>-877300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-832300</v>
+        <v>-835800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K94" s="3">
         <v>-650100</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-354700</v>
+        <v>-338000</v>
       </c>
       <c r="E96" s="3">
-        <v>-345200</v>
+        <v>-328800</v>
       </c>
       <c r="F96" s="3">
-        <v>-340100</v>
+        <v>-324000</v>
       </c>
       <c r="G96" s="3">
-        <v>-334400</v>
+        <v>-318600</v>
       </c>
       <c r="H96" s="3">
-        <v>-322400</v>
+        <v>-307200</v>
       </c>
       <c r="I96" s="3">
-        <v>-307600</v>
+        <v>-293000</v>
       </c>
       <c r="J96" s="3">
-        <v>-288900</v>
+        <v>-275300</v>
       </c>
       <c r="K96" s="3">
         <v>-272600</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-487900</v>
+        <v>-464800</v>
       </c>
       <c r="E100" s="3">
-        <v>238800</v>
+        <v>227500</v>
       </c>
       <c r="F100" s="3">
-        <v>28400</v>
+        <v>27100</v>
       </c>
       <c r="G100" s="3">
-        <v>-60000</v>
+        <v>-57100</v>
       </c>
       <c r="H100" s="3">
-        <v>180000</v>
+        <v>171400</v>
       </c>
       <c r="I100" s="3">
-        <v>-273400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-149300</v>
+        <v>-260500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K100" s="3">
         <v>7600</v>
@@ -3232,8 +3232,8 @@
       <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K101" s="3">
         <v>700</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-223400</v>
+        <v>-212800</v>
       </c>
       <c r="E102" s="3">
-        <v>358200</v>
+        <v>341300</v>
       </c>
       <c r="F102" s="3">
-        <v>49400</v>
+        <v>47000</v>
       </c>
       <c r="G102" s="3">
-        <v>-48600</v>
+        <v>-46300</v>
       </c>
       <c r="H102" s="3">
-        <v>182000</v>
+        <v>173400</v>
       </c>
       <c r="I102" s="3">
-        <v>-121100</v>
+        <v>-115400</v>
       </c>
       <c r="J102" s="3">
-        <v>-167500</v>
+        <v>-159600</v>
       </c>
       <c r="K102" s="3">
         <v>88300</v>

--- a/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>UUGRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2239700</v>
+        <v>2455700</v>
       </c>
       <c r="E8" s="3">
-        <v>2137800</v>
+        <v>2401900</v>
       </c>
       <c r="F8" s="3">
-        <v>2098600</v>
+        <v>2292600</v>
       </c>
       <c r="G8" s="3">
-        <v>2130700</v>
+        <v>2250600</v>
       </c>
       <c r="H8" s="3">
-        <v>2118600</v>
+        <v>2285000</v>
       </c>
       <c r="I8" s="3">
-        <v>2079900</v>
+        <v>2272000</v>
       </c>
       <c r="J8" s="3">
+        <v>2230600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2014900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2041100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>323700</v>
+        <v>331000</v>
       </c>
       <c r="E9" s="3">
-        <v>289900</v>
+        <v>347100</v>
       </c>
       <c r="F9" s="3">
-        <v>296700</v>
+        <v>310900</v>
       </c>
       <c r="G9" s="3">
-        <v>314200</v>
+        <v>318200</v>
       </c>
       <c r="H9" s="3">
-        <v>263600</v>
+        <v>336900</v>
       </c>
       <c r="I9" s="3">
-        <v>245700</v>
+        <v>282600</v>
       </c>
       <c r="J9" s="3">
+        <v>263500</v>
+      </c>
+      <c r="K9" s="3">
         <v>247700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>308200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1916000</v>
+        <v>2124800</v>
       </c>
       <c r="E10" s="3">
-        <v>1847900</v>
+        <v>2054800</v>
       </c>
       <c r="F10" s="3">
-        <v>1802000</v>
+        <v>1981700</v>
       </c>
       <c r="G10" s="3">
-        <v>1816500</v>
+        <v>1932400</v>
       </c>
       <c r="H10" s="3">
-        <v>1855000</v>
+        <v>1948000</v>
       </c>
       <c r="I10" s="3">
-        <v>1834200</v>
+        <v>1989400</v>
       </c>
       <c r="J10" s="3">
+        <v>1967100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1767200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1732900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>1500</v>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I12" s="3">
         <v>2800</v>
       </c>
-      <c r="G12" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3000</v>
-      </c>
       <c r="J12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2100</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>59900</v>
+        <v>59800</v>
       </c>
       <c r="E14" s="3">
-        <v>29100</v>
+        <v>64200</v>
       </c>
       <c r="F14" s="3">
-        <v>7300</v>
+        <v>31200</v>
       </c>
       <c r="G14" s="3">
-        <v>38100</v>
+        <v>7800</v>
       </c>
       <c r="H14" s="3">
-        <v>21200</v>
+        <v>40800</v>
       </c>
       <c r="I14" s="3">
-        <v>18100</v>
+        <v>22700</v>
       </c>
       <c r="J14" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K14" s="3">
         <v>28400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>484300</v>
+        <v>637700</v>
       </c>
       <c r="E15" s="3">
-        <v>464100</v>
+        <v>519300</v>
       </c>
       <c r="F15" s="3">
-        <v>449400</v>
+        <v>497700</v>
       </c>
       <c r="G15" s="3">
-        <v>447900</v>
+        <v>482000</v>
       </c>
       <c r="H15" s="3">
-        <v>434300</v>
+        <v>480400</v>
       </c>
       <c r="I15" s="3">
-        <v>829900</v>
+        <v>465700</v>
       </c>
       <c r="J15" s="3">
+        <v>889900</v>
+      </c>
+      <c r="K15" s="3">
         <v>810900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>388400</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1457700</v>
+        <v>1623300</v>
       </c>
       <c r="E17" s="3">
-        <v>1354000</v>
+        <v>1563300</v>
       </c>
       <c r="F17" s="3">
-        <v>1325700</v>
+        <v>1452100</v>
       </c>
       <c r="G17" s="3">
-        <v>1431200</v>
+        <v>1421700</v>
       </c>
       <c r="H17" s="3">
-        <v>1314000</v>
+        <v>1534900</v>
       </c>
       <c r="I17" s="3">
-        <v>1303800</v>
+        <v>1409200</v>
       </c>
       <c r="J17" s="3">
+        <v>1398200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1274000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1269600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>781900</v>
+        <v>832500</v>
       </c>
       <c r="E18" s="3">
-        <v>783800</v>
+        <v>838600</v>
       </c>
       <c r="F18" s="3">
-        <v>773000</v>
+        <v>840600</v>
       </c>
       <c r="G18" s="3">
-        <v>699400</v>
+        <v>828900</v>
       </c>
       <c r="H18" s="3">
-        <v>804600</v>
+        <v>750100</v>
       </c>
       <c r="I18" s="3">
-        <v>776200</v>
+        <v>862900</v>
       </c>
       <c r="J18" s="3">
+        <v>832400</v>
+      </c>
+      <c r="K18" s="3">
         <v>740900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>771500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>41000</v>
+        <v>-126000</v>
       </c>
       <c r="E20" s="3">
-        <v>75900</v>
+        <v>44000</v>
       </c>
       <c r="F20" s="3">
-        <v>51500</v>
+        <v>81400</v>
       </c>
       <c r="G20" s="3">
-        <v>-20100</v>
+        <v>55200</v>
       </c>
       <c r="H20" s="3">
-        <v>-130100</v>
+        <v>-21500</v>
       </c>
       <c r="I20" s="3">
-        <v>173700</v>
+        <v>-139500</v>
       </c>
       <c r="J20" s="3">
+        <v>186200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-50100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-54900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1304600</v>
+        <v>1341400</v>
       </c>
       <c r="E21" s="3">
-        <v>1321200</v>
+        <v>1399600</v>
       </c>
       <c r="F21" s="3">
-        <v>1271400</v>
+        <v>1417400</v>
       </c>
       <c r="G21" s="3">
-        <v>1124900</v>
+        <v>1364000</v>
       </c>
       <c r="H21" s="3">
-        <v>1106500</v>
+        <v>1206800</v>
       </c>
       <c r="I21" s="3">
-        <v>1362500</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>1187100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1461600</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1109400</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>285700</v>
+        <v>306000</v>
       </c>
       <c r="E22" s="3">
-        <v>327500</v>
+        <v>306400</v>
       </c>
       <c r="F22" s="3">
-        <v>279600</v>
+        <v>351200</v>
       </c>
       <c r="G22" s="3">
-        <v>244000</v>
+        <v>299800</v>
       </c>
       <c r="H22" s="3">
-        <v>253800</v>
+        <v>261600</v>
       </c>
       <c r="I22" s="3">
-        <v>280700</v>
+        <v>272200</v>
       </c>
       <c r="J22" s="3">
+        <v>301000</v>
+      </c>
+      <c r="K22" s="3">
         <v>306800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>350900</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>537200</v>
+        <v>400500</v>
       </c>
       <c r="E23" s="3">
-        <v>532200</v>
+        <v>576100</v>
       </c>
       <c r="F23" s="3">
-        <v>544900</v>
+        <v>570700</v>
       </c>
       <c r="G23" s="3">
-        <v>435400</v>
+        <v>584300</v>
       </c>
       <c r="H23" s="3">
-        <v>420700</v>
+        <v>466900</v>
       </c>
       <c r="I23" s="3">
-        <v>669100</v>
+        <v>451200</v>
       </c>
       <c r="J23" s="3">
+        <v>717600</v>
+      </c>
+      <c r="K23" s="3">
         <v>384000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>365700</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>89700</v>
+        <v>259400</v>
       </c>
       <c r="E24" s="3">
-        <v>95400</v>
+        <v>96200</v>
       </c>
       <c r="F24" s="3">
-        <v>10500</v>
+        <v>102400</v>
       </c>
       <c r="G24" s="3">
-        <v>-54200</v>
+        <v>11200</v>
       </c>
       <c r="H24" s="3">
-        <v>86700</v>
+        <v>-58100</v>
       </c>
       <c r="I24" s="3">
-        <v>-240500</v>
+        <v>93000</v>
       </c>
       <c r="J24" s="3">
+        <v>-258000</v>
+      </c>
+      <c r="K24" s="3">
         <v>29600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-40400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>447600</v>
+        <v>141100</v>
       </c>
       <c r="E26" s="3">
-        <v>436700</v>
+        <v>480000</v>
       </c>
       <c r="F26" s="3">
-        <v>534400</v>
+        <v>468400</v>
       </c>
       <c r="G26" s="3">
-        <v>489600</v>
+        <v>573100</v>
       </c>
       <c r="H26" s="3">
-        <v>334000</v>
+        <v>525000</v>
       </c>
       <c r="I26" s="3">
-        <v>909700</v>
+        <v>358200</v>
       </c>
       <c r="J26" s="3">
+        <v>975500</v>
+      </c>
+      <c r="K26" s="3">
         <v>354500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>406200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>447600</v>
+        <v>141100</v>
       </c>
       <c r="E27" s="3">
-        <v>436700</v>
+        <v>480000</v>
       </c>
       <c r="F27" s="3">
-        <v>534400</v>
+        <v>468400</v>
       </c>
       <c r="G27" s="3">
-        <v>489600</v>
+        <v>573100</v>
       </c>
       <c r="H27" s="3">
-        <v>334000</v>
+        <v>525000</v>
       </c>
       <c r="I27" s="3">
-        <v>909700</v>
+        <v>358200</v>
       </c>
       <c r="J27" s="3">
+        <v>975500</v>
+      </c>
+      <c r="K27" s="3">
         <v>354500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>406200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1304,21 +1364,24 @@
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I29" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K29" s="3">
         <v>18000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>6700</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-41000</v>
+        <v>126000</v>
       </c>
       <c r="E32" s="3">
-        <v>-75900</v>
+        <v>-44000</v>
       </c>
       <c r="F32" s="3">
-        <v>-51500</v>
+        <v>-81400</v>
       </c>
       <c r="G32" s="3">
-        <v>20100</v>
+        <v>-55200</v>
       </c>
       <c r="H32" s="3">
-        <v>130100</v>
+        <v>21500</v>
       </c>
       <c r="I32" s="3">
-        <v>-173700</v>
+        <v>139500</v>
       </c>
       <c r="J32" s="3">
+        <v>-186200</v>
+      </c>
+      <c r="K32" s="3">
         <v>50100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>54900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>447600</v>
+        <v>141100</v>
       </c>
       <c r="E33" s="3">
-        <v>436700</v>
+        <v>480000</v>
       </c>
       <c r="F33" s="3">
-        <v>534400</v>
+        <v>468400</v>
       </c>
       <c r="G33" s="3">
-        <v>489600</v>
+        <v>573100</v>
       </c>
       <c r="H33" s="3">
-        <v>334000</v>
+        <v>525000</v>
       </c>
       <c r="I33" s="3">
-        <v>910600</v>
+        <v>358200</v>
       </c>
       <c r="J33" s="3">
+        <v>976600</v>
+      </c>
+      <c r="K33" s="3">
         <v>372400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>412800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>447600</v>
+        <v>141100</v>
       </c>
       <c r="E35" s="3">
-        <v>436700</v>
+        <v>480000</v>
       </c>
       <c r="F35" s="3">
-        <v>534400</v>
+        <v>468400</v>
       </c>
       <c r="G35" s="3">
-        <v>489600</v>
+        <v>573100</v>
       </c>
       <c r="H35" s="3">
-        <v>334000</v>
+        <v>525000</v>
       </c>
       <c r="I35" s="3">
-        <v>910600</v>
+        <v>358200</v>
       </c>
       <c r="J35" s="3">
+        <v>976600</v>
+      </c>
+      <c r="K35" s="3">
         <v>372400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>412800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>418800</v>
+        <v>697500</v>
       </c>
       <c r="E41" s="3">
-        <v>629500</v>
+        <v>448100</v>
       </c>
       <c r="F41" s="3">
-        <v>305900</v>
+        <v>673600</v>
       </c>
       <c r="G41" s="3">
-        <v>263700</v>
+        <v>327300</v>
       </c>
       <c r="H41" s="3">
-        <v>301200</v>
+        <v>282100</v>
       </c>
       <c r="I41" s="3">
-        <v>300000</v>
+        <v>322300</v>
       </c>
       <c r="J41" s="3">
+        <v>321000</v>
+      </c>
+      <c r="K41" s="3">
         <v>249000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>418900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,219 +1708,243 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>328200</v>
+        <v>374600</v>
       </c>
       <c r="E43" s="3">
-        <v>352300</v>
+        <v>351200</v>
       </c>
       <c r="F43" s="3">
-        <v>383900</v>
+        <v>377000</v>
       </c>
       <c r="G43" s="3">
-        <v>283800</v>
+        <v>410800</v>
       </c>
       <c r="H43" s="3">
-        <v>436100</v>
+        <v>303600</v>
       </c>
       <c r="I43" s="3">
-        <v>665800</v>
+        <v>466600</v>
       </c>
       <c r="J43" s="3">
+        <v>712400</v>
+      </c>
+      <c r="K43" s="3">
         <v>660800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>393100</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18400</v>
+        <v>21900</v>
       </c>
       <c r="E44" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="F44" s="3">
-        <v>27700</v>
+        <v>22200</v>
       </c>
       <c r="G44" s="3">
-        <v>36200</v>
+        <v>29600</v>
       </c>
       <c r="H44" s="3">
-        <v>50000</v>
+        <v>38700</v>
       </c>
       <c r="I44" s="3">
-        <v>101600</v>
+        <v>53500</v>
       </c>
       <c r="J44" s="3">
+        <v>108700</v>
+      </c>
+      <c r="K44" s="3">
         <v>48900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>61800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>125000</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>416900</v>
+        <v>133800</v>
       </c>
       <c r="F45" s="3">
-        <v>94700</v>
+        <v>446000</v>
       </c>
       <c r="G45" s="3">
-        <v>189100</v>
+        <v>101300</v>
       </c>
       <c r="H45" s="3">
-        <v>1200</v>
+        <v>202300</v>
       </c>
       <c r="I45" s="3">
-        <v>226400</v>
+        <v>1300</v>
       </c>
       <c r="J45" s="3">
+        <v>242200</v>
+      </c>
+      <c r="K45" s="3">
         <v>222800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>65100</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>890500</v>
+        <v>1094100</v>
       </c>
       <c r="E46" s="3">
-        <v>1419400</v>
+        <v>952800</v>
       </c>
       <c r="F46" s="3">
-        <v>812100</v>
+        <v>1518800</v>
       </c>
       <c r="G46" s="3">
-        <v>772700</v>
+        <v>868900</v>
       </c>
       <c r="H46" s="3">
-        <v>788500</v>
+        <v>826800</v>
       </c>
       <c r="I46" s="3">
-        <v>670200</v>
+        <v>843700</v>
       </c>
       <c r="J46" s="3">
+        <v>717100</v>
+      </c>
+      <c r="K46" s="3">
         <v>777900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>939000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>294500</v>
+        <v>190100</v>
       </c>
       <c r="E47" s="3">
-        <v>275800</v>
+        <v>315100</v>
       </c>
       <c r="F47" s="3">
-        <v>242600</v>
+        <v>295100</v>
       </c>
       <c r="G47" s="3">
-        <v>57200</v>
+        <v>259500</v>
       </c>
       <c r="H47" s="3">
-        <v>52800</v>
+        <v>61200</v>
       </c>
       <c r="I47" s="3">
-        <v>57000</v>
+        <v>56500</v>
       </c>
       <c r="J47" s="3">
+        <v>61000</v>
+      </c>
+      <c r="K47" s="3">
         <v>9800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5700</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13767800</v>
+        <v>15203500</v>
       </c>
       <c r="E48" s="3">
-        <v>13319800</v>
+        <v>14731300</v>
       </c>
       <c r="F48" s="3">
-        <v>12844500</v>
+        <v>14252000</v>
       </c>
       <c r="G48" s="3">
-        <v>12382800</v>
+        <v>13743500</v>
       </c>
       <c r="H48" s="3">
-        <v>11993800</v>
+        <v>13249400</v>
       </c>
       <c r="I48" s="3">
-        <v>23058800</v>
+        <v>12833200</v>
       </c>
       <c r="J48" s="3">
+        <v>24672600</v>
+      </c>
+      <c r="K48" s="3">
         <v>7884000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11275100</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>250200</v>
+        <v>249600</v>
       </c>
       <c r="E49" s="3">
-        <v>244000</v>
+        <v>267700</v>
       </c>
       <c r="F49" s="3">
-        <v>231700</v>
+        <v>261100</v>
       </c>
       <c r="G49" s="3">
-        <v>200500</v>
+        <v>247900</v>
       </c>
       <c r="H49" s="3">
-        <v>178900</v>
+        <v>214500</v>
       </c>
       <c r="I49" s="3">
-        <v>284300</v>
-      </c>
-      <c r="J49" s="3" t="s">
+        <v>191400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>304200</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>123300</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1076000</v>
+        <v>1812000</v>
       </c>
       <c r="E52" s="3">
-        <v>792500</v>
+        <v>1151300</v>
       </c>
       <c r="F52" s="3">
-        <v>1207900</v>
+        <v>847900</v>
       </c>
       <c r="G52" s="3">
-        <v>1284600</v>
+        <v>1292400</v>
       </c>
       <c r="H52" s="3">
-        <v>939100</v>
+        <v>1374500</v>
       </c>
       <c r="I52" s="3">
-        <v>562900</v>
+        <v>1004900</v>
       </c>
       <c r="J52" s="3">
+        <v>602300</v>
+      </c>
+      <c r="K52" s="3">
         <v>851000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>740200</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16279000</v>
+        <v>18549300</v>
       </c>
       <c r="E54" s="3">
-        <v>16051500</v>
+        <v>17418300</v>
       </c>
       <c r="F54" s="3">
-        <v>15338800</v>
+        <v>17174900</v>
       </c>
       <c r="G54" s="3">
-        <v>14697800</v>
+        <v>16412300</v>
       </c>
       <c r="H54" s="3">
-        <v>13953200</v>
+        <v>15726400</v>
       </c>
       <c r="I54" s="3">
-        <v>12927300</v>
+        <v>14929700</v>
       </c>
       <c r="J54" s="3">
+        <v>13832000</v>
+      </c>
+      <c r="K54" s="3">
         <v>12847600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13083300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>42500</v>
+        <v>48500</v>
       </c>
       <c r="E57" s="3">
-        <v>34400</v>
+        <v>45400</v>
       </c>
       <c r="F57" s="3">
-        <v>43500</v>
+        <v>36900</v>
       </c>
       <c r="G57" s="3">
-        <v>54400</v>
+        <v>46500</v>
       </c>
       <c r="H57" s="3">
-        <v>49500</v>
+        <v>58200</v>
       </c>
       <c r="I57" s="3">
-        <v>528100</v>
+        <v>53000</v>
       </c>
       <c r="J57" s="3">
+        <v>565000</v>
+      </c>
+      <c r="K57" s="3">
         <v>65100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>52400</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>864300</v>
+        <v>1116100</v>
       </c>
       <c r="E58" s="3">
-        <v>1036300</v>
+        <v>924800</v>
       </c>
       <c r="F58" s="3">
-        <v>402500</v>
+        <v>1108800</v>
       </c>
       <c r="G58" s="3">
-        <v>579200</v>
+        <v>430700</v>
       </c>
       <c r="H58" s="3">
-        <v>713600</v>
+        <v>619700</v>
       </c>
       <c r="I58" s="3">
-        <v>278000</v>
+        <v>763500</v>
       </c>
       <c r="J58" s="3">
+        <v>297400</v>
+      </c>
+      <c r="K58" s="3">
         <v>205000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>165800</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>391800</v>
+        <v>426600</v>
       </c>
       <c r="E59" s="3">
-        <v>338300</v>
+        <v>419200</v>
       </c>
       <c r="F59" s="3">
-        <v>405500</v>
+        <v>362000</v>
       </c>
       <c r="G59" s="3">
-        <v>408500</v>
+        <v>433900</v>
       </c>
       <c r="H59" s="3">
-        <v>473100</v>
+        <v>437000</v>
       </c>
       <c r="I59" s="3">
-        <v>548400</v>
+        <v>506300</v>
       </c>
       <c r="J59" s="3">
+        <v>586800</v>
+      </c>
+      <c r="K59" s="3">
         <v>582000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>641600</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1298600</v>
+        <v>1591200</v>
       </c>
       <c r="E60" s="3">
-        <v>1409100</v>
+        <v>1389500</v>
       </c>
       <c r="F60" s="3">
-        <v>851500</v>
+        <v>1507700</v>
       </c>
       <c r="G60" s="3">
-        <v>1042100</v>
+        <v>911100</v>
       </c>
       <c r="H60" s="3">
-        <v>1236300</v>
+        <v>1115000</v>
       </c>
       <c r="I60" s="3">
-        <v>736100</v>
+        <v>1322800</v>
       </c>
       <c r="J60" s="3">
+        <v>787600</v>
+      </c>
+      <c r="K60" s="3">
         <v>852100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>859800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8783500</v>
+        <v>9929800</v>
       </c>
       <c r="E61" s="3">
-        <v>8730700</v>
+        <v>9398200</v>
       </c>
       <c r="F61" s="3">
-        <v>8712900</v>
+        <v>9341700</v>
       </c>
       <c r="G61" s="3">
-        <v>8034500</v>
+        <v>9322700</v>
       </c>
       <c r="H61" s="3">
-        <v>7489500</v>
+        <v>8596800</v>
       </c>
       <c r="I61" s="3">
-        <v>7319000</v>
+        <v>8013600</v>
       </c>
       <c r="J61" s="3">
+        <v>7831200</v>
+      </c>
+      <c r="K61" s="3">
         <v>7415500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7471200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2357000</v>
+        <v>3116000</v>
       </c>
       <c r="E62" s="3">
-        <v>2269200</v>
+        <v>2521900</v>
       </c>
       <c r="F62" s="3">
-        <v>2291400</v>
+        <v>2428000</v>
       </c>
       <c r="G62" s="3">
-        <v>2281500</v>
+        <v>2451800</v>
       </c>
       <c r="H62" s="3">
-        <v>2222400</v>
+        <v>2441200</v>
       </c>
       <c r="I62" s="3">
-        <v>2136900</v>
+        <v>2378000</v>
       </c>
       <c r="J62" s="3">
+        <v>2286400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2787500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2450700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12439000</v>
+        <v>14637000</v>
       </c>
       <c r="E66" s="3">
-        <v>12408900</v>
+        <v>13309600</v>
       </c>
       <c r="F66" s="3">
-        <v>11855800</v>
+        <v>13277400</v>
       </c>
       <c r="G66" s="3">
-        <v>11358100</v>
+        <v>12685500</v>
       </c>
       <c r="H66" s="3">
-        <v>10948100</v>
+        <v>12153000</v>
       </c>
       <c r="I66" s="3">
-        <v>10191900</v>
+        <v>11714400</v>
       </c>
       <c r="J66" s="3">
+        <v>10905200</v>
+      </c>
+      <c r="K66" s="3">
         <v>10537000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10781700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3208800</v>
+        <v>3239100</v>
       </c>
       <c r="E72" s="3">
-        <v>3024300</v>
+        <v>3433400</v>
       </c>
       <c r="F72" s="3">
-        <v>2864900</v>
+        <v>3235900</v>
       </c>
       <c r="G72" s="3">
-        <v>2726200</v>
+        <v>3065400</v>
       </c>
       <c r="H72" s="3">
-        <v>2395200</v>
+        <v>2917000</v>
       </c>
       <c r="I72" s="3">
-        <v>1925700</v>
+        <v>2562900</v>
       </c>
       <c r="J72" s="3">
+        <v>2060400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1499500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1446000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3840000</v>
+        <v>3912300</v>
       </c>
       <c r="E76" s="3">
-        <v>3642600</v>
+        <v>4108700</v>
       </c>
       <c r="F76" s="3">
-        <v>3483000</v>
+        <v>3897500</v>
       </c>
       <c r="G76" s="3">
-        <v>3339700</v>
+        <v>3726700</v>
       </c>
       <c r="H76" s="3">
-        <v>3005000</v>
+        <v>3573400</v>
       </c>
       <c r="I76" s="3">
-        <v>2735300</v>
+        <v>3215300</v>
       </c>
       <c r="J76" s="3">
+        <v>2926700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2310700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2301600</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>447600</v>
+        <v>141100</v>
       </c>
       <c r="E81" s="3">
-        <v>436700</v>
+        <v>480000</v>
       </c>
       <c r="F81" s="3">
-        <v>534400</v>
+        <v>468400</v>
       </c>
       <c r="G81" s="3">
-        <v>489600</v>
+        <v>573100</v>
       </c>
       <c r="H81" s="3">
-        <v>334000</v>
+        <v>525000</v>
       </c>
       <c r="I81" s="3">
-        <v>910600</v>
+        <v>358200</v>
       </c>
       <c r="J81" s="3">
+        <v>976600</v>
+      </c>
+      <c r="K81" s="3">
         <v>372400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>412800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>484300</v>
+        <v>637700</v>
       </c>
       <c r="E83" s="3">
-        <v>464100</v>
+        <v>519300</v>
       </c>
       <c r="F83" s="3">
-        <v>449400</v>
+        <v>497700</v>
       </c>
       <c r="G83" s="3">
-        <v>447900</v>
+        <v>482000</v>
       </c>
       <c r="H83" s="3">
-        <v>434300</v>
+        <v>480400</v>
       </c>
       <c r="I83" s="3">
-        <v>414900</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>465700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>445000</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>388400</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1025100</v>
+        <v>1070200</v>
       </c>
       <c r="E89" s="3">
-        <v>1004500</v>
+        <v>1099300</v>
       </c>
       <c r="F89" s="3">
-        <v>1010900</v>
+        <v>1077200</v>
       </c>
       <c r="G89" s="3">
-        <v>844400</v>
+        <v>1084100</v>
       </c>
       <c r="H89" s="3">
-        <v>870100</v>
+        <v>905500</v>
       </c>
       <c r="I89" s="3">
-        <v>980800</v>
+        <v>933100</v>
       </c>
       <c r="J89" s="3">
+        <v>1051900</v>
+      </c>
+      <c r="K89" s="3">
         <v>775500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>730200</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-766400</v>
+        <v>-862200</v>
       </c>
       <c r="E91" s="3">
-        <v>-860400</v>
+        <v>-821900</v>
       </c>
       <c r="F91" s="3">
-        <v>-828100</v>
+        <v>-922700</v>
       </c>
       <c r="G91" s="3">
-        <v>-781100</v>
+        <v>-888100</v>
       </c>
       <c r="H91" s="3">
-        <v>-819900</v>
+        <v>-837600</v>
       </c>
       <c r="I91" s="3">
-        <v>-814900</v>
+        <v>-879200</v>
       </c>
       <c r="J91" s="3">
+        <v>-874000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-770500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-655000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-773100</v>
+        <v>-784400</v>
       </c>
       <c r="E94" s="3">
-        <v>-890700</v>
+        <v>-829100</v>
       </c>
       <c r="F94" s="3">
-        <v>-990900</v>
+        <v>-955200</v>
       </c>
       <c r="G94" s="3">
-        <v>-833500</v>
+        <v>-1062700</v>
       </c>
       <c r="H94" s="3">
-        <v>-868200</v>
+        <v>-893900</v>
       </c>
       <c r="I94" s="3">
-        <v>-835800</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-931000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-896300</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-650100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-338000</v>
+        <v>-375800</v>
       </c>
       <c r="E96" s="3">
-        <v>-328800</v>
+        <v>-362400</v>
       </c>
       <c r="F96" s="3">
-        <v>-324000</v>
+        <v>-352700</v>
       </c>
       <c r="G96" s="3">
-        <v>-318600</v>
+        <v>-347500</v>
       </c>
       <c r="H96" s="3">
-        <v>-307200</v>
+        <v>-341700</v>
       </c>
       <c r="I96" s="3">
-        <v>-293000</v>
+        <v>-329400</v>
       </c>
       <c r="J96" s="3">
+        <v>-314200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-275300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-272600</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-464800</v>
+        <v>-36700</v>
       </c>
       <c r="E100" s="3">
-        <v>227500</v>
+        <v>-498500</v>
       </c>
       <c r="F100" s="3">
-        <v>27100</v>
+        <v>243900</v>
       </c>
       <c r="G100" s="3">
-        <v>-57100</v>
+        <v>29100</v>
       </c>
       <c r="H100" s="3">
-        <v>171400</v>
+        <v>-61300</v>
       </c>
       <c r="I100" s="3">
-        <v>-260500</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>183900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-279300</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7600</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3229,46 +3477,52 @@
       <c r="H101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-212800</v>
+        <v>249100</v>
       </c>
       <c r="E102" s="3">
-        <v>341300</v>
+        <v>-228200</v>
       </c>
       <c r="F102" s="3">
-        <v>47000</v>
+        <v>366000</v>
       </c>
       <c r="G102" s="3">
-        <v>-46300</v>
+        <v>50500</v>
       </c>
       <c r="H102" s="3">
-        <v>173400</v>
+        <v>-49700</v>
       </c>
       <c r="I102" s="3">
-        <v>-115400</v>
+        <v>186000</v>
       </c>
       <c r="J102" s="3">
+        <v>-123800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-159600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>88300</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2455700</v>
+        <v>2475500</v>
       </c>
       <c r="E8" s="3">
-        <v>2401900</v>
+        <v>2421200</v>
       </c>
       <c r="F8" s="3">
-        <v>2292600</v>
+        <v>2311000</v>
       </c>
       <c r="G8" s="3">
-        <v>2250600</v>
+        <v>2268700</v>
       </c>
       <c r="H8" s="3">
-        <v>2285000</v>
+        <v>2303300</v>
       </c>
       <c r="I8" s="3">
-        <v>2272000</v>
+        <v>2290300</v>
       </c>
       <c r="J8" s="3">
-        <v>2230600</v>
+        <v>2248500</v>
       </c>
       <c r="K8" s="3">
         <v>2014900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>331000</v>
+        <v>333600</v>
       </c>
       <c r="E9" s="3">
-        <v>347100</v>
+        <v>349900</v>
       </c>
       <c r="F9" s="3">
-        <v>310900</v>
+        <v>313400</v>
       </c>
       <c r="G9" s="3">
-        <v>318200</v>
+        <v>320700</v>
       </c>
       <c r="H9" s="3">
-        <v>336900</v>
+        <v>339600</v>
       </c>
       <c r="I9" s="3">
-        <v>282600</v>
+        <v>284900</v>
       </c>
       <c r="J9" s="3">
-        <v>263500</v>
+        <v>265600</v>
       </c>
       <c r="K9" s="3">
         <v>247700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2124800</v>
+        <v>2141800</v>
       </c>
       <c r="E10" s="3">
-        <v>2054800</v>
+        <v>2071300</v>
       </c>
       <c r="F10" s="3">
-        <v>1981700</v>
+        <v>1997600</v>
       </c>
       <c r="G10" s="3">
-        <v>1932400</v>
+        <v>1948000</v>
       </c>
       <c r="H10" s="3">
-        <v>1948000</v>
+        <v>1963700</v>
       </c>
       <c r="I10" s="3">
-        <v>1989400</v>
+        <v>2005400</v>
       </c>
       <c r="J10" s="3">
-        <v>1967100</v>
+        <v>1982900</v>
       </c>
       <c r="K10" s="3">
         <v>1767200</v>
@@ -840,10 +840,10 @@
         <v>1600</v>
       </c>
       <c r="G12" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H12" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I12" s="3">
         <v>2800</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>59800</v>
+        <v>60300</v>
       </c>
       <c r="E14" s="3">
-        <v>64200</v>
+        <v>64700</v>
       </c>
       <c r="F14" s="3">
-        <v>31200</v>
+        <v>31400</v>
       </c>
       <c r="G14" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="H14" s="3">
-        <v>40800</v>
+        <v>41100</v>
       </c>
       <c r="I14" s="3">
-        <v>22700</v>
+        <v>22900</v>
       </c>
       <c r="J14" s="3">
-        <v>19400</v>
+        <v>19600</v>
       </c>
       <c r="K14" s="3">
         <v>28400</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>637700</v>
+        <v>642800</v>
       </c>
       <c r="E15" s="3">
-        <v>519300</v>
+        <v>523500</v>
       </c>
       <c r="F15" s="3">
-        <v>497700</v>
+        <v>501700</v>
       </c>
       <c r="G15" s="3">
-        <v>482000</v>
+        <v>485800</v>
       </c>
       <c r="H15" s="3">
-        <v>480400</v>
+        <v>484200</v>
       </c>
       <c r="I15" s="3">
-        <v>465700</v>
+        <v>469500</v>
       </c>
       <c r="J15" s="3">
-        <v>889900</v>
+        <v>897100</v>
       </c>
       <c r="K15" s="3">
         <v>810900</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1623300</v>
+        <v>1636300</v>
       </c>
       <c r="E17" s="3">
-        <v>1563300</v>
+        <v>1575800</v>
       </c>
       <c r="F17" s="3">
-        <v>1452100</v>
+        <v>1463700</v>
       </c>
       <c r="G17" s="3">
-        <v>1421700</v>
+        <v>1433100</v>
       </c>
       <c r="H17" s="3">
-        <v>1534900</v>
+        <v>1547200</v>
       </c>
       <c r="I17" s="3">
-        <v>1409200</v>
+        <v>1420500</v>
       </c>
       <c r="J17" s="3">
-        <v>1398200</v>
+        <v>1409400</v>
       </c>
       <c r="K17" s="3">
         <v>1274000</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>832500</v>
+        <v>839200</v>
       </c>
       <c r="E18" s="3">
-        <v>838600</v>
+        <v>845300</v>
       </c>
       <c r="F18" s="3">
-        <v>840600</v>
+        <v>847300</v>
       </c>
       <c r="G18" s="3">
-        <v>828900</v>
+        <v>835600</v>
       </c>
       <c r="H18" s="3">
-        <v>750100</v>
+        <v>756100</v>
       </c>
       <c r="I18" s="3">
-        <v>862900</v>
+        <v>869800</v>
       </c>
       <c r="J18" s="3">
-        <v>832400</v>
+        <v>839000</v>
       </c>
       <c r="K18" s="3">
         <v>740900</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-126000</v>
+        <v>-127000</v>
       </c>
       <c r="E20" s="3">
-        <v>44000</v>
+        <v>44300</v>
       </c>
       <c r="F20" s="3">
-        <v>81400</v>
+        <v>82000</v>
       </c>
       <c r="G20" s="3">
-        <v>55200</v>
+        <v>55700</v>
       </c>
       <c r="H20" s="3">
-        <v>-21500</v>
+        <v>-21700</v>
       </c>
       <c r="I20" s="3">
-        <v>-139500</v>
+        <v>-140600</v>
       </c>
       <c r="J20" s="3">
-        <v>186200</v>
+        <v>187700</v>
       </c>
       <c r="K20" s="3">
         <v>-50100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1341400</v>
+        <v>1357000</v>
       </c>
       <c r="E21" s="3">
-        <v>1399600</v>
+        <v>1414800</v>
       </c>
       <c r="F21" s="3">
-        <v>1417400</v>
+        <v>1432500</v>
       </c>
       <c r="G21" s="3">
-        <v>1364000</v>
+        <v>1378600</v>
       </c>
       <c r="H21" s="3">
-        <v>1206800</v>
+        <v>1220100</v>
       </c>
       <c r="I21" s="3">
-        <v>1187100</v>
+        <v>1200100</v>
       </c>
       <c r="J21" s="3">
-        <v>1461600</v>
+        <v>1476700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>24</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>306000</v>
+        <v>308500</v>
       </c>
       <c r="E22" s="3">
-        <v>306400</v>
+        <v>308900</v>
       </c>
       <c r="F22" s="3">
-        <v>351200</v>
+        <v>354000</v>
       </c>
       <c r="G22" s="3">
-        <v>299800</v>
+        <v>302200</v>
       </c>
       <c r="H22" s="3">
-        <v>261600</v>
+        <v>263800</v>
       </c>
       <c r="I22" s="3">
-        <v>272200</v>
+        <v>274400</v>
       </c>
       <c r="J22" s="3">
-        <v>301000</v>
+        <v>303400</v>
       </c>
       <c r="K22" s="3">
         <v>306800</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>400500</v>
+        <v>403700</v>
       </c>
       <c r="E23" s="3">
-        <v>576100</v>
+        <v>580800</v>
       </c>
       <c r="F23" s="3">
-        <v>570700</v>
+        <v>575300</v>
       </c>
       <c r="G23" s="3">
-        <v>584300</v>
+        <v>589000</v>
       </c>
       <c r="H23" s="3">
-        <v>466900</v>
+        <v>470600</v>
       </c>
       <c r="I23" s="3">
-        <v>451200</v>
+        <v>454800</v>
       </c>
       <c r="J23" s="3">
-        <v>717600</v>
+        <v>723300</v>
       </c>
       <c r="K23" s="3">
         <v>384000</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>259400</v>
+        <v>261500</v>
       </c>
       <c r="E24" s="3">
-        <v>96200</v>
+        <v>96900</v>
       </c>
       <c r="F24" s="3">
-        <v>102400</v>
+        <v>103200</v>
       </c>
       <c r="G24" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="H24" s="3">
-        <v>-58100</v>
+        <v>-58600</v>
       </c>
       <c r="I24" s="3">
-        <v>93000</v>
+        <v>93700</v>
       </c>
       <c r="J24" s="3">
-        <v>-258000</v>
+        <v>-260000</v>
       </c>
       <c r="K24" s="3">
         <v>29600</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>141100</v>
+        <v>142200</v>
       </c>
       <c r="E26" s="3">
-        <v>480000</v>
+        <v>483800</v>
       </c>
       <c r="F26" s="3">
-        <v>468400</v>
+        <v>472100</v>
       </c>
       <c r="G26" s="3">
-        <v>573100</v>
+        <v>577700</v>
       </c>
       <c r="H26" s="3">
-        <v>525000</v>
+        <v>529200</v>
       </c>
       <c r="I26" s="3">
-        <v>358200</v>
+        <v>361100</v>
       </c>
       <c r="J26" s="3">
-        <v>975500</v>
+        <v>983400</v>
       </c>
       <c r="K26" s="3">
         <v>354500</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>141100</v>
+        <v>142200</v>
       </c>
       <c r="E27" s="3">
-        <v>480000</v>
+        <v>483800</v>
       </c>
       <c r="F27" s="3">
-        <v>468400</v>
+        <v>472100</v>
       </c>
       <c r="G27" s="3">
-        <v>573100</v>
+        <v>577700</v>
       </c>
       <c r="H27" s="3">
-        <v>525000</v>
+        <v>529200</v>
       </c>
       <c r="I27" s="3">
-        <v>358200</v>
+        <v>361100</v>
       </c>
       <c r="J27" s="3">
-        <v>975500</v>
+        <v>983400</v>
       </c>
       <c r="K27" s="3">
         <v>354500</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>126000</v>
+        <v>127000</v>
       </c>
       <c r="E32" s="3">
-        <v>-44000</v>
+        <v>-44300</v>
       </c>
       <c r="F32" s="3">
-        <v>-81400</v>
+        <v>-82000</v>
       </c>
       <c r="G32" s="3">
-        <v>-55200</v>
+        <v>-55700</v>
       </c>
       <c r="H32" s="3">
-        <v>21500</v>
+        <v>21700</v>
       </c>
       <c r="I32" s="3">
-        <v>139500</v>
+        <v>140600</v>
       </c>
       <c r="J32" s="3">
-        <v>-186200</v>
+        <v>-187700</v>
       </c>
       <c r="K32" s="3">
         <v>50100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>141100</v>
+        <v>142200</v>
       </c>
       <c r="E33" s="3">
-        <v>480000</v>
+        <v>483800</v>
       </c>
       <c r="F33" s="3">
-        <v>468400</v>
+        <v>472100</v>
       </c>
       <c r="G33" s="3">
-        <v>573100</v>
+        <v>577700</v>
       </c>
       <c r="H33" s="3">
-        <v>525000</v>
+        <v>529200</v>
       </c>
       <c r="I33" s="3">
-        <v>358200</v>
+        <v>361100</v>
       </c>
       <c r="J33" s="3">
-        <v>976600</v>
+        <v>984400</v>
       </c>
       <c r="K33" s="3">
         <v>372400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>141100</v>
+        <v>142200</v>
       </c>
       <c r="E35" s="3">
-        <v>480000</v>
+        <v>483800</v>
       </c>
       <c r="F35" s="3">
-        <v>468400</v>
+        <v>472100</v>
       </c>
       <c r="G35" s="3">
-        <v>573100</v>
+        <v>577700</v>
       </c>
       <c r="H35" s="3">
-        <v>525000</v>
+        <v>529200</v>
       </c>
       <c r="I35" s="3">
-        <v>358200</v>
+        <v>361100</v>
       </c>
       <c r="J35" s="3">
-        <v>976600</v>
+        <v>984400</v>
       </c>
       <c r="K35" s="3">
         <v>372400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>697500</v>
+        <v>703100</v>
       </c>
       <c r="E41" s="3">
-        <v>448100</v>
+        <v>451700</v>
       </c>
       <c r="F41" s="3">
-        <v>673600</v>
+        <v>679000</v>
       </c>
       <c r="G41" s="3">
-        <v>327300</v>
+        <v>329900</v>
       </c>
       <c r="H41" s="3">
-        <v>282100</v>
+        <v>284400</v>
       </c>
       <c r="I41" s="3">
-        <v>322300</v>
+        <v>324900</v>
       </c>
       <c r="J41" s="3">
-        <v>321000</v>
+        <v>323500</v>
       </c>
       <c r="K41" s="3">
         <v>249000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>374600</v>
+        <v>377600</v>
       </c>
       <c r="E43" s="3">
-        <v>351200</v>
+        <v>354000</v>
       </c>
       <c r="F43" s="3">
-        <v>377000</v>
+        <v>380000</v>
       </c>
       <c r="G43" s="3">
-        <v>410800</v>
+        <v>414100</v>
       </c>
       <c r="H43" s="3">
-        <v>303600</v>
+        <v>306100</v>
       </c>
       <c r="I43" s="3">
-        <v>466600</v>
+        <v>470400</v>
       </c>
       <c r="J43" s="3">
-        <v>712400</v>
+        <v>718200</v>
       </c>
       <c r="K43" s="3">
         <v>660800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21900</v>
+        <v>22100</v>
       </c>
       <c r="E44" s="3">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="F44" s="3">
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="G44" s="3">
-        <v>29600</v>
+        <v>29800</v>
       </c>
       <c r="H44" s="3">
-        <v>38700</v>
+        <v>39000</v>
       </c>
       <c r="I44" s="3">
-        <v>53500</v>
+        <v>53900</v>
       </c>
       <c r="J44" s="3">
-        <v>108700</v>
+        <v>109600</v>
       </c>
       <c r="K44" s="3">
         <v>48900</v>
@@ -1787,22 +1787,22 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>133800</v>
+        <v>134900</v>
       </c>
       <c r="F45" s="3">
-        <v>446000</v>
+        <v>449600</v>
       </c>
       <c r="G45" s="3">
-        <v>101300</v>
+        <v>102100</v>
       </c>
       <c r="H45" s="3">
-        <v>202300</v>
+        <v>204000</v>
       </c>
       <c r="I45" s="3">
         <v>1300</v>
       </c>
       <c r="J45" s="3">
-        <v>242200</v>
+        <v>244200</v>
       </c>
       <c r="K45" s="3">
         <v>222800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1094100</v>
+        <v>1102900</v>
       </c>
       <c r="E46" s="3">
-        <v>952800</v>
+        <v>960500</v>
       </c>
       <c r="F46" s="3">
-        <v>1518800</v>
+        <v>1531000</v>
       </c>
       <c r="G46" s="3">
-        <v>868900</v>
+        <v>875900</v>
       </c>
       <c r="H46" s="3">
-        <v>826800</v>
+        <v>833500</v>
       </c>
       <c r="I46" s="3">
-        <v>843700</v>
+        <v>850500</v>
       </c>
       <c r="J46" s="3">
-        <v>717100</v>
+        <v>722800</v>
       </c>
       <c r="K46" s="3">
         <v>777900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>190100</v>
+        <v>191600</v>
       </c>
       <c r="E47" s="3">
-        <v>315100</v>
+        <v>317700</v>
       </c>
       <c r="F47" s="3">
-        <v>295100</v>
+        <v>297400</v>
       </c>
       <c r="G47" s="3">
-        <v>259500</v>
+        <v>261600</v>
       </c>
       <c r="H47" s="3">
-        <v>61200</v>
+        <v>61600</v>
       </c>
       <c r="I47" s="3">
-        <v>56500</v>
+        <v>57000</v>
       </c>
       <c r="J47" s="3">
-        <v>61000</v>
+        <v>61500</v>
       </c>
       <c r="K47" s="3">
         <v>9800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15203500</v>
+        <v>15325600</v>
       </c>
       <c r="E48" s="3">
-        <v>14731300</v>
+        <v>14849600</v>
       </c>
       <c r="F48" s="3">
-        <v>14252000</v>
+        <v>14366500</v>
       </c>
       <c r="G48" s="3">
-        <v>13743500</v>
+        <v>13853900</v>
       </c>
       <c r="H48" s="3">
-        <v>13249400</v>
+        <v>13355800</v>
       </c>
       <c r="I48" s="3">
-        <v>12833200</v>
+        <v>12936300</v>
       </c>
       <c r="J48" s="3">
-        <v>24672600</v>
+        <v>24870800</v>
       </c>
       <c r="K48" s="3">
         <v>7884000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>249600</v>
+        <v>251600</v>
       </c>
       <c r="E49" s="3">
-        <v>267700</v>
+        <v>269900</v>
       </c>
       <c r="F49" s="3">
-        <v>261100</v>
+        <v>263200</v>
       </c>
       <c r="G49" s="3">
-        <v>247900</v>
+        <v>249900</v>
       </c>
       <c r="H49" s="3">
-        <v>214500</v>
+        <v>216200</v>
       </c>
       <c r="I49" s="3">
-        <v>191400</v>
+        <v>192900</v>
       </c>
       <c r="J49" s="3">
-        <v>304200</v>
+        <v>306600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>24</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1812000</v>
+        <v>1826500</v>
       </c>
       <c r="E52" s="3">
-        <v>1151300</v>
+        <v>1160600</v>
       </c>
       <c r="F52" s="3">
-        <v>847900</v>
+        <v>854800</v>
       </c>
       <c r="G52" s="3">
-        <v>1292400</v>
+        <v>1302800</v>
       </c>
       <c r="H52" s="3">
-        <v>1374500</v>
+        <v>1385600</v>
       </c>
       <c r="I52" s="3">
-        <v>1004900</v>
+        <v>1012900</v>
       </c>
       <c r="J52" s="3">
-        <v>602300</v>
+        <v>607100</v>
       </c>
       <c r="K52" s="3">
         <v>851000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18549300</v>
+        <v>18698300</v>
       </c>
       <c r="E54" s="3">
-        <v>17418300</v>
+        <v>17558200</v>
       </c>
       <c r="F54" s="3">
-        <v>17174900</v>
+        <v>17312900</v>
       </c>
       <c r="G54" s="3">
-        <v>16412300</v>
+        <v>16544100</v>
       </c>
       <c r="H54" s="3">
-        <v>15726400</v>
+        <v>15852700</v>
       </c>
       <c r="I54" s="3">
-        <v>14929700</v>
+        <v>15049600</v>
       </c>
       <c r="J54" s="3">
-        <v>13832000</v>
+        <v>13943100</v>
       </c>
       <c r="K54" s="3">
         <v>12847600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>48500</v>
+        <v>48900</v>
       </c>
       <c r="E57" s="3">
-        <v>45400</v>
+        <v>45800</v>
       </c>
       <c r="F57" s="3">
-        <v>36900</v>
+        <v>37100</v>
       </c>
       <c r="G57" s="3">
-        <v>46500</v>
+        <v>46900</v>
       </c>
       <c r="H57" s="3">
-        <v>58200</v>
+        <v>58700</v>
       </c>
       <c r="I57" s="3">
-        <v>53000</v>
+        <v>53400</v>
       </c>
       <c r="J57" s="3">
-        <v>565000</v>
+        <v>569600</v>
       </c>
       <c r="K57" s="3">
         <v>65100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1116100</v>
+        <v>1125000</v>
       </c>
       <c r="E58" s="3">
-        <v>924800</v>
+        <v>932200</v>
       </c>
       <c r="F58" s="3">
-        <v>1108800</v>
+        <v>1117700</v>
       </c>
       <c r="G58" s="3">
-        <v>430700</v>
+        <v>434200</v>
       </c>
       <c r="H58" s="3">
-        <v>619700</v>
+        <v>624700</v>
       </c>
       <c r="I58" s="3">
-        <v>763500</v>
+        <v>769700</v>
       </c>
       <c r="J58" s="3">
-        <v>297400</v>
+        <v>299800</v>
       </c>
       <c r="K58" s="3">
         <v>205000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>426600</v>
+        <v>430000</v>
       </c>
       <c r="E59" s="3">
-        <v>419200</v>
+        <v>422600</v>
       </c>
       <c r="F59" s="3">
-        <v>362000</v>
+        <v>364900</v>
       </c>
       <c r="G59" s="3">
-        <v>433900</v>
+        <v>437400</v>
       </c>
       <c r="H59" s="3">
-        <v>437000</v>
+        <v>440600</v>
       </c>
       <c r="I59" s="3">
-        <v>506300</v>
+        <v>510300</v>
       </c>
       <c r="J59" s="3">
-        <v>586800</v>
+        <v>591500</v>
       </c>
       <c r="K59" s="3">
         <v>582000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1591200</v>
+        <v>1603900</v>
       </c>
       <c r="E60" s="3">
-        <v>1389500</v>
+        <v>1400600</v>
       </c>
       <c r="F60" s="3">
-        <v>1507700</v>
+        <v>1519800</v>
       </c>
       <c r="G60" s="3">
-        <v>911100</v>
+        <v>918400</v>
       </c>
       <c r="H60" s="3">
-        <v>1115000</v>
+        <v>1124000</v>
       </c>
       <c r="I60" s="3">
-        <v>1322800</v>
+        <v>1333400</v>
       </c>
       <c r="J60" s="3">
-        <v>787600</v>
+        <v>793900</v>
       </c>
       <c r="K60" s="3">
         <v>852100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9929800</v>
+        <v>10009600</v>
       </c>
       <c r="E61" s="3">
-        <v>9398200</v>
+        <v>9473700</v>
       </c>
       <c r="F61" s="3">
-        <v>9341700</v>
+        <v>9416700</v>
       </c>
       <c r="G61" s="3">
-        <v>9322700</v>
+        <v>9397600</v>
       </c>
       <c r="H61" s="3">
-        <v>8596800</v>
+        <v>8665800</v>
       </c>
       <c r="I61" s="3">
-        <v>8013600</v>
+        <v>8078000</v>
       </c>
       <c r="J61" s="3">
-        <v>7831200</v>
+        <v>7894100</v>
       </c>
       <c r="K61" s="3">
         <v>7415500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3116000</v>
+        <v>3141000</v>
       </c>
       <c r="E62" s="3">
-        <v>2521900</v>
+        <v>2542200</v>
       </c>
       <c r="F62" s="3">
-        <v>2428000</v>
+        <v>2447500</v>
       </c>
       <c r="G62" s="3">
-        <v>2451800</v>
+        <v>2471500</v>
       </c>
       <c r="H62" s="3">
-        <v>2441200</v>
+        <v>2460800</v>
       </c>
       <c r="I62" s="3">
-        <v>2378000</v>
+        <v>2397100</v>
       </c>
       <c r="J62" s="3">
-        <v>2286400</v>
+        <v>2304800</v>
       </c>
       <c r="K62" s="3">
         <v>2787500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14637000</v>
+        <v>14754600</v>
       </c>
       <c r="E66" s="3">
-        <v>13309600</v>
+        <v>13416500</v>
       </c>
       <c r="F66" s="3">
-        <v>13277400</v>
+        <v>13384000</v>
       </c>
       <c r="G66" s="3">
-        <v>12685500</v>
+        <v>12787400</v>
       </c>
       <c r="H66" s="3">
-        <v>12153000</v>
+        <v>12250600</v>
       </c>
       <c r="I66" s="3">
-        <v>11714400</v>
+        <v>11808500</v>
       </c>
       <c r="J66" s="3">
-        <v>10905200</v>
+        <v>10992800</v>
       </c>
       <c r="K66" s="3">
         <v>10537000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3239100</v>
+        <v>3265100</v>
       </c>
       <c r="E72" s="3">
-        <v>3433400</v>
+        <v>3461000</v>
       </c>
       <c r="F72" s="3">
-        <v>3235900</v>
+        <v>3261900</v>
       </c>
       <c r="G72" s="3">
-        <v>3065400</v>
+        <v>3090000</v>
       </c>
       <c r="H72" s="3">
-        <v>2917000</v>
+        <v>2940400</v>
       </c>
       <c r="I72" s="3">
-        <v>2562900</v>
+        <v>2583400</v>
       </c>
       <c r="J72" s="3">
-        <v>2060400</v>
+        <v>2077000</v>
       </c>
       <c r="K72" s="3">
         <v>1499500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3912300</v>
+        <v>3943700</v>
       </c>
       <c r="E76" s="3">
-        <v>4108700</v>
+        <v>4141700</v>
       </c>
       <c r="F76" s="3">
-        <v>3897500</v>
+        <v>3928800</v>
       </c>
       <c r="G76" s="3">
-        <v>3726700</v>
+        <v>3756700</v>
       </c>
       <c r="H76" s="3">
-        <v>3573400</v>
+        <v>3602100</v>
       </c>
       <c r="I76" s="3">
-        <v>3215300</v>
+        <v>3241200</v>
       </c>
       <c r="J76" s="3">
-        <v>2926700</v>
+        <v>2950200</v>
       </c>
       <c r="K76" s="3">
         <v>2310700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>141100</v>
+        <v>142200</v>
       </c>
       <c r="E81" s="3">
-        <v>480000</v>
+        <v>483800</v>
       </c>
       <c r="F81" s="3">
-        <v>468400</v>
+        <v>472100</v>
       </c>
       <c r="G81" s="3">
-        <v>573100</v>
+        <v>577700</v>
       </c>
       <c r="H81" s="3">
-        <v>525000</v>
+        <v>529200</v>
       </c>
       <c r="I81" s="3">
-        <v>358200</v>
+        <v>361100</v>
       </c>
       <c r="J81" s="3">
-        <v>976600</v>
+        <v>984400</v>
       </c>
       <c r="K81" s="3">
         <v>372400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>637700</v>
+        <v>642800</v>
       </c>
       <c r="E83" s="3">
-        <v>519300</v>
+        <v>523500</v>
       </c>
       <c r="F83" s="3">
-        <v>497700</v>
+        <v>501700</v>
       </c>
       <c r="G83" s="3">
-        <v>482000</v>
+        <v>485800</v>
       </c>
       <c r="H83" s="3">
-        <v>480400</v>
+        <v>484200</v>
       </c>
       <c r="I83" s="3">
-        <v>465700</v>
+        <v>469500</v>
       </c>
       <c r="J83" s="3">
-        <v>445000</v>
+        <v>448500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>24</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1070200</v>
+        <v>1078800</v>
       </c>
       <c r="E89" s="3">
-        <v>1099300</v>
+        <v>1108100</v>
       </c>
       <c r="F89" s="3">
-        <v>1077200</v>
+        <v>1085900</v>
       </c>
       <c r="G89" s="3">
-        <v>1084100</v>
+        <v>1092800</v>
       </c>
       <c r="H89" s="3">
-        <v>905500</v>
+        <v>912800</v>
       </c>
       <c r="I89" s="3">
-        <v>933100</v>
+        <v>940600</v>
       </c>
       <c r="J89" s="3">
-        <v>1051900</v>
+        <v>1060300</v>
       </c>
       <c r="K89" s="3">
         <v>775500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-862200</v>
+        <v>-869100</v>
       </c>
       <c r="E91" s="3">
-        <v>-821900</v>
+        <v>-828500</v>
       </c>
       <c r="F91" s="3">
-        <v>-922700</v>
+        <v>-930100</v>
       </c>
       <c r="G91" s="3">
-        <v>-888100</v>
+        <v>-895200</v>
       </c>
       <c r="H91" s="3">
-        <v>-837600</v>
+        <v>-844400</v>
       </c>
       <c r="I91" s="3">
-        <v>-879200</v>
+        <v>-886300</v>
       </c>
       <c r="J91" s="3">
-        <v>-874000</v>
+        <v>-881000</v>
       </c>
       <c r="K91" s="3">
         <v>-770500</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-784400</v>
+        <v>-790700</v>
       </c>
       <c r="E94" s="3">
-        <v>-829100</v>
+        <v>-835700</v>
       </c>
       <c r="F94" s="3">
-        <v>-955200</v>
+        <v>-962900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1062700</v>
+        <v>-1071200</v>
       </c>
       <c r="H94" s="3">
-        <v>-893900</v>
+        <v>-901100</v>
       </c>
       <c r="I94" s="3">
-        <v>-931000</v>
+        <v>-938500</v>
       </c>
       <c r="J94" s="3">
-        <v>-896300</v>
+        <v>-903500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>24</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-375800</v>
+        <v>-378800</v>
       </c>
       <c r="E96" s="3">
-        <v>-362400</v>
+        <v>-365300</v>
       </c>
       <c r="F96" s="3">
-        <v>-352700</v>
+        <v>-355500</v>
       </c>
       <c r="G96" s="3">
-        <v>-347500</v>
+        <v>-350300</v>
       </c>
       <c r="H96" s="3">
-        <v>-341700</v>
+        <v>-344400</v>
       </c>
       <c r="I96" s="3">
-        <v>-329400</v>
+        <v>-332100</v>
       </c>
       <c r="J96" s="3">
-        <v>-314200</v>
+        <v>-316700</v>
       </c>
       <c r="K96" s="3">
         <v>-275300</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-36700</v>
+        <v>-37000</v>
       </c>
       <c r="E100" s="3">
-        <v>-498500</v>
+        <v>-502500</v>
       </c>
       <c r="F100" s="3">
-        <v>243900</v>
+        <v>245900</v>
       </c>
       <c r="G100" s="3">
-        <v>29100</v>
+        <v>29300</v>
       </c>
       <c r="H100" s="3">
-        <v>-61300</v>
+        <v>-61800</v>
       </c>
       <c r="I100" s="3">
-        <v>183900</v>
+        <v>185300</v>
       </c>
       <c r="J100" s="3">
-        <v>-279300</v>
+        <v>-281600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>24</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>249100</v>
+        <v>251100</v>
       </c>
       <c r="E102" s="3">
-        <v>-228200</v>
+        <v>-230100</v>
       </c>
       <c r="F102" s="3">
-        <v>366000</v>
+        <v>368900</v>
       </c>
       <c r="G102" s="3">
-        <v>50500</v>
+        <v>50900</v>
       </c>
       <c r="H102" s="3">
-        <v>-49700</v>
+        <v>-50100</v>
       </c>
       <c r="I102" s="3">
-        <v>186000</v>
+        <v>187500</v>
       </c>
       <c r="J102" s="3">
-        <v>-123800</v>
+        <v>-124800</v>
       </c>
       <c r="K102" s="3">
         <v>-159600</v>

--- a/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2475500</v>
+        <v>2553200</v>
       </c>
       <c r="E8" s="3">
-        <v>2421200</v>
+        <v>2497100</v>
       </c>
       <c r="F8" s="3">
-        <v>2311000</v>
+        <v>2383600</v>
       </c>
       <c r="G8" s="3">
-        <v>2268700</v>
+        <v>2339900</v>
       </c>
       <c r="H8" s="3">
-        <v>2303300</v>
+        <v>2375600</v>
       </c>
       <c r="I8" s="3">
-        <v>2290300</v>
+        <v>2362200</v>
       </c>
       <c r="J8" s="3">
-        <v>2248500</v>
+        <v>2319000</v>
       </c>
       <c r="K8" s="3">
         <v>2014900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>333600</v>
+        <v>344100</v>
       </c>
       <c r="E9" s="3">
-        <v>349900</v>
+        <v>360900</v>
       </c>
       <c r="F9" s="3">
-        <v>313400</v>
+        <v>323200</v>
       </c>
       <c r="G9" s="3">
-        <v>320700</v>
+        <v>330800</v>
       </c>
       <c r="H9" s="3">
-        <v>339600</v>
+        <v>350300</v>
       </c>
       <c r="I9" s="3">
-        <v>284900</v>
+        <v>293900</v>
       </c>
       <c r="J9" s="3">
-        <v>265600</v>
+        <v>274000</v>
       </c>
       <c r="K9" s="3">
         <v>247700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2141800</v>
+        <v>2209100</v>
       </c>
       <c r="E10" s="3">
-        <v>2071300</v>
+        <v>2136300</v>
       </c>
       <c r="F10" s="3">
-        <v>1997600</v>
+        <v>2060300</v>
       </c>
       <c r="G10" s="3">
-        <v>1948000</v>
+        <v>2009100</v>
       </c>
       <c r="H10" s="3">
-        <v>1963700</v>
+        <v>2025300</v>
       </c>
       <c r="I10" s="3">
-        <v>2005400</v>
+        <v>2068300</v>
       </c>
       <c r="J10" s="3">
-        <v>1982900</v>
+        <v>2045100</v>
       </c>
       <c r="K10" s="3">
         <v>1767200</v>
@@ -840,16 +840,16 @@
         <v>1600</v>
       </c>
       <c r="G12" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H12" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I12" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J12" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K12" s="3">
         <v>1600</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>60300</v>
+        <v>62200</v>
       </c>
       <c r="E14" s="3">
-        <v>64700</v>
+        <v>66700</v>
       </c>
       <c r="F14" s="3">
-        <v>31400</v>
+        <v>32400</v>
       </c>
       <c r="G14" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="H14" s="3">
-        <v>41100</v>
+        <v>42400</v>
       </c>
       <c r="I14" s="3">
-        <v>22900</v>
+        <v>23600</v>
       </c>
       <c r="J14" s="3">
-        <v>19600</v>
+        <v>20200</v>
       </c>
       <c r="K14" s="3">
         <v>28400</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>642800</v>
+        <v>663000</v>
       </c>
       <c r="E15" s="3">
-        <v>523500</v>
+        <v>539900</v>
       </c>
       <c r="F15" s="3">
-        <v>501700</v>
+        <v>517400</v>
       </c>
       <c r="G15" s="3">
-        <v>485800</v>
+        <v>501100</v>
       </c>
       <c r="H15" s="3">
+        <v>499400</v>
+      </c>
+      <c r="I15" s="3">
         <v>484200</v>
       </c>
-      <c r="I15" s="3">
-        <v>469500</v>
-      </c>
       <c r="J15" s="3">
-        <v>897100</v>
+        <v>925300</v>
       </c>
       <c r="K15" s="3">
         <v>810900</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1636300</v>
+        <v>1687700</v>
       </c>
       <c r="E17" s="3">
-        <v>1575800</v>
+        <v>1625300</v>
       </c>
       <c r="F17" s="3">
-        <v>1463700</v>
+        <v>1509700</v>
       </c>
       <c r="G17" s="3">
-        <v>1433100</v>
+        <v>1478100</v>
       </c>
       <c r="H17" s="3">
-        <v>1547200</v>
+        <v>1595800</v>
       </c>
       <c r="I17" s="3">
-        <v>1420500</v>
+        <v>1465100</v>
       </c>
       <c r="J17" s="3">
-        <v>1409400</v>
+        <v>1453700</v>
       </c>
       <c r="K17" s="3">
         <v>1274000</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>839200</v>
+        <v>865500</v>
       </c>
       <c r="E18" s="3">
-        <v>845300</v>
+        <v>871800</v>
       </c>
       <c r="F18" s="3">
-        <v>847300</v>
+        <v>873900</v>
       </c>
       <c r="G18" s="3">
-        <v>835600</v>
+        <v>861800</v>
       </c>
       <c r="H18" s="3">
-        <v>756100</v>
+        <v>779800</v>
       </c>
       <c r="I18" s="3">
-        <v>869800</v>
+        <v>897100</v>
       </c>
       <c r="J18" s="3">
-        <v>839000</v>
+        <v>865400</v>
       </c>
       <c r="K18" s="3">
         <v>740900</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-127000</v>
+        <v>-131000</v>
       </c>
       <c r="E20" s="3">
-        <v>44300</v>
+        <v>45700</v>
       </c>
       <c r="F20" s="3">
-        <v>82000</v>
+        <v>84600</v>
       </c>
       <c r="G20" s="3">
-        <v>55700</v>
+        <v>57400</v>
       </c>
       <c r="H20" s="3">
-        <v>-21700</v>
+        <v>-22400</v>
       </c>
       <c r="I20" s="3">
-        <v>-140600</v>
+        <v>-145000</v>
       </c>
       <c r="J20" s="3">
-        <v>187700</v>
+        <v>193600</v>
       </c>
       <c r="K20" s="3">
         <v>-50100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1357000</v>
+        <v>1395100</v>
       </c>
       <c r="E21" s="3">
-        <v>1414800</v>
+        <v>1455600</v>
       </c>
       <c r="F21" s="3">
-        <v>1432500</v>
+        <v>1474100</v>
       </c>
       <c r="G21" s="3">
-        <v>1378600</v>
+        <v>1418500</v>
       </c>
       <c r="H21" s="3">
-        <v>1220100</v>
+        <v>1255100</v>
       </c>
       <c r="I21" s="3">
-        <v>1200100</v>
+        <v>1234600</v>
       </c>
       <c r="J21" s="3">
-        <v>1476700</v>
+        <v>1520000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>24</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>308500</v>
+        <v>318200</v>
       </c>
       <c r="E22" s="3">
-        <v>308900</v>
+        <v>318600</v>
       </c>
       <c r="F22" s="3">
-        <v>354000</v>
+        <v>365100</v>
       </c>
       <c r="G22" s="3">
-        <v>302200</v>
+        <v>311700</v>
       </c>
       <c r="H22" s="3">
-        <v>263800</v>
+        <v>272000</v>
       </c>
       <c r="I22" s="3">
-        <v>274400</v>
+        <v>283000</v>
       </c>
       <c r="J22" s="3">
-        <v>303400</v>
+        <v>313000</v>
       </c>
       <c r="K22" s="3">
         <v>306800</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>403700</v>
+        <v>416400</v>
       </c>
       <c r="E23" s="3">
-        <v>580800</v>
+        <v>599000</v>
       </c>
       <c r="F23" s="3">
-        <v>575300</v>
+        <v>593400</v>
       </c>
       <c r="G23" s="3">
-        <v>589000</v>
+        <v>607500</v>
       </c>
       <c r="H23" s="3">
-        <v>470600</v>
+        <v>485400</v>
       </c>
       <c r="I23" s="3">
-        <v>454800</v>
+        <v>469100</v>
       </c>
       <c r="J23" s="3">
-        <v>723300</v>
+        <v>746100</v>
       </c>
       <c r="K23" s="3">
         <v>384000</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>261500</v>
+        <v>269700</v>
       </c>
       <c r="E24" s="3">
-        <v>96900</v>
+        <v>100000</v>
       </c>
       <c r="F24" s="3">
-        <v>103200</v>
+        <v>106400</v>
       </c>
       <c r="G24" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="H24" s="3">
-        <v>-58600</v>
+        <v>-60400</v>
       </c>
       <c r="I24" s="3">
-        <v>93700</v>
+        <v>96700</v>
       </c>
       <c r="J24" s="3">
-        <v>-260000</v>
+        <v>-268200</v>
       </c>
       <c r="K24" s="3">
         <v>29600</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>142200</v>
+        <v>146700</v>
       </c>
       <c r="E26" s="3">
-        <v>483800</v>
+        <v>499000</v>
       </c>
       <c r="F26" s="3">
-        <v>472100</v>
+        <v>486900</v>
       </c>
       <c r="G26" s="3">
-        <v>577700</v>
+        <v>595800</v>
       </c>
       <c r="H26" s="3">
-        <v>529200</v>
+        <v>545800</v>
       </c>
       <c r="I26" s="3">
-        <v>361100</v>
+        <v>372400</v>
       </c>
       <c r="J26" s="3">
-        <v>983400</v>
+        <v>1014200</v>
       </c>
       <c r="K26" s="3">
         <v>354500</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>142200</v>
+        <v>146700</v>
       </c>
       <c r="E27" s="3">
-        <v>483800</v>
+        <v>499000</v>
       </c>
       <c r="F27" s="3">
-        <v>472100</v>
+        <v>486900</v>
       </c>
       <c r="G27" s="3">
-        <v>577700</v>
+        <v>595800</v>
       </c>
       <c r="H27" s="3">
-        <v>529200</v>
+        <v>545800</v>
       </c>
       <c r="I27" s="3">
-        <v>361100</v>
+        <v>372400</v>
       </c>
       <c r="J27" s="3">
-        <v>983400</v>
+        <v>1014200</v>
       </c>
       <c r="K27" s="3">
         <v>354500</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>127000</v>
+        <v>131000</v>
       </c>
       <c r="E32" s="3">
-        <v>-44300</v>
+        <v>-45700</v>
       </c>
       <c r="F32" s="3">
-        <v>-82000</v>
+        <v>-84600</v>
       </c>
       <c r="G32" s="3">
-        <v>-55700</v>
+        <v>-57400</v>
       </c>
       <c r="H32" s="3">
-        <v>21700</v>
+        <v>22400</v>
       </c>
       <c r="I32" s="3">
-        <v>140600</v>
+        <v>145000</v>
       </c>
       <c r="J32" s="3">
-        <v>-187700</v>
+        <v>-193600</v>
       </c>
       <c r="K32" s="3">
         <v>50100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>142200</v>
+        <v>146700</v>
       </c>
       <c r="E33" s="3">
-        <v>483800</v>
+        <v>499000</v>
       </c>
       <c r="F33" s="3">
-        <v>472100</v>
+        <v>486900</v>
       </c>
       <c r="G33" s="3">
-        <v>577700</v>
+        <v>595800</v>
       </c>
       <c r="H33" s="3">
-        <v>529200</v>
+        <v>545800</v>
       </c>
       <c r="I33" s="3">
-        <v>361100</v>
+        <v>372400</v>
       </c>
       <c r="J33" s="3">
-        <v>984400</v>
+        <v>1015300</v>
       </c>
       <c r="K33" s="3">
         <v>372400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>142200</v>
+        <v>146700</v>
       </c>
       <c r="E35" s="3">
-        <v>483800</v>
+        <v>499000</v>
       </c>
       <c r="F35" s="3">
-        <v>472100</v>
+        <v>486900</v>
       </c>
       <c r="G35" s="3">
-        <v>577700</v>
+        <v>595800</v>
       </c>
       <c r="H35" s="3">
-        <v>529200</v>
+        <v>545800</v>
       </c>
       <c r="I35" s="3">
-        <v>361100</v>
+        <v>372400</v>
       </c>
       <c r="J35" s="3">
-        <v>984400</v>
+        <v>1015300</v>
       </c>
       <c r="K35" s="3">
         <v>372400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>703100</v>
+        <v>725200</v>
       </c>
       <c r="E41" s="3">
-        <v>451700</v>
+        <v>465900</v>
       </c>
       <c r="F41" s="3">
-        <v>679000</v>
+        <v>700300</v>
       </c>
       <c r="G41" s="3">
-        <v>329900</v>
+        <v>340300</v>
       </c>
       <c r="H41" s="3">
-        <v>284400</v>
+        <v>293300</v>
       </c>
       <c r="I41" s="3">
-        <v>324900</v>
+        <v>335100</v>
       </c>
       <c r="J41" s="3">
-        <v>323500</v>
+        <v>333700</v>
       </c>
       <c r="K41" s="3">
         <v>249000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>377600</v>
+        <v>389400</v>
       </c>
       <c r="E43" s="3">
-        <v>354000</v>
+        <v>365100</v>
       </c>
       <c r="F43" s="3">
-        <v>380000</v>
+        <v>391900</v>
       </c>
       <c r="G43" s="3">
-        <v>414100</v>
+        <v>427100</v>
       </c>
       <c r="H43" s="3">
-        <v>306100</v>
+        <v>315700</v>
       </c>
       <c r="I43" s="3">
-        <v>470400</v>
+        <v>485100</v>
       </c>
       <c r="J43" s="3">
-        <v>718200</v>
+        <v>740700</v>
       </c>
       <c r="K43" s="3">
         <v>660800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22100</v>
+        <v>22800</v>
       </c>
       <c r="E44" s="3">
-        <v>19800</v>
+        <v>20500</v>
       </c>
       <c r="F44" s="3">
-        <v>22400</v>
+        <v>23100</v>
       </c>
       <c r="G44" s="3">
-        <v>29800</v>
+        <v>30800</v>
       </c>
       <c r="H44" s="3">
-        <v>39000</v>
+        <v>40200</v>
       </c>
       <c r="I44" s="3">
-        <v>53900</v>
+        <v>55600</v>
       </c>
       <c r="J44" s="3">
-        <v>109600</v>
+        <v>113000</v>
       </c>
       <c r="K44" s="3">
         <v>48900</v>
@@ -1787,22 +1787,22 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>134900</v>
+        <v>139100</v>
       </c>
       <c r="F45" s="3">
-        <v>449600</v>
+        <v>463700</v>
       </c>
       <c r="G45" s="3">
-        <v>102100</v>
+        <v>105300</v>
       </c>
       <c r="H45" s="3">
-        <v>204000</v>
+        <v>210400</v>
       </c>
       <c r="I45" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J45" s="3">
-        <v>244200</v>
+        <v>251800</v>
       </c>
       <c r="K45" s="3">
         <v>222800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1102900</v>
+        <v>1137600</v>
       </c>
       <c r="E46" s="3">
-        <v>960500</v>
+        <v>990600</v>
       </c>
       <c r="F46" s="3">
-        <v>1531000</v>
+        <v>1579000</v>
       </c>
       <c r="G46" s="3">
-        <v>875900</v>
+        <v>903400</v>
       </c>
       <c r="H46" s="3">
-        <v>833500</v>
+        <v>859600</v>
       </c>
       <c r="I46" s="3">
-        <v>850500</v>
+        <v>877200</v>
       </c>
       <c r="J46" s="3">
-        <v>722800</v>
+        <v>745500</v>
       </c>
       <c r="K46" s="3">
         <v>777900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>191600</v>
+        <v>197600</v>
       </c>
       <c r="E47" s="3">
-        <v>317700</v>
+        <v>327600</v>
       </c>
       <c r="F47" s="3">
-        <v>297400</v>
+        <v>306800</v>
       </c>
       <c r="G47" s="3">
-        <v>261600</v>
+        <v>269800</v>
       </c>
       <c r="H47" s="3">
-        <v>61600</v>
+        <v>63600</v>
       </c>
       <c r="I47" s="3">
-        <v>57000</v>
+        <v>58800</v>
       </c>
       <c r="J47" s="3">
-        <v>61500</v>
+        <v>63400</v>
       </c>
       <c r="K47" s="3">
         <v>9800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15325600</v>
+        <v>15806700</v>
       </c>
       <c r="E48" s="3">
-        <v>14849600</v>
+        <v>15315700</v>
       </c>
       <c r="F48" s="3">
-        <v>14366500</v>
+        <v>14817400</v>
       </c>
       <c r="G48" s="3">
-        <v>13853900</v>
+        <v>14288700</v>
       </c>
       <c r="H48" s="3">
-        <v>13355800</v>
+        <v>13775000</v>
       </c>
       <c r="I48" s="3">
-        <v>12936300</v>
+        <v>13342300</v>
       </c>
       <c r="J48" s="3">
-        <v>24870800</v>
+        <v>25651500</v>
       </c>
       <c r="K48" s="3">
         <v>7884000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>251600</v>
+        <v>259500</v>
       </c>
       <c r="E49" s="3">
-        <v>269900</v>
+        <v>278300</v>
       </c>
       <c r="F49" s="3">
-        <v>263200</v>
+        <v>271500</v>
       </c>
       <c r="G49" s="3">
-        <v>249900</v>
+        <v>257700</v>
       </c>
       <c r="H49" s="3">
-        <v>216200</v>
+        <v>223000</v>
       </c>
       <c r="I49" s="3">
-        <v>192900</v>
+        <v>199000</v>
       </c>
       <c r="J49" s="3">
-        <v>306600</v>
+        <v>316200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>24</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1826500</v>
+        <v>1883900</v>
       </c>
       <c r="E52" s="3">
-        <v>1160600</v>
+        <v>1197000</v>
       </c>
       <c r="F52" s="3">
-        <v>854800</v>
+        <v>881600</v>
       </c>
       <c r="G52" s="3">
-        <v>1302800</v>
+        <v>1343700</v>
       </c>
       <c r="H52" s="3">
-        <v>1385600</v>
+        <v>1429100</v>
       </c>
       <c r="I52" s="3">
-        <v>1012900</v>
+        <v>1044700</v>
       </c>
       <c r="J52" s="3">
-        <v>607100</v>
+        <v>626200</v>
       </c>
       <c r="K52" s="3">
         <v>851000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18698300</v>
+        <v>19285200</v>
       </c>
       <c r="E54" s="3">
-        <v>17558200</v>
+        <v>18109400</v>
       </c>
       <c r="F54" s="3">
-        <v>17312900</v>
+        <v>17856300</v>
       </c>
       <c r="G54" s="3">
-        <v>16544100</v>
+        <v>17063400</v>
       </c>
       <c r="H54" s="3">
-        <v>15852700</v>
+        <v>16350300</v>
       </c>
       <c r="I54" s="3">
-        <v>15049600</v>
+        <v>15522000</v>
       </c>
       <c r="J54" s="3">
-        <v>13943100</v>
+        <v>14380700</v>
       </c>
       <c r="K54" s="3">
         <v>12847600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>48900</v>
+        <v>50400</v>
       </c>
       <c r="E57" s="3">
-        <v>45800</v>
+        <v>47200</v>
       </c>
       <c r="F57" s="3">
-        <v>37100</v>
+        <v>38300</v>
       </c>
       <c r="G57" s="3">
-        <v>46900</v>
+        <v>48300</v>
       </c>
       <c r="H57" s="3">
-        <v>58700</v>
+        <v>60600</v>
       </c>
       <c r="I57" s="3">
-        <v>53400</v>
+        <v>55100</v>
       </c>
       <c r="J57" s="3">
-        <v>569600</v>
+        <v>587500</v>
       </c>
       <c r="K57" s="3">
         <v>65100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1125000</v>
+        <v>1160300</v>
       </c>
       <c r="E58" s="3">
-        <v>932200</v>
+        <v>961500</v>
       </c>
       <c r="F58" s="3">
-        <v>1117700</v>
+        <v>1152800</v>
       </c>
       <c r="G58" s="3">
-        <v>434200</v>
+        <v>447800</v>
       </c>
       <c r="H58" s="3">
-        <v>624700</v>
+        <v>644300</v>
       </c>
       <c r="I58" s="3">
-        <v>769700</v>
+        <v>793800</v>
       </c>
       <c r="J58" s="3">
-        <v>299800</v>
+        <v>309200</v>
       </c>
       <c r="K58" s="3">
         <v>205000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>430000</v>
+        <v>443500</v>
       </c>
       <c r="E59" s="3">
-        <v>422600</v>
+        <v>435900</v>
       </c>
       <c r="F59" s="3">
-        <v>364900</v>
+        <v>376400</v>
       </c>
       <c r="G59" s="3">
-        <v>437400</v>
+        <v>451100</v>
       </c>
       <c r="H59" s="3">
-        <v>440600</v>
+        <v>454400</v>
       </c>
       <c r="I59" s="3">
-        <v>510300</v>
+        <v>526300</v>
       </c>
       <c r="J59" s="3">
-        <v>591500</v>
+        <v>610100</v>
       </c>
       <c r="K59" s="3">
         <v>582000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1603900</v>
+        <v>1654300</v>
       </c>
       <c r="E60" s="3">
-        <v>1400600</v>
+        <v>1444600</v>
       </c>
       <c r="F60" s="3">
-        <v>1519800</v>
+        <v>1567500</v>
       </c>
       <c r="G60" s="3">
-        <v>918400</v>
+        <v>947200</v>
       </c>
       <c r="H60" s="3">
-        <v>1124000</v>
+        <v>1159200</v>
       </c>
       <c r="I60" s="3">
-        <v>1333400</v>
+        <v>1375200</v>
       </c>
       <c r="J60" s="3">
-        <v>793900</v>
+        <v>818800</v>
       </c>
       <c r="K60" s="3">
         <v>852100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10009600</v>
+        <v>10323800</v>
       </c>
       <c r="E61" s="3">
-        <v>9473700</v>
+        <v>9771100</v>
       </c>
       <c r="F61" s="3">
-        <v>9416700</v>
+        <v>9712300</v>
       </c>
       <c r="G61" s="3">
-        <v>9397600</v>
+        <v>9692500</v>
       </c>
       <c r="H61" s="3">
-        <v>8665800</v>
+        <v>8937800</v>
       </c>
       <c r="I61" s="3">
-        <v>8078000</v>
+        <v>8331600</v>
       </c>
       <c r="J61" s="3">
-        <v>7894100</v>
+        <v>8141900</v>
       </c>
       <c r="K61" s="3">
         <v>7415500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3141000</v>
+        <v>3239600</v>
       </c>
       <c r="E62" s="3">
-        <v>2542200</v>
+        <v>2622000</v>
       </c>
       <c r="F62" s="3">
-        <v>2447500</v>
+        <v>2524300</v>
       </c>
       <c r="G62" s="3">
-        <v>2471500</v>
+        <v>2549100</v>
       </c>
       <c r="H62" s="3">
-        <v>2460800</v>
+        <v>2538100</v>
       </c>
       <c r="I62" s="3">
-        <v>2397100</v>
+        <v>2472300</v>
       </c>
       <c r="J62" s="3">
-        <v>2304800</v>
+        <v>2377100</v>
       </c>
       <c r="K62" s="3">
         <v>2787500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14754600</v>
+        <v>15217700</v>
       </c>
       <c r="E66" s="3">
-        <v>13416500</v>
+        <v>13837600</v>
       </c>
       <c r="F66" s="3">
-        <v>13384000</v>
+        <v>13804100</v>
       </c>
       <c r="G66" s="3">
-        <v>12787400</v>
+        <v>13188800</v>
       </c>
       <c r="H66" s="3">
-        <v>12250600</v>
+        <v>12635100</v>
       </c>
       <c r="I66" s="3">
-        <v>11808500</v>
+        <v>12179100</v>
       </c>
       <c r="J66" s="3">
-        <v>10992800</v>
+        <v>11337900</v>
       </c>
       <c r="K66" s="3">
         <v>10537000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3265100</v>
+        <v>3367600</v>
       </c>
       <c r="E72" s="3">
-        <v>3461000</v>
+        <v>3569600</v>
       </c>
       <c r="F72" s="3">
-        <v>3261900</v>
+        <v>3364300</v>
       </c>
       <c r="G72" s="3">
-        <v>3090000</v>
+        <v>3187000</v>
       </c>
       <c r="H72" s="3">
-        <v>2940400</v>
+        <v>3032700</v>
       </c>
       <c r="I72" s="3">
-        <v>2583400</v>
+        <v>2664500</v>
       </c>
       <c r="J72" s="3">
-        <v>2077000</v>
+        <v>2142200</v>
       </c>
       <c r="K72" s="3">
         <v>1499500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3943700</v>
+        <v>4067500</v>
       </c>
       <c r="E76" s="3">
-        <v>4141700</v>
+        <v>4271700</v>
       </c>
       <c r="F76" s="3">
-        <v>3928800</v>
+        <v>4052100</v>
       </c>
       <c r="G76" s="3">
-        <v>3756700</v>
+        <v>3874600</v>
       </c>
       <c r="H76" s="3">
-        <v>3602100</v>
+        <v>3715200</v>
       </c>
       <c r="I76" s="3">
-        <v>3241200</v>
+        <v>3342900</v>
       </c>
       <c r="J76" s="3">
-        <v>2950200</v>
+        <v>3042900</v>
       </c>
       <c r="K76" s="3">
         <v>2310700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>142200</v>
+        <v>146700</v>
       </c>
       <c r="E81" s="3">
-        <v>483800</v>
+        <v>499000</v>
       </c>
       <c r="F81" s="3">
-        <v>472100</v>
+        <v>486900</v>
       </c>
       <c r="G81" s="3">
-        <v>577700</v>
+        <v>595800</v>
       </c>
       <c r="H81" s="3">
-        <v>529200</v>
+        <v>545800</v>
       </c>
       <c r="I81" s="3">
-        <v>361100</v>
+        <v>372400</v>
       </c>
       <c r="J81" s="3">
-        <v>984400</v>
+        <v>1015300</v>
       </c>
       <c r="K81" s="3">
         <v>372400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>642800</v>
+        <v>663000</v>
       </c>
       <c r="E83" s="3">
-        <v>523500</v>
+        <v>539900</v>
       </c>
       <c r="F83" s="3">
-        <v>501700</v>
+        <v>517400</v>
       </c>
       <c r="G83" s="3">
-        <v>485800</v>
+        <v>501100</v>
       </c>
       <c r="H83" s="3">
+        <v>499400</v>
+      </c>
+      <c r="I83" s="3">
         <v>484200</v>
       </c>
-      <c r="I83" s="3">
-        <v>469500</v>
-      </c>
       <c r="J83" s="3">
-        <v>448500</v>
+        <v>462600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>24</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1078800</v>
+        <v>1112700</v>
       </c>
       <c r="E89" s="3">
-        <v>1108100</v>
+        <v>1142900</v>
       </c>
       <c r="F89" s="3">
-        <v>1085900</v>
+        <v>1120000</v>
       </c>
       <c r="G89" s="3">
-        <v>1092800</v>
+        <v>1127100</v>
       </c>
       <c r="H89" s="3">
-        <v>912800</v>
+        <v>941500</v>
       </c>
       <c r="I89" s="3">
-        <v>940600</v>
+        <v>970200</v>
       </c>
       <c r="J89" s="3">
-        <v>1060300</v>
+        <v>1093600</v>
       </c>
       <c r="K89" s="3">
         <v>775500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-869100</v>
+        <v>-896400</v>
       </c>
       <c r="E91" s="3">
-        <v>-828500</v>
+        <v>-854500</v>
       </c>
       <c r="F91" s="3">
-        <v>-930100</v>
+        <v>-959300</v>
       </c>
       <c r="G91" s="3">
-        <v>-895200</v>
+        <v>-923300</v>
       </c>
       <c r="H91" s="3">
-        <v>-844400</v>
+        <v>-870900</v>
       </c>
       <c r="I91" s="3">
-        <v>-886300</v>
+        <v>-914100</v>
       </c>
       <c r="J91" s="3">
-        <v>-881000</v>
+        <v>-908600</v>
       </c>
       <c r="K91" s="3">
         <v>-770500</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-790700</v>
+        <v>-815500</v>
       </c>
       <c r="E94" s="3">
-        <v>-835700</v>
+        <v>-862000</v>
       </c>
       <c r="F94" s="3">
-        <v>-962900</v>
+        <v>-993100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1071200</v>
+        <v>-1104900</v>
       </c>
       <c r="H94" s="3">
-        <v>-901100</v>
+        <v>-929400</v>
       </c>
       <c r="I94" s="3">
-        <v>-938500</v>
+        <v>-968000</v>
       </c>
       <c r="J94" s="3">
-        <v>-903500</v>
+        <v>-931800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>24</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-378800</v>
+        <v>-390700</v>
       </c>
       <c r="E96" s="3">
-        <v>-365300</v>
+        <v>-376800</v>
       </c>
       <c r="F96" s="3">
-        <v>-355500</v>
+        <v>-366600</v>
       </c>
       <c r="G96" s="3">
-        <v>-350300</v>
+        <v>-361300</v>
       </c>
       <c r="H96" s="3">
-        <v>-344400</v>
+        <v>-355200</v>
       </c>
       <c r="I96" s="3">
-        <v>-332100</v>
+        <v>-342500</v>
       </c>
       <c r="J96" s="3">
-        <v>-316700</v>
+        <v>-326700</v>
       </c>
       <c r="K96" s="3">
         <v>-275300</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-37000</v>
+        <v>-38200</v>
       </c>
       <c r="E100" s="3">
-        <v>-502500</v>
+        <v>-518200</v>
       </c>
       <c r="F100" s="3">
-        <v>245900</v>
+        <v>253600</v>
       </c>
       <c r="G100" s="3">
-        <v>29300</v>
+        <v>30200</v>
       </c>
       <c r="H100" s="3">
-        <v>-61800</v>
+        <v>-63700</v>
       </c>
       <c r="I100" s="3">
-        <v>185300</v>
+        <v>191100</v>
       </c>
       <c r="J100" s="3">
-        <v>-281600</v>
+        <v>-290400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>24</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>251100</v>
+        <v>259000</v>
       </c>
       <c r="E102" s="3">
-        <v>-230100</v>
+        <v>-237300</v>
       </c>
       <c r="F102" s="3">
-        <v>368900</v>
+        <v>380500</v>
       </c>
       <c r="G102" s="3">
-        <v>50900</v>
+        <v>52500</v>
       </c>
       <c r="H102" s="3">
-        <v>-50100</v>
+        <v>-51600</v>
       </c>
       <c r="I102" s="3">
-        <v>187500</v>
+        <v>193300</v>
       </c>
       <c r="J102" s="3">
-        <v>-124800</v>
+        <v>-128700</v>
       </c>
       <c r="K102" s="3">
         <v>-159600</v>

--- a/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2553200</v>
+        <v>2631100</v>
       </c>
       <c r="E8" s="3">
-        <v>2497100</v>
+        <v>2573400</v>
       </c>
       <c r="F8" s="3">
-        <v>2383600</v>
+        <v>2456300</v>
       </c>
       <c r="G8" s="3">
-        <v>2339900</v>
+        <v>2411300</v>
       </c>
       <c r="H8" s="3">
-        <v>2375600</v>
+        <v>2448100</v>
       </c>
       <c r="I8" s="3">
-        <v>2362200</v>
+        <v>2434300</v>
       </c>
       <c r="J8" s="3">
-        <v>2319000</v>
+        <v>2389800</v>
       </c>
       <c r="K8" s="3">
         <v>2014900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>344100</v>
+        <v>354600</v>
       </c>
       <c r="E9" s="3">
-        <v>360900</v>
+        <v>371900</v>
       </c>
       <c r="F9" s="3">
-        <v>323200</v>
+        <v>333100</v>
       </c>
       <c r="G9" s="3">
-        <v>330800</v>
+        <v>340900</v>
       </c>
       <c r="H9" s="3">
-        <v>350300</v>
+        <v>361000</v>
       </c>
       <c r="I9" s="3">
-        <v>293900</v>
+        <v>302800</v>
       </c>
       <c r="J9" s="3">
-        <v>274000</v>
+        <v>282300</v>
       </c>
       <c r="K9" s="3">
         <v>247700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2209100</v>
+        <v>2276500</v>
       </c>
       <c r="E10" s="3">
-        <v>2136300</v>
+        <v>2201500</v>
       </c>
       <c r="F10" s="3">
-        <v>2060300</v>
+        <v>2123200</v>
       </c>
       <c r="G10" s="3">
-        <v>2009100</v>
+        <v>2070400</v>
       </c>
       <c r="H10" s="3">
-        <v>2025300</v>
+        <v>2087100</v>
       </c>
       <c r="I10" s="3">
-        <v>2068300</v>
+        <v>2131400</v>
       </c>
       <c r="J10" s="3">
-        <v>2045100</v>
+        <v>2107500</v>
       </c>
       <c r="K10" s="3">
         <v>1767200</v>
@@ -834,22 +834,22 @@
         <v>24</v>
       </c>
       <c r="E12" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F12" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G12" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H12" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I12" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J12" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K12" s="3">
         <v>1600</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>62200</v>
+        <v>64100</v>
       </c>
       <c r="E14" s="3">
-        <v>66700</v>
+        <v>68800</v>
       </c>
       <c r="F14" s="3">
-        <v>32400</v>
+        <v>33400</v>
       </c>
       <c r="G14" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="H14" s="3">
-        <v>42400</v>
+        <v>43700</v>
       </c>
       <c r="I14" s="3">
-        <v>23600</v>
+        <v>24300</v>
       </c>
       <c r="J14" s="3">
-        <v>20200</v>
+        <v>20800</v>
       </c>
       <c r="K14" s="3">
         <v>28400</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>663000</v>
+        <v>683200</v>
       </c>
       <c r="E15" s="3">
-        <v>539900</v>
+        <v>556400</v>
       </c>
       <c r="F15" s="3">
-        <v>517400</v>
+        <v>533200</v>
       </c>
       <c r="G15" s="3">
-        <v>501100</v>
+        <v>516400</v>
       </c>
       <c r="H15" s="3">
-        <v>499400</v>
+        <v>514700</v>
       </c>
       <c r="I15" s="3">
-        <v>484200</v>
+        <v>499000</v>
       </c>
       <c r="J15" s="3">
-        <v>925300</v>
+        <v>953500</v>
       </c>
       <c r="K15" s="3">
         <v>810900</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1687700</v>
+        <v>1739200</v>
       </c>
       <c r="E17" s="3">
-        <v>1625300</v>
+        <v>1674900</v>
       </c>
       <c r="F17" s="3">
-        <v>1509700</v>
+        <v>1555800</v>
       </c>
       <c r="G17" s="3">
-        <v>1478100</v>
+        <v>1523200</v>
       </c>
       <c r="H17" s="3">
-        <v>1595800</v>
+        <v>1644500</v>
       </c>
       <c r="I17" s="3">
-        <v>1465100</v>
+        <v>1509800</v>
       </c>
       <c r="J17" s="3">
-        <v>1453700</v>
+        <v>1498000</v>
       </c>
       <c r="K17" s="3">
         <v>1274000</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>865500</v>
+        <v>891900</v>
       </c>
       <c r="E18" s="3">
-        <v>871800</v>
+        <v>898500</v>
       </c>
       <c r="F18" s="3">
-        <v>873900</v>
+        <v>900600</v>
       </c>
       <c r="G18" s="3">
-        <v>861800</v>
+        <v>888100</v>
       </c>
       <c r="H18" s="3">
-        <v>779800</v>
+        <v>803600</v>
       </c>
       <c r="I18" s="3">
-        <v>897100</v>
+        <v>924500</v>
       </c>
       <c r="J18" s="3">
-        <v>865400</v>
+        <v>891800</v>
       </c>
       <c r="K18" s="3">
         <v>740900</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-131000</v>
+        <v>-135000</v>
       </c>
       <c r="E20" s="3">
-        <v>45700</v>
+        <v>47100</v>
       </c>
       <c r="F20" s="3">
-        <v>84600</v>
+        <v>87200</v>
       </c>
       <c r="G20" s="3">
-        <v>57400</v>
+        <v>59200</v>
       </c>
       <c r="H20" s="3">
-        <v>-22400</v>
+        <v>-23100</v>
       </c>
       <c r="I20" s="3">
-        <v>-145000</v>
+        <v>-149400</v>
       </c>
       <c r="J20" s="3">
-        <v>193600</v>
+        <v>199500</v>
       </c>
       <c r="K20" s="3">
         <v>-50100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1395100</v>
+        <v>1440400</v>
       </c>
       <c r="E21" s="3">
-        <v>1455600</v>
+        <v>1502200</v>
       </c>
       <c r="F21" s="3">
-        <v>1474100</v>
+        <v>1521100</v>
       </c>
       <c r="G21" s="3">
-        <v>1418500</v>
+        <v>1463800</v>
       </c>
       <c r="H21" s="3">
-        <v>1255100</v>
+        <v>1295400</v>
       </c>
       <c r="I21" s="3">
-        <v>1234600</v>
+        <v>1274200</v>
       </c>
       <c r="J21" s="3">
-        <v>1520000</v>
+        <v>1568200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>24</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>318200</v>
+        <v>327900</v>
       </c>
       <c r="E22" s="3">
-        <v>318600</v>
+        <v>328300</v>
       </c>
       <c r="F22" s="3">
-        <v>365100</v>
+        <v>376300</v>
       </c>
       <c r="G22" s="3">
-        <v>311700</v>
+        <v>321200</v>
       </c>
       <c r="H22" s="3">
-        <v>272000</v>
+        <v>280300</v>
       </c>
       <c r="I22" s="3">
-        <v>283000</v>
+        <v>291700</v>
       </c>
       <c r="J22" s="3">
-        <v>313000</v>
+        <v>322500</v>
       </c>
       <c r="K22" s="3">
         <v>306800</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>416400</v>
+        <v>429100</v>
       </c>
       <c r="E23" s="3">
-        <v>599000</v>
+        <v>617300</v>
       </c>
       <c r="F23" s="3">
-        <v>593400</v>
+        <v>611500</v>
       </c>
       <c r="G23" s="3">
-        <v>607500</v>
+        <v>626000</v>
       </c>
       <c r="H23" s="3">
-        <v>485400</v>
+        <v>500200</v>
       </c>
       <c r="I23" s="3">
-        <v>469100</v>
+        <v>483400</v>
       </c>
       <c r="J23" s="3">
-        <v>746100</v>
+        <v>768800</v>
       </c>
       <c r="K23" s="3">
         <v>384000</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>269700</v>
+        <v>277900</v>
       </c>
       <c r="E24" s="3">
-        <v>100000</v>
+        <v>103000</v>
       </c>
       <c r="F24" s="3">
-        <v>106400</v>
+        <v>109700</v>
       </c>
       <c r="G24" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="H24" s="3">
-        <v>-60400</v>
+        <v>-62300</v>
       </c>
       <c r="I24" s="3">
-        <v>96700</v>
+        <v>99600</v>
       </c>
       <c r="J24" s="3">
-        <v>-268200</v>
+        <v>-276400</v>
       </c>
       <c r="K24" s="3">
         <v>29600</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>146700</v>
+        <v>151100</v>
       </c>
       <c r="E26" s="3">
-        <v>499000</v>
+        <v>514300</v>
       </c>
       <c r="F26" s="3">
-        <v>486900</v>
+        <v>501800</v>
       </c>
       <c r="G26" s="3">
-        <v>595800</v>
+        <v>614000</v>
       </c>
       <c r="H26" s="3">
-        <v>545800</v>
+        <v>562500</v>
       </c>
       <c r="I26" s="3">
-        <v>372400</v>
+        <v>383800</v>
       </c>
       <c r="J26" s="3">
-        <v>1014200</v>
+        <v>1045200</v>
       </c>
       <c r="K26" s="3">
         <v>354500</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>146700</v>
+        <v>151100</v>
       </c>
       <c r="E27" s="3">
-        <v>499000</v>
+        <v>514300</v>
       </c>
       <c r="F27" s="3">
-        <v>486900</v>
+        <v>501800</v>
       </c>
       <c r="G27" s="3">
-        <v>595800</v>
+        <v>614000</v>
       </c>
       <c r="H27" s="3">
-        <v>545800</v>
+        <v>562500</v>
       </c>
       <c r="I27" s="3">
-        <v>372400</v>
+        <v>383800</v>
       </c>
       <c r="J27" s="3">
-        <v>1014200</v>
+        <v>1045200</v>
       </c>
       <c r="K27" s="3">
         <v>354500</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>131000</v>
+        <v>135000</v>
       </c>
       <c r="E32" s="3">
-        <v>-45700</v>
+        <v>-47100</v>
       </c>
       <c r="F32" s="3">
-        <v>-84600</v>
+        <v>-87200</v>
       </c>
       <c r="G32" s="3">
-        <v>-57400</v>
+        <v>-59200</v>
       </c>
       <c r="H32" s="3">
-        <v>22400</v>
+        <v>23100</v>
       </c>
       <c r="I32" s="3">
-        <v>145000</v>
+        <v>149400</v>
       </c>
       <c r="J32" s="3">
-        <v>-193600</v>
+        <v>-199500</v>
       </c>
       <c r="K32" s="3">
         <v>50100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>146700</v>
+        <v>151100</v>
       </c>
       <c r="E33" s="3">
-        <v>499000</v>
+        <v>514300</v>
       </c>
       <c r="F33" s="3">
-        <v>486900</v>
+        <v>501800</v>
       </c>
       <c r="G33" s="3">
-        <v>595800</v>
+        <v>614000</v>
       </c>
       <c r="H33" s="3">
-        <v>545800</v>
+        <v>562500</v>
       </c>
       <c r="I33" s="3">
-        <v>372400</v>
+        <v>383800</v>
       </c>
       <c r="J33" s="3">
-        <v>1015300</v>
+        <v>1046300</v>
       </c>
       <c r="K33" s="3">
         <v>372400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>146700</v>
+        <v>151100</v>
       </c>
       <c r="E35" s="3">
-        <v>499000</v>
+        <v>514300</v>
       </c>
       <c r="F35" s="3">
-        <v>486900</v>
+        <v>501800</v>
       </c>
       <c r="G35" s="3">
-        <v>595800</v>
+        <v>614000</v>
       </c>
       <c r="H35" s="3">
-        <v>545800</v>
+        <v>562500</v>
       </c>
       <c r="I35" s="3">
-        <v>372400</v>
+        <v>383800</v>
       </c>
       <c r="J35" s="3">
-        <v>1015300</v>
+        <v>1046300</v>
       </c>
       <c r="K35" s="3">
         <v>372400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>725200</v>
+        <v>747300</v>
       </c>
       <c r="E41" s="3">
-        <v>465900</v>
+        <v>480100</v>
       </c>
       <c r="F41" s="3">
-        <v>700300</v>
+        <v>721700</v>
       </c>
       <c r="G41" s="3">
-        <v>340300</v>
+        <v>350700</v>
       </c>
       <c r="H41" s="3">
-        <v>293300</v>
+        <v>302300</v>
       </c>
       <c r="I41" s="3">
-        <v>335100</v>
+        <v>345300</v>
       </c>
       <c r="J41" s="3">
-        <v>333700</v>
+        <v>343900</v>
       </c>
       <c r="K41" s="3">
         <v>249000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>389400</v>
+        <v>401300</v>
       </c>
       <c r="E43" s="3">
-        <v>365100</v>
+        <v>376300</v>
       </c>
       <c r="F43" s="3">
-        <v>391900</v>
+        <v>403900</v>
       </c>
       <c r="G43" s="3">
-        <v>427100</v>
+        <v>440100</v>
       </c>
       <c r="H43" s="3">
-        <v>315700</v>
+        <v>325300</v>
       </c>
       <c r="I43" s="3">
-        <v>485100</v>
+        <v>500000</v>
       </c>
       <c r="J43" s="3">
-        <v>740700</v>
+        <v>763300</v>
       </c>
       <c r="K43" s="3">
         <v>660800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22800</v>
+        <v>23500</v>
       </c>
       <c r="E44" s="3">
-        <v>20500</v>
+        <v>21100</v>
       </c>
       <c r="F44" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="G44" s="3">
-        <v>30800</v>
+        <v>31700</v>
       </c>
       <c r="H44" s="3">
-        <v>40200</v>
+        <v>41500</v>
       </c>
       <c r="I44" s="3">
-        <v>55600</v>
+        <v>57300</v>
       </c>
       <c r="J44" s="3">
-        <v>113000</v>
+        <v>116500</v>
       </c>
       <c r="K44" s="3">
         <v>48900</v>
@@ -1787,22 +1787,22 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>139100</v>
+        <v>143400</v>
       </c>
       <c r="F45" s="3">
-        <v>463700</v>
+        <v>477900</v>
       </c>
       <c r="G45" s="3">
-        <v>105300</v>
+        <v>108500</v>
       </c>
       <c r="H45" s="3">
-        <v>210400</v>
+        <v>216800</v>
       </c>
       <c r="I45" s="3">
         <v>1400</v>
       </c>
       <c r="J45" s="3">
-        <v>251800</v>
+        <v>259500</v>
       </c>
       <c r="K45" s="3">
         <v>222800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1137600</v>
+        <v>1172300</v>
       </c>
       <c r="E46" s="3">
-        <v>990600</v>
+        <v>1020900</v>
       </c>
       <c r="F46" s="3">
-        <v>1579000</v>
+        <v>1627200</v>
       </c>
       <c r="G46" s="3">
-        <v>903400</v>
+        <v>931000</v>
       </c>
       <c r="H46" s="3">
-        <v>859600</v>
+        <v>885900</v>
       </c>
       <c r="I46" s="3">
-        <v>877200</v>
+        <v>904000</v>
       </c>
       <c r="J46" s="3">
-        <v>745500</v>
+        <v>768300</v>
       </c>
       <c r="K46" s="3">
         <v>777900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>197600</v>
+        <v>203600</v>
       </c>
       <c r="E47" s="3">
-        <v>327600</v>
+        <v>337600</v>
       </c>
       <c r="F47" s="3">
-        <v>306800</v>
+        <v>316100</v>
       </c>
       <c r="G47" s="3">
-        <v>269800</v>
+        <v>278100</v>
       </c>
       <c r="H47" s="3">
-        <v>63600</v>
+        <v>65500</v>
       </c>
       <c r="I47" s="3">
-        <v>58800</v>
+        <v>60600</v>
       </c>
       <c r="J47" s="3">
-        <v>63400</v>
+        <v>65400</v>
       </c>
       <c r="K47" s="3">
         <v>9800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15806700</v>
+        <v>16289200</v>
       </c>
       <c r="E48" s="3">
-        <v>15315700</v>
+        <v>15783300</v>
       </c>
       <c r="F48" s="3">
-        <v>14817400</v>
+        <v>15269700</v>
       </c>
       <c r="G48" s="3">
-        <v>14288700</v>
+        <v>14724900</v>
       </c>
       <c r="H48" s="3">
-        <v>13775000</v>
+        <v>14195500</v>
       </c>
       <c r="I48" s="3">
-        <v>13342300</v>
+        <v>13749600</v>
       </c>
       <c r="J48" s="3">
-        <v>25651500</v>
+        <v>26434500</v>
       </c>
       <c r="K48" s="3">
         <v>7884000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>259500</v>
+        <v>267500</v>
       </c>
       <c r="E49" s="3">
-        <v>278300</v>
+        <v>286800</v>
       </c>
       <c r="F49" s="3">
-        <v>271500</v>
+        <v>279800</v>
       </c>
       <c r="G49" s="3">
-        <v>257700</v>
+        <v>265600</v>
       </c>
       <c r="H49" s="3">
-        <v>223000</v>
+        <v>229800</v>
       </c>
       <c r="I49" s="3">
-        <v>199000</v>
+        <v>205000</v>
       </c>
       <c r="J49" s="3">
-        <v>316200</v>
+        <v>325900</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>24</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1883900</v>
+        <v>1941400</v>
       </c>
       <c r="E52" s="3">
-        <v>1197000</v>
+        <v>1233600</v>
       </c>
       <c r="F52" s="3">
-        <v>881600</v>
+        <v>908500</v>
       </c>
       <c r="G52" s="3">
-        <v>1343700</v>
+        <v>1384700</v>
       </c>
       <c r="H52" s="3">
-        <v>1429100</v>
+        <v>1472700</v>
       </c>
       <c r="I52" s="3">
-        <v>1044700</v>
+        <v>1076600</v>
       </c>
       <c r="J52" s="3">
-        <v>626200</v>
+        <v>645300</v>
       </c>
       <c r="K52" s="3">
         <v>851000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19285200</v>
+        <v>19873900</v>
       </c>
       <c r="E54" s="3">
-        <v>18109400</v>
+        <v>18662200</v>
       </c>
       <c r="F54" s="3">
-        <v>17856300</v>
+        <v>18401400</v>
       </c>
       <c r="G54" s="3">
-        <v>17063400</v>
+        <v>17584300</v>
       </c>
       <c r="H54" s="3">
-        <v>16350300</v>
+        <v>16849400</v>
       </c>
       <c r="I54" s="3">
-        <v>15522000</v>
+        <v>15995800</v>
       </c>
       <c r="J54" s="3">
-        <v>14380700</v>
+        <v>14819700</v>
       </c>
       <c r="K54" s="3">
         <v>12847600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>50400</v>
+        <v>51900</v>
       </c>
       <c r="E57" s="3">
-        <v>47200</v>
+        <v>48700</v>
       </c>
       <c r="F57" s="3">
-        <v>38300</v>
+        <v>39500</v>
       </c>
       <c r="G57" s="3">
-        <v>48300</v>
+        <v>49800</v>
       </c>
       <c r="H57" s="3">
-        <v>60600</v>
+        <v>62400</v>
       </c>
       <c r="I57" s="3">
-        <v>55100</v>
+        <v>56700</v>
       </c>
       <c r="J57" s="3">
-        <v>587500</v>
+        <v>605400</v>
       </c>
       <c r="K57" s="3">
         <v>65100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1160300</v>
+        <v>1195800</v>
       </c>
       <c r="E58" s="3">
-        <v>961500</v>
+        <v>990900</v>
       </c>
       <c r="F58" s="3">
-        <v>1152800</v>
+        <v>1188000</v>
       </c>
       <c r="G58" s="3">
-        <v>447800</v>
+        <v>461500</v>
       </c>
       <c r="H58" s="3">
-        <v>644300</v>
+        <v>664000</v>
       </c>
       <c r="I58" s="3">
-        <v>793800</v>
+        <v>818100</v>
       </c>
       <c r="J58" s="3">
-        <v>309200</v>
+        <v>318700</v>
       </c>
       <c r="K58" s="3">
         <v>205000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>443500</v>
+        <v>457100</v>
       </c>
       <c r="E59" s="3">
-        <v>435900</v>
+        <v>449200</v>
       </c>
       <c r="F59" s="3">
-        <v>376400</v>
+        <v>387900</v>
       </c>
       <c r="G59" s="3">
-        <v>451100</v>
+        <v>464900</v>
       </c>
       <c r="H59" s="3">
-        <v>454400</v>
+        <v>468300</v>
       </c>
       <c r="I59" s="3">
-        <v>526300</v>
+        <v>542400</v>
       </c>
       <c r="J59" s="3">
-        <v>610100</v>
+        <v>628700</v>
       </c>
       <c r="K59" s="3">
         <v>582000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1654300</v>
+        <v>1704800</v>
       </c>
       <c r="E60" s="3">
-        <v>1444600</v>
+        <v>1488700</v>
       </c>
       <c r="F60" s="3">
-        <v>1567500</v>
+        <v>1615300</v>
       </c>
       <c r="G60" s="3">
-        <v>947200</v>
+        <v>976100</v>
       </c>
       <c r="H60" s="3">
-        <v>1159200</v>
+        <v>1194600</v>
       </c>
       <c r="I60" s="3">
-        <v>1375200</v>
+        <v>1417200</v>
       </c>
       <c r="J60" s="3">
-        <v>818800</v>
+        <v>843800</v>
       </c>
       <c r="K60" s="3">
         <v>852100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10323800</v>
+        <v>10638900</v>
       </c>
       <c r="E61" s="3">
-        <v>9771100</v>
+        <v>10069400</v>
       </c>
       <c r="F61" s="3">
-        <v>9712300</v>
+        <v>10008800</v>
       </c>
       <c r="G61" s="3">
-        <v>9692500</v>
+        <v>9988400</v>
       </c>
       <c r="H61" s="3">
-        <v>8937800</v>
+        <v>9210700</v>
       </c>
       <c r="I61" s="3">
-        <v>8331600</v>
+        <v>8585900</v>
       </c>
       <c r="J61" s="3">
-        <v>8141900</v>
+        <v>8390500</v>
       </c>
       <c r="K61" s="3">
         <v>7415500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3239600</v>
+        <v>3338500</v>
       </c>
       <c r="E62" s="3">
-        <v>2622000</v>
+        <v>2702000</v>
       </c>
       <c r="F62" s="3">
-        <v>2524300</v>
+        <v>2601400</v>
       </c>
       <c r="G62" s="3">
-        <v>2549100</v>
+        <v>2626900</v>
       </c>
       <c r="H62" s="3">
-        <v>2538100</v>
+        <v>2615500</v>
       </c>
       <c r="I62" s="3">
-        <v>2472300</v>
+        <v>2547800</v>
       </c>
       <c r="J62" s="3">
-        <v>2377100</v>
+        <v>2449700</v>
       </c>
       <c r="K62" s="3">
         <v>2787500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15217700</v>
+        <v>15682200</v>
       </c>
       <c r="E66" s="3">
-        <v>13837600</v>
+        <v>14260100</v>
       </c>
       <c r="F66" s="3">
-        <v>13804100</v>
+        <v>14225500</v>
       </c>
       <c r="G66" s="3">
-        <v>13188800</v>
+        <v>13591400</v>
       </c>
       <c r="H66" s="3">
-        <v>12635100</v>
+        <v>13020900</v>
       </c>
       <c r="I66" s="3">
-        <v>12179100</v>
+        <v>12550900</v>
       </c>
       <c r="J66" s="3">
-        <v>11337900</v>
+        <v>11684000</v>
       </c>
       <c r="K66" s="3">
         <v>10537000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3367600</v>
+        <v>3470400</v>
       </c>
       <c r="E72" s="3">
-        <v>3569600</v>
+        <v>3678600</v>
       </c>
       <c r="F72" s="3">
-        <v>3364300</v>
+        <v>3467000</v>
       </c>
       <c r="G72" s="3">
-        <v>3187000</v>
+        <v>3284300</v>
       </c>
       <c r="H72" s="3">
-        <v>3032700</v>
+        <v>3125300</v>
       </c>
       <c r="I72" s="3">
-        <v>2664500</v>
+        <v>2745900</v>
       </c>
       <c r="J72" s="3">
-        <v>2142200</v>
+        <v>2207600</v>
       </c>
       <c r="K72" s="3">
         <v>1499500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4067500</v>
+        <v>4191700</v>
       </c>
       <c r="E76" s="3">
-        <v>4271700</v>
+        <v>4402100</v>
       </c>
       <c r="F76" s="3">
-        <v>4052100</v>
+        <v>4175800</v>
       </c>
       <c r="G76" s="3">
-        <v>3874600</v>
+        <v>3992900</v>
       </c>
       <c r="H76" s="3">
-        <v>3715200</v>
+        <v>3828600</v>
       </c>
       <c r="I76" s="3">
-        <v>3342900</v>
+        <v>3444900</v>
       </c>
       <c r="J76" s="3">
-        <v>3042900</v>
+        <v>3135700</v>
       </c>
       <c r="K76" s="3">
         <v>2310700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>146700</v>
+        <v>151100</v>
       </c>
       <c r="E81" s="3">
-        <v>499000</v>
+        <v>514300</v>
       </c>
       <c r="F81" s="3">
-        <v>486900</v>
+        <v>501800</v>
       </c>
       <c r="G81" s="3">
-        <v>595800</v>
+        <v>614000</v>
       </c>
       <c r="H81" s="3">
-        <v>545800</v>
+        <v>562500</v>
       </c>
       <c r="I81" s="3">
-        <v>372400</v>
+        <v>383800</v>
       </c>
       <c r="J81" s="3">
-        <v>1015300</v>
+        <v>1046300</v>
       </c>
       <c r="K81" s="3">
         <v>372400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>663000</v>
+        <v>683200</v>
       </c>
       <c r="E83" s="3">
-        <v>539900</v>
+        <v>556400</v>
       </c>
       <c r="F83" s="3">
-        <v>517400</v>
+        <v>533200</v>
       </c>
       <c r="G83" s="3">
-        <v>501100</v>
+        <v>516400</v>
       </c>
       <c r="H83" s="3">
-        <v>499400</v>
+        <v>514700</v>
       </c>
       <c r="I83" s="3">
-        <v>484200</v>
+        <v>499000</v>
       </c>
       <c r="J83" s="3">
-        <v>462600</v>
+        <v>476800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>24</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1112700</v>
+        <v>1146700</v>
       </c>
       <c r="E89" s="3">
-        <v>1142900</v>
+        <v>1177800</v>
       </c>
       <c r="F89" s="3">
-        <v>1120000</v>
+        <v>1154200</v>
       </c>
       <c r="G89" s="3">
-        <v>1127100</v>
+        <v>1161500</v>
       </c>
       <c r="H89" s="3">
-        <v>941500</v>
+        <v>970200</v>
       </c>
       <c r="I89" s="3">
-        <v>970200</v>
+        <v>999800</v>
       </c>
       <c r="J89" s="3">
-        <v>1093600</v>
+        <v>1127000</v>
       </c>
       <c r="K89" s="3">
         <v>775500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-896400</v>
+        <v>-923800</v>
       </c>
       <c r="E91" s="3">
-        <v>-854500</v>
+        <v>-880600</v>
       </c>
       <c r="F91" s="3">
-        <v>-959300</v>
+        <v>-988600</v>
       </c>
       <c r="G91" s="3">
-        <v>-923300</v>
+        <v>-951500</v>
       </c>
       <c r="H91" s="3">
-        <v>-870900</v>
+        <v>-897500</v>
       </c>
       <c r="I91" s="3">
-        <v>-914100</v>
+        <v>-942000</v>
       </c>
       <c r="J91" s="3">
-        <v>-908600</v>
+        <v>-936400</v>
       </c>
       <c r="K91" s="3">
         <v>-770500</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-815500</v>
+        <v>-840400</v>
       </c>
       <c r="E94" s="3">
-        <v>-862000</v>
+        <v>-888300</v>
       </c>
       <c r="F94" s="3">
-        <v>-993100</v>
+        <v>-1023400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1104900</v>
+        <v>-1138600</v>
       </c>
       <c r="H94" s="3">
-        <v>-929400</v>
+        <v>-957700</v>
       </c>
       <c r="I94" s="3">
-        <v>-968000</v>
+        <v>-997500</v>
       </c>
       <c r="J94" s="3">
-        <v>-931800</v>
+        <v>-960300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>24</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-390700</v>
+        <v>-402600</v>
       </c>
       <c r="E96" s="3">
-        <v>-376800</v>
+        <v>-388300</v>
       </c>
       <c r="F96" s="3">
-        <v>-366600</v>
+        <v>-377800</v>
       </c>
       <c r="G96" s="3">
-        <v>-361300</v>
+        <v>-372300</v>
       </c>
       <c r="H96" s="3">
-        <v>-355200</v>
+        <v>-366100</v>
       </c>
       <c r="I96" s="3">
-        <v>-342500</v>
+        <v>-352900</v>
       </c>
       <c r="J96" s="3">
-        <v>-326700</v>
+        <v>-336700</v>
       </c>
       <c r="K96" s="3">
         <v>-275300</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-38200</v>
+        <v>-39300</v>
       </c>
       <c r="E100" s="3">
-        <v>-518200</v>
+        <v>-534100</v>
       </c>
       <c r="F100" s="3">
-        <v>253600</v>
+        <v>261400</v>
       </c>
       <c r="G100" s="3">
-        <v>30200</v>
+        <v>31100</v>
       </c>
       <c r="H100" s="3">
-        <v>-63700</v>
+        <v>-65700</v>
       </c>
       <c r="I100" s="3">
-        <v>191100</v>
+        <v>197000</v>
       </c>
       <c r="J100" s="3">
-        <v>-290400</v>
+        <v>-299300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>24</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>259000</v>
+        <v>266900</v>
       </c>
       <c r="E102" s="3">
-        <v>-237300</v>
+        <v>-244500</v>
       </c>
       <c r="F102" s="3">
-        <v>380500</v>
+        <v>392100</v>
       </c>
       <c r="G102" s="3">
-        <v>52500</v>
+        <v>54100</v>
       </c>
       <c r="H102" s="3">
-        <v>-51600</v>
+        <v>-53200</v>
       </c>
       <c r="I102" s="3">
-        <v>193300</v>
+        <v>199200</v>
       </c>
       <c r="J102" s="3">
-        <v>-128700</v>
+        <v>-132600</v>
       </c>
       <c r="K102" s="3">
         <v>-159600</v>

--- a/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>UUGRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2631100</v>
+        <v>2465700</v>
       </c>
       <c r="E8" s="3">
-        <v>2573400</v>
+        <v>2535700</v>
       </c>
       <c r="F8" s="3">
-        <v>2456300</v>
+        <v>2480100</v>
       </c>
       <c r="G8" s="3">
-        <v>2411300</v>
+        <v>2367300</v>
       </c>
       <c r="H8" s="3">
-        <v>2448100</v>
+        <v>2323900</v>
       </c>
       <c r="I8" s="3">
-        <v>2434300</v>
+        <v>2359400</v>
       </c>
       <c r="J8" s="3">
+        <v>2346000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2389800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2014900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2041100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>354600</v>
+        <v>357400</v>
       </c>
       <c r="E9" s="3">
-        <v>371900</v>
+        <v>341800</v>
       </c>
       <c r="F9" s="3">
-        <v>333100</v>
+        <v>358400</v>
       </c>
       <c r="G9" s="3">
-        <v>340900</v>
+        <v>321000</v>
       </c>
       <c r="H9" s="3">
-        <v>361000</v>
+        <v>328500</v>
       </c>
       <c r="I9" s="3">
-        <v>302800</v>
+        <v>347900</v>
       </c>
       <c r="J9" s="3">
+        <v>291900</v>
+      </c>
+      <c r="K9" s="3">
         <v>282300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>247700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>308200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2276500</v>
+        <v>2108300</v>
       </c>
       <c r="E10" s="3">
-        <v>2201500</v>
+        <v>2193900</v>
       </c>
       <c r="F10" s="3">
-        <v>2123200</v>
+        <v>2121600</v>
       </c>
       <c r="G10" s="3">
-        <v>2070400</v>
+        <v>2046200</v>
       </c>
       <c r="H10" s="3">
-        <v>2087100</v>
+        <v>1995400</v>
       </c>
       <c r="I10" s="3">
-        <v>2131400</v>
+        <v>2011500</v>
       </c>
       <c r="J10" s="3">
+        <v>2054100</v>
+      </c>
+      <c r="K10" s="3">
         <v>2107500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1767200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1732900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
-        <v>1700</v>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F12" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G12" s="3">
-        <v>3300</v>
+        <v>1600</v>
       </c>
       <c r="H12" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I12" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K12" s="3">
         <v>3400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2100</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>64100</v>
+        <v>-29300</v>
       </c>
       <c r="E14" s="3">
-        <v>68800</v>
+        <v>61800</v>
       </c>
       <c r="F14" s="3">
-        <v>33400</v>
+        <v>66300</v>
       </c>
       <c r="G14" s="3">
-        <v>8300</v>
+        <v>32200</v>
       </c>
       <c r="H14" s="3">
-        <v>43700</v>
+        <v>8000</v>
       </c>
       <c r="I14" s="3">
-        <v>24300</v>
+        <v>42100</v>
       </c>
       <c r="J14" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K14" s="3">
         <v>20800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>28400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>683200</v>
+        <v>575900</v>
       </c>
       <c r="E15" s="3">
-        <v>556400</v>
+        <v>658400</v>
       </c>
       <c r="F15" s="3">
-        <v>533200</v>
+        <v>536200</v>
       </c>
       <c r="G15" s="3">
-        <v>516400</v>
+        <v>513900</v>
       </c>
       <c r="H15" s="3">
-        <v>514700</v>
+        <v>497600</v>
       </c>
       <c r="I15" s="3">
-        <v>499000</v>
+        <v>496000</v>
       </c>
       <c r="J15" s="3">
+        <v>480900</v>
+      </c>
+      <c r="K15" s="3">
         <v>953500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>810900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>388400</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1739200</v>
+        <v>1594500</v>
       </c>
       <c r="E17" s="3">
-        <v>1674900</v>
+        <v>1676100</v>
       </c>
       <c r="F17" s="3">
-        <v>1555800</v>
+        <v>1614200</v>
       </c>
       <c r="G17" s="3">
-        <v>1523200</v>
+        <v>1499400</v>
       </c>
       <c r="H17" s="3">
-        <v>1644500</v>
+        <v>1468000</v>
       </c>
       <c r="I17" s="3">
-        <v>1509800</v>
+        <v>1584900</v>
       </c>
       <c r="J17" s="3">
+        <v>1455000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1498000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1274000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1269600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>891900</v>
+        <v>871200</v>
       </c>
       <c r="E18" s="3">
-        <v>898500</v>
+        <v>859600</v>
       </c>
       <c r="F18" s="3">
-        <v>900600</v>
+        <v>865900</v>
       </c>
       <c r="G18" s="3">
-        <v>888100</v>
+        <v>867900</v>
       </c>
       <c r="H18" s="3">
-        <v>803600</v>
+        <v>855900</v>
       </c>
       <c r="I18" s="3">
-        <v>924500</v>
+        <v>774500</v>
       </c>
       <c r="J18" s="3">
+        <v>891000</v>
+      </c>
+      <c r="K18" s="3">
         <v>891800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>740900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>771500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-135000</v>
+        <v>128100</v>
       </c>
       <c r="E20" s="3">
-        <v>47100</v>
+        <v>-130100</v>
       </c>
       <c r="F20" s="3">
-        <v>87200</v>
+        <v>45400</v>
       </c>
       <c r="G20" s="3">
-        <v>59200</v>
+        <v>84000</v>
       </c>
       <c r="H20" s="3">
-        <v>-23100</v>
+        <v>57000</v>
       </c>
       <c r="I20" s="3">
-        <v>-149400</v>
+        <v>-22200</v>
       </c>
       <c r="J20" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="K20" s="3">
         <v>199500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-50100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-54900</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1440400</v>
+        <v>1580100</v>
       </c>
       <c r="E21" s="3">
-        <v>1502200</v>
+        <v>1393600</v>
       </c>
       <c r="F21" s="3">
-        <v>1521100</v>
+        <v>1452100</v>
       </c>
       <c r="G21" s="3">
-        <v>1463800</v>
+        <v>1470200</v>
       </c>
       <c r="H21" s="3">
-        <v>1295400</v>
+        <v>1414800</v>
       </c>
       <c r="I21" s="3">
-        <v>1274200</v>
+        <v>1252500</v>
       </c>
       <c r="J21" s="3">
+        <v>1231900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1568200</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1109400</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>327900</v>
+        <v>247800</v>
       </c>
       <c r="E22" s="3">
-        <v>328300</v>
+        <v>316000</v>
       </c>
       <c r="F22" s="3">
-        <v>376300</v>
+        <v>316400</v>
       </c>
       <c r="G22" s="3">
-        <v>321200</v>
+        <v>362600</v>
       </c>
       <c r="H22" s="3">
-        <v>280300</v>
+        <v>309600</v>
       </c>
       <c r="I22" s="3">
-        <v>291700</v>
+        <v>270200</v>
       </c>
       <c r="J22" s="3">
+        <v>281100</v>
+      </c>
+      <c r="K22" s="3">
         <v>322500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>306800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>350900</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>429100</v>
+        <v>751400</v>
       </c>
       <c r="E23" s="3">
-        <v>617300</v>
+        <v>413500</v>
       </c>
       <c r="F23" s="3">
-        <v>611500</v>
+        <v>594900</v>
       </c>
       <c r="G23" s="3">
-        <v>626000</v>
+        <v>589300</v>
       </c>
       <c r="H23" s="3">
-        <v>500200</v>
+        <v>603300</v>
       </c>
       <c r="I23" s="3">
-        <v>483400</v>
+        <v>482100</v>
       </c>
       <c r="J23" s="3">
+        <v>465900</v>
+      </c>
+      <c r="K23" s="3">
         <v>768800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>384000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>365700</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>277900</v>
+        <v>133100</v>
       </c>
       <c r="E24" s="3">
-        <v>103000</v>
+        <v>267800</v>
       </c>
       <c r="F24" s="3">
-        <v>109700</v>
+        <v>99300</v>
       </c>
       <c r="G24" s="3">
-        <v>12000</v>
+        <v>105700</v>
       </c>
       <c r="H24" s="3">
-        <v>-62300</v>
+        <v>11600</v>
       </c>
       <c r="I24" s="3">
-        <v>99600</v>
+        <v>-60000</v>
       </c>
       <c r="J24" s="3">
+        <v>96000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-276400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-40400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>151100</v>
+        <v>618300</v>
       </c>
       <c r="E26" s="3">
-        <v>514300</v>
+        <v>145700</v>
       </c>
       <c r="F26" s="3">
-        <v>501800</v>
+        <v>495600</v>
       </c>
       <c r="G26" s="3">
-        <v>614000</v>
+        <v>483600</v>
       </c>
       <c r="H26" s="3">
-        <v>562500</v>
+        <v>591700</v>
       </c>
       <c r="I26" s="3">
-        <v>383800</v>
+        <v>542100</v>
       </c>
       <c r="J26" s="3">
+        <v>369900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1045200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>354500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>406200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>151100</v>
+        <v>618300</v>
       </c>
       <c r="E27" s="3">
-        <v>514300</v>
+        <v>145700</v>
       </c>
       <c r="F27" s="3">
-        <v>501800</v>
+        <v>495600</v>
       </c>
       <c r="G27" s="3">
-        <v>614000</v>
+        <v>483600</v>
       </c>
       <c r="H27" s="3">
-        <v>562500</v>
+        <v>591700</v>
       </c>
       <c r="I27" s="3">
-        <v>383800</v>
+        <v>542100</v>
       </c>
       <c r="J27" s="3">
+        <v>369900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1045200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>354500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>406200</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1367,21 +1427,24 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>1100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>18000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>6700</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>135000</v>
+        <v>-128100</v>
       </c>
       <c r="E32" s="3">
-        <v>-47100</v>
+        <v>130100</v>
       </c>
       <c r="F32" s="3">
-        <v>-87200</v>
+        <v>-45400</v>
       </c>
       <c r="G32" s="3">
-        <v>-59200</v>
+        <v>-84000</v>
       </c>
       <c r="H32" s="3">
-        <v>23100</v>
+        <v>-57000</v>
       </c>
       <c r="I32" s="3">
-        <v>149400</v>
+        <v>22200</v>
       </c>
       <c r="J32" s="3">
+        <v>144000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-199500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>50100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>54900</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>151100</v>
+        <v>618300</v>
       </c>
       <c r="E33" s="3">
-        <v>514300</v>
+        <v>145700</v>
       </c>
       <c r="F33" s="3">
-        <v>501800</v>
+        <v>495600</v>
       </c>
       <c r="G33" s="3">
-        <v>614000</v>
+        <v>483600</v>
       </c>
       <c r="H33" s="3">
-        <v>562500</v>
+        <v>591700</v>
       </c>
       <c r="I33" s="3">
-        <v>383800</v>
+        <v>542100</v>
       </c>
       <c r="J33" s="3">
+        <v>369900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1046300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>372400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>412800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>151100</v>
+        <v>618300</v>
       </c>
       <c r="E35" s="3">
-        <v>514300</v>
+        <v>145700</v>
       </c>
       <c r="F35" s="3">
-        <v>501800</v>
+        <v>495600</v>
       </c>
       <c r="G35" s="3">
-        <v>614000</v>
+        <v>483600</v>
       </c>
       <c r="H35" s="3">
-        <v>562500</v>
+        <v>591700</v>
       </c>
       <c r="I35" s="3">
-        <v>383800</v>
+        <v>542100</v>
       </c>
       <c r="J35" s="3">
+        <v>369900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1046300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>372400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>412800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>747300</v>
+        <v>1014800</v>
       </c>
       <c r="E41" s="3">
-        <v>480100</v>
+        <v>720200</v>
       </c>
       <c r="F41" s="3">
-        <v>721700</v>
+        <v>462700</v>
       </c>
       <c r="G41" s="3">
-        <v>350700</v>
+        <v>695500</v>
       </c>
       <c r="H41" s="3">
-        <v>302300</v>
+        <v>337900</v>
       </c>
       <c r="I41" s="3">
-        <v>345300</v>
+        <v>291300</v>
       </c>
       <c r="J41" s="3">
+        <v>332800</v>
+      </c>
+      <c r="K41" s="3">
         <v>343900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>249000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>418900</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,240 +1800,264 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>401300</v>
+        <v>322000</v>
       </c>
       <c r="E43" s="3">
-        <v>376300</v>
+        <v>386800</v>
       </c>
       <c r="F43" s="3">
-        <v>403900</v>
+        <v>362600</v>
       </c>
       <c r="G43" s="3">
-        <v>440100</v>
+        <v>389200</v>
       </c>
       <c r="H43" s="3">
-        <v>325300</v>
+        <v>424100</v>
       </c>
       <c r="I43" s="3">
-        <v>500000</v>
+        <v>313500</v>
       </c>
       <c r="J43" s="3">
+        <v>481800</v>
+      </c>
+      <c r="K43" s="3">
         <v>763300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>660800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>393100</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23500</v>
+        <v>25000</v>
       </c>
       <c r="E44" s="3">
-        <v>21100</v>
+        <v>22600</v>
       </c>
       <c r="F44" s="3">
-        <v>23800</v>
+        <v>20300</v>
       </c>
       <c r="G44" s="3">
-        <v>31700</v>
+        <v>22900</v>
       </c>
       <c r="H44" s="3">
-        <v>41500</v>
+        <v>30500</v>
       </c>
       <c r="I44" s="3">
-        <v>57300</v>
+        <v>40000</v>
       </c>
       <c r="J44" s="3">
+        <v>55200</v>
+      </c>
+      <c r="K44" s="3">
         <v>116500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>48900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>61800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>143400</v>
-      </c>
       <c r="F45" s="3">
-        <v>477900</v>
+        <v>138200</v>
       </c>
       <c r="G45" s="3">
-        <v>108500</v>
+        <v>460600</v>
       </c>
       <c r="H45" s="3">
-        <v>216800</v>
+        <v>104600</v>
       </c>
       <c r="I45" s="3">
+        <v>208900</v>
+      </c>
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>259500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>222800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>65100</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1172300</v>
+        <v>1381400</v>
       </c>
       <c r="E46" s="3">
-        <v>1020900</v>
+        <v>1129800</v>
       </c>
       <c r="F46" s="3">
-        <v>1627200</v>
+        <v>983800</v>
       </c>
       <c r="G46" s="3">
-        <v>931000</v>
+        <v>1568200</v>
       </c>
       <c r="H46" s="3">
-        <v>885900</v>
+        <v>897200</v>
       </c>
       <c r="I46" s="3">
-        <v>904000</v>
+        <v>853700</v>
       </c>
       <c r="J46" s="3">
+        <v>871200</v>
+      </c>
+      <c r="K46" s="3">
         <v>768300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>777900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>939000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>203600</v>
+        <v>118400</v>
       </c>
       <c r="E47" s="3">
-        <v>337600</v>
+        <v>196200</v>
       </c>
       <c r="F47" s="3">
-        <v>316100</v>
+        <v>325400</v>
       </c>
       <c r="G47" s="3">
-        <v>278100</v>
+        <v>304700</v>
       </c>
       <c r="H47" s="3">
-        <v>65500</v>
+        <v>268000</v>
       </c>
       <c r="I47" s="3">
-        <v>60600</v>
+        <v>63100</v>
       </c>
       <c r="J47" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K47" s="3">
         <v>65400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5700</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16289200</v>
+        <v>16091400</v>
       </c>
       <c r="E48" s="3">
-        <v>15783300</v>
+        <v>15698500</v>
       </c>
       <c r="F48" s="3">
-        <v>15269700</v>
+        <v>15210900</v>
       </c>
       <c r="G48" s="3">
-        <v>14724900</v>
+        <v>14716000</v>
       </c>
       <c r="H48" s="3">
-        <v>14195500</v>
+        <v>14190900</v>
       </c>
       <c r="I48" s="3">
-        <v>13749600</v>
+        <v>13680700</v>
       </c>
       <c r="J48" s="3">
+        <v>13251000</v>
+      </c>
+      <c r="K48" s="3">
         <v>26434500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7884000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11275100</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>267500</v>
+        <v>247000</v>
       </c>
       <c r="E49" s="3">
-        <v>286800</v>
+        <v>257800</v>
       </c>
       <c r="F49" s="3">
-        <v>279800</v>
+        <v>276400</v>
       </c>
       <c r="G49" s="3">
-        <v>265600</v>
+        <v>269600</v>
       </c>
       <c r="H49" s="3">
-        <v>229800</v>
+        <v>256000</v>
       </c>
       <c r="I49" s="3">
-        <v>205000</v>
+        <v>221500</v>
       </c>
       <c r="J49" s="3">
+        <v>197600</v>
+      </c>
+      <c r="K49" s="3">
         <v>325900</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>123300</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1941400</v>
+        <v>1499200</v>
       </c>
       <c r="E52" s="3">
-        <v>1233600</v>
+        <v>1871000</v>
       </c>
       <c r="F52" s="3">
-        <v>908500</v>
+        <v>1188800</v>
       </c>
       <c r="G52" s="3">
-        <v>1384700</v>
+        <v>875600</v>
       </c>
       <c r="H52" s="3">
-        <v>1472700</v>
+        <v>1334500</v>
       </c>
       <c r="I52" s="3">
-        <v>1076600</v>
+        <v>1419300</v>
       </c>
       <c r="J52" s="3">
+        <v>1037600</v>
+      </c>
+      <c r="K52" s="3">
         <v>645300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>851000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>740200</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19873900</v>
+        <v>19337300</v>
       </c>
       <c r="E54" s="3">
-        <v>18662200</v>
+        <v>19153200</v>
       </c>
       <c r="F54" s="3">
-        <v>18401400</v>
+        <v>17985400</v>
       </c>
       <c r="G54" s="3">
-        <v>17584300</v>
+        <v>17734000</v>
       </c>
       <c r="H54" s="3">
-        <v>16849400</v>
+        <v>16946600</v>
       </c>
       <c r="I54" s="3">
-        <v>15995800</v>
+        <v>16238400</v>
       </c>
       <c r="J54" s="3">
+        <v>15415700</v>
+      </c>
+      <c r="K54" s="3">
         <v>14819700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12847600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13083300</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>51900</v>
+        <v>45400</v>
       </c>
       <c r="E57" s="3">
-        <v>48700</v>
+        <v>50100</v>
       </c>
       <c r="F57" s="3">
-        <v>39500</v>
+        <v>46900</v>
       </c>
       <c r="G57" s="3">
-        <v>49800</v>
+        <v>38000</v>
       </c>
       <c r="H57" s="3">
-        <v>62400</v>
+        <v>48000</v>
       </c>
       <c r="I57" s="3">
-        <v>56700</v>
+        <v>60100</v>
       </c>
       <c r="J57" s="3">
+        <v>54700</v>
+      </c>
+      <c r="K57" s="3">
         <v>605400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>65100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>52400</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1195800</v>
+        <v>893000</v>
       </c>
       <c r="E58" s="3">
-        <v>990900</v>
+        <v>1152400</v>
       </c>
       <c r="F58" s="3">
-        <v>1188000</v>
+        <v>954900</v>
       </c>
       <c r="G58" s="3">
-        <v>461500</v>
+        <v>1144900</v>
       </c>
       <c r="H58" s="3">
-        <v>664000</v>
+        <v>444700</v>
       </c>
       <c r="I58" s="3">
-        <v>818100</v>
+        <v>639900</v>
       </c>
       <c r="J58" s="3">
+        <v>788400</v>
+      </c>
+      <c r="K58" s="3">
         <v>318700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>205000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>165800</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>457100</v>
+        <v>419200</v>
       </c>
       <c r="E59" s="3">
-        <v>449200</v>
+        <v>440500</v>
       </c>
       <c r="F59" s="3">
-        <v>387900</v>
+        <v>432900</v>
       </c>
       <c r="G59" s="3">
-        <v>464900</v>
+        <v>373800</v>
       </c>
       <c r="H59" s="3">
-        <v>468300</v>
+        <v>448000</v>
       </c>
       <c r="I59" s="3">
-        <v>542400</v>
+        <v>451300</v>
       </c>
       <c r="J59" s="3">
+        <v>522700</v>
+      </c>
+      <c r="K59" s="3">
         <v>628700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>582000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>641600</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1704800</v>
+        <v>1357700</v>
       </c>
       <c r="E60" s="3">
-        <v>1488700</v>
+        <v>1643000</v>
       </c>
       <c r="F60" s="3">
-        <v>1615300</v>
+        <v>1434700</v>
       </c>
       <c r="G60" s="3">
-        <v>976100</v>
+        <v>1556800</v>
       </c>
       <c r="H60" s="3">
-        <v>1194600</v>
+        <v>940700</v>
       </c>
       <c r="I60" s="3">
-        <v>1417200</v>
+        <v>1151300</v>
       </c>
       <c r="J60" s="3">
+        <v>1365800</v>
+      </c>
+      <c r="K60" s="3">
         <v>843800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>852100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>859800</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10638900</v>
+        <v>10633500</v>
       </c>
       <c r="E61" s="3">
-        <v>10069400</v>
+        <v>10253100</v>
       </c>
       <c r="F61" s="3">
-        <v>10008800</v>
+        <v>9704200</v>
       </c>
       <c r="G61" s="3">
-        <v>9988400</v>
+        <v>9645800</v>
       </c>
       <c r="H61" s="3">
-        <v>9210700</v>
+        <v>9626200</v>
       </c>
       <c r="I61" s="3">
-        <v>8585900</v>
+        <v>8876600</v>
       </c>
       <c r="J61" s="3">
+        <v>8274500</v>
+      </c>
+      <c r="K61" s="3">
         <v>8390500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7415500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7471200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3338500</v>
+        <v>3212500</v>
       </c>
       <c r="E62" s="3">
-        <v>2702000</v>
+        <v>3217500</v>
       </c>
       <c r="F62" s="3">
-        <v>2601400</v>
+        <v>2604000</v>
       </c>
       <c r="G62" s="3">
-        <v>2626900</v>
+        <v>2507100</v>
       </c>
       <c r="H62" s="3">
-        <v>2615500</v>
+        <v>2531600</v>
       </c>
       <c r="I62" s="3">
-        <v>2547800</v>
+        <v>2520700</v>
       </c>
       <c r="J62" s="3">
+        <v>2455400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2449700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2787500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2450700</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15682200</v>
+        <v>15203700</v>
       </c>
       <c r="E66" s="3">
-        <v>14260100</v>
+        <v>15113500</v>
       </c>
       <c r="F66" s="3">
-        <v>14225500</v>
+        <v>13742900</v>
       </c>
       <c r="G66" s="3">
-        <v>13591400</v>
+        <v>13709600</v>
       </c>
       <c r="H66" s="3">
-        <v>13020900</v>
+        <v>13098500</v>
       </c>
       <c r="I66" s="3">
-        <v>12550900</v>
+        <v>12548600</v>
       </c>
       <c r="J66" s="3">
+        <v>12095700</v>
+      </c>
+      <c r="K66" s="3">
         <v>11684000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10537000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10781700</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3470400</v>
+        <v>3439100</v>
       </c>
       <c r="E72" s="3">
-        <v>3678600</v>
+        <v>3344600</v>
       </c>
       <c r="F72" s="3">
-        <v>3467000</v>
+        <v>3545200</v>
       </c>
       <c r="G72" s="3">
-        <v>3284300</v>
+        <v>3341300</v>
       </c>
       <c r="H72" s="3">
-        <v>3125300</v>
+        <v>3165200</v>
       </c>
       <c r="I72" s="3">
-        <v>2745900</v>
+        <v>3011900</v>
       </c>
       <c r="J72" s="3">
+        <v>2646300</v>
+      </c>
+      <c r="K72" s="3">
         <v>2207600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1499500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1446000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4191700</v>
+        <v>4133600</v>
       </c>
       <c r="E76" s="3">
-        <v>4402100</v>
+        <v>4039700</v>
       </c>
       <c r="F76" s="3">
-        <v>4175800</v>
+        <v>4242500</v>
       </c>
       <c r="G76" s="3">
-        <v>3992900</v>
+        <v>4024400</v>
       </c>
       <c r="H76" s="3">
-        <v>3828600</v>
+        <v>3848100</v>
       </c>
       <c r="I76" s="3">
-        <v>3444900</v>
+        <v>3689700</v>
       </c>
       <c r="J76" s="3">
+        <v>3320000</v>
+      </c>
+      <c r="K76" s="3">
         <v>3135700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2310700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2301600</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>151100</v>
+        <v>618300</v>
       </c>
       <c r="E81" s="3">
-        <v>514300</v>
+        <v>145700</v>
       </c>
       <c r="F81" s="3">
-        <v>501800</v>
+        <v>495600</v>
       </c>
       <c r="G81" s="3">
-        <v>614000</v>
+        <v>483600</v>
       </c>
       <c r="H81" s="3">
-        <v>562500</v>
+        <v>591700</v>
       </c>
       <c r="I81" s="3">
-        <v>383800</v>
+        <v>542100</v>
       </c>
       <c r="J81" s="3">
+        <v>369900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1046300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>372400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>412800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>683200</v>
+        <v>575900</v>
       </c>
       <c r="E83" s="3">
-        <v>556400</v>
+        <v>658400</v>
       </c>
       <c r="F83" s="3">
-        <v>533200</v>
+        <v>536200</v>
       </c>
       <c r="G83" s="3">
-        <v>516400</v>
+        <v>513900</v>
       </c>
       <c r="H83" s="3">
-        <v>514700</v>
+        <v>497600</v>
       </c>
       <c r="I83" s="3">
-        <v>499000</v>
+        <v>496000</v>
       </c>
       <c r="J83" s="3">
+        <v>480900</v>
+      </c>
+      <c r="K83" s="3">
         <v>476800</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>388400</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1146700</v>
+        <v>1172000</v>
       </c>
       <c r="E89" s="3">
-        <v>1177800</v>
+        <v>1105100</v>
       </c>
       <c r="F89" s="3">
-        <v>1154200</v>
+        <v>1135100</v>
       </c>
       <c r="G89" s="3">
-        <v>1161500</v>
+        <v>1112300</v>
       </c>
       <c r="H89" s="3">
-        <v>970200</v>
+        <v>1119400</v>
       </c>
       <c r="I89" s="3">
-        <v>999800</v>
+        <v>935000</v>
       </c>
       <c r="J89" s="3">
+        <v>963500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1127000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>775500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>730200</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-923800</v>
+        <v>-832500</v>
       </c>
       <c r="E91" s="3">
-        <v>-880600</v>
+        <v>-890300</v>
       </c>
       <c r="F91" s="3">
-        <v>-988600</v>
+        <v>-848700</v>
       </c>
       <c r="G91" s="3">
-        <v>-951500</v>
+        <v>-952700</v>
       </c>
       <c r="H91" s="3">
-        <v>-897500</v>
+        <v>-917000</v>
       </c>
       <c r="I91" s="3">
-        <v>-942000</v>
+        <v>-864900</v>
       </c>
       <c r="J91" s="3">
+        <v>-907900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-936400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-770500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-655000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-840400</v>
+        <v>-749100</v>
       </c>
       <c r="E94" s="3">
-        <v>-888300</v>
+        <v>-810000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1023400</v>
+        <v>-856100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1138600</v>
+        <v>-986300</v>
       </c>
       <c r="H94" s="3">
-        <v>-957700</v>
+        <v>-1097300</v>
       </c>
       <c r="I94" s="3">
-        <v>-997500</v>
+        <v>-923000</v>
       </c>
       <c r="J94" s="3">
+        <v>-961300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-960300</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-650100</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-402600</v>
+        <v>-398100</v>
       </c>
       <c r="E96" s="3">
-        <v>-388300</v>
+        <v>-388000</v>
       </c>
       <c r="F96" s="3">
-        <v>-377800</v>
+        <v>-374200</v>
       </c>
       <c r="G96" s="3">
-        <v>-372300</v>
+        <v>-364100</v>
       </c>
       <c r="H96" s="3">
-        <v>-366100</v>
+        <v>-358800</v>
       </c>
       <c r="I96" s="3">
-        <v>-352900</v>
+        <v>-352800</v>
       </c>
       <c r="J96" s="3">
+        <v>-340100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-336700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-275300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-272600</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-39300</v>
+        <v>-122300</v>
       </c>
       <c r="E100" s="3">
-        <v>-534100</v>
+        <v>-37900</v>
       </c>
       <c r="F100" s="3">
-        <v>261400</v>
+        <v>-514700</v>
       </c>
       <c r="G100" s="3">
-        <v>31100</v>
+        <v>251900</v>
       </c>
       <c r="H100" s="3">
-        <v>-65700</v>
+        <v>30000</v>
       </c>
       <c r="I100" s="3">
-        <v>197000</v>
+        <v>-63300</v>
       </c>
       <c r="J100" s="3">
+        <v>189800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-299300</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7600</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>266900</v>
+        <v>300600</v>
       </c>
       <c r="E102" s="3">
-        <v>-244500</v>
+        <v>257200</v>
       </c>
       <c r="F102" s="3">
-        <v>392100</v>
+        <v>-235700</v>
       </c>
       <c r="G102" s="3">
-        <v>54100</v>
+        <v>377900</v>
       </c>
       <c r="H102" s="3">
-        <v>-53200</v>
+        <v>52100</v>
       </c>
       <c r="I102" s="3">
-        <v>199200</v>
+        <v>-51300</v>
       </c>
       <c r="J102" s="3">
+        <v>192000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-132600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-159600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>88300</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2465700</v>
+        <v>2406600</v>
       </c>
       <c r="E8" s="3">
-        <v>2535700</v>
+        <v>2474900</v>
       </c>
       <c r="F8" s="3">
-        <v>2480100</v>
+        <v>2420600</v>
       </c>
       <c r="G8" s="3">
-        <v>2367300</v>
+        <v>2310500</v>
       </c>
       <c r="H8" s="3">
-        <v>2323900</v>
+        <v>2268200</v>
       </c>
       <c r="I8" s="3">
-        <v>2359400</v>
+        <v>2302800</v>
       </c>
       <c r="J8" s="3">
-        <v>2346000</v>
+        <v>2289800</v>
       </c>
       <c r="K8" s="3">
         <v>2389800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>357400</v>
+        <v>348900</v>
       </c>
       <c r="E9" s="3">
-        <v>341800</v>
+        <v>333600</v>
       </c>
       <c r="F9" s="3">
-        <v>358400</v>
+        <v>349800</v>
       </c>
       <c r="G9" s="3">
-        <v>321000</v>
+        <v>313300</v>
       </c>
       <c r="H9" s="3">
-        <v>328500</v>
+        <v>320700</v>
       </c>
       <c r="I9" s="3">
-        <v>347900</v>
+        <v>339600</v>
       </c>
       <c r="J9" s="3">
-        <v>291900</v>
+        <v>284900</v>
       </c>
       <c r="K9" s="3">
         <v>282300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2108300</v>
+        <v>2057700</v>
       </c>
       <c r="E10" s="3">
-        <v>2193900</v>
+        <v>2141300</v>
       </c>
       <c r="F10" s="3">
-        <v>2121600</v>
+        <v>2070800</v>
       </c>
       <c r="G10" s="3">
-        <v>2046200</v>
+        <v>1997200</v>
       </c>
       <c r="H10" s="3">
-        <v>1995400</v>
+        <v>1947500</v>
       </c>
       <c r="I10" s="3">
-        <v>2011500</v>
+        <v>1963200</v>
       </c>
       <c r="J10" s="3">
-        <v>2054100</v>
+        <v>2004900</v>
       </c>
       <c r="K10" s="3">
         <v>2107500</v>
@@ -862,7 +862,7 @@
         <v>3100</v>
       </c>
       <c r="J12" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K12" s="3">
         <v>3400</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-29300</v>
+        <v>-28600</v>
       </c>
       <c r="E14" s="3">
-        <v>61800</v>
+        <v>60300</v>
       </c>
       <c r="F14" s="3">
-        <v>66300</v>
+        <v>64700</v>
       </c>
       <c r="G14" s="3">
-        <v>32200</v>
+        <v>31400</v>
       </c>
       <c r="H14" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="I14" s="3">
-        <v>42100</v>
+        <v>41100</v>
       </c>
       <c r="J14" s="3">
-        <v>23500</v>
+        <v>22900</v>
       </c>
       <c r="K14" s="3">
         <v>20800</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>575900</v>
+        <v>562100</v>
       </c>
       <c r="E15" s="3">
-        <v>658400</v>
+        <v>642700</v>
       </c>
       <c r="F15" s="3">
-        <v>536200</v>
+        <v>523400</v>
       </c>
       <c r="G15" s="3">
-        <v>513900</v>
+        <v>501600</v>
       </c>
       <c r="H15" s="3">
-        <v>497600</v>
+        <v>485700</v>
       </c>
       <c r="I15" s="3">
-        <v>496000</v>
+        <v>484100</v>
       </c>
       <c r="J15" s="3">
-        <v>480900</v>
+        <v>469300</v>
       </c>
       <c r="K15" s="3">
         <v>953500</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1594500</v>
+        <v>1556300</v>
       </c>
       <c r="E17" s="3">
-        <v>1676100</v>
+        <v>1635900</v>
       </c>
       <c r="F17" s="3">
-        <v>1614200</v>
+        <v>1575500</v>
       </c>
       <c r="G17" s="3">
-        <v>1499400</v>
+        <v>1463400</v>
       </c>
       <c r="H17" s="3">
-        <v>1468000</v>
+        <v>1432800</v>
       </c>
       <c r="I17" s="3">
-        <v>1584900</v>
+        <v>1546900</v>
       </c>
       <c r="J17" s="3">
-        <v>1455000</v>
+        <v>1420200</v>
       </c>
       <c r="K17" s="3">
         <v>1498000</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>871200</v>
+        <v>850300</v>
       </c>
       <c r="E18" s="3">
-        <v>859600</v>
+        <v>839000</v>
       </c>
       <c r="F18" s="3">
-        <v>865900</v>
+        <v>845100</v>
       </c>
       <c r="G18" s="3">
-        <v>867900</v>
+        <v>847100</v>
       </c>
       <c r="H18" s="3">
-        <v>855900</v>
+        <v>835400</v>
       </c>
       <c r="I18" s="3">
-        <v>774500</v>
+        <v>755900</v>
       </c>
       <c r="J18" s="3">
-        <v>891000</v>
+        <v>869600</v>
       </c>
       <c r="K18" s="3">
         <v>891800</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>128100</v>
+        <v>125000</v>
       </c>
       <c r="E20" s="3">
-        <v>-130100</v>
+        <v>-127000</v>
       </c>
       <c r="F20" s="3">
-        <v>45400</v>
+        <v>44300</v>
       </c>
       <c r="G20" s="3">
-        <v>84000</v>
+        <v>82000</v>
       </c>
       <c r="H20" s="3">
-        <v>57000</v>
+        <v>55600</v>
       </c>
       <c r="I20" s="3">
-        <v>-22200</v>
+        <v>-21700</v>
       </c>
       <c r="J20" s="3">
-        <v>-144000</v>
+        <v>-140600</v>
       </c>
       <c r="K20" s="3">
         <v>199500</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1580100</v>
+        <v>1538600</v>
       </c>
       <c r="E21" s="3">
-        <v>1393600</v>
+        <v>1356100</v>
       </c>
       <c r="F21" s="3">
-        <v>1452100</v>
+        <v>1414000</v>
       </c>
       <c r="G21" s="3">
-        <v>1470200</v>
+        <v>1431800</v>
       </c>
       <c r="H21" s="3">
-        <v>1414800</v>
+        <v>1377800</v>
       </c>
       <c r="I21" s="3">
-        <v>1252500</v>
+        <v>1219400</v>
       </c>
       <c r="J21" s="3">
-        <v>1231900</v>
+        <v>1199400</v>
       </c>
       <c r="K21" s="3">
         <v>1568200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>247800</v>
+        <v>241900</v>
       </c>
       <c r="E22" s="3">
-        <v>316000</v>
+        <v>308400</v>
       </c>
       <c r="F22" s="3">
-        <v>316400</v>
+        <v>308800</v>
       </c>
       <c r="G22" s="3">
-        <v>362600</v>
+        <v>353900</v>
       </c>
       <c r="H22" s="3">
-        <v>309600</v>
+        <v>302200</v>
       </c>
       <c r="I22" s="3">
-        <v>270200</v>
+        <v>263700</v>
       </c>
       <c r="J22" s="3">
-        <v>281100</v>
+        <v>274300</v>
       </c>
       <c r="K22" s="3">
         <v>322500</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>751400</v>
+        <v>733400</v>
       </c>
       <c r="E23" s="3">
-        <v>413500</v>
+        <v>403600</v>
       </c>
       <c r="F23" s="3">
-        <v>594900</v>
+        <v>580600</v>
       </c>
       <c r="G23" s="3">
-        <v>589300</v>
+        <v>575200</v>
       </c>
       <c r="H23" s="3">
-        <v>603300</v>
+        <v>588900</v>
       </c>
       <c r="I23" s="3">
-        <v>482100</v>
+        <v>470500</v>
       </c>
       <c r="J23" s="3">
-        <v>465900</v>
+        <v>454700</v>
       </c>
       <c r="K23" s="3">
         <v>768800</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>133100</v>
+        <v>129900</v>
       </c>
       <c r="E24" s="3">
-        <v>267800</v>
+        <v>261400</v>
       </c>
       <c r="F24" s="3">
-        <v>99300</v>
+        <v>96900</v>
       </c>
       <c r="G24" s="3">
-        <v>105700</v>
+        <v>103200</v>
       </c>
       <c r="H24" s="3">
-        <v>11600</v>
+        <v>11300</v>
       </c>
       <c r="I24" s="3">
-        <v>-60000</v>
+        <v>-58600</v>
       </c>
       <c r="J24" s="3">
-        <v>96000</v>
+        <v>93700</v>
       </c>
       <c r="K24" s="3">
         <v>-276400</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>618300</v>
+        <v>603500</v>
       </c>
       <c r="E26" s="3">
-        <v>145700</v>
+        <v>142200</v>
       </c>
       <c r="F26" s="3">
-        <v>495600</v>
+        <v>483700</v>
       </c>
       <c r="G26" s="3">
-        <v>483600</v>
+        <v>472000</v>
       </c>
       <c r="H26" s="3">
-        <v>591700</v>
+        <v>577600</v>
       </c>
       <c r="I26" s="3">
-        <v>542100</v>
+        <v>529100</v>
       </c>
       <c r="J26" s="3">
-        <v>369900</v>
+        <v>361000</v>
       </c>
       <c r="K26" s="3">
         <v>1045200</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>618300</v>
+        <v>603500</v>
       </c>
       <c r="E27" s="3">
-        <v>145700</v>
+        <v>142200</v>
       </c>
       <c r="F27" s="3">
-        <v>495600</v>
+        <v>483700</v>
       </c>
       <c r="G27" s="3">
-        <v>483600</v>
+        <v>472000</v>
       </c>
       <c r="H27" s="3">
-        <v>591700</v>
+        <v>577600</v>
       </c>
       <c r="I27" s="3">
-        <v>542100</v>
+        <v>529100</v>
       </c>
       <c r="J27" s="3">
-        <v>369900</v>
+        <v>361000</v>
       </c>
       <c r="K27" s="3">
         <v>1045200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-128100</v>
+        <v>-125000</v>
       </c>
       <c r="E32" s="3">
-        <v>130100</v>
+        <v>127000</v>
       </c>
       <c r="F32" s="3">
-        <v>-45400</v>
+        <v>-44300</v>
       </c>
       <c r="G32" s="3">
-        <v>-84000</v>
+        <v>-82000</v>
       </c>
       <c r="H32" s="3">
-        <v>-57000</v>
+        <v>-55600</v>
       </c>
       <c r="I32" s="3">
-        <v>22200</v>
+        <v>21700</v>
       </c>
       <c r="J32" s="3">
-        <v>144000</v>
+        <v>140600</v>
       </c>
       <c r="K32" s="3">
         <v>-199500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>618300</v>
+        <v>603500</v>
       </c>
       <c r="E33" s="3">
-        <v>145700</v>
+        <v>142200</v>
       </c>
       <c r="F33" s="3">
-        <v>495600</v>
+        <v>483700</v>
       </c>
       <c r="G33" s="3">
-        <v>483600</v>
+        <v>472000</v>
       </c>
       <c r="H33" s="3">
-        <v>591700</v>
+        <v>577600</v>
       </c>
       <c r="I33" s="3">
-        <v>542100</v>
+        <v>529100</v>
       </c>
       <c r="J33" s="3">
-        <v>369900</v>
+        <v>361000</v>
       </c>
       <c r="K33" s="3">
         <v>1046300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>618300</v>
+        <v>603500</v>
       </c>
       <c r="E35" s="3">
-        <v>145700</v>
+        <v>142200</v>
       </c>
       <c r="F35" s="3">
-        <v>495600</v>
+        <v>483700</v>
       </c>
       <c r="G35" s="3">
-        <v>483600</v>
+        <v>472000</v>
       </c>
       <c r="H35" s="3">
-        <v>591700</v>
+        <v>577600</v>
       </c>
       <c r="I35" s="3">
-        <v>542100</v>
+        <v>529100</v>
       </c>
       <c r="J35" s="3">
-        <v>369900</v>
+        <v>361000</v>
       </c>
       <c r="K35" s="3">
         <v>1046300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1014800</v>
+        <v>990500</v>
       </c>
       <c r="E41" s="3">
-        <v>720200</v>
+        <v>703000</v>
       </c>
       <c r="F41" s="3">
-        <v>462700</v>
+        <v>451600</v>
       </c>
       <c r="G41" s="3">
-        <v>695500</v>
+        <v>678900</v>
       </c>
       <c r="H41" s="3">
-        <v>337900</v>
+        <v>329800</v>
       </c>
       <c r="I41" s="3">
-        <v>291300</v>
+        <v>284300</v>
       </c>
       <c r="J41" s="3">
-        <v>332800</v>
+        <v>324800</v>
       </c>
       <c r="K41" s="3">
         <v>343900</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>322000</v>
+        <v>314300</v>
       </c>
       <c r="E43" s="3">
-        <v>386800</v>
+        <v>377500</v>
       </c>
       <c r="F43" s="3">
-        <v>362600</v>
+        <v>353900</v>
       </c>
       <c r="G43" s="3">
-        <v>389200</v>
+        <v>379900</v>
       </c>
       <c r="H43" s="3">
-        <v>424100</v>
+        <v>414000</v>
       </c>
       <c r="I43" s="3">
-        <v>313500</v>
+        <v>306000</v>
       </c>
       <c r="J43" s="3">
-        <v>481800</v>
+        <v>470300</v>
       </c>
       <c r="K43" s="3">
         <v>763300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25000</v>
+        <v>24400</v>
       </c>
       <c r="E44" s="3">
-        <v>22600</v>
+        <v>22100</v>
       </c>
       <c r="F44" s="3">
-        <v>20300</v>
+        <v>19800</v>
       </c>
       <c r="G44" s="3">
-        <v>22900</v>
+        <v>22400</v>
       </c>
       <c r="H44" s="3">
-        <v>30500</v>
+        <v>29800</v>
       </c>
       <c r="I44" s="3">
-        <v>40000</v>
+        <v>39000</v>
       </c>
       <c r="J44" s="3">
-        <v>55200</v>
+        <v>53900</v>
       </c>
       <c r="K44" s="3">
         <v>116500</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19600</v>
+        <v>19200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>138200</v>
+        <v>134800</v>
       </c>
       <c r="G45" s="3">
-        <v>460600</v>
+        <v>449500</v>
       </c>
       <c r="H45" s="3">
-        <v>104600</v>
+        <v>102100</v>
       </c>
       <c r="I45" s="3">
-        <v>208900</v>
+        <v>203900</v>
       </c>
       <c r="J45" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K45" s="3">
         <v>259500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1381400</v>
+        <v>1348300</v>
       </c>
       <c r="E46" s="3">
-        <v>1129800</v>
+        <v>1102700</v>
       </c>
       <c r="F46" s="3">
-        <v>983800</v>
+        <v>960300</v>
       </c>
       <c r="G46" s="3">
-        <v>1568200</v>
+        <v>1530600</v>
       </c>
       <c r="H46" s="3">
-        <v>897200</v>
+        <v>875700</v>
       </c>
       <c r="I46" s="3">
-        <v>853700</v>
+        <v>833300</v>
       </c>
       <c r="J46" s="3">
-        <v>871200</v>
+        <v>850300</v>
       </c>
       <c r="K46" s="3">
         <v>768300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>118400</v>
+        <v>115500</v>
       </c>
       <c r="E47" s="3">
-        <v>196200</v>
+        <v>191500</v>
       </c>
       <c r="F47" s="3">
-        <v>325400</v>
+        <v>317600</v>
       </c>
       <c r="G47" s="3">
-        <v>304700</v>
+        <v>297400</v>
       </c>
       <c r="H47" s="3">
-        <v>268000</v>
+        <v>261600</v>
       </c>
       <c r="I47" s="3">
-        <v>63100</v>
+        <v>61600</v>
       </c>
       <c r="J47" s="3">
-        <v>58400</v>
+        <v>57000</v>
       </c>
       <c r="K47" s="3">
         <v>65400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16091400</v>
+        <v>15705600</v>
       </c>
       <c r="E48" s="3">
-        <v>15698500</v>
+        <v>15322200</v>
       </c>
       <c r="F48" s="3">
-        <v>15210900</v>
+        <v>14846300</v>
       </c>
       <c r="G48" s="3">
-        <v>14716000</v>
+        <v>14363200</v>
       </c>
       <c r="H48" s="3">
-        <v>14190900</v>
+        <v>13850800</v>
       </c>
       <c r="I48" s="3">
-        <v>13680700</v>
+        <v>13352800</v>
       </c>
       <c r="J48" s="3">
-        <v>13251000</v>
+        <v>12933400</v>
       </c>
       <c r="K48" s="3">
         <v>26434500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>247000</v>
+        <v>241100</v>
       </c>
       <c r="E49" s="3">
-        <v>257800</v>
+        <v>251600</v>
       </c>
       <c r="F49" s="3">
-        <v>276400</v>
+        <v>269800</v>
       </c>
       <c r="G49" s="3">
-        <v>269600</v>
+        <v>263200</v>
       </c>
       <c r="H49" s="3">
-        <v>256000</v>
+        <v>249800</v>
       </c>
       <c r="I49" s="3">
-        <v>221500</v>
+        <v>216200</v>
       </c>
       <c r="J49" s="3">
-        <v>197600</v>
+        <v>192900</v>
       </c>
       <c r="K49" s="3">
         <v>325900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1499200</v>
+        <v>1463300</v>
       </c>
       <c r="E52" s="3">
-        <v>1871000</v>
+        <v>1826100</v>
       </c>
       <c r="F52" s="3">
-        <v>1188800</v>
+        <v>1160300</v>
       </c>
       <c r="G52" s="3">
-        <v>875600</v>
+        <v>854600</v>
       </c>
       <c r="H52" s="3">
-        <v>1334500</v>
+        <v>1302500</v>
       </c>
       <c r="I52" s="3">
-        <v>1419300</v>
+        <v>1385300</v>
       </c>
       <c r="J52" s="3">
-        <v>1037600</v>
+        <v>1012700</v>
       </c>
       <c r="K52" s="3">
         <v>645300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19337300</v>
+        <v>18873800</v>
       </c>
       <c r="E54" s="3">
-        <v>19153200</v>
+        <v>18694100</v>
       </c>
       <c r="F54" s="3">
-        <v>17985400</v>
+        <v>17554300</v>
       </c>
       <c r="G54" s="3">
-        <v>17734000</v>
+        <v>17309000</v>
       </c>
       <c r="H54" s="3">
-        <v>16946600</v>
+        <v>16540400</v>
       </c>
       <c r="I54" s="3">
-        <v>16238400</v>
+        <v>15849100</v>
       </c>
       <c r="J54" s="3">
-        <v>15415700</v>
+        <v>15046200</v>
       </c>
       <c r="K54" s="3">
         <v>14819700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45400</v>
+        <v>44300</v>
       </c>
       <c r="E57" s="3">
-        <v>50100</v>
+        <v>48900</v>
       </c>
       <c r="F57" s="3">
+        <v>45800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>37100</v>
+      </c>
+      <c r="H57" s="3">
         <v>46900</v>
       </c>
-      <c r="G57" s="3">
-        <v>38000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>48000</v>
-      </c>
       <c r="I57" s="3">
-        <v>60100</v>
+        <v>58700</v>
       </c>
       <c r="J57" s="3">
-        <v>54700</v>
+        <v>53400</v>
       </c>
       <c r="K57" s="3">
         <v>605400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>893000</v>
+        <v>871600</v>
       </c>
       <c r="E58" s="3">
-        <v>1152400</v>
+        <v>1124800</v>
       </c>
       <c r="F58" s="3">
-        <v>954900</v>
+        <v>932000</v>
       </c>
       <c r="G58" s="3">
-        <v>1144900</v>
+        <v>1117500</v>
       </c>
       <c r="H58" s="3">
-        <v>444700</v>
+        <v>434100</v>
       </c>
       <c r="I58" s="3">
-        <v>639900</v>
+        <v>624600</v>
       </c>
       <c r="J58" s="3">
-        <v>788400</v>
+        <v>769500</v>
       </c>
       <c r="K58" s="3">
         <v>318700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>419200</v>
+        <v>409200</v>
       </c>
       <c r="E59" s="3">
+        <v>429900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>422500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>364900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>437300</v>
+      </c>
+      <c r="I59" s="3">
         <v>440500</v>
       </c>
-      <c r="F59" s="3">
-        <v>432900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>373800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>448000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>451300</v>
-      </c>
       <c r="J59" s="3">
-        <v>522700</v>
+        <v>510200</v>
       </c>
       <c r="K59" s="3">
         <v>628700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1357700</v>
+        <v>1325100</v>
       </c>
       <c r="E60" s="3">
-        <v>1643000</v>
+        <v>1603600</v>
       </c>
       <c r="F60" s="3">
-        <v>1434700</v>
+        <v>1400300</v>
       </c>
       <c r="G60" s="3">
-        <v>1556800</v>
+        <v>1519500</v>
       </c>
       <c r="H60" s="3">
-        <v>940700</v>
+        <v>918200</v>
       </c>
       <c r="I60" s="3">
-        <v>1151300</v>
+        <v>1123700</v>
       </c>
       <c r="J60" s="3">
-        <v>1365800</v>
+        <v>1333100</v>
       </c>
       <c r="K60" s="3">
         <v>843800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10633500</v>
+        <v>10378600</v>
       </c>
       <c r="E61" s="3">
-        <v>10253100</v>
+        <v>10007300</v>
       </c>
       <c r="F61" s="3">
-        <v>9704200</v>
+        <v>9471600</v>
       </c>
       <c r="G61" s="3">
-        <v>9645800</v>
+        <v>9414600</v>
       </c>
       <c r="H61" s="3">
-        <v>9626200</v>
+        <v>9395400</v>
       </c>
       <c r="I61" s="3">
-        <v>8876600</v>
+        <v>8663900</v>
       </c>
       <c r="J61" s="3">
-        <v>8274500</v>
+        <v>8076200</v>
       </c>
       <c r="K61" s="3">
         <v>8390500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3212500</v>
+        <v>3135500</v>
       </c>
       <c r="E62" s="3">
-        <v>3217500</v>
+        <v>3140300</v>
       </c>
       <c r="F62" s="3">
-        <v>2604000</v>
+        <v>2541600</v>
       </c>
       <c r="G62" s="3">
-        <v>2507100</v>
+        <v>2447000</v>
       </c>
       <c r="H62" s="3">
-        <v>2531600</v>
+        <v>2470900</v>
       </c>
       <c r="I62" s="3">
-        <v>2520700</v>
+        <v>2460300</v>
       </c>
       <c r="J62" s="3">
-        <v>2455400</v>
+        <v>2396500</v>
       </c>
       <c r="K62" s="3">
         <v>2449700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15203700</v>
+        <v>14839200</v>
       </c>
       <c r="E66" s="3">
-        <v>15113500</v>
+        <v>14751300</v>
       </c>
       <c r="F66" s="3">
-        <v>13742900</v>
+        <v>13413500</v>
       </c>
       <c r="G66" s="3">
-        <v>13709600</v>
+        <v>13381000</v>
       </c>
       <c r="H66" s="3">
-        <v>13098500</v>
+        <v>12784500</v>
       </c>
       <c r="I66" s="3">
-        <v>12548600</v>
+        <v>12247900</v>
       </c>
       <c r="J66" s="3">
-        <v>12095700</v>
+        <v>11805800</v>
       </c>
       <c r="K66" s="3">
         <v>11684000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3439100</v>
+        <v>3356600</v>
       </c>
       <c r="E72" s="3">
-        <v>3344600</v>
+        <v>3264400</v>
       </c>
       <c r="F72" s="3">
-        <v>3545200</v>
+        <v>3460200</v>
       </c>
       <c r="G72" s="3">
-        <v>3341300</v>
+        <v>3261200</v>
       </c>
       <c r="H72" s="3">
-        <v>3165200</v>
+        <v>3089300</v>
       </c>
       <c r="I72" s="3">
-        <v>3011900</v>
+        <v>2939700</v>
       </c>
       <c r="J72" s="3">
-        <v>2646300</v>
+        <v>2582900</v>
       </c>
       <c r="K72" s="3">
         <v>2207600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4133600</v>
+        <v>4034600</v>
       </c>
       <c r="E76" s="3">
-        <v>4039700</v>
+        <v>3942900</v>
       </c>
       <c r="F76" s="3">
-        <v>4242500</v>
+        <v>4140800</v>
       </c>
       <c r="G76" s="3">
-        <v>4024400</v>
+        <v>3927900</v>
       </c>
       <c r="H76" s="3">
-        <v>3848100</v>
+        <v>3755800</v>
       </c>
       <c r="I76" s="3">
-        <v>3689700</v>
+        <v>3601300</v>
       </c>
       <c r="J76" s="3">
-        <v>3320000</v>
+        <v>3240400</v>
       </c>
       <c r="K76" s="3">
         <v>3135700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>618300</v>
+        <v>603500</v>
       </c>
       <c r="E81" s="3">
-        <v>145700</v>
+        <v>142200</v>
       </c>
       <c r="F81" s="3">
-        <v>495600</v>
+        <v>483700</v>
       </c>
       <c r="G81" s="3">
-        <v>483600</v>
+        <v>472000</v>
       </c>
       <c r="H81" s="3">
-        <v>591700</v>
+        <v>577600</v>
       </c>
       <c r="I81" s="3">
-        <v>542100</v>
+        <v>529100</v>
       </c>
       <c r="J81" s="3">
-        <v>369900</v>
+        <v>361000</v>
       </c>
       <c r="K81" s="3">
         <v>1046300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>575900</v>
+        <v>562100</v>
       </c>
       <c r="E83" s="3">
-        <v>658400</v>
+        <v>642700</v>
       </c>
       <c r="F83" s="3">
-        <v>536200</v>
+        <v>523400</v>
       </c>
       <c r="G83" s="3">
-        <v>513900</v>
+        <v>501600</v>
       </c>
       <c r="H83" s="3">
-        <v>497600</v>
+        <v>485700</v>
       </c>
       <c r="I83" s="3">
-        <v>496000</v>
+        <v>484100</v>
       </c>
       <c r="J83" s="3">
-        <v>480900</v>
+        <v>469300</v>
       </c>
       <c r="K83" s="3">
         <v>476800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1172000</v>
+        <v>1143900</v>
       </c>
       <c r="E89" s="3">
-        <v>1105100</v>
+        <v>1078600</v>
       </c>
       <c r="F89" s="3">
-        <v>1135100</v>
+        <v>1107900</v>
       </c>
       <c r="G89" s="3">
-        <v>1112300</v>
+        <v>1085600</v>
       </c>
       <c r="H89" s="3">
-        <v>1119400</v>
+        <v>1092600</v>
       </c>
       <c r="I89" s="3">
-        <v>935000</v>
+        <v>912600</v>
       </c>
       <c r="J89" s="3">
-        <v>963500</v>
+        <v>940400</v>
       </c>
       <c r="K89" s="3">
         <v>1127000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-832500</v>
+        <v>-812500</v>
       </c>
       <c r="E91" s="3">
-        <v>-890300</v>
+        <v>-868900</v>
       </c>
       <c r="F91" s="3">
-        <v>-848700</v>
+        <v>-828300</v>
       </c>
       <c r="G91" s="3">
-        <v>-952700</v>
+        <v>-929900</v>
       </c>
       <c r="H91" s="3">
-        <v>-917000</v>
+        <v>-895000</v>
       </c>
       <c r="I91" s="3">
-        <v>-864900</v>
+        <v>-844200</v>
       </c>
       <c r="J91" s="3">
-        <v>-907900</v>
+        <v>-886100</v>
       </c>
       <c r="K91" s="3">
         <v>-936400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-749100</v>
+        <v>-731200</v>
       </c>
       <c r="E94" s="3">
-        <v>-810000</v>
+        <v>-790500</v>
       </c>
       <c r="F94" s="3">
-        <v>-856100</v>
+        <v>-835500</v>
       </c>
       <c r="G94" s="3">
-        <v>-986300</v>
+        <v>-962700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1097300</v>
+        <v>-1071000</v>
       </c>
       <c r="I94" s="3">
-        <v>-923000</v>
+        <v>-900900</v>
       </c>
       <c r="J94" s="3">
-        <v>-961300</v>
+        <v>-938300</v>
       </c>
       <c r="K94" s="3">
         <v>-960300</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-398100</v>
+        <v>-388500</v>
       </c>
       <c r="E96" s="3">
-        <v>-388000</v>
+        <v>-378700</v>
       </c>
       <c r="F96" s="3">
-        <v>-374200</v>
+        <v>-365300</v>
       </c>
       <c r="G96" s="3">
-        <v>-364100</v>
+        <v>-355400</v>
       </c>
       <c r="H96" s="3">
-        <v>-358800</v>
+        <v>-350200</v>
       </c>
       <c r="I96" s="3">
-        <v>-352800</v>
+        <v>-344400</v>
       </c>
       <c r="J96" s="3">
-        <v>-340100</v>
+        <v>-332000</v>
       </c>
       <c r="K96" s="3">
         <v>-336700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-122300</v>
+        <v>-119400</v>
       </c>
       <c r="E100" s="3">
-        <v>-37900</v>
+        <v>-37000</v>
       </c>
       <c r="F100" s="3">
-        <v>-514700</v>
+        <v>-502400</v>
       </c>
       <c r="G100" s="3">
-        <v>251900</v>
+        <v>245900</v>
       </c>
       <c r="H100" s="3">
-        <v>30000</v>
+        <v>29300</v>
       </c>
       <c r="I100" s="3">
-        <v>-63300</v>
+        <v>-61800</v>
       </c>
       <c r="J100" s="3">
-        <v>189800</v>
+        <v>185300</v>
       </c>
       <c r="K100" s="3">
         <v>-299300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>300600</v>
+        <v>293400</v>
       </c>
       <c r="E102" s="3">
-        <v>257200</v>
+        <v>251000</v>
       </c>
       <c r="F102" s="3">
-        <v>-235700</v>
+        <v>-230000</v>
       </c>
       <c r="G102" s="3">
-        <v>377900</v>
+        <v>368800</v>
       </c>
       <c r="H102" s="3">
-        <v>52100</v>
+        <v>50800</v>
       </c>
       <c r="I102" s="3">
-        <v>-51300</v>
+        <v>-50000</v>
       </c>
       <c r="J102" s="3">
-        <v>192000</v>
+        <v>187400</v>
       </c>
       <c r="K102" s="3">
         <v>-132600</v>

--- a/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2406600</v>
+        <v>2356900</v>
       </c>
       <c r="E8" s="3">
-        <v>2474900</v>
+        <v>2423800</v>
       </c>
       <c r="F8" s="3">
-        <v>2420600</v>
+        <v>2370600</v>
       </c>
       <c r="G8" s="3">
-        <v>2310500</v>
+        <v>2262800</v>
       </c>
       <c r="H8" s="3">
-        <v>2268200</v>
+        <v>2221300</v>
       </c>
       <c r="I8" s="3">
-        <v>2302800</v>
+        <v>2255200</v>
       </c>
       <c r="J8" s="3">
-        <v>2289800</v>
+        <v>2242400</v>
       </c>
       <c r="K8" s="3">
         <v>2389800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>348900</v>
+        <v>341700</v>
       </c>
       <c r="E9" s="3">
-        <v>333600</v>
+        <v>326700</v>
       </c>
       <c r="F9" s="3">
-        <v>349800</v>
+        <v>342600</v>
       </c>
       <c r="G9" s="3">
-        <v>313300</v>
+        <v>306900</v>
       </c>
       <c r="H9" s="3">
-        <v>320700</v>
+        <v>314000</v>
       </c>
       <c r="I9" s="3">
-        <v>339600</v>
+        <v>332500</v>
       </c>
       <c r="J9" s="3">
-        <v>284900</v>
+        <v>279000</v>
       </c>
       <c r="K9" s="3">
         <v>282300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2057700</v>
+        <v>2015200</v>
       </c>
       <c r="E10" s="3">
-        <v>2141300</v>
+        <v>2097100</v>
       </c>
       <c r="F10" s="3">
-        <v>2070800</v>
+        <v>2028000</v>
       </c>
       <c r="G10" s="3">
-        <v>1997200</v>
+        <v>1955900</v>
       </c>
       <c r="H10" s="3">
-        <v>1947500</v>
+        <v>1907300</v>
       </c>
       <c r="I10" s="3">
-        <v>1963200</v>
+        <v>1922700</v>
       </c>
       <c r="J10" s="3">
-        <v>2004900</v>
+        <v>1963500</v>
       </c>
       <c r="K10" s="3">
         <v>2107500</v>
@@ -856,13 +856,13 @@
         <v>1600</v>
       </c>
       <c r="H12" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I12" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J12" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K12" s="3">
         <v>3400</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-28600</v>
+        <v>-28000</v>
       </c>
       <c r="E14" s="3">
-        <v>60300</v>
+        <v>59100</v>
       </c>
       <c r="F14" s="3">
-        <v>64700</v>
+        <v>63400</v>
       </c>
       <c r="G14" s="3">
-        <v>31400</v>
+        <v>30800</v>
       </c>
       <c r="H14" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="I14" s="3">
-        <v>41100</v>
+        <v>40300</v>
       </c>
       <c r="J14" s="3">
-        <v>22900</v>
+        <v>22400</v>
       </c>
       <c r="K14" s="3">
         <v>20800</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>562100</v>
+        <v>550500</v>
       </c>
       <c r="E15" s="3">
-        <v>642700</v>
+        <v>629400</v>
       </c>
       <c r="F15" s="3">
-        <v>523400</v>
+        <v>512600</v>
       </c>
       <c r="G15" s="3">
-        <v>501600</v>
+        <v>491200</v>
       </c>
       <c r="H15" s="3">
-        <v>485700</v>
+        <v>475700</v>
       </c>
       <c r="I15" s="3">
-        <v>484100</v>
+        <v>474100</v>
       </c>
       <c r="J15" s="3">
-        <v>469300</v>
+        <v>459600</v>
       </c>
       <c r="K15" s="3">
         <v>953500</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1556300</v>
+        <v>1524200</v>
       </c>
       <c r="E17" s="3">
-        <v>1635900</v>
+        <v>1602100</v>
       </c>
       <c r="F17" s="3">
-        <v>1575500</v>
+        <v>1542900</v>
       </c>
       <c r="G17" s="3">
-        <v>1463400</v>
+        <v>1433200</v>
       </c>
       <c r="H17" s="3">
-        <v>1432800</v>
+        <v>1403200</v>
       </c>
       <c r="I17" s="3">
-        <v>1546900</v>
+        <v>1514900</v>
       </c>
       <c r="J17" s="3">
-        <v>1420200</v>
+        <v>1390800</v>
       </c>
       <c r="K17" s="3">
         <v>1498000</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>850300</v>
+        <v>832700</v>
       </c>
       <c r="E18" s="3">
-        <v>839000</v>
+        <v>821700</v>
       </c>
       <c r="F18" s="3">
-        <v>845100</v>
+        <v>827600</v>
       </c>
       <c r="G18" s="3">
-        <v>847100</v>
+        <v>829600</v>
       </c>
       <c r="H18" s="3">
-        <v>835400</v>
+        <v>818100</v>
       </c>
       <c r="I18" s="3">
-        <v>755900</v>
+        <v>740300</v>
       </c>
       <c r="J18" s="3">
-        <v>869600</v>
+        <v>851600</v>
       </c>
       <c r="K18" s="3">
         <v>891800</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>125000</v>
+        <v>122400</v>
       </c>
       <c r="E20" s="3">
-        <v>-127000</v>
+        <v>-124400</v>
       </c>
       <c r="F20" s="3">
-        <v>44300</v>
+        <v>43400</v>
       </c>
       <c r="G20" s="3">
-        <v>82000</v>
+        <v>80300</v>
       </c>
       <c r="H20" s="3">
-        <v>55600</v>
+        <v>54500</v>
       </c>
       <c r="I20" s="3">
-        <v>-21700</v>
+        <v>-21200</v>
       </c>
       <c r="J20" s="3">
-        <v>-140600</v>
+        <v>-137700</v>
       </c>
       <c r="K20" s="3">
         <v>199500</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1538600</v>
+        <v>1511700</v>
       </c>
       <c r="E21" s="3">
-        <v>1356100</v>
+        <v>1333600</v>
       </c>
       <c r="F21" s="3">
-        <v>1414000</v>
+        <v>1389300</v>
       </c>
       <c r="G21" s="3">
-        <v>1431800</v>
+        <v>1406500</v>
       </c>
       <c r="H21" s="3">
-        <v>1377800</v>
+        <v>1353500</v>
       </c>
       <c r="I21" s="3">
-        <v>1219400</v>
+        <v>1198400</v>
       </c>
       <c r="J21" s="3">
-        <v>1199400</v>
+        <v>1178700</v>
       </c>
       <c r="K21" s="3">
         <v>1568200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>241900</v>
+        <v>236900</v>
       </c>
       <c r="E22" s="3">
-        <v>308400</v>
+        <v>302000</v>
       </c>
       <c r="F22" s="3">
-        <v>308800</v>
+        <v>302400</v>
       </c>
       <c r="G22" s="3">
-        <v>353900</v>
+        <v>346600</v>
       </c>
       <c r="H22" s="3">
-        <v>302200</v>
+        <v>295900</v>
       </c>
       <c r="I22" s="3">
-        <v>263700</v>
+        <v>258200</v>
       </c>
       <c r="J22" s="3">
-        <v>274300</v>
+        <v>268700</v>
       </c>
       <c r="K22" s="3">
         <v>322500</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>733400</v>
+        <v>718300</v>
       </c>
       <c r="E23" s="3">
-        <v>403600</v>
+        <v>395200</v>
       </c>
       <c r="F23" s="3">
-        <v>580600</v>
+        <v>568600</v>
       </c>
       <c r="G23" s="3">
-        <v>575200</v>
+        <v>563300</v>
       </c>
       <c r="H23" s="3">
-        <v>588900</v>
+        <v>576700</v>
       </c>
       <c r="I23" s="3">
-        <v>470500</v>
+        <v>460800</v>
       </c>
       <c r="J23" s="3">
-        <v>454700</v>
+        <v>445300</v>
       </c>
       <c r="K23" s="3">
         <v>768800</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>129900</v>
+        <v>127200</v>
       </c>
       <c r="E24" s="3">
-        <v>261400</v>
+        <v>256000</v>
       </c>
       <c r="F24" s="3">
-        <v>96900</v>
+        <v>94900</v>
       </c>
       <c r="G24" s="3">
-        <v>103200</v>
+        <v>101000</v>
       </c>
       <c r="H24" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="I24" s="3">
-        <v>-58600</v>
+        <v>-57400</v>
       </c>
       <c r="J24" s="3">
-        <v>93700</v>
+        <v>91800</v>
       </c>
       <c r="K24" s="3">
         <v>-276400</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>603500</v>
+        <v>591000</v>
       </c>
       <c r="E26" s="3">
-        <v>142200</v>
+        <v>139200</v>
       </c>
       <c r="F26" s="3">
-        <v>483700</v>
+        <v>473700</v>
       </c>
       <c r="G26" s="3">
-        <v>472000</v>
+        <v>462300</v>
       </c>
       <c r="H26" s="3">
-        <v>577600</v>
+        <v>565600</v>
       </c>
       <c r="I26" s="3">
-        <v>529100</v>
+        <v>518200</v>
       </c>
       <c r="J26" s="3">
-        <v>361000</v>
+        <v>353500</v>
       </c>
       <c r="K26" s="3">
         <v>1045200</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>603500</v>
+        <v>591000</v>
       </c>
       <c r="E27" s="3">
-        <v>142200</v>
+        <v>139200</v>
       </c>
       <c r="F27" s="3">
-        <v>483700</v>
+        <v>473700</v>
       </c>
       <c r="G27" s="3">
-        <v>472000</v>
+        <v>462300</v>
       </c>
       <c r="H27" s="3">
-        <v>577600</v>
+        <v>565600</v>
       </c>
       <c r="I27" s="3">
-        <v>529100</v>
+        <v>518200</v>
       </c>
       <c r="J27" s="3">
-        <v>361000</v>
+        <v>353500</v>
       </c>
       <c r="K27" s="3">
         <v>1045200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-125000</v>
+        <v>-122400</v>
       </c>
       <c r="E32" s="3">
-        <v>127000</v>
+        <v>124400</v>
       </c>
       <c r="F32" s="3">
-        <v>-44300</v>
+        <v>-43400</v>
       </c>
       <c r="G32" s="3">
-        <v>-82000</v>
+        <v>-80300</v>
       </c>
       <c r="H32" s="3">
-        <v>-55600</v>
+        <v>-54500</v>
       </c>
       <c r="I32" s="3">
-        <v>21700</v>
+        <v>21200</v>
       </c>
       <c r="J32" s="3">
-        <v>140600</v>
+        <v>137700</v>
       </c>
       <c r="K32" s="3">
         <v>-199500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>603500</v>
+        <v>591000</v>
       </c>
       <c r="E33" s="3">
-        <v>142200</v>
+        <v>139200</v>
       </c>
       <c r="F33" s="3">
-        <v>483700</v>
+        <v>473700</v>
       </c>
       <c r="G33" s="3">
-        <v>472000</v>
+        <v>462300</v>
       </c>
       <c r="H33" s="3">
-        <v>577600</v>
+        <v>565600</v>
       </c>
       <c r="I33" s="3">
-        <v>529100</v>
+        <v>518200</v>
       </c>
       <c r="J33" s="3">
-        <v>361000</v>
+        <v>353500</v>
       </c>
       <c r="K33" s="3">
         <v>1046300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>603500</v>
+        <v>591000</v>
       </c>
       <c r="E35" s="3">
-        <v>142200</v>
+        <v>139200</v>
       </c>
       <c r="F35" s="3">
-        <v>483700</v>
+        <v>473700</v>
       </c>
       <c r="G35" s="3">
-        <v>472000</v>
+        <v>462300</v>
       </c>
       <c r="H35" s="3">
-        <v>577600</v>
+        <v>565600</v>
       </c>
       <c r="I35" s="3">
-        <v>529100</v>
+        <v>518200</v>
       </c>
       <c r="J35" s="3">
-        <v>361000</v>
+        <v>353500</v>
       </c>
       <c r="K35" s="3">
         <v>1046300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>990500</v>
+        <v>970000</v>
       </c>
       <c r="E41" s="3">
-        <v>703000</v>
+        <v>688400</v>
       </c>
       <c r="F41" s="3">
-        <v>451600</v>
+        <v>442300</v>
       </c>
       <c r="G41" s="3">
-        <v>678900</v>
+        <v>664800</v>
       </c>
       <c r="H41" s="3">
-        <v>329800</v>
+        <v>323000</v>
       </c>
       <c r="I41" s="3">
-        <v>284300</v>
+        <v>278400</v>
       </c>
       <c r="J41" s="3">
-        <v>324800</v>
+        <v>318100</v>
       </c>
       <c r="K41" s="3">
         <v>343900</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>314300</v>
+        <v>307800</v>
       </c>
       <c r="E43" s="3">
-        <v>377500</v>
+        <v>369700</v>
       </c>
       <c r="F43" s="3">
-        <v>353900</v>
+        <v>346600</v>
       </c>
       <c r="G43" s="3">
-        <v>379900</v>
+        <v>372000</v>
       </c>
       <c r="H43" s="3">
-        <v>414000</v>
+        <v>405400</v>
       </c>
       <c r="I43" s="3">
-        <v>306000</v>
+        <v>299700</v>
       </c>
       <c r="J43" s="3">
-        <v>470300</v>
+        <v>460600</v>
       </c>
       <c r="K43" s="3">
         <v>763300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24400</v>
+        <v>23900</v>
       </c>
       <c r="E44" s="3">
-        <v>22100</v>
+        <v>21600</v>
       </c>
       <c r="F44" s="3">
-        <v>19800</v>
+        <v>19400</v>
       </c>
       <c r="G44" s="3">
-        <v>22400</v>
+        <v>21900</v>
       </c>
       <c r="H44" s="3">
-        <v>29800</v>
+        <v>29200</v>
       </c>
       <c r="I44" s="3">
-        <v>39000</v>
+        <v>38200</v>
       </c>
       <c r="J44" s="3">
-        <v>53900</v>
+        <v>52800</v>
       </c>
       <c r="K44" s="3">
         <v>116500</v>
@@ -1882,22 +1882,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19200</v>
+        <v>18800</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>134800</v>
+        <v>132100</v>
       </c>
       <c r="G45" s="3">
-        <v>449500</v>
+        <v>440200</v>
       </c>
       <c r="H45" s="3">
-        <v>102100</v>
+        <v>100000</v>
       </c>
       <c r="I45" s="3">
-        <v>203900</v>
+        <v>199700</v>
       </c>
       <c r="J45" s="3">
         <v>1300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1348300</v>
+        <v>1320400</v>
       </c>
       <c r="E46" s="3">
-        <v>1102700</v>
+        <v>1079900</v>
       </c>
       <c r="F46" s="3">
-        <v>960300</v>
+        <v>940400</v>
       </c>
       <c r="G46" s="3">
-        <v>1530600</v>
+        <v>1499000</v>
       </c>
       <c r="H46" s="3">
-        <v>875700</v>
+        <v>857600</v>
       </c>
       <c r="I46" s="3">
-        <v>833300</v>
+        <v>816000</v>
       </c>
       <c r="J46" s="3">
-        <v>850300</v>
+        <v>832700</v>
       </c>
       <c r="K46" s="3">
         <v>768300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>115500</v>
+        <v>113200</v>
       </c>
       <c r="E47" s="3">
-        <v>191500</v>
+        <v>187600</v>
       </c>
       <c r="F47" s="3">
-        <v>317600</v>
+        <v>311000</v>
       </c>
       <c r="G47" s="3">
-        <v>297400</v>
+        <v>291200</v>
       </c>
       <c r="H47" s="3">
-        <v>261600</v>
+        <v>256200</v>
       </c>
       <c r="I47" s="3">
-        <v>61600</v>
+        <v>60400</v>
       </c>
       <c r="J47" s="3">
-        <v>57000</v>
+        <v>55800</v>
       </c>
       <c r="K47" s="3">
         <v>65400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15705600</v>
+        <v>15381100</v>
       </c>
       <c r="E48" s="3">
-        <v>15322200</v>
+        <v>15005500</v>
       </c>
       <c r="F48" s="3">
-        <v>14846300</v>
+        <v>14539500</v>
       </c>
       <c r="G48" s="3">
-        <v>14363200</v>
+        <v>14066400</v>
       </c>
       <c r="H48" s="3">
-        <v>13850800</v>
+        <v>13564500</v>
       </c>
       <c r="I48" s="3">
-        <v>13352800</v>
+        <v>13076800</v>
       </c>
       <c r="J48" s="3">
-        <v>12933400</v>
+        <v>12666100</v>
       </c>
       <c r="K48" s="3">
         <v>26434500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>241100</v>
+        <v>236100</v>
       </c>
       <c r="E49" s="3">
-        <v>251600</v>
+        <v>246400</v>
       </c>
       <c r="F49" s="3">
-        <v>269800</v>
+        <v>264200</v>
       </c>
       <c r="G49" s="3">
-        <v>263200</v>
+        <v>257700</v>
       </c>
       <c r="H49" s="3">
-        <v>249800</v>
+        <v>244700</v>
       </c>
       <c r="I49" s="3">
-        <v>216200</v>
+        <v>211700</v>
       </c>
       <c r="J49" s="3">
-        <v>192900</v>
+        <v>188900</v>
       </c>
       <c r="K49" s="3">
         <v>325900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1463300</v>
+        <v>1433000</v>
       </c>
       <c r="E52" s="3">
-        <v>1826100</v>
+        <v>1788400</v>
       </c>
       <c r="F52" s="3">
-        <v>1160300</v>
+        <v>1136300</v>
       </c>
       <c r="G52" s="3">
-        <v>854600</v>
+        <v>836900</v>
       </c>
       <c r="H52" s="3">
-        <v>1302500</v>
+        <v>1275600</v>
       </c>
       <c r="I52" s="3">
-        <v>1385300</v>
+        <v>1356600</v>
       </c>
       <c r="J52" s="3">
-        <v>1012700</v>
+        <v>991800</v>
       </c>
       <c r="K52" s="3">
         <v>645300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18873800</v>
+        <v>18483700</v>
       </c>
       <c r="E54" s="3">
-        <v>18694100</v>
+        <v>18307700</v>
       </c>
       <c r="F54" s="3">
-        <v>17554300</v>
+        <v>17191500</v>
       </c>
       <c r="G54" s="3">
-        <v>17309000</v>
+        <v>16951200</v>
       </c>
       <c r="H54" s="3">
-        <v>16540400</v>
+        <v>16198500</v>
       </c>
       <c r="I54" s="3">
-        <v>15849100</v>
+        <v>15521600</v>
       </c>
       <c r="J54" s="3">
-        <v>15046200</v>
+        <v>14735300</v>
       </c>
       <c r="K54" s="3">
         <v>14819700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>44300</v>
+        <v>43400</v>
       </c>
       <c r="E57" s="3">
-        <v>48900</v>
+        <v>47800</v>
       </c>
       <c r="F57" s="3">
-        <v>45800</v>
+        <v>44800</v>
       </c>
       <c r="G57" s="3">
-        <v>37100</v>
+        <v>36400</v>
       </c>
       <c r="H57" s="3">
-        <v>46900</v>
+        <v>45900</v>
       </c>
       <c r="I57" s="3">
-        <v>58700</v>
+        <v>57500</v>
       </c>
       <c r="J57" s="3">
-        <v>53400</v>
+        <v>52300</v>
       </c>
       <c r="K57" s="3">
         <v>605400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>871600</v>
+        <v>853600</v>
       </c>
       <c r="E58" s="3">
-        <v>1124800</v>
+        <v>1101500</v>
       </c>
       <c r="F58" s="3">
-        <v>932000</v>
+        <v>912800</v>
       </c>
       <c r="G58" s="3">
-        <v>1117500</v>
+        <v>1094400</v>
       </c>
       <c r="H58" s="3">
-        <v>434100</v>
+        <v>425100</v>
       </c>
       <c r="I58" s="3">
-        <v>624600</v>
+        <v>611600</v>
       </c>
       <c r="J58" s="3">
-        <v>769500</v>
+        <v>753600</v>
       </c>
       <c r="K58" s="3">
         <v>318700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>409200</v>
+        <v>400700</v>
       </c>
       <c r="E59" s="3">
-        <v>429900</v>
+        <v>421100</v>
       </c>
       <c r="F59" s="3">
-        <v>422500</v>
+        <v>413800</v>
       </c>
       <c r="G59" s="3">
-        <v>364900</v>
+        <v>357300</v>
       </c>
       <c r="H59" s="3">
-        <v>437300</v>
+        <v>428200</v>
       </c>
       <c r="I59" s="3">
-        <v>440500</v>
+        <v>431400</v>
       </c>
       <c r="J59" s="3">
-        <v>510200</v>
+        <v>499700</v>
       </c>
       <c r="K59" s="3">
         <v>628700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1325100</v>
+        <v>1297700</v>
       </c>
       <c r="E60" s="3">
-        <v>1603600</v>
+        <v>1570400</v>
       </c>
       <c r="F60" s="3">
-        <v>1400300</v>
+        <v>1371400</v>
       </c>
       <c r="G60" s="3">
-        <v>1519500</v>
+        <v>1488000</v>
       </c>
       <c r="H60" s="3">
-        <v>918200</v>
+        <v>899200</v>
       </c>
       <c r="I60" s="3">
-        <v>1123700</v>
+        <v>1100500</v>
       </c>
       <c r="J60" s="3">
-        <v>1333100</v>
+        <v>1305500</v>
       </c>
       <c r="K60" s="3">
         <v>843800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10378600</v>
+        <v>10164100</v>
       </c>
       <c r="E61" s="3">
-        <v>10007300</v>
+        <v>9800500</v>
       </c>
       <c r="F61" s="3">
-        <v>9471600</v>
+        <v>9275800</v>
       </c>
       <c r="G61" s="3">
-        <v>9414600</v>
+        <v>9220000</v>
       </c>
       <c r="H61" s="3">
-        <v>9395400</v>
+        <v>9201300</v>
       </c>
       <c r="I61" s="3">
-        <v>8663900</v>
+        <v>8484800</v>
       </c>
       <c r="J61" s="3">
-        <v>8076200</v>
+        <v>7909300</v>
       </c>
       <c r="K61" s="3">
         <v>8390500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3135500</v>
+        <v>3070700</v>
       </c>
       <c r="E62" s="3">
-        <v>3140300</v>
+        <v>3075400</v>
       </c>
       <c r="F62" s="3">
-        <v>2541600</v>
+        <v>2489100</v>
       </c>
       <c r="G62" s="3">
-        <v>2447000</v>
+        <v>2396400</v>
       </c>
       <c r="H62" s="3">
-        <v>2470900</v>
+        <v>2419900</v>
       </c>
       <c r="I62" s="3">
-        <v>2460300</v>
+        <v>2409400</v>
       </c>
       <c r="J62" s="3">
-        <v>2396500</v>
+        <v>2347000</v>
       </c>
       <c r="K62" s="3">
         <v>2449700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14839200</v>
+        <v>14532600</v>
       </c>
       <c r="E66" s="3">
-        <v>14751300</v>
+        <v>14446400</v>
       </c>
       <c r="F66" s="3">
-        <v>13413500</v>
+        <v>13136300</v>
       </c>
       <c r="G66" s="3">
-        <v>13381000</v>
+        <v>13104500</v>
       </c>
       <c r="H66" s="3">
-        <v>12784500</v>
+        <v>12520300</v>
       </c>
       <c r="I66" s="3">
-        <v>12247900</v>
+        <v>11994700</v>
       </c>
       <c r="J66" s="3">
-        <v>11805800</v>
+        <v>11561800</v>
       </c>
       <c r="K66" s="3">
         <v>11684000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3356600</v>
+        <v>3287300</v>
       </c>
       <c r="E72" s="3">
-        <v>3264400</v>
+        <v>3196900</v>
       </c>
       <c r="F72" s="3">
-        <v>3460200</v>
+        <v>3388700</v>
       </c>
       <c r="G72" s="3">
-        <v>3261200</v>
+        <v>3193800</v>
       </c>
       <c r="H72" s="3">
-        <v>3089300</v>
+        <v>3025500</v>
       </c>
       <c r="I72" s="3">
-        <v>2939700</v>
+        <v>2879000</v>
       </c>
       <c r="J72" s="3">
-        <v>2582900</v>
+        <v>2529500</v>
       </c>
       <c r="K72" s="3">
         <v>2207600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4034600</v>
+        <v>3951200</v>
       </c>
       <c r="E76" s="3">
-        <v>3942900</v>
+        <v>3861400</v>
       </c>
       <c r="F76" s="3">
-        <v>4140800</v>
+        <v>4055200</v>
       </c>
       <c r="G76" s="3">
-        <v>3927900</v>
+        <v>3846800</v>
       </c>
       <c r="H76" s="3">
-        <v>3755800</v>
+        <v>3678200</v>
       </c>
       <c r="I76" s="3">
-        <v>3601300</v>
+        <v>3526900</v>
       </c>
       <c r="J76" s="3">
-        <v>3240400</v>
+        <v>3173500</v>
       </c>
       <c r="K76" s="3">
         <v>3135700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>603500</v>
+        <v>591000</v>
       </c>
       <c r="E81" s="3">
-        <v>142200</v>
+        <v>139200</v>
       </c>
       <c r="F81" s="3">
-        <v>483700</v>
+        <v>473700</v>
       </c>
       <c r="G81" s="3">
-        <v>472000</v>
+        <v>462300</v>
       </c>
       <c r="H81" s="3">
-        <v>577600</v>
+        <v>565600</v>
       </c>
       <c r="I81" s="3">
-        <v>529100</v>
+        <v>518200</v>
       </c>
       <c r="J81" s="3">
-        <v>361000</v>
+        <v>353500</v>
       </c>
       <c r="K81" s="3">
         <v>1046300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>562100</v>
+        <v>550500</v>
       </c>
       <c r="E83" s="3">
-        <v>642700</v>
+        <v>629400</v>
       </c>
       <c r="F83" s="3">
-        <v>523400</v>
+        <v>512600</v>
       </c>
       <c r="G83" s="3">
-        <v>501600</v>
+        <v>491200</v>
       </c>
       <c r="H83" s="3">
-        <v>485700</v>
+        <v>475700</v>
       </c>
       <c r="I83" s="3">
-        <v>484100</v>
+        <v>474100</v>
       </c>
       <c r="J83" s="3">
-        <v>469300</v>
+        <v>459600</v>
       </c>
       <c r="K83" s="3">
         <v>476800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1143900</v>
+        <v>1120300</v>
       </c>
       <c r="E89" s="3">
-        <v>1078600</v>
+        <v>1056300</v>
       </c>
       <c r="F89" s="3">
-        <v>1107900</v>
+        <v>1085000</v>
       </c>
       <c r="G89" s="3">
-        <v>1085600</v>
+        <v>1063200</v>
       </c>
       <c r="H89" s="3">
-        <v>1092600</v>
+        <v>1070000</v>
       </c>
       <c r="I89" s="3">
-        <v>912600</v>
+        <v>893700</v>
       </c>
       <c r="J89" s="3">
-        <v>940400</v>
+        <v>921000</v>
       </c>
       <c r="K89" s="3">
         <v>1127000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-812500</v>
+        <v>-795700</v>
       </c>
       <c r="E91" s="3">
-        <v>-868900</v>
+        <v>-851000</v>
       </c>
       <c r="F91" s="3">
-        <v>-828300</v>
+        <v>-811200</v>
       </c>
       <c r="G91" s="3">
-        <v>-929900</v>
+        <v>-910700</v>
       </c>
       <c r="H91" s="3">
-        <v>-895000</v>
+        <v>-876500</v>
       </c>
       <c r="I91" s="3">
-        <v>-844200</v>
+        <v>-826700</v>
       </c>
       <c r="J91" s="3">
-        <v>-886100</v>
+        <v>-867800</v>
       </c>
       <c r="K91" s="3">
         <v>-936400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-731200</v>
+        <v>-716100</v>
       </c>
       <c r="E94" s="3">
-        <v>-790500</v>
+        <v>-774200</v>
       </c>
       <c r="F94" s="3">
-        <v>-835500</v>
+        <v>-818300</v>
       </c>
       <c r="G94" s="3">
-        <v>-962700</v>
+        <v>-942800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1071000</v>
+        <v>-1048900</v>
       </c>
       <c r="I94" s="3">
-        <v>-900900</v>
+        <v>-882300</v>
       </c>
       <c r="J94" s="3">
-        <v>-938300</v>
+        <v>-918900</v>
       </c>
       <c r="K94" s="3">
         <v>-960300</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-388500</v>
+        <v>-380500</v>
       </c>
       <c r="E96" s="3">
-        <v>-378700</v>
+        <v>-370900</v>
       </c>
       <c r="F96" s="3">
-        <v>-365300</v>
+        <v>-357700</v>
       </c>
       <c r="G96" s="3">
-        <v>-355400</v>
+        <v>-348100</v>
       </c>
       <c r="H96" s="3">
-        <v>-350200</v>
+        <v>-343000</v>
       </c>
       <c r="I96" s="3">
-        <v>-344400</v>
+        <v>-337200</v>
       </c>
       <c r="J96" s="3">
-        <v>-332000</v>
+        <v>-325100</v>
       </c>
       <c r="K96" s="3">
         <v>-336700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-119400</v>
+        <v>-116900</v>
       </c>
       <c r="E100" s="3">
-        <v>-37000</v>
+        <v>-36200</v>
       </c>
       <c r="F100" s="3">
-        <v>-502400</v>
+        <v>-492000</v>
       </c>
       <c r="G100" s="3">
-        <v>245900</v>
+        <v>240800</v>
       </c>
       <c r="H100" s="3">
-        <v>29300</v>
+        <v>28700</v>
       </c>
       <c r="I100" s="3">
-        <v>-61800</v>
+        <v>-60500</v>
       </c>
       <c r="J100" s="3">
-        <v>185300</v>
+        <v>181500</v>
       </c>
       <c r="K100" s="3">
         <v>-299300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>293400</v>
+        <v>287300</v>
       </c>
       <c r="E102" s="3">
-        <v>251000</v>
+        <v>245900</v>
       </c>
       <c r="F102" s="3">
-        <v>-230000</v>
+        <v>-225300</v>
       </c>
       <c r="G102" s="3">
-        <v>368800</v>
+        <v>361200</v>
       </c>
       <c r="H102" s="3">
-        <v>50800</v>
+        <v>49800</v>
       </c>
       <c r="I102" s="3">
-        <v>-50000</v>
+        <v>-49000</v>
       </c>
       <c r="J102" s="3">
-        <v>187400</v>
+        <v>183500</v>
       </c>
       <c r="K102" s="3">
         <v>-132600</v>

--- a/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2356900</v>
+        <v>2205600</v>
       </c>
       <c r="E8" s="3">
-        <v>2423800</v>
+        <v>2268200</v>
       </c>
       <c r="F8" s="3">
-        <v>2370600</v>
+        <v>2218400</v>
       </c>
       <c r="G8" s="3">
-        <v>2262800</v>
+        <v>2117500</v>
       </c>
       <c r="H8" s="3">
-        <v>2221300</v>
+        <v>2078700</v>
       </c>
       <c r="I8" s="3">
-        <v>2255200</v>
+        <v>2110400</v>
       </c>
       <c r="J8" s="3">
-        <v>2242400</v>
+        <v>2098500</v>
       </c>
       <c r="K8" s="3">
         <v>2389800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>341700</v>
+        <v>319700</v>
       </c>
       <c r="E9" s="3">
-        <v>326700</v>
+        <v>305700</v>
       </c>
       <c r="F9" s="3">
-        <v>342600</v>
+        <v>320600</v>
       </c>
       <c r="G9" s="3">
-        <v>306900</v>
+        <v>287200</v>
       </c>
       <c r="H9" s="3">
-        <v>314000</v>
+        <v>293900</v>
       </c>
       <c r="I9" s="3">
-        <v>332500</v>
+        <v>311200</v>
       </c>
       <c r="J9" s="3">
-        <v>279000</v>
+        <v>261100</v>
       </c>
       <c r="K9" s="3">
         <v>282300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2015200</v>
+        <v>1885800</v>
       </c>
       <c r="E10" s="3">
-        <v>2097100</v>
+        <v>1962500</v>
       </c>
       <c r="F10" s="3">
-        <v>2028000</v>
+        <v>1897800</v>
       </c>
       <c r="G10" s="3">
-        <v>1955900</v>
+        <v>1830300</v>
       </c>
       <c r="H10" s="3">
-        <v>1907300</v>
+        <v>1784800</v>
       </c>
       <c r="I10" s="3">
-        <v>1922700</v>
+        <v>1799200</v>
       </c>
       <c r="J10" s="3">
-        <v>1963500</v>
+        <v>1837400</v>
       </c>
       <c r="K10" s="3">
         <v>2107500</v>
@@ -850,19 +850,19 @@
         <v>24</v>
       </c>
       <c r="F12" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G12" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H12" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="I12" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="J12" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K12" s="3">
         <v>3400</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-28000</v>
+        <v>-26200</v>
       </c>
       <c r="E14" s="3">
-        <v>59100</v>
+        <v>55300</v>
       </c>
       <c r="F14" s="3">
-        <v>63400</v>
+        <v>59300</v>
       </c>
       <c r="G14" s="3">
-        <v>30800</v>
+        <v>28800</v>
       </c>
       <c r="H14" s="3">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="I14" s="3">
-        <v>40300</v>
+        <v>37700</v>
       </c>
       <c r="J14" s="3">
-        <v>22400</v>
+        <v>21000</v>
       </c>
       <c r="K14" s="3">
         <v>20800</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>550500</v>
+        <v>515200</v>
       </c>
       <c r="E15" s="3">
-        <v>629400</v>
+        <v>589000</v>
       </c>
       <c r="F15" s="3">
-        <v>512600</v>
+        <v>479700</v>
       </c>
       <c r="G15" s="3">
-        <v>491200</v>
+        <v>459700</v>
       </c>
       <c r="H15" s="3">
-        <v>475700</v>
+        <v>445100</v>
       </c>
       <c r="I15" s="3">
-        <v>474100</v>
+        <v>443700</v>
       </c>
       <c r="J15" s="3">
-        <v>459600</v>
+        <v>430100</v>
       </c>
       <c r="K15" s="3">
         <v>953500</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1524200</v>
+        <v>1426300</v>
       </c>
       <c r="E17" s="3">
-        <v>1602100</v>
+        <v>1499300</v>
       </c>
       <c r="F17" s="3">
-        <v>1542900</v>
+        <v>1443900</v>
       </c>
       <c r="G17" s="3">
-        <v>1433200</v>
+        <v>1341200</v>
       </c>
       <c r="H17" s="3">
-        <v>1403200</v>
+        <v>1313100</v>
       </c>
       <c r="I17" s="3">
-        <v>1514900</v>
+        <v>1417600</v>
       </c>
       <c r="J17" s="3">
-        <v>1390800</v>
+        <v>1301500</v>
       </c>
       <c r="K17" s="3">
         <v>1498000</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>832700</v>
+        <v>779300</v>
       </c>
       <c r="E18" s="3">
-        <v>821700</v>
+        <v>768900</v>
       </c>
       <c r="F18" s="3">
-        <v>827600</v>
+        <v>774500</v>
       </c>
       <c r="G18" s="3">
-        <v>829600</v>
+        <v>776300</v>
       </c>
       <c r="H18" s="3">
-        <v>818100</v>
+        <v>765600</v>
       </c>
       <c r="I18" s="3">
-        <v>740300</v>
+        <v>692800</v>
       </c>
       <c r="J18" s="3">
-        <v>851600</v>
+        <v>797000</v>
       </c>
       <c r="K18" s="3">
         <v>891800</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>122400</v>
+        <v>114500</v>
       </c>
       <c r="E20" s="3">
-        <v>-124400</v>
+        <v>-116400</v>
       </c>
       <c r="F20" s="3">
-        <v>43400</v>
+        <v>40600</v>
       </c>
       <c r="G20" s="3">
-        <v>80300</v>
+        <v>75100</v>
       </c>
       <c r="H20" s="3">
-        <v>54500</v>
+        <v>51000</v>
       </c>
       <c r="I20" s="3">
-        <v>-21200</v>
+        <v>-19900</v>
       </c>
       <c r="J20" s="3">
-        <v>-137700</v>
+        <v>-128800</v>
       </c>
       <c r="K20" s="3">
         <v>199500</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1511700</v>
+        <v>1411100</v>
       </c>
       <c r="E21" s="3">
-        <v>1333600</v>
+        <v>1243900</v>
       </c>
       <c r="F21" s="3">
-        <v>1389300</v>
+        <v>1296800</v>
       </c>
       <c r="G21" s="3">
-        <v>1406500</v>
+        <v>1313100</v>
       </c>
       <c r="H21" s="3">
-        <v>1353500</v>
+        <v>1263600</v>
       </c>
       <c r="I21" s="3">
-        <v>1198400</v>
+        <v>1118400</v>
       </c>
       <c r="J21" s="3">
-        <v>1178700</v>
+        <v>1100100</v>
       </c>
       <c r="K21" s="3">
         <v>1568200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>236900</v>
+        <v>221700</v>
       </c>
       <c r="E22" s="3">
-        <v>302000</v>
+        <v>282700</v>
       </c>
       <c r="F22" s="3">
-        <v>302400</v>
+        <v>283000</v>
       </c>
       <c r="G22" s="3">
-        <v>346600</v>
+        <v>324400</v>
       </c>
       <c r="H22" s="3">
-        <v>295900</v>
+        <v>276900</v>
       </c>
       <c r="I22" s="3">
-        <v>258200</v>
+        <v>241700</v>
       </c>
       <c r="J22" s="3">
-        <v>268700</v>
+        <v>251400</v>
       </c>
       <c r="K22" s="3">
         <v>322500</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>718300</v>
+        <v>672200</v>
       </c>
       <c r="E23" s="3">
-        <v>395200</v>
+        <v>369900</v>
       </c>
       <c r="F23" s="3">
-        <v>568600</v>
+        <v>532100</v>
       </c>
       <c r="G23" s="3">
-        <v>563300</v>
+        <v>527100</v>
       </c>
       <c r="H23" s="3">
-        <v>576700</v>
+        <v>539700</v>
       </c>
       <c r="I23" s="3">
-        <v>460800</v>
+        <v>431200</v>
       </c>
       <c r="J23" s="3">
-        <v>445300</v>
+        <v>416700</v>
       </c>
       <c r="K23" s="3">
         <v>768800</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>127200</v>
+        <v>119100</v>
       </c>
       <c r="E24" s="3">
-        <v>256000</v>
+        <v>239600</v>
       </c>
       <c r="F24" s="3">
-        <v>94900</v>
+        <v>88800</v>
       </c>
       <c r="G24" s="3">
-        <v>101000</v>
+        <v>94500</v>
       </c>
       <c r="H24" s="3">
-        <v>11100</v>
+        <v>10400</v>
       </c>
       <c r="I24" s="3">
-        <v>-57400</v>
+        <v>-53700</v>
       </c>
       <c r="J24" s="3">
-        <v>91800</v>
+        <v>85900</v>
       </c>
       <c r="K24" s="3">
         <v>-276400</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>591000</v>
+        <v>553100</v>
       </c>
       <c r="E26" s="3">
-        <v>139200</v>
+        <v>130300</v>
       </c>
       <c r="F26" s="3">
-        <v>473700</v>
+        <v>443300</v>
       </c>
       <c r="G26" s="3">
-        <v>462300</v>
+        <v>432600</v>
       </c>
       <c r="H26" s="3">
-        <v>565600</v>
+        <v>529300</v>
       </c>
       <c r="I26" s="3">
-        <v>518200</v>
+        <v>484900</v>
       </c>
       <c r="J26" s="3">
-        <v>353500</v>
+        <v>330800</v>
       </c>
       <c r="K26" s="3">
         <v>1045200</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>591000</v>
+        <v>553100</v>
       </c>
       <c r="E27" s="3">
-        <v>139200</v>
+        <v>130300</v>
       </c>
       <c r="F27" s="3">
-        <v>473700</v>
+        <v>443300</v>
       </c>
       <c r="G27" s="3">
-        <v>462300</v>
+        <v>432600</v>
       </c>
       <c r="H27" s="3">
-        <v>565600</v>
+        <v>529300</v>
       </c>
       <c r="I27" s="3">
-        <v>518200</v>
+        <v>484900</v>
       </c>
       <c r="J27" s="3">
-        <v>353500</v>
+        <v>330800</v>
       </c>
       <c r="K27" s="3">
         <v>1045200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-122400</v>
+        <v>-114500</v>
       </c>
       <c r="E32" s="3">
-        <v>124400</v>
+        <v>116400</v>
       </c>
       <c r="F32" s="3">
-        <v>-43400</v>
+        <v>-40600</v>
       </c>
       <c r="G32" s="3">
-        <v>-80300</v>
+        <v>-75100</v>
       </c>
       <c r="H32" s="3">
-        <v>-54500</v>
+        <v>-51000</v>
       </c>
       <c r="I32" s="3">
-        <v>21200</v>
+        <v>19900</v>
       </c>
       <c r="J32" s="3">
-        <v>137700</v>
+        <v>128800</v>
       </c>
       <c r="K32" s="3">
         <v>-199500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>591000</v>
+        <v>553100</v>
       </c>
       <c r="E33" s="3">
-        <v>139200</v>
+        <v>130300</v>
       </c>
       <c r="F33" s="3">
-        <v>473700</v>
+        <v>443300</v>
       </c>
       <c r="G33" s="3">
-        <v>462300</v>
+        <v>432600</v>
       </c>
       <c r="H33" s="3">
-        <v>565600</v>
+        <v>529300</v>
       </c>
       <c r="I33" s="3">
-        <v>518200</v>
+        <v>484900</v>
       </c>
       <c r="J33" s="3">
-        <v>353500</v>
+        <v>330800</v>
       </c>
       <c r="K33" s="3">
         <v>1046300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>591000</v>
+        <v>553100</v>
       </c>
       <c r="E35" s="3">
-        <v>139200</v>
+        <v>130300</v>
       </c>
       <c r="F35" s="3">
-        <v>473700</v>
+        <v>443300</v>
       </c>
       <c r="G35" s="3">
-        <v>462300</v>
+        <v>432600</v>
       </c>
       <c r="H35" s="3">
-        <v>565600</v>
+        <v>529300</v>
       </c>
       <c r="I35" s="3">
-        <v>518200</v>
+        <v>484900</v>
       </c>
       <c r="J35" s="3">
-        <v>353500</v>
+        <v>330800</v>
       </c>
       <c r="K35" s="3">
         <v>1046300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>970000</v>
+        <v>907700</v>
       </c>
       <c r="E41" s="3">
-        <v>688400</v>
+        <v>644200</v>
       </c>
       <c r="F41" s="3">
-        <v>442300</v>
+        <v>413900</v>
       </c>
       <c r="G41" s="3">
-        <v>664800</v>
+        <v>622100</v>
       </c>
       <c r="H41" s="3">
-        <v>323000</v>
+        <v>302300</v>
       </c>
       <c r="I41" s="3">
-        <v>278400</v>
+        <v>260600</v>
       </c>
       <c r="J41" s="3">
-        <v>318100</v>
+        <v>297700</v>
       </c>
       <c r="K41" s="3">
         <v>343900</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>307800</v>
+        <v>288000</v>
       </c>
       <c r="E43" s="3">
-        <v>369700</v>
+        <v>346000</v>
       </c>
       <c r="F43" s="3">
-        <v>346600</v>
+        <v>324400</v>
       </c>
       <c r="G43" s="3">
-        <v>372000</v>
+        <v>348200</v>
       </c>
       <c r="H43" s="3">
-        <v>405400</v>
+        <v>379400</v>
       </c>
       <c r="I43" s="3">
-        <v>299700</v>
+        <v>280500</v>
       </c>
       <c r="J43" s="3">
-        <v>460600</v>
+        <v>431000</v>
       </c>
       <c r="K43" s="3">
         <v>763300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23900</v>
+        <v>22300</v>
       </c>
       <c r="E44" s="3">
-        <v>21600</v>
+        <v>20300</v>
       </c>
       <c r="F44" s="3">
-        <v>19400</v>
+        <v>18200</v>
       </c>
       <c r="G44" s="3">
-        <v>21900</v>
+        <v>20500</v>
       </c>
       <c r="H44" s="3">
-        <v>29200</v>
+        <v>27300</v>
       </c>
       <c r="I44" s="3">
-        <v>38200</v>
+        <v>35700</v>
       </c>
       <c r="J44" s="3">
-        <v>52800</v>
+        <v>49400</v>
       </c>
       <c r="K44" s="3">
         <v>116500</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18800</v>
+        <v>17600</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>132100</v>
+        <v>123600</v>
       </c>
       <c r="G45" s="3">
-        <v>440200</v>
+        <v>412000</v>
       </c>
       <c r="H45" s="3">
-        <v>100000</v>
+        <v>93600</v>
       </c>
       <c r="I45" s="3">
-        <v>199700</v>
+        <v>186900</v>
       </c>
       <c r="J45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K45" s="3">
         <v>259500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1320400</v>
+        <v>1235600</v>
       </c>
       <c r="E46" s="3">
-        <v>1079900</v>
+        <v>1010600</v>
       </c>
       <c r="F46" s="3">
-        <v>940400</v>
+        <v>880000</v>
       </c>
       <c r="G46" s="3">
-        <v>1499000</v>
+        <v>1402800</v>
       </c>
       <c r="H46" s="3">
-        <v>857600</v>
+        <v>802600</v>
       </c>
       <c r="I46" s="3">
-        <v>816000</v>
+        <v>763700</v>
       </c>
       <c r="J46" s="3">
-        <v>832700</v>
+        <v>779300</v>
       </c>
       <c r="K46" s="3">
         <v>768300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>113200</v>
+        <v>105900</v>
       </c>
       <c r="E47" s="3">
-        <v>187600</v>
+        <v>175500</v>
       </c>
       <c r="F47" s="3">
-        <v>311000</v>
+        <v>291100</v>
       </c>
       <c r="G47" s="3">
-        <v>291200</v>
+        <v>272500</v>
       </c>
       <c r="H47" s="3">
-        <v>256200</v>
+        <v>239700</v>
       </c>
       <c r="I47" s="3">
-        <v>60400</v>
+        <v>56500</v>
       </c>
       <c r="J47" s="3">
-        <v>55800</v>
+        <v>52200</v>
       </c>
       <c r="K47" s="3">
         <v>65400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15381100</v>
+        <v>14393600</v>
       </c>
       <c r="E48" s="3">
-        <v>15005500</v>
+        <v>14042100</v>
       </c>
       <c r="F48" s="3">
-        <v>14539500</v>
+        <v>13606000</v>
       </c>
       <c r="G48" s="3">
-        <v>14066400</v>
+        <v>13163300</v>
       </c>
       <c r="H48" s="3">
-        <v>13564500</v>
+        <v>12693700</v>
       </c>
       <c r="I48" s="3">
-        <v>13076800</v>
+        <v>12237300</v>
       </c>
       <c r="J48" s="3">
-        <v>12666100</v>
+        <v>11852900</v>
       </c>
       <c r="K48" s="3">
         <v>26434500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>236100</v>
+        <v>220900</v>
       </c>
       <c r="E49" s="3">
-        <v>246400</v>
+        <v>230600</v>
       </c>
       <c r="F49" s="3">
-        <v>264200</v>
+        <v>247300</v>
       </c>
       <c r="G49" s="3">
-        <v>257700</v>
+        <v>241200</v>
       </c>
       <c r="H49" s="3">
-        <v>244700</v>
+        <v>229000</v>
       </c>
       <c r="I49" s="3">
-        <v>211700</v>
+        <v>198100</v>
       </c>
       <c r="J49" s="3">
-        <v>188900</v>
+        <v>176800</v>
       </c>
       <c r="K49" s="3">
         <v>325900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1433000</v>
+        <v>1341000</v>
       </c>
       <c r="E52" s="3">
-        <v>1788400</v>
+        <v>1673600</v>
       </c>
       <c r="F52" s="3">
-        <v>1136300</v>
+        <v>1063400</v>
       </c>
       <c r="G52" s="3">
-        <v>836900</v>
+        <v>783200</v>
       </c>
       <c r="H52" s="3">
-        <v>1275600</v>
+        <v>1193700</v>
       </c>
       <c r="I52" s="3">
-        <v>1356600</v>
+        <v>1269500</v>
       </c>
       <c r="J52" s="3">
-        <v>991800</v>
+        <v>928100</v>
       </c>
       <c r="K52" s="3">
         <v>645300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18483700</v>
+        <v>17297100</v>
       </c>
       <c r="E54" s="3">
-        <v>18307700</v>
+        <v>17132400</v>
       </c>
       <c r="F54" s="3">
-        <v>17191500</v>
+        <v>16087800</v>
       </c>
       <c r="G54" s="3">
-        <v>16951200</v>
+        <v>15863000</v>
       </c>
       <c r="H54" s="3">
-        <v>16198500</v>
+        <v>15158600</v>
       </c>
       <c r="I54" s="3">
-        <v>15521600</v>
+        <v>14525100</v>
       </c>
       <c r="J54" s="3">
-        <v>14735300</v>
+        <v>13789300</v>
       </c>
       <c r="K54" s="3">
         <v>14819700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>43400</v>
+        <v>40600</v>
       </c>
       <c r="E57" s="3">
-        <v>47800</v>
+        <v>44800</v>
       </c>
       <c r="F57" s="3">
-        <v>44800</v>
+        <v>42000</v>
       </c>
       <c r="G57" s="3">
-        <v>36400</v>
+        <v>34000</v>
       </c>
       <c r="H57" s="3">
-        <v>45900</v>
+        <v>42900</v>
       </c>
       <c r="I57" s="3">
-        <v>57500</v>
+        <v>53800</v>
       </c>
       <c r="J57" s="3">
-        <v>52300</v>
+        <v>48900</v>
       </c>
       <c r="K57" s="3">
         <v>605400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>853600</v>
+        <v>798800</v>
       </c>
       <c r="E58" s="3">
-        <v>1101500</v>
+        <v>1030800</v>
       </c>
       <c r="F58" s="3">
-        <v>912800</v>
+        <v>854200</v>
       </c>
       <c r="G58" s="3">
-        <v>1094400</v>
+        <v>1024100</v>
       </c>
       <c r="H58" s="3">
-        <v>425100</v>
+        <v>397800</v>
       </c>
       <c r="I58" s="3">
-        <v>611600</v>
+        <v>572400</v>
       </c>
       <c r="J58" s="3">
-        <v>753600</v>
+        <v>705200</v>
       </c>
       <c r="K58" s="3">
         <v>318700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>394000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>387200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>334400</v>
+      </c>
+      <c r="H59" s="3">
         <v>400700</v>
       </c>
-      <c r="E59" s="3">
-        <v>421100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>413800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>357300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>428200</v>
-      </c>
       <c r="I59" s="3">
-        <v>431400</v>
+        <v>403700</v>
       </c>
       <c r="J59" s="3">
-        <v>499700</v>
+        <v>467600</v>
       </c>
       <c r="K59" s="3">
         <v>628700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1297700</v>
+        <v>1214400</v>
       </c>
       <c r="E60" s="3">
-        <v>1570400</v>
+        <v>1469600</v>
       </c>
       <c r="F60" s="3">
-        <v>1371400</v>
+        <v>1283300</v>
       </c>
       <c r="G60" s="3">
-        <v>1488000</v>
+        <v>1392500</v>
       </c>
       <c r="H60" s="3">
-        <v>899200</v>
+        <v>841500</v>
       </c>
       <c r="I60" s="3">
-        <v>1100500</v>
+        <v>1029800</v>
       </c>
       <c r="J60" s="3">
-        <v>1305500</v>
+        <v>1221700</v>
       </c>
       <c r="K60" s="3">
         <v>843800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10164100</v>
+        <v>9511600</v>
       </c>
       <c r="E61" s="3">
-        <v>9800500</v>
+        <v>9171300</v>
       </c>
       <c r="F61" s="3">
-        <v>9275800</v>
+        <v>8680300</v>
       </c>
       <c r="G61" s="3">
-        <v>9220000</v>
+        <v>8628100</v>
       </c>
       <c r="H61" s="3">
-        <v>9201300</v>
+        <v>8610500</v>
       </c>
       <c r="I61" s="3">
-        <v>8484800</v>
+        <v>7940100</v>
       </c>
       <c r="J61" s="3">
-        <v>7909300</v>
+        <v>7401500</v>
       </c>
       <c r="K61" s="3">
         <v>8390500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3070700</v>
+        <v>2873600</v>
       </c>
       <c r="E62" s="3">
-        <v>3075400</v>
+        <v>2878000</v>
       </c>
       <c r="F62" s="3">
-        <v>2489100</v>
+        <v>2329300</v>
       </c>
       <c r="G62" s="3">
-        <v>2396400</v>
+        <v>2242500</v>
       </c>
       <c r="H62" s="3">
-        <v>2419900</v>
+        <v>2264500</v>
       </c>
       <c r="I62" s="3">
-        <v>2409400</v>
+        <v>2254700</v>
       </c>
       <c r="J62" s="3">
-        <v>2347000</v>
+        <v>2196300</v>
       </c>
       <c r="K62" s="3">
         <v>2449700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14532600</v>
+        <v>13599600</v>
       </c>
       <c r="E66" s="3">
-        <v>14446400</v>
+        <v>13518900</v>
       </c>
       <c r="F66" s="3">
-        <v>13136300</v>
+        <v>12292900</v>
       </c>
       <c r="G66" s="3">
-        <v>13104500</v>
+        <v>12263200</v>
       </c>
       <c r="H66" s="3">
-        <v>12520300</v>
+        <v>11716500</v>
       </c>
       <c r="I66" s="3">
-        <v>11994700</v>
+        <v>11224700</v>
       </c>
       <c r="J66" s="3">
-        <v>11561800</v>
+        <v>10819500</v>
       </c>
       <c r="K66" s="3">
         <v>11684000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3287300</v>
+        <v>3076200</v>
       </c>
       <c r="E72" s="3">
-        <v>3196900</v>
+        <v>2991700</v>
       </c>
       <c r="F72" s="3">
-        <v>3388700</v>
+        <v>3171100</v>
       </c>
       <c r="G72" s="3">
-        <v>3193800</v>
+        <v>2988800</v>
       </c>
       <c r="H72" s="3">
-        <v>3025500</v>
+        <v>2831300</v>
       </c>
       <c r="I72" s="3">
-        <v>2879000</v>
+        <v>2694100</v>
       </c>
       <c r="J72" s="3">
-        <v>2529500</v>
+        <v>2367100</v>
       </c>
       <c r="K72" s="3">
         <v>2207600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3951200</v>
+        <v>3697500</v>
       </c>
       <c r="E76" s="3">
-        <v>3861400</v>
+        <v>3613500</v>
       </c>
       <c r="F76" s="3">
-        <v>4055200</v>
+        <v>3794900</v>
       </c>
       <c r="G76" s="3">
-        <v>3846800</v>
+        <v>3599800</v>
       </c>
       <c r="H76" s="3">
-        <v>3678200</v>
+        <v>3442100</v>
       </c>
       <c r="I76" s="3">
-        <v>3526900</v>
+        <v>3300400</v>
       </c>
       <c r="J76" s="3">
-        <v>3173500</v>
+        <v>2969700</v>
       </c>
       <c r="K76" s="3">
         <v>3135700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>591000</v>
+        <v>553100</v>
       </c>
       <c r="E81" s="3">
-        <v>139200</v>
+        <v>130300</v>
       </c>
       <c r="F81" s="3">
-        <v>473700</v>
+        <v>443300</v>
       </c>
       <c r="G81" s="3">
-        <v>462300</v>
+        <v>432600</v>
       </c>
       <c r="H81" s="3">
-        <v>565600</v>
+        <v>529300</v>
       </c>
       <c r="I81" s="3">
-        <v>518200</v>
+        <v>484900</v>
       </c>
       <c r="J81" s="3">
-        <v>353500</v>
+        <v>330800</v>
       </c>
       <c r="K81" s="3">
         <v>1046300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>550500</v>
+        <v>515200</v>
       </c>
       <c r="E83" s="3">
-        <v>629400</v>
+        <v>589000</v>
       </c>
       <c r="F83" s="3">
-        <v>512600</v>
+        <v>479700</v>
       </c>
       <c r="G83" s="3">
-        <v>491200</v>
+        <v>459700</v>
       </c>
       <c r="H83" s="3">
-        <v>475700</v>
+        <v>445100</v>
       </c>
       <c r="I83" s="3">
-        <v>474100</v>
+        <v>443700</v>
       </c>
       <c r="J83" s="3">
-        <v>459600</v>
+        <v>430100</v>
       </c>
       <c r="K83" s="3">
         <v>476800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1120300</v>
+        <v>1048400</v>
       </c>
       <c r="E89" s="3">
-        <v>1056300</v>
+        <v>988500</v>
       </c>
       <c r="F89" s="3">
-        <v>1085000</v>
+        <v>1015300</v>
       </c>
       <c r="G89" s="3">
-        <v>1063200</v>
+        <v>995000</v>
       </c>
       <c r="H89" s="3">
-        <v>1070000</v>
+        <v>1001300</v>
       </c>
       <c r="I89" s="3">
-        <v>893700</v>
+        <v>836400</v>
       </c>
       <c r="J89" s="3">
-        <v>921000</v>
+        <v>861900</v>
       </c>
       <c r="K89" s="3">
         <v>1127000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-795700</v>
+        <v>-744600</v>
       </c>
       <c r="E91" s="3">
-        <v>-851000</v>
+        <v>-796400</v>
       </c>
       <c r="F91" s="3">
-        <v>-811200</v>
+        <v>-759100</v>
       </c>
       <c r="G91" s="3">
-        <v>-910700</v>
+        <v>-852200</v>
       </c>
       <c r="H91" s="3">
-        <v>-876500</v>
+        <v>-820300</v>
       </c>
       <c r="I91" s="3">
-        <v>-826700</v>
+        <v>-773700</v>
       </c>
       <c r="J91" s="3">
-        <v>-867800</v>
+        <v>-812100</v>
       </c>
       <c r="K91" s="3">
         <v>-936400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-716100</v>
+        <v>-670100</v>
       </c>
       <c r="E94" s="3">
-        <v>-774200</v>
+        <v>-724500</v>
       </c>
       <c r="F94" s="3">
-        <v>-818300</v>
+        <v>-765700</v>
       </c>
       <c r="G94" s="3">
-        <v>-942800</v>
+        <v>-882200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1048900</v>
+        <v>-981500</v>
       </c>
       <c r="I94" s="3">
-        <v>-882300</v>
+        <v>-825600</v>
       </c>
       <c r="J94" s="3">
-        <v>-918900</v>
+        <v>-859900</v>
       </c>
       <c r="K94" s="3">
         <v>-960300</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-380500</v>
+        <v>-356100</v>
       </c>
       <c r="E96" s="3">
-        <v>-370900</v>
+        <v>-347100</v>
       </c>
       <c r="F96" s="3">
-        <v>-357700</v>
+        <v>-334700</v>
       </c>
       <c r="G96" s="3">
-        <v>-348100</v>
+        <v>-325700</v>
       </c>
       <c r="H96" s="3">
-        <v>-343000</v>
+        <v>-321000</v>
       </c>
       <c r="I96" s="3">
-        <v>-337200</v>
+        <v>-315600</v>
       </c>
       <c r="J96" s="3">
-        <v>-325100</v>
+        <v>-304200</v>
       </c>
       <c r="K96" s="3">
         <v>-336700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-116900</v>
+        <v>-109400</v>
       </c>
       <c r="E100" s="3">
-        <v>-36200</v>
+        <v>-33900</v>
       </c>
       <c r="F100" s="3">
-        <v>-492000</v>
+        <v>-460400</v>
       </c>
       <c r="G100" s="3">
-        <v>240800</v>
+        <v>225300</v>
       </c>
       <c r="H100" s="3">
-        <v>28700</v>
+        <v>26800</v>
       </c>
       <c r="I100" s="3">
-        <v>-60500</v>
+        <v>-56600</v>
       </c>
       <c r="J100" s="3">
-        <v>181500</v>
+        <v>169800</v>
       </c>
       <c r="K100" s="3">
         <v>-299300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>287300</v>
+        <v>268900</v>
       </c>
       <c r="E102" s="3">
-        <v>245900</v>
+        <v>230100</v>
       </c>
       <c r="F102" s="3">
-        <v>-225300</v>
+        <v>-210800</v>
       </c>
       <c r="G102" s="3">
-        <v>361200</v>
+        <v>338000</v>
       </c>
       <c r="H102" s="3">
-        <v>49800</v>
+        <v>46600</v>
       </c>
       <c r="I102" s="3">
-        <v>-49000</v>
+        <v>-45900</v>
       </c>
       <c r="J102" s="3">
-        <v>183500</v>
+        <v>171800</v>
       </c>
       <c r="K102" s="3">
         <v>-132600</v>

--- a/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>UUGRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2205600</v>
+        <v>2203400</v>
       </c>
       <c r="E8" s="3">
-        <v>2268200</v>
+        <v>2138700</v>
       </c>
       <c r="F8" s="3">
-        <v>2218400</v>
+        <v>2199400</v>
       </c>
       <c r="G8" s="3">
-        <v>2117500</v>
+        <v>2151100</v>
       </c>
       <c r="H8" s="3">
-        <v>2078700</v>
+        <v>2053300</v>
       </c>
       <c r="I8" s="3">
-        <v>2110400</v>
+        <v>2015700</v>
       </c>
       <c r="J8" s="3">
+        <v>2046400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2098500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2389800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2014900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2041100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>319700</v>
+        <v>338100</v>
       </c>
       <c r="E9" s="3">
-        <v>305700</v>
+        <v>310000</v>
       </c>
       <c r="F9" s="3">
-        <v>320600</v>
+        <v>296400</v>
       </c>
       <c r="G9" s="3">
-        <v>287200</v>
+        <v>310900</v>
       </c>
       <c r="H9" s="3">
-        <v>293900</v>
+        <v>278500</v>
       </c>
       <c r="I9" s="3">
-        <v>311200</v>
+        <v>285000</v>
       </c>
       <c r="J9" s="3">
+        <v>301800</v>
+      </c>
+      <c r="K9" s="3">
         <v>261100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>282300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>247700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>308200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1885800</v>
+        <v>1865300</v>
       </c>
       <c r="E10" s="3">
-        <v>1962500</v>
+        <v>1828600</v>
       </c>
       <c r="F10" s="3">
-        <v>1897800</v>
+        <v>1902900</v>
       </c>
       <c r="G10" s="3">
-        <v>1830300</v>
+        <v>1840200</v>
       </c>
       <c r="H10" s="3">
-        <v>1784800</v>
+        <v>1774800</v>
       </c>
       <c r="I10" s="3">
-        <v>1799200</v>
+        <v>1730700</v>
       </c>
       <c r="J10" s="3">
+        <v>1744700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1837400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2107500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1767200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1732900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,33 +862,36 @@
       <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="3">
-        <v>1500</v>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G12" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H12" s="3">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="I12" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K12" s="3">
         <v>2600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2100</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-26200</v>
+        <v>8600</v>
       </c>
       <c r="E14" s="3">
-        <v>55300</v>
+        <v>-25400</v>
       </c>
       <c r="F14" s="3">
-        <v>59300</v>
+        <v>53600</v>
       </c>
       <c r="G14" s="3">
-        <v>28800</v>
+        <v>57500</v>
       </c>
       <c r="H14" s="3">
-        <v>7200</v>
+        <v>27900</v>
       </c>
       <c r="I14" s="3">
-        <v>37700</v>
+        <v>7000</v>
       </c>
       <c r="J14" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K14" s="3">
         <v>21000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>28400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>515200</v>
+        <v>494700</v>
       </c>
       <c r="E15" s="3">
-        <v>589000</v>
+        <v>499500</v>
       </c>
       <c r="F15" s="3">
-        <v>479700</v>
+        <v>571100</v>
       </c>
       <c r="G15" s="3">
-        <v>459700</v>
+        <v>465100</v>
       </c>
       <c r="H15" s="3">
-        <v>445100</v>
+        <v>445700</v>
       </c>
       <c r="I15" s="3">
-        <v>443700</v>
+        <v>431600</v>
       </c>
       <c r="J15" s="3">
+        <v>430200</v>
+      </c>
+      <c r="K15" s="3">
         <v>430100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>953500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>810900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>388400</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1426300</v>
+        <v>1481800</v>
       </c>
       <c r="E17" s="3">
-        <v>1499300</v>
+        <v>1383000</v>
       </c>
       <c r="F17" s="3">
-        <v>1443900</v>
+        <v>1453800</v>
       </c>
       <c r="G17" s="3">
-        <v>1341200</v>
+        <v>1400100</v>
       </c>
       <c r="H17" s="3">
-        <v>1313100</v>
+        <v>1300500</v>
       </c>
       <c r="I17" s="3">
-        <v>1417600</v>
+        <v>1273300</v>
       </c>
       <c r="J17" s="3">
+        <v>1374600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1301500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1498000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1274000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1269600</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>779300</v>
+        <v>721600</v>
       </c>
       <c r="E18" s="3">
-        <v>768900</v>
+        <v>755600</v>
       </c>
       <c r="F18" s="3">
-        <v>774500</v>
+        <v>745600</v>
       </c>
       <c r="G18" s="3">
-        <v>776300</v>
+        <v>751000</v>
       </c>
       <c r="H18" s="3">
-        <v>765600</v>
+        <v>752800</v>
       </c>
       <c r="I18" s="3">
-        <v>692800</v>
+        <v>742400</v>
       </c>
       <c r="J18" s="3">
+        <v>671800</v>
+      </c>
+      <c r="K18" s="3">
         <v>797000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>891800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>740900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>771500</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>114500</v>
+        <v>190000</v>
       </c>
       <c r="E20" s="3">
-        <v>-116400</v>
+        <v>111100</v>
       </c>
       <c r="F20" s="3">
-        <v>40600</v>
+        <v>-112800</v>
       </c>
       <c r="G20" s="3">
-        <v>75100</v>
+        <v>39400</v>
       </c>
       <c r="H20" s="3">
-        <v>51000</v>
+        <v>72900</v>
       </c>
       <c r="I20" s="3">
-        <v>-19900</v>
+        <v>49400</v>
       </c>
       <c r="J20" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-128800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>199500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-50100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-54900</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1411100</v>
+        <v>1404900</v>
       </c>
       <c r="E21" s="3">
-        <v>1243900</v>
+        <v>1364900</v>
       </c>
       <c r="F21" s="3">
-        <v>1296800</v>
+        <v>1202300</v>
       </c>
       <c r="G21" s="3">
-        <v>1313100</v>
+        <v>1254300</v>
       </c>
       <c r="H21" s="3">
-        <v>1263600</v>
+        <v>1270200</v>
       </c>
       <c r="I21" s="3">
-        <v>1118400</v>
+        <v>1222300</v>
       </c>
       <c r="J21" s="3">
+        <v>1081500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1100100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1568200</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1109400</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>221700</v>
+        <v>391200</v>
       </c>
       <c r="E22" s="3">
-        <v>282700</v>
+        <v>214900</v>
       </c>
       <c r="F22" s="3">
-        <v>283000</v>
+        <v>274100</v>
       </c>
       <c r="G22" s="3">
-        <v>324400</v>
+        <v>274400</v>
       </c>
       <c r="H22" s="3">
-        <v>276900</v>
+        <v>314500</v>
       </c>
       <c r="I22" s="3">
-        <v>241700</v>
+        <v>268500</v>
       </c>
       <c r="J22" s="3">
+        <v>234300</v>
+      </c>
+      <c r="K22" s="3">
         <v>251400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>322500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>306800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>350900</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>672200</v>
+        <v>520400</v>
       </c>
       <c r="E23" s="3">
-        <v>369900</v>
+        <v>651800</v>
       </c>
       <c r="F23" s="3">
-        <v>532100</v>
+        <v>358700</v>
       </c>
       <c r="G23" s="3">
-        <v>527100</v>
+        <v>516000</v>
       </c>
       <c r="H23" s="3">
-        <v>539700</v>
+        <v>511100</v>
       </c>
       <c r="I23" s="3">
-        <v>431200</v>
+        <v>523300</v>
       </c>
       <c r="J23" s="3">
+        <v>418200</v>
+      </c>
+      <c r="K23" s="3">
         <v>416700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>768800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>384000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>365700</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>119100</v>
+        <v>587500</v>
       </c>
       <c r="E24" s="3">
-        <v>239600</v>
+        <v>115500</v>
       </c>
       <c r="F24" s="3">
-        <v>88800</v>
+        <v>232300</v>
       </c>
       <c r="G24" s="3">
-        <v>94500</v>
+        <v>86100</v>
       </c>
       <c r="H24" s="3">
-        <v>10400</v>
+        <v>91700</v>
       </c>
       <c r="I24" s="3">
-        <v>-53700</v>
+        <v>10100</v>
       </c>
       <c r="J24" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="K24" s="3">
         <v>85900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-276400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-40400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>553100</v>
+        <v>-67200</v>
       </c>
       <c r="E26" s="3">
-        <v>130300</v>
+        <v>536300</v>
       </c>
       <c r="F26" s="3">
-        <v>443300</v>
+        <v>126300</v>
       </c>
       <c r="G26" s="3">
-        <v>432600</v>
+        <v>429900</v>
       </c>
       <c r="H26" s="3">
-        <v>529300</v>
+        <v>419500</v>
       </c>
       <c r="I26" s="3">
-        <v>484900</v>
+        <v>513300</v>
       </c>
       <c r="J26" s="3">
+        <v>470200</v>
+      </c>
+      <c r="K26" s="3">
         <v>330800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1045200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>354500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>406200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>553100</v>
+        <v>-67200</v>
       </c>
       <c r="E27" s="3">
-        <v>130300</v>
+        <v>536300</v>
       </c>
       <c r="F27" s="3">
-        <v>443300</v>
+        <v>126300</v>
       </c>
       <c r="G27" s="3">
-        <v>432600</v>
+        <v>429900</v>
       </c>
       <c r="H27" s="3">
-        <v>529300</v>
+        <v>419500</v>
       </c>
       <c r="I27" s="3">
-        <v>484900</v>
+        <v>513300</v>
       </c>
       <c r="J27" s="3">
+        <v>470200</v>
+      </c>
+      <c r="K27" s="3">
         <v>330800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1045200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>354500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>406200</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1406,45 +1463,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>1100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>18000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>6700</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-114500</v>
+        <v>-190000</v>
       </c>
       <c r="E32" s="3">
-        <v>116400</v>
+        <v>-111100</v>
       </c>
       <c r="F32" s="3">
-        <v>-40600</v>
+        <v>112800</v>
       </c>
       <c r="G32" s="3">
-        <v>-75100</v>
+        <v>-39400</v>
       </c>
       <c r="H32" s="3">
-        <v>-51000</v>
+        <v>-72900</v>
       </c>
       <c r="I32" s="3">
-        <v>19900</v>
+        <v>-49400</v>
       </c>
       <c r="J32" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K32" s="3">
         <v>128800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-199500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>50100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>54900</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>553100</v>
+        <v>-67200</v>
       </c>
       <c r="E33" s="3">
-        <v>130300</v>
+        <v>536300</v>
       </c>
       <c r="F33" s="3">
-        <v>443300</v>
+        <v>126300</v>
       </c>
       <c r="G33" s="3">
-        <v>432600</v>
+        <v>429900</v>
       </c>
       <c r="H33" s="3">
-        <v>529300</v>
+        <v>419500</v>
       </c>
       <c r="I33" s="3">
-        <v>484900</v>
+        <v>513300</v>
       </c>
       <c r="J33" s="3">
+        <v>470200</v>
+      </c>
+      <c r="K33" s="3">
         <v>330800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1046300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>372400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>412800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>553100</v>
+        <v>-67200</v>
       </c>
       <c r="E35" s="3">
-        <v>130300</v>
+        <v>536300</v>
       </c>
       <c r="F35" s="3">
-        <v>443300</v>
+        <v>126300</v>
       </c>
       <c r="G35" s="3">
-        <v>432600</v>
+        <v>429900</v>
       </c>
       <c r="H35" s="3">
-        <v>529300</v>
+        <v>419500</v>
       </c>
       <c r="I35" s="3">
-        <v>484900</v>
+        <v>513300</v>
       </c>
       <c r="J35" s="3">
+        <v>470200</v>
+      </c>
+      <c r="K35" s="3">
         <v>330800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1046300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>372400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>412800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>907700</v>
+        <v>285000</v>
       </c>
       <c r="E41" s="3">
-        <v>644200</v>
+        <v>880200</v>
       </c>
       <c r="F41" s="3">
-        <v>413900</v>
+        <v>624700</v>
       </c>
       <c r="G41" s="3">
-        <v>622100</v>
+        <v>401400</v>
       </c>
       <c r="H41" s="3">
-        <v>302300</v>
+        <v>603300</v>
       </c>
       <c r="I41" s="3">
-        <v>260600</v>
+        <v>293100</v>
       </c>
       <c r="J41" s="3">
+        <v>252700</v>
+      </c>
+      <c r="K41" s="3">
         <v>297700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>343900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>249000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>418900</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1803,261 +1892,285 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>288000</v>
+        <v>351400</v>
       </c>
       <c r="E43" s="3">
-        <v>346000</v>
+        <v>279300</v>
       </c>
       <c r="F43" s="3">
-        <v>324400</v>
+        <v>335500</v>
       </c>
       <c r="G43" s="3">
-        <v>348200</v>
+        <v>314500</v>
       </c>
       <c r="H43" s="3">
-        <v>379400</v>
+        <v>337600</v>
       </c>
       <c r="I43" s="3">
-        <v>280500</v>
+        <v>367900</v>
       </c>
       <c r="J43" s="3">
+        <v>271900</v>
+      </c>
+      <c r="K43" s="3">
         <v>431000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>763300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>660800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>393100</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22300</v>
+        <v>21100</v>
       </c>
       <c r="E44" s="3">
-        <v>20300</v>
+        <v>21600</v>
       </c>
       <c r="F44" s="3">
-        <v>18200</v>
+        <v>19600</v>
       </c>
       <c r="G44" s="3">
-        <v>20500</v>
+        <v>17600</v>
       </c>
       <c r="H44" s="3">
-        <v>27300</v>
+        <v>19900</v>
       </c>
       <c r="I44" s="3">
-        <v>35700</v>
+        <v>26500</v>
       </c>
       <c r="J44" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K44" s="3">
         <v>49400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>116500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>48900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>61800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17600</v>
+        <v>68600</v>
       </c>
       <c r="E45" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>123600</v>
-      </c>
       <c r="G45" s="3">
-        <v>412000</v>
+        <v>119800</v>
       </c>
       <c r="H45" s="3">
-        <v>93600</v>
+        <v>399500</v>
       </c>
       <c r="I45" s="3">
-        <v>186900</v>
+        <v>90700</v>
       </c>
       <c r="J45" s="3">
+        <v>181200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>259500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>222800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>65100</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1235600</v>
+        <v>726100</v>
       </c>
       <c r="E46" s="3">
-        <v>1010600</v>
+        <v>1198200</v>
       </c>
       <c r="F46" s="3">
-        <v>880000</v>
+        <v>979900</v>
       </c>
       <c r="G46" s="3">
-        <v>1402800</v>
+        <v>853300</v>
       </c>
       <c r="H46" s="3">
-        <v>802600</v>
+        <v>1360200</v>
       </c>
       <c r="I46" s="3">
-        <v>763700</v>
+        <v>778200</v>
       </c>
       <c r="J46" s="3">
+        <v>740500</v>
+      </c>
+      <c r="K46" s="3">
         <v>779300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>768300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>777900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>939000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>105900</v>
+        <v>116300</v>
       </c>
       <c r="E47" s="3">
-        <v>175500</v>
+        <v>102700</v>
       </c>
       <c r="F47" s="3">
-        <v>291100</v>
+        <v>170200</v>
       </c>
       <c r="G47" s="3">
-        <v>272500</v>
+        <v>282200</v>
       </c>
       <c r="H47" s="3">
-        <v>239700</v>
+        <v>264300</v>
       </c>
       <c r="I47" s="3">
-        <v>56500</v>
+        <v>232400</v>
       </c>
       <c r="J47" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K47" s="3">
         <v>52200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>65400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5700</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14393600</v>
+        <v>14369300</v>
       </c>
       <c r="E48" s="3">
-        <v>14042100</v>
+        <v>13957000</v>
       </c>
       <c r="F48" s="3">
-        <v>13606000</v>
+        <v>13616200</v>
       </c>
       <c r="G48" s="3">
-        <v>13163300</v>
+        <v>13193400</v>
       </c>
       <c r="H48" s="3">
-        <v>12693700</v>
+        <v>12764100</v>
       </c>
       <c r="I48" s="3">
-        <v>12237300</v>
+        <v>12308700</v>
       </c>
       <c r="J48" s="3">
+        <v>11866100</v>
+      </c>
+      <c r="K48" s="3">
         <v>11852900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26434500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7884000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11275100</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>220900</v>
+        <v>190200</v>
       </c>
       <c r="E49" s="3">
-        <v>230600</v>
+        <v>214200</v>
       </c>
       <c r="F49" s="3">
-        <v>247300</v>
+        <v>223600</v>
       </c>
       <c r="G49" s="3">
-        <v>241200</v>
+        <v>239800</v>
       </c>
       <c r="H49" s="3">
-        <v>229000</v>
+        <v>233900</v>
       </c>
       <c r="I49" s="3">
-        <v>198100</v>
+        <v>222000</v>
       </c>
       <c r="J49" s="3">
+        <v>192100</v>
+      </c>
+      <c r="K49" s="3">
         <v>176800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>325900</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>123300</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1341000</v>
+        <v>1675700</v>
       </c>
       <c r="E52" s="3">
-        <v>1673600</v>
+        <v>1300400</v>
       </c>
       <c r="F52" s="3">
-        <v>1063400</v>
+        <v>1622800</v>
       </c>
       <c r="G52" s="3">
-        <v>783200</v>
+        <v>1031100</v>
       </c>
       <c r="H52" s="3">
-        <v>1193700</v>
+        <v>759400</v>
       </c>
       <c r="I52" s="3">
-        <v>1269500</v>
+        <v>1157500</v>
       </c>
       <c r="J52" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="K52" s="3">
         <v>928100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>645300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>851000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>740200</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17297100</v>
+        <v>17077500</v>
       </c>
       <c r="E54" s="3">
-        <v>17132400</v>
+        <v>16772500</v>
       </c>
       <c r="F54" s="3">
-        <v>16087800</v>
+        <v>16612800</v>
       </c>
       <c r="G54" s="3">
-        <v>15863000</v>
+        <v>15599800</v>
       </c>
       <c r="H54" s="3">
-        <v>15158600</v>
+        <v>15381800</v>
       </c>
       <c r="I54" s="3">
-        <v>14525100</v>
+        <v>14698800</v>
       </c>
       <c r="J54" s="3">
+        <v>14084600</v>
+      </c>
+      <c r="K54" s="3">
         <v>13789300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14819700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12847600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13083300</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>40600</v>
+        <v>33500</v>
       </c>
       <c r="E57" s="3">
-        <v>44800</v>
+        <v>39400</v>
       </c>
       <c r="F57" s="3">
-        <v>42000</v>
+        <v>43400</v>
       </c>
       <c r="G57" s="3">
-        <v>34000</v>
+        <v>40700</v>
       </c>
       <c r="H57" s="3">
-        <v>42900</v>
+        <v>33000</v>
       </c>
       <c r="I57" s="3">
-        <v>53800</v>
+        <v>41600</v>
       </c>
       <c r="J57" s="3">
+        <v>52200</v>
+      </c>
+      <c r="K57" s="3">
         <v>48900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>605400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>65100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>52400</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>798800</v>
+        <v>365300</v>
       </c>
       <c r="E58" s="3">
-        <v>1030800</v>
+        <v>774600</v>
       </c>
       <c r="F58" s="3">
-        <v>854200</v>
+        <v>999600</v>
       </c>
       <c r="G58" s="3">
-        <v>1024100</v>
+        <v>828300</v>
       </c>
       <c r="H58" s="3">
-        <v>397800</v>
+        <v>993000</v>
       </c>
       <c r="I58" s="3">
-        <v>572400</v>
+        <v>385700</v>
       </c>
       <c r="J58" s="3">
+        <v>555000</v>
+      </c>
+      <c r="K58" s="3">
         <v>705200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>318700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>205000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>165800</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>375000</v>
+        <v>415800</v>
       </c>
       <c r="E59" s="3">
-        <v>394000</v>
+        <v>363600</v>
       </c>
       <c r="F59" s="3">
-        <v>387200</v>
+        <v>382100</v>
       </c>
       <c r="G59" s="3">
-        <v>334400</v>
+        <v>375500</v>
       </c>
       <c r="H59" s="3">
-        <v>400700</v>
+        <v>324200</v>
       </c>
       <c r="I59" s="3">
-        <v>403700</v>
+        <v>388600</v>
       </c>
       <c r="J59" s="3">
+        <v>391400</v>
+      </c>
+      <c r="K59" s="3">
         <v>467600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>628700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>582000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>641600</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1214400</v>
+        <v>814500</v>
       </c>
       <c r="E60" s="3">
-        <v>1469600</v>
+        <v>1177600</v>
       </c>
       <c r="F60" s="3">
-        <v>1283300</v>
+        <v>1425000</v>
       </c>
       <c r="G60" s="3">
-        <v>1392500</v>
+        <v>1244400</v>
       </c>
       <c r="H60" s="3">
-        <v>841500</v>
+        <v>1350300</v>
       </c>
       <c r="I60" s="3">
-        <v>1029800</v>
+        <v>816000</v>
       </c>
       <c r="J60" s="3">
+        <v>998600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1221700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>843800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>852100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>859800</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9511600</v>
+        <v>9074000</v>
       </c>
       <c r="E61" s="3">
-        <v>9171300</v>
+        <v>9223100</v>
       </c>
       <c r="F61" s="3">
-        <v>8680300</v>
+        <v>8893200</v>
       </c>
       <c r="G61" s="3">
-        <v>8628100</v>
+        <v>8417000</v>
       </c>
       <c r="H61" s="3">
-        <v>8610500</v>
+        <v>8366400</v>
       </c>
       <c r="I61" s="3">
-        <v>7940100</v>
+        <v>8349400</v>
       </c>
       <c r="J61" s="3">
+        <v>7699300</v>
+      </c>
+      <c r="K61" s="3">
         <v>7401500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8390500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7415500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7471200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2873600</v>
+        <v>3690600</v>
       </c>
       <c r="E62" s="3">
-        <v>2878000</v>
+        <v>2786400</v>
       </c>
       <c r="F62" s="3">
-        <v>2329300</v>
+        <v>2790700</v>
       </c>
       <c r="G62" s="3">
-        <v>2242500</v>
+        <v>2258600</v>
       </c>
       <c r="H62" s="3">
-        <v>2264500</v>
+        <v>2174500</v>
       </c>
       <c r="I62" s="3">
-        <v>2254700</v>
+        <v>2195800</v>
       </c>
       <c r="J62" s="3">
+        <v>2186400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2196300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2449700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2787500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2450700</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13599600</v>
+        <v>13579200</v>
       </c>
       <c r="E66" s="3">
-        <v>13518900</v>
+        <v>13187100</v>
       </c>
       <c r="F66" s="3">
-        <v>12292900</v>
+        <v>13108900</v>
       </c>
       <c r="G66" s="3">
-        <v>12263200</v>
+        <v>11920100</v>
       </c>
       <c r="H66" s="3">
-        <v>11716500</v>
+        <v>11891200</v>
       </c>
       <c r="I66" s="3">
-        <v>11224700</v>
+        <v>11361200</v>
       </c>
       <c r="J66" s="3">
+        <v>10884200</v>
+      </c>
+      <c r="K66" s="3">
         <v>10819500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11684000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10537000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10781700</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3076200</v>
+        <v>2801300</v>
       </c>
       <c r="E72" s="3">
-        <v>2991700</v>
+        <v>2982900</v>
       </c>
       <c r="F72" s="3">
-        <v>3171100</v>
+        <v>2900900</v>
       </c>
       <c r="G72" s="3">
-        <v>2988800</v>
+        <v>3074900</v>
       </c>
       <c r="H72" s="3">
-        <v>2831300</v>
+        <v>2898100</v>
       </c>
       <c r="I72" s="3">
-        <v>2694100</v>
+        <v>2745400</v>
       </c>
       <c r="J72" s="3">
+        <v>2612400</v>
+      </c>
+      <c r="K72" s="3">
         <v>2367100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2207600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1499500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1446000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3697500</v>
+        <v>3498300</v>
       </c>
       <c r="E76" s="3">
-        <v>3613500</v>
+        <v>3585400</v>
       </c>
       <c r="F76" s="3">
-        <v>3794900</v>
+        <v>3503900</v>
       </c>
       <c r="G76" s="3">
-        <v>3599800</v>
+        <v>3679800</v>
       </c>
       <c r="H76" s="3">
-        <v>3442100</v>
+        <v>3490600</v>
       </c>
       <c r="I76" s="3">
-        <v>3300400</v>
+        <v>3337700</v>
       </c>
       <c r="J76" s="3">
+        <v>3200300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2969700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3135700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2310700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2301600</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>553100</v>
+        <v>-67200</v>
       </c>
       <c r="E81" s="3">
-        <v>130300</v>
+        <v>536300</v>
       </c>
       <c r="F81" s="3">
-        <v>443300</v>
+        <v>126300</v>
       </c>
       <c r="G81" s="3">
-        <v>432600</v>
+        <v>429900</v>
       </c>
       <c r="H81" s="3">
-        <v>529300</v>
+        <v>419500</v>
       </c>
       <c r="I81" s="3">
-        <v>484900</v>
+        <v>513300</v>
       </c>
       <c r="J81" s="3">
+        <v>470200</v>
+      </c>
+      <c r="K81" s="3">
         <v>330800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1046300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>372400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>412800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>515200</v>
+        <v>494700</v>
       </c>
       <c r="E83" s="3">
-        <v>589000</v>
+        <v>499500</v>
       </c>
       <c r="F83" s="3">
-        <v>479700</v>
+        <v>571100</v>
       </c>
       <c r="G83" s="3">
-        <v>459700</v>
+        <v>465100</v>
       </c>
       <c r="H83" s="3">
-        <v>445100</v>
+        <v>445700</v>
       </c>
       <c r="I83" s="3">
-        <v>443700</v>
+        <v>431600</v>
       </c>
       <c r="J83" s="3">
+        <v>430200</v>
+      </c>
+      <c r="K83" s="3">
         <v>430100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>476800</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>388400</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1048400</v>
+        <v>1105300</v>
       </c>
       <c r="E89" s="3">
-        <v>988500</v>
+        <v>1016600</v>
       </c>
       <c r="F89" s="3">
-        <v>1015300</v>
+        <v>958500</v>
       </c>
       <c r="G89" s="3">
-        <v>995000</v>
+        <v>984500</v>
       </c>
       <c r="H89" s="3">
-        <v>1001300</v>
+        <v>964800</v>
       </c>
       <c r="I89" s="3">
-        <v>836400</v>
+        <v>970900</v>
       </c>
       <c r="J89" s="3">
+        <v>811000</v>
+      </c>
+      <c r="K89" s="3">
         <v>861900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1127000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>775500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>730200</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-744600</v>
+        <v>-720400</v>
       </c>
       <c r="E91" s="3">
-        <v>-796400</v>
+        <v>-722000</v>
       </c>
       <c r="F91" s="3">
-        <v>-759100</v>
+        <v>-772200</v>
       </c>
       <c r="G91" s="3">
-        <v>-852200</v>
+        <v>-736100</v>
       </c>
       <c r="H91" s="3">
-        <v>-820300</v>
+        <v>-826400</v>
       </c>
       <c r="I91" s="3">
-        <v>-773700</v>
+        <v>-795400</v>
       </c>
       <c r="J91" s="3">
+        <v>-750200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-812100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-936400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-770500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-655000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-670100</v>
+        <v>-756700</v>
       </c>
       <c r="E94" s="3">
-        <v>-724500</v>
+        <v>-649800</v>
       </c>
       <c r="F94" s="3">
-        <v>-765700</v>
+        <v>-702500</v>
       </c>
       <c r="G94" s="3">
-        <v>-882200</v>
+        <v>-742500</v>
       </c>
       <c r="H94" s="3">
-        <v>-981500</v>
+        <v>-855500</v>
       </c>
       <c r="I94" s="3">
-        <v>-825600</v>
+        <v>-951800</v>
       </c>
       <c r="J94" s="3">
+        <v>-800600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-859900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-960300</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-650100</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-356100</v>
+        <v>-349500</v>
       </c>
       <c r="E96" s="3">
-        <v>-347100</v>
+        <v>-345300</v>
       </c>
       <c r="F96" s="3">
-        <v>-334700</v>
+        <v>-336500</v>
       </c>
       <c r="G96" s="3">
-        <v>-325700</v>
+        <v>-324600</v>
       </c>
       <c r="H96" s="3">
-        <v>-321000</v>
+        <v>-315800</v>
       </c>
       <c r="I96" s="3">
-        <v>-315600</v>
+        <v>-311200</v>
       </c>
       <c r="J96" s="3">
+        <v>-306000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-304200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-336700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-275300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-272600</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-109400</v>
+        <v>-957800</v>
       </c>
       <c r="E100" s="3">
-        <v>-33900</v>
+        <v>-106100</v>
       </c>
       <c r="F100" s="3">
-        <v>-460400</v>
+        <v>-32900</v>
       </c>
       <c r="G100" s="3">
-        <v>225300</v>
+        <v>-446400</v>
       </c>
       <c r="H100" s="3">
-        <v>26800</v>
+        <v>218500</v>
       </c>
       <c r="I100" s="3">
-        <v>-56600</v>
+        <v>26000</v>
       </c>
       <c r="J100" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="K100" s="3">
         <v>169800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-299300</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7600</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>1800</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>268900</v>
+        <v>-607400</v>
       </c>
       <c r="E102" s="3">
-        <v>230100</v>
+        <v>260700</v>
       </c>
       <c r="F102" s="3">
-        <v>-210800</v>
+        <v>223100</v>
       </c>
       <c r="G102" s="3">
-        <v>338000</v>
+        <v>-204400</v>
       </c>
       <c r="H102" s="3">
-        <v>46600</v>
+        <v>327800</v>
       </c>
       <c r="I102" s="3">
-        <v>-45900</v>
+        <v>45200</v>
       </c>
       <c r="J102" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="K102" s="3">
         <v>171800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-132600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-159600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>88300</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2203400</v>
+        <v>2181800</v>
       </c>
       <c r="E8" s="3">
-        <v>2138700</v>
+        <v>2117700</v>
       </c>
       <c r="F8" s="3">
-        <v>2199400</v>
+        <v>2177800</v>
       </c>
       <c r="G8" s="3">
-        <v>2151100</v>
+        <v>2130000</v>
       </c>
       <c r="H8" s="3">
-        <v>2053300</v>
+        <v>2033100</v>
       </c>
       <c r="I8" s="3">
-        <v>2015700</v>
+        <v>1995900</v>
       </c>
       <c r="J8" s="3">
-        <v>2046400</v>
+        <v>2026300</v>
       </c>
       <c r="K8" s="3">
         <v>2098500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>338100</v>
+        <v>334800</v>
       </c>
       <c r="E9" s="3">
-        <v>310000</v>
+        <v>307000</v>
       </c>
       <c r="F9" s="3">
-        <v>296400</v>
+        <v>293500</v>
       </c>
       <c r="G9" s="3">
-        <v>310900</v>
+        <v>307800</v>
       </c>
       <c r="H9" s="3">
-        <v>278500</v>
+        <v>275700</v>
       </c>
       <c r="I9" s="3">
-        <v>285000</v>
+        <v>282200</v>
       </c>
       <c r="J9" s="3">
-        <v>301800</v>
+        <v>298800</v>
       </c>
       <c r="K9" s="3">
         <v>261100</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1865300</v>
+        <v>1847000</v>
       </c>
       <c r="E10" s="3">
-        <v>1828600</v>
+        <v>1810700</v>
       </c>
       <c r="F10" s="3">
-        <v>1902900</v>
+        <v>1884300</v>
       </c>
       <c r="G10" s="3">
-        <v>1840200</v>
+        <v>1822200</v>
       </c>
       <c r="H10" s="3">
-        <v>1774800</v>
+        <v>1757400</v>
       </c>
       <c r="I10" s="3">
-        <v>1730700</v>
+        <v>1713700</v>
       </c>
       <c r="J10" s="3">
-        <v>1744700</v>
+        <v>1727600</v>
       </c>
       <c r="K10" s="3">
         <v>1837400</v>
@@ -938,22 +938,22 @@
         <v>8600</v>
       </c>
       <c r="E14" s="3">
-        <v>-25400</v>
+        <v>-25200</v>
       </c>
       <c r="F14" s="3">
-        <v>53600</v>
+        <v>53100</v>
       </c>
       <c r="G14" s="3">
-        <v>57500</v>
+        <v>56900</v>
       </c>
       <c r="H14" s="3">
-        <v>27900</v>
+        <v>27600</v>
       </c>
       <c r="I14" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="J14" s="3">
-        <v>36600</v>
+        <v>36200</v>
       </c>
       <c r="K14" s="3">
         <v>21000</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>494700</v>
+        <v>489800</v>
       </c>
       <c r="E15" s="3">
-        <v>499500</v>
+        <v>494600</v>
       </c>
       <c r="F15" s="3">
-        <v>571100</v>
+        <v>565500</v>
       </c>
       <c r="G15" s="3">
-        <v>465100</v>
+        <v>460600</v>
       </c>
       <c r="H15" s="3">
-        <v>445700</v>
+        <v>441300</v>
       </c>
       <c r="I15" s="3">
-        <v>431600</v>
+        <v>427400</v>
       </c>
       <c r="J15" s="3">
-        <v>430200</v>
+        <v>426000</v>
       </c>
       <c r="K15" s="3">
         <v>430100</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1481800</v>
+        <v>1467300</v>
       </c>
       <c r="E17" s="3">
-        <v>1383000</v>
+        <v>1369500</v>
       </c>
       <c r="F17" s="3">
-        <v>1453800</v>
+        <v>1439500</v>
       </c>
       <c r="G17" s="3">
-        <v>1400100</v>
+        <v>1386400</v>
       </c>
       <c r="H17" s="3">
-        <v>1300500</v>
+        <v>1287700</v>
       </c>
       <c r="I17" s="3">
-        <v>1273300</v>
+        <v>1260800</v>
       </c>
       <c r="J17" s="3">
-        <v>1374600</v>
+        <v>1361200</v>
       </c>
       <c r="K17" s="3">
         <v>1301500</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>721600</v>
+        <v>714500</v>
       </c>
       <c r="E18" s="3">
-        <v>755600</v>
+        <v>748200</v>
       </c>
       <c r="F18" s="3">
-        <v>745600</v>
+        <v>738300</v>
       </c>
       <c r="G18" s="3">
-        <v>751000</v>
+        <v>743700</v>
       </c>
       <c r="H18" s="3">
-        <v>752800</v>
+        <v>745400</v>
       </c>
       <c r="I18" s="3">
-        <v>742400</v>
+        <v>735100</v>
       </c>
       <c r="J18" s="3">
-        <v>671800</v>
+        <v>665200</v>
       </c>
       <c r="K18" s="3">
         <v>797000</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>190000</v>
+        <v>188100</v>
       </c>
       <c r="E20" s="3">
-        <v>111100</v>
+        <v>110000</v>
       </c>
       <c r="F20" s="3">
-        <v>-112800</v>
+        <v>-111700</v>
       </c>
       <c r="G20" s="3">
-        <v>39400</v>
+        <v>39000</v>
       </c>
       <c r="H20" s="3">
-        <v>72900</v>
+        <v>72200</v>
       </c>
       <c r="I20" s="3">
-        <v>49400</v>
+        <v>49000</v>
       </c>
       <c r="J20" s="3">
-        <v>-19300</v>
+        <v>-19100</v>
       </c>
       <c r="K20" s="3">
         <v>-128800</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1404900</v>
+        <v>1377500</v>
       </c>
       <c r="E21" s="3">
-        <v>1364900</v>
+        <v>1337800</v>
       </c>
       <c r="F21" s="3">
-        <v>1202300</v>
+        <v>1174800</v>
       </c>
       <c r="G21" s="3">
-        <v>1254300</v>
+        <v>1229200</v>
       </c>
       <c r="H21" s="3">
-        <v>1270200</v>
+        <v>1245500</v>
       </c>
       <c r="I21" s="3">
-        <v>1222300</v>
+        <v>1198400</v>
       </c>
       <c r="J21" s="3">
-        <v>1081500</v>
+        <v>1059100</v>
       </c>
       <c r="K21" s="3">
         <v>1100100</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>391200</v>
+        <v>387300</v>
       </c>
       <c r="E22" s="3">
-        <v>214900</v>
+        <v>212800</v>
       </c>
       <c r="F22" s="3">
-        <v>274100</v>
+        <v>271400</v>
       </c>
       <c r="G22" s="3">
-        <v>274400</v>
+        <v>271700</v>
       </c>
       <c r="H22" s="3">
-        <v>314500</v>
+        <v>311400</v>
       </c>
       <c r="I22" s="3">
-        <v>268500</v>
+        <v>265900</v>
       </c>
       <c r="J22" s="3">
-        <v>234300</v>
+        <v>232000</v>
       </c>
       <c r="K22" s="3">
         <v>251400</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>520400</v>
+        <v>515300</v>
       </c>
       <c r="E23" s="3">
-        <v>651800</v>
+        <v>645400</v>
       </c>
       <c r="F23" s="3">
-        <v>358700</v>
+        <v>355100</v>
       </c>
       <c r="G23" s="3">
-        <v>516000</v>
+        <v>510900</v>
       </c>
       <c r="H23" s="3">
-        <v>511100</v>
+        <v>506100</v>
       </c>
       <c r="I23" s="3">
-        <v>523300</v>
+        <v>518200</v>
       </c>
       <c r="J23" s="3">
-        <v>418200</v>
+        <v>414100</v>
       </c>
       <c r="K23" s="3">
         <v>416700</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>587500</v>
+        <v>581800</v>
       </c>
       <c r="E24" s="3">
-        <v>115500</v>
+        <v>114300</v>
       </c>
       <c r="F24" s="3">
-        <v>232300</v>
+        <v>230000</v>
       </c>
       <c r="G24" s="3">
-        <v>86100</v>
+        <v>85300</v>
       </c>
       <c r="H24" s="3">
-        <v>91700</v>
+        <v>90800</v>
       </c>
       <c r="I24" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="J24" s="3">
-        <v>-52000</v>
+        <v>-51500</v>
       </c>
       <c r="K24" s="3">
         <v>85900</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-67200</v>
+        <v>-66500</v>
       </c>
       <c r="E26" s="3">
-        <v>536300</v>
+        <v>531100</v>
       </c>
       <c r="F26" s="3">
-        <v>126300</v>
+        <v>125100</v>
       </c>
       <c r="G26" s="3">
-        <v>429900</v>
+        <v>425700</v>
       </c>
       <c r="H26" s="3">
-        <v>419500</v>
+        <v>415300</v>
       </c>
       <c r="I26" s="3">
-        <v>513300</v>
+        <v>508200</v>
       </c>
       <c r="J26" s="3">
-        <v>470200</v>
+        <v>465600</v>
       </c>
       <c r="K26" s="3">
         <v>330800</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-67200</v>
+        <v>-66500</v>
       </c>
       <c r="E27" s="3">
-        <v>536300</v>
+        <v>531100</v>
       </c>
       <c r="F27" s="3">
-        <v>126300</v>
+        <v>125100</v>
       </c>
       <c r="G27" s="3">
-        <v>429900</v>
+        <v>425700</v>
       </c>
       <c r="H27" s="3">
-        <v>419500</v>
+        <v>415300</v>
       </c>
       <c r="I27" s="3">
-        <v>513300</v>
+        <v>508200</v>
       </c>
       <c r="J27" s="3">
-        <v>470200</v>
+        <v>465600</v>
       </c>
       <c r="K27" s="3">
         <v>330800</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-190000</v>
+        <v>-188100</v>
       </c>
       <c r="E32" s="3">
-        <v>-111100</v>
+        <v>-110000</v>
       </c>
       <c r="F32" s="3">
-        <v>112800</v>
+        <v>111700</v>
       </c>
       <c r="G32" s="3">
-        <v>-39400</v>
+        <v>-39000</v>
       </c>
       <c r="H32" s="3">
-        <v>-72900</v>
+        <v>-72200</v>
       </c>
       <c r="I32" s="3">
-        <v>-49400</v>
+        <v>-49000</v>
       </c>
       <c r="J32" s="3">
-        <v>19300</v>
+        <v>19100</v>
       </c>
       <c r="K32" s="3">
         <v>128800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-67200</v>
+        <v>-66500</v>
       </c>
       <c r="E33" s="3">
-        <v>536300</v>
+        <v>531100</v>
       </c>
       <c r="F33" s="3">
-        <v>126300</v>
+        <v>125100</v>
       </c>
       <c r="G33" s="3">
-        <v>429900</v>
+        <v>425700</v>
       </c>
       <c r="H33" s="3">
-        <v>419500</v>
+        <v>415300</v>
       </c>
       <c r="I33" s="3">
-        <v>513300</v>
+        <v>508200</v>
       </c>
       <c r="J33" s="3">
-        <v>470200</v>
+        <v>465600</v>
       </c>
       <c r="K33" s="3">
         <v>330800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-67200</v>
+        <v>-66500</v>
       </c>
       <c r="E35" s="3">
-        <v>536300</v>
+        <v>531100</v>
       </c>
       <c r="F35" s="3">
-        <v>126300</v>
+        <v>125100</v>
       </c>
       <c r="G35" s="3">
-        <v>429900</v>
+        <v>425700</v>
       </c>
       <c r="H35" s="3">
-        <v>419500</v>
+        <v>415300</v>
       </c>
       <c r="I35" s="3">
-        <v>513300</v>
+        <v>508200</v>
       </c>
       <c r="J35" s="3">
-        <v>470200</v>
+        <v>465600</v>
       </c>
       <c r="K35" s="3">
         <v>330800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>285000</v>
+        <v>282200</v>
       </c>
       <c r="E41" s="3">
-        <v>880200</v>
+        <v>871600</v>
       </c>
       <c r="F41" s="3">
-        <v>624700</v>
+        <v>618600</v>
       </c>
       <c r="G41" s="3">
-        <v>401400</v>
+        <v>397400</v>
       </c>
       <c r="H41" s="3">
-        <v>603300</v>
+        <v>597400</v>
       </c>
       <c r="I41" s="3">
-        <v>293100</v>
+        <v>290200</v>
       </c>
       <c r="J41" s="3">
-        <v>252700</v>
+        <v>250200</v>
       </c>
       <c r="K41" s="3">
         <v>297700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>351400</v>
+        <v>348000</v>
       </c>
       <c r="E43" s="3">
-        <v>279300</v>
+        <v>276500</v>
       </c>
       <c r="F43" s="3">
-        <v>335500</v>
+        <v>332200</v>
       </c>
       <c r="G43" s="3">
-        <v>314500</v>
+        <v>311400</v>
       </c>
       <c r="H43" s="3">
-        <v>337600</v>
+        <v>334300</v>
       </c>
       <c r="I43" s="3">
-        <v>367900</v>
+        <v>364300</v>
       </c>
       <c r="J43" s="3">
-        <v>271900</v>
+        <v>269300</v>
       </c>
       <c r="K43" s="3">
         <v>431000</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21100</v>
+        <v>20800</v>
       </c>
       <c r="E44" s="3">
-        <v>21600</v>
+        <v>21400</v>
       </c>
       <c r="F44" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="G44" s="3">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="H44" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="I44" s="3">
-        <v>26500</v>
+        <v>26200</v>
       </c>
       <c r="J44" s="3">
-        <v>34700</v>
+        <v>34300</v>
       </c>
       <c r="K44" s="3">
         <v>49400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>68600</v>
+        <v>67900</v>
       </c>
       <c r="E45" s="3">
-        <v>17000</v>
+        <v>16900</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>119800</v>
+        <v>118700</v>
       </c>
       <c r="H45" s="3">
-        <v>399500</v>
+        <v>395500</v>
       </c>
       <c r="I45" s="3">
-        <v>90700</v>
+        <v>89800</v>
       </c>
       <c r="J45" s="3">
-        <v>181200</v>
+        <v>179400</v>
       </c>
       <c r="K45" s="3">
         <v>1200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>726100</v>
+        <v>718900</v>
       </c>
       <c r="E46" s="3">
-        <v>1198200</v>
+        <v>1186400</v>
       </c>
       <c r="F46" s="3">
-        <v>979900</v>
+        <v>970300</v>
       </c>
       <c r="G46" s="3">
-        <v>853300</v>
+        <v>845000</v>
       </c>
       <c r="H46" s="3">
-        <v>1360200</v>
+        <v>1346900</v>
       </c>
       <c r="I46" s="3">
-        <v>778200</v>
+        <v>770600</v>
       </c>
       <c r="J46" s="3">
-        <v>740500</v>
+        <v>733200</v>
       </c>
       <c r="K46" s="3">
         <v>779300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>116300</v>
+        <v>115100</v>
       </c>
       <c r="E47" s="3">
-        <v>102700</v>
+        <v>101700</v>
       </c>
       <c r="F47" s="3">
-        <v>170200</v>
+        <v>168600</v>
       </c>
       <c r="G47" s="3">
-        <v>282200</v>
+        <v>279500</v>
       </c>
       <c r="H47" s="3">
-        <v>264300</v>
+        <v>261700</v>
       </c>
       <c r="I47" s="3">
-        <v>232400</v>
+        <v>230200</v>
       </c>
       <c r="J47" s="3">
-        <v>54800</v>
+        <v>54200</v>
       </c>
       <c r="K47" s="3">
         <v>52200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14369300</v>
+        <v>14228400</v>
       </c>
       <c r="E48" s="3">
-        <v>13957000</v>
+        <v>13820200</v>
       </c>
       <c r="F48" s="3">
-        <v>13616200</v>
+        <v>13482700</v>
       </c>
       <c r="G48" s="3">
-        <v>13193400</v>
+        <v>13064000</v>
       </c>
       <c r="H48" s="3">
-        <v>12764100</v>
+        <v>12638900</v>
       </c>
       <c r="I48" s="3">
-        <v>12308700</v>
+        <v>12188000</v>
       </c>
       <c r="J48" s="3">
-        <v>11866100</v>
+        <v>11749800</v>
       </c>
       <c r="K48" s="3">
         <v>11852900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>188300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>212100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>221400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>237400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>231600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>219900</v>
+      </c>
+      <c r="J49" s="3">
         <v>190200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>214200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>223600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>239800</v>
-      </c>
-      <c r="H49" s="3">
-        <v>233900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>222000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>192100</v>
       </c>
       <c r="K49" s="3">
         <v>176800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1675700</v>
+        <v>1659300</v>
       </c>
       <c r="E52" s="3">
-        <v>1300400</v>
+        <v>1287600</v>
       </c>
       <c r="F52" s="3">
-        <v>1622800</v>
+        <v>1606900</v>
       </c>
       <c r="G52" s="3">
-        <v>1031100</v>
+        <v>1021000</v>
       </c>
       <c r="H52" s="3">
-        <v>759400</v>
+        <v>752000</v>
       </c>
       <c r="I52" s="3">
-        <v>1157500</v>
+        <v>1146100</v>
       </c>
       <c r="J52" s="3">
-        <v>1231000</v>
+        <v>1219000</v>
       </c>
       <c r="K52" s="3">
         <v>928100</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17077500</v>
+        <v>16910100</v>
       </c>
       <c r="E54" s="3">
-        <v>16772500</v>
+        <v>16608000</v>
       </c>
       <c r="F54" s="3">
-        <v>16612800</v>
+        <v>16449900</v>
       </c>
       <c r="G54" s="3">
-        <v>15599800</v>
+        <v>15446900</v>
       </c>
       <c r="H54" s="3">
-        <v>15381800</v>
+        <v>15231000</v>
       </c>
       <c r="I54" s="3">
-        <v>14698800</v>
+        <v>14554700</v>
       </c>
       <c r="J54" s="3">
-        <v>14084600</v>
+        <v>13946400</v>
       </c>
       <c r="K54" s="3">
         <v>13789300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33500</v>
+        <v>33100</v>
       </c>
       <c r="E57" s="3">
-        <v>39400</v>
+        <v>39000</v>
       </c>
       <c r="F57" s="3">
-        <v>43400</v>
+        <v>43000</v>
       </c>
       <c r="G57" s="3">
-        <v>40700</v>
+        <v>40300</v>
       </c>
       <c r="H57" s="3">
-        <v>33000</v>
+        <v>32700</v>
       </c>
       <c r="I57" s="3">
-        <v>41600</v>
+        <v>41200</v>
       </c>
       <c r="J57" s="3">
-        <v>52200</v>
+        <v>51700</v>
       </c>
       <c r="K57" s="3">
         <v>48900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>365300</v>
+        <v>361700</v>
       </c>
       <c r="E58" s="3">
-        <v>774600</v>
+        <v>767000</v>
       </c>
       <c r="F58" s="3">
-        <v>999600</v>
+        <v>989700</v>
       </c>
       <c r="G58" s="3">
-        <v>828300</v>
+        <v>820100</v>
       </c>
       <c r="H58" s="3">
-        <v>993000</v>
+        <v>983300</v>
       </c>
       <c r="I58" s="3">
-        <v>385700</v>
+        <v>382000</v>
       </c>
       <c r="J58" s="3">
-        <v>555000</v>
+        <v>549600</v>
       </c>
       <c r="K58" s="3">
         <v>705200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>415800</v>
+        <v>411700</v>
       </c>
       <c r="E59" s="3">
-        <v>363600</v>
+        <v>360100</v>
       </c>
       <c r="F59" s="3">
-        <v>382100</v>
+        <v>378300</v>
       </c>
       <c r="G59" s="3">
-        <v>375500</v>
+        <v>371800</v>
       </c>
       <c r="H59" s="3">
-        <v>324200</v>
+        <v>321100</v>
       </c>
       <c r="I59" s="3">
-        <v>388600</v>
+        <v>384800</v>
       </c>
       <c r="J59" s="3">
-        <v>391400</v>
+        <v>387600</v>
       </c>
       <c r="K59" s="3">
         <v>467600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>814500</v>
+        <v>806600</v>
       </c>
       <c r="E60" s="3">
-        <v>1177600</v>
+        <v>1166000</v>
       </c>
       <c r="F60" s="3">
-        <v>1425000</v>
+        <v>1411100</v>
       </c>
       <c r="G60" s="3">
-        <v>1244400</v>
+        <v>1232200</v>
       </c>
       <c r="H60" s="3">
-        <v>1350300</v>
+        <v>1337000</v>
       </c>
       <c r="I60" s="3">
-        <v>816000</v>
+        <v>808000</v>
       </c>
       <c r="J60" s="3">
-        <v>998600</v>
+        <v>988800</v>
       </c>
       <c r="K60" s="3">
         <v>1221700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9074000</v>
+        <v>8985000</v>
       </c>
       <c r="E61" s="3">
-        <v>9223100</v>
+        <v>9132600</v>
       </c>
       <c r="F61" s="3">
-        <v>8893200</v>
+        <v>8806000</v>
       </c>
       <c r="G61" s="3">
-        <v>8417000</v>
+        <v>8334500</v>
       </c>
       <c r="H61" s="3">
-        <v>8366400</v>
+        <v>8284400</v>
       </c>
       <c r="I61" s="3">
-        <v>8349400</v>
+        <v>8267500</v>
       </c>
       <c r="J61" s="3">
-        <v>7699300</v>
+        <v>7623800</v>
       </c>
       <c r="K61" s="3">
         <v>7401500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3690600</v>
+        <v>3654500</v>
       </c>
       <c r="E62" s="3">
-        <v>2786400</v>
+        <v>2759100</v>
       </c>
       <c r="F62" s="3">
-        <v>2790700</v>
+        <v>2763300</v>
       </c>
       <c r="G62" s="3">
-        <v>2258600</v>
+        <v>2236500</v>
       </c>
       <c r="H62" s="3">
-        <v>2174500</v>
+        <v>2153200</v>
       </c>
       <c r="I62" s="3">
-        <v>2195800</v>
+        <v>2174300</v>
       </c>
       <c r="J62" s="3">
-        <v>2186400</v>
+        <v>2164900</v>
       </c>
       <c r="K62" s="3">
         <v>2196300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13579200</v>
+        <v>13446100</v>
       </c>
       <c r="E66" s="3">
-        <v>13187100</v>
+        <v>13057800</v>
       </c>
       <c r="F66" s="3">
-        <v>13108900</v>
+        <v>12980300</v>
       </c>
       <c r="G66" s="3">
-        <v>11920100</v>
+        <v>11803200</v>
       </c>
       <c r="H66" s="3">
-        <v>11891200</v>
+        <v>11774600</v>
       </c>
       <c r="I66" s="3">
-        <v>11361200</v>
+        <v>11249800</v>
       </c>
       <c r="J66" s="3">
-        <v>10884200</v>
+        <v>10777500</v>
       </c>
       <c r="K66" s="3">
         <v>10819500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2801300</v>
+        <v>2773900</v>
       </c>
       <c r="E72" s="3">
-        <v>2982900</v>
+        <v>2953700</v>
       </c>
       <c r="F72" s="3">
-        <v>2900900</v>
+        <v>2872500</v>
       </c>
       <c r="G72" s="3">
-        <v>3074900</v>
+        <v>3044800</v>
       </c>
       <c r="H72" s="3">
-        <v>2898100</v>
+        <v>2869700</v>
       </c>
       <c r="I72" s="3">
-        <v>2745400</v>
+        <v>2718500</v>
       </c>
       <c r="J72" s="3">
-        <v>2612400</v>
+        <v>2586800</v>
       </c>
       <c r="K72" s="3">
         <v>2367100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3498300</v>
+        <v>3464000</v>
       </c>
       <c r="E76" s="3">
-        <v>3585400</v>
+        <v>3550200</v>
       </c>
       <c r="F76" s="3">
-        <v>3503900</v>
+        <v>3469500</v>
       </c>
       <c r="G76" s="3">
-        <v>3679800</v>
+        <v>3643700</v>
       </c>
       <c r="H76" s="3">
-        <v>3490600</v>
+        <v>3456400</v>
       </c>
       <c r="I76" s="3">
-        <v>3337700</v>
+        <v>3304900</v>
       </c>
       <c r="J76" s="3">
-        <v>3200300</v>
+        <v>3169000</v>
       </c>
       <c r="K76" s="3">
         <v>2969700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-67200</v>
+        <v>-66500</v>
       </c>
       <c r="E81" s="3">
-        <v>536300</v>
+        <v>531100</v>
       </c>
       <c r="F81" s="3">
-        <v>126300</v>
+        <v>125100</v>
       </c>
       <c r="G81" s="3">
-        <v>429900</v>
+        <v>425700</v>
       </c>
       <c r="H81" s="3">
-        <v>419500</v>
+        <v>415300</v>
       </c>
       <c r="I81" s="3">
-        <v>513300</v>
+        <v>508200</v>
       </c>
       <c r="J81" s="3">
-        <v>470200</v>
+        <v>465600</v>
       </c>
       <c r="K81" s="3">
         <v>330800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>494700</v>
+        <v>489800</v>
       </c>
       <c r="E83" s="3">
-        <v>499500</v>
+        <v>494600</v>
       </c>
       <c r="F83" s="3">
-        <v>571100</v>
+        <v>565500</v>
       </c>
       <c r="G83" s="3">
-        <v>465100</v>
+        <v>460600</v>
       </c>
       <c r="H83" s="3">
-        <v>445700</v>
+        <v>441300</v>
       </c>
       <c r="I83" s="3">
-        <v>431600</v>
+        <v>427400</v>
       </c>
       <c r="J83" s="3">
-        <v>430200</v>
+        <v>426000</v>
       </c>
       <c r="K83" s="3">
         <v>430100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1105300</v>
+        <v>1094500</v>
       </c>
       <c r="E89" s="3">
-        <v>1016600</v>
+        <v>1006600</v>
       </c>
       <c r="F89" s="3">
-        <v>958500</v>
+        <v>949100</v>
       </c>
       <c r="G89" s="3">
-        <v>984500</v>
+        <v>974900</v>
       </c>
       <c r="H89" s="3">
-        <v>964800</v>
+        <v>955300</v>
       </c>
       <c r="I89" s="3">
-        <v>970900</v>
+        <v>961400</v>
       </c>
       <c r="J89" s="3">
-        <v>811000</v>
+        <v>803000</v>
       </c>
       <c r="K89" s="3">
         <v>861900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-720400</v>
+        <v>-713300</v>
       </c>
       <c r="E91" s="3">
-        <v>-722000</v>
+        <v>-715000</v>
       </c>
       <c r="F91" s="3">
-        <v>-772200</v>
+        <v>-764600</v>
       </c>
       <c r="G91" s="3">
-        <v>-736100</v>
+        <v>-728900</v>
       </c>
       <c r="H91" s="3">
-        <v>-826400</v>
+        <v>-818300</v>
       </c>
       <c r="I91" s="3">
-        <v>-795400</v>
+        <v>-787600</v>
       </c>
       <c r="J91" s="3">
-        <v>-750200</v>
+        <v>-742800</v>
       </c>
       <c r="K91" s="3">
         <v>-812100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-756700</v>
+        <v>-749300</v>
       </c>
       <c r="E94" s="3">
-        <v>-649800</v>
+        <v>-643400</v>
       </c>
       <c r="F94" s="3">
-        <v>-702500</v>
+        <v>-695600</v>
       </c>
       <c r="G94" s="3">
-        <v>-742500</v>
+        <v>-735200</v>
       </c>
       <c r="H94" s="3">
-        <v>-855500</v>
+        <v>-847100</v>
       </c>
       <c r="I94" s="3">
-        <v>-951800</v>
+        <v>-942400</v>
       </c>
       <c r="J94" s="3">
-        <v>-800600</v>
+        <v>-792700</v>
       </c>
       <c r="K94" s="3">
         <v>-859900</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-349500</v>
+        <v>-346100</v>
       </c>
       <c r="E96" s="3">
-        <v>-345300</v>
+        <v>-341900</v>
       </c>
       <c r="F96" s="3">
-        <v>-336500</v>
+        <v>-333200</v>
       </c>
       <c r="G96" s="3">
-        <v>-324600</v>
+        <v>-321400</v>
       </c>
       <c r="H96" s="3">
-        <v>-315800</v>
+        <v>-312700</v>
       </c>
       <c r="I96" s="3">
-        <v>-311200</v>
+        <v>-308200</v>
       </c>
       <c r="J96" s="3">
-        <v>-306000</v>
+        <v>-303000</v>
       </c>
       <c r="K96" s="3">
         <v>-304200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-957800</v>
+        <v>-948400</v>
       </c>
       <c r="E100" s="3">
-        <v>-106100</v>
+        <v>-105100</v>
       </c>
       <c r="F100" s="3">
-        <v>-32900</v>
+        <v>-32600</v>
       </c>
       <c r="G100" s="3">
-        <v>-446400</v>
+        <v>-442000</v>
       </c>
       <c r="H100" s="3">
-        <v>218500</v>
+        <v>216300</v>
       </c>
       <c r="I100" s="3">
-        <v>26000</v>
+        <v>25800</v>
       </c>
       <c r="J100" s="3">
-        <v>-54900</v>
+        <v>-54300</v>
       </c>
       <c r="K100" s="3">
         <v>169800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-607400</v>
+        <v>-601500</v>
       </c>
       <c r="E102" s="3">
-        <v>260700</v>
+        <v>258200</v>
       </c>
       <c r="F102" s="3">
-        <v>223100</v>
+        <v>220900</v>
       </c>
       <c r="G102" s="3">
-        <v>-204400</v>
+        <v>-202400</v>
       </c>
       <c r="H102" s="3">
-        <v>327800</v>
+        <v>324600</v>
       </c>
       <c r="I102" s="3">
-        <v>45200</v>
+        <v>44700</v>
       </c>
       <c r="J102" s="3">
-        <v>-44500</v>
+        <v>-44000</v>
       </c>
       <c r="K102" s="3">
         <v>171800</v>

--- a/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2181800</v>
+        <v>2221300</v>
       </c>
       <c r="E8" s="3">
-        <v>2117700</v>
+        <v>2156100</v>
       </c>
       <c r="F8" s="3">
-        <v>2177800</v>
+        <v>2217200</v>
       </c>
       <c r="G8" s="3">
-        <v>2130000</v>
+        <v>2168600</v>
       </c>
       <c r="H8" s="3">
-        <v>2033100</v>
+        <v>2070000</v>
       </c>
       <c r="I8" s="3">
-        <v>1995900</v>
+        <v>2032000</v>
       </c>
       <c r="J8" s="3">
-        <v>2026300</v>
+        <v>2063000</v>
       </c>
       <c r="K8" s="3">
         <v>2098500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>334800</v>
+        <v>340800</v>
       </c>
       <c r="E9" s="3">
-        <v>307000</v>
+        <v>312600</v>
       </c>
       <c r="F9" s="3">
-        <v>293500</v>
+        <v>298800</v>
       </c>
       <c r="G9" s="3">
-        <v>307800</v>
+        <v>313400</v>
       </c>
       <c r="H9" s="3">
-        <v>275700</v>
+        <v>280700</v>
       </c>
       <c r="I9" s="3">
-        <v>282200</v>
+        <v>287300</v>
       </c>
       <c r="J9" s="3">
-        <v>298800</v>
+        <v>304200</v>
       </c>
       <c r="K9" s="3">
         <v>261100</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1847000</v>
+        <v>1880500</v>
       </c>
       <c r="E10" s="3">
-        <v>1810700</v>
+        <v>1843500</v>
       </c>
       <c r="F10" s="3">
-        <v>1884300</v>
+        <v>1918400</v>
       </c>
       <c r="G10" s="3">
-        <v>1822200</v>
+        <v>1855200</v>
       </c>
       <c r="H10" s="3">
-        <v>1757400</v>
+        <v>1789200</v>
       </c>
       <c r="I10" s="3">
-        <v>1713700</v>
+        <v>1744800</v>
       </c>
       <c r="J10" s="3">
-        <v>1727600</v>
+        <v>1758800</v>
       </c>
       <c r="K10" s="3">
         <v>1837400</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="E14" s="3">
-        <v>-25200</v>
+        <v>-25600</v>
       </c>
       <c r="F14" s="3">
-        <v>53100</v>
+        <v>54000</v>
       </c>
       <c r="G14" s="3">
-        <v>56900</v>
+        <v>58000</v>
       </c>
       <c r="H14" s="3">
-        <v>27600</v>
+        <v>28100</v>
       </c>
       <c r="I14" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="J14" s="3">
-        <v>36200</v>
+        <v>36800</v>
       </c>
       <c r="K14" s="3">
         <v>21000</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>489800</v>
+        <v>498700</v>
       </c>
       <c r="E15" s="3">
-        <v>494600</v>
+        <v>503600</v>
       </c>
       <c r="F15" s="3">
-        <v>565500</v>
+        <v>575700</v>
       </c>
       <c r="G15" s="3">
-        <v>460600</v>
+        <v>468900</v>
       </c>
       <c r="H15" s="3">
-        <v>441300</v>
+        <v>449300</v>
       </c>
       <c r="I15" s="3">
-        <v>427400</v>
+        <v>435100</v>
       </c>
       <c r="J15" s="3">
-        <v>426000</v>
+        <v>433700</v>
       </c>
       <c r="K15" s="3">
         <v>430100</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1467300</v>
+        <v>1493900</v>
       </c>
       <c r="E17" s="3">
-        <v>1369500</v>
+        <v>1394300</v>
       </c>
       <c r="F17" s="3">
-        <v>1439500</v>
+        <v>1465600</v>
       </c>
       <c r="G17" s="3">
-        <v>1386400</v>
+        <v>1411500</v>
       </c>
       <c r="H17" s="3">
-        <v>1287700</v>
+        <v>1311000</v>
       </c>
       <c r="I17" s="3">
-        <v>1260800</v>
+        <v>1283600</v>
       </c>
       <c r="J17" s="3">
-        <v>1361200</v>
+        <v>1385800</v>
       </c>
       <c r="K17" s="3">
         <v>1301500</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>714500</v>
+        <v>727400</v>
       </c>
       <c r="E18" s="3">
-        <v>748200</v>
+        <v>761800</v>
       </c>
       <c r="F18" s="3">
-        <v>738300</v>
+        <v>751600</v>
       </c>
       <c r="G18" s="3">
-        <v>743700</v>
+        <v>757100</v>
       </c>
       <c r="H18" s="3">
-        <v>745400</v>
+        <v>758900</v>
       </c>
       <c r="I18" s="3">
-        <v>735100</v>
+        <v>748400</v>
       </c>
       <c r="J18" s="3">
-        <v>665200</v>
+        <v>677200</v>
       </c>
       <c r="K18" s="3">
         <v>797000</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>188100</v>
+        <v>191500</v>
       </c>
       <c r="E20" s="3">
-        <v>110000</v>
+        <v>112000</v>
       </c>
       <c r="F20" s="3">
-        <v>-111700</v>
+        <v>-113800</v>
       </c>
       <c r="G20" s="3">
-        <v>39000</v>
+        <v>39700</v>
       </c>
       <c r="H20" s="3">
-        <v>72200</v>
+        <v>73500</v>
       </c>
       <c r="I20" s="3">
-        <v>49000</v>
+        <v>49800</v>
       </c>
       <c r="J20" s="3">
-        <v>-19100</v>
+        <v>-19400</v>
       </c>
       <c r="K20" s="3">
         <v>-128800</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1377500</v>
+        <v>1414200</v>
       </c>
       <c r="E21" s="3">
-        <v>1337800</v>
+        <v>1373800</v>
       </c>
       <c r="F21" s="3">
-        <v>1174800</v>
+        <v>1209600</v>
       </c>
       <c r="G21" s="3">
-        <v>1229200</v>
+        <v>1262500</v>
       </c>
       <c r="H21" s="3">
-        <v>1245500</v>
+        <v>1278600</v>
       </c>
       <c r="I21" s="3">
-        <v>1198400</v>
+        <v>1230400</v>
       </c>
       <c r="J21" s="3">
-        <v>1059100</v>
+        <v>1088500</v>
       </c>
       <c r="K21" s="3">
         <v>1100100</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>387300</v>
+        <v>394400</v>
       </c>
       <c r="E22" s="3">
-        <v>212800</v>
+        <v>216700</v>
       </c>
       <c r="F22" s="3">
-        <v>271400</v>
+        <v>276300</v>
       </c>
       <c r="G22" s="3">
-        <v>271700</v>
+        <v>276700</v>
       </c>
       <c r="H22" s="3">
-        <v>311400</v>
+        <v>317100</v>
       </c>
       <c r="I22" s="3">
-        <v>265900</v>
+        <v>270700</v>
       </c>
       <c r="J22" s="3">
-        <v>232000</v>
+        <v>236200</v>
       </c>
       <c r="K22" s="3">
         <v>251400</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>524600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>657100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>361600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>520200</v>
+      </c>
+      <c r="H23" s="3">
         <v>515300</v>
       </c>
-      <c r="E23" s="3">
-        <v>645400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>355100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>510900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>506100</v>
-      </c>
       <c r="I23" s="3">
-        <v>518200</v>
+        <v>527600</v>
       </c>
       <c r="J23" s="3">
-        <v>414100</v>
+        <v>421600</v>
       </c>
       <c r="K23" s="3">
         <v>416700</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>581800</v>
+        <v>592300</v>
       </c>
       <c r="E24" s="3">
-        <v>114300</v>
+        <v>116400</v>
       </c>
       <c r="F24" s="3">
-        <v>230000</v>
+        <v>234200</v>
       </c>
       <c r="G24" s="3">
-        <v>85300</v>
+        <v>86800</v>
       </c>
       <c r="H24" s="3">
-        <v>90800</v>
+        <v>92400</v>
       </c>
       <c r="I24" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="J24" s="3">
-        <v>-51500</v>
+        <v>-52500</v>
       </c>
       <c r="K24" s="3">
         <v>85900</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-66500</v>
+        <v>-67700</v>
       </c>
       <c r="E26" s="3">
-        <v>531100</v>
+        <v>540700</v>
       </c>
       <c r="F26" s="3">
-        <v>125100</v>
+        <v>127400</v>
       </c>
       <c r="G26" s="3">
-        <v>425700</v>
+        <v>433400</v>
       </c>
       <c r="H26" s="3">
-        <v>415300</v>
+        <v>422900</v>
       </c>
       <c r="I26" s="3">
-        <v>508200</v>
+        <v>517400</v>
       </c>
       <c r="J26" s="3">
-        <v>465600</v>
+        <v>474000</v>
       </c>
       <c r="K26" s="3">
         <v>330800</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-66500</v>
+        <v>-67700</v>
       </c>
       <c r="E27" s="3">
-        <v>531100</v>
+        <v>540700</v>
       </c>
       <c r="F27" s="3">
-        <v>125100</v>
+        <v>127400</v>
       </c>
       <c r="G27" s="3">
-        <v>425700</v>
+        <v>433400</v>
       </c>
       <c r="H27" s="3">
-        <v>415300</v>
+        <v>422900</v>
       </c>
       <c r="I27" s="3">
-        <v>508200</v>
+        <v>517400</v>
       </c>
       <c r="J27" s="3">
-        <v>465600</v>
+        <v>474000</v>
       </c>
       <c r="K27" s="3">
         <v>330800</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-188100</v>
+        <v>-191500</v>
       </c>
       <c r="E32" s="3">
-        <v>-110000</v>
+        <v>-112000</v>
       </c>
       <c r="F32" s="3">
-        <v>111700</v>
+        <v>113800</v>
       </c>
       <c r="G32" s="3">
-        <v>-39000</v>
+        <v>-39700</v>
       </c>
       <c r="H32" s="3">
-        <v>-72200</v>
+        <v>-73500</v>
       </c>
       <c r="I32" s="3">
-        <v>-49000</v>
+        <v>-49800</v>
       </c>
       <c r="J32" s="3">
-        <v>19100</v>
+        <v>19400</v>
       </c>
       <c r="K32" s="3">
         <v>128800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-66500</v>
+        <v>-67700</v>
       </c>
       <c r="E33" s="3">
-        <v>531100</v>
+        <v>540700</v>
       </c>
       <c r="F33" s="3">
-        <v>125100</v>
+        <v>127400</v>
       </c>
       <c r="G33" s="3">
-        <v>425700</v>
+        <v>433400</v>
       </c>
       <c r="H33" s="3">
-        <v>415300</v>
+        <v>422900</v>
       </c>
       <c r="I33" s="3">
-        <v>508200</v>
+        <v>517400</v>
       </c>
       <c r="J33" s="3">
-        <v>465600</v>
+        <v>474000</v>
       </c>
       <c r="K33" s="3">
         <v>330800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-66500</v>
+        <v>-67700</v>
       </c>
       <c r="E35" s="3">
-        <v>531100</v>
+        <v>540700</v>
       </c>
       <c r="F35" s="3">
-        <v>125100</v>
+        <v>127400</v>
       </c>
       <c r="G35" s="3">
-        <v>425700</v>
+        <v>433400</v>
       </c>
       <c r="H35" s="3">
-        <v>415300</v>
+        <v>422900</v>
       </c>
       <c r="I35" s="3">
-        <v>508200</v>
+        <v>517400</v>
       </c>
       <c r="J35" s="3">
-        <v>465600</v>
+        <v>474000</v>
       </c>
       <c r="K35" s="3">
         <v>330800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>282200</v>
+        <v>287300</v>
       </c>
       <c r="E41" s="3">
-        <v>871600</v>
+        <v>887300</v>
       </c>
       <c r="F41" s="3">
-        <v>618600</v>
+        <v>629800</v>
       </c>
       <c r="G41" s="3">
-        <v>397400</v>
+        <v>404600</v>
       </c>
       <c r="H41" s="3">
-        <v>597400</v>
+        <v>608200</v>
       </c>
       <c r="I41" s="3">
-        <v>290200</v>
+        <v>295500</v>
       </c>
       <c r="J41" s="3">
-        <v>250200</v>
+        <v>254700</v>
       </c>
       <c r="K41" s="3">
         <v>297700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>348000</v>
+        <v>354300</v>
       </c>
       <c r="E43" s="3">
-        <v>276500</v>
+        <v>281600</v>
       </c>
       <c r="F43" s="3">
-        <v>332200</v>
+        <v>338200</v>
       </c>
       <c r="G43" s="3">
-        <v>311400</v>
+        <v>317100</v>
       </c>
       <c r="H43" s="3">
-        <v>334300</v>
+        <v>340300</v>
       </c>
       <c r="I43" s="3">
-        <v>364300</v>
+        <v>370900</v>
       </c>
       <c r="J43" s="3">
-        <v>269300</v>
+        <v>274200</v>
       </c>
       <c r="K43" s="3">
         <v>431000</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20800</v>
+        <v>21200</v>
       </c>
       <c r="E44" s="3">
-        <v>21400</v>
+        <v>21800</v>
       </c>
       <c r="F44" s="3">
-        <v>19400</v>
+        <v>19800</v>
       </c>
       <c r="G44" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="H44" s="3">
-        <v>19700</v>
+        <v>20000</v>
       </c>
       <c r="I44" s="3">
-        <v>26200</v>
+        <v>26700</v>
       </c>
       <c r="J44" s="3">
-        <v>34300</v>
+        <v>34900</v>
       </c>
       <c r="K44" s="3">
         <v>49400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>67900</v>
+        <v>69200</v>
       </c>
       <c r="E45" s="3">
-        <v>16900</v>
+        <v>17200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>118700</v>
+        <v>120800</v>
       </c>
       <c r="H45" s="3">
-        <v>395500</v>
+        <v>402700</v>
       </c>
       <c r="I45" s="3">
-        <v>89800</v>
+        <v>91500</v>
       </c>
       <c r="J45" s="3">
-        <v>179400</v>
+        <v>182700</v>
       </c>
       <c r="K45" s="3">
         <v>1200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>718900</v>
+        <v>732000</v>
       </c>
       <c r="E46" s="3">
-        <v>1186400</v>
+        <v>1207900</v>
       </c>
       <c r="F46" s="3">
-        <v>970300</v>
+        <v>987900</v>
       </c>
       <c r="G46" s="3">
-        <v>845000</v>
+        <v>860300</v>
       </c>
       <c r="H46" s="3">
-        <v>1346900</v>
+        <v>1371300</v>
       </c>
       <c r="I46" s="3">
-        <v>770600</v>
+        <v>784600</v>
       </c>
       <c r="J46" s="3">
-        <v>733200</v>
+        <v>746500</v>
       </c>
       <c r="K46" s="3">
         <v>779300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>115100</v>
+        <v>117200</v>
       </c>
       <c r="E47" s="3">
-        <v>101700</v>
+        <v>103500</v>
       </c>
       <c r="F47" s="3">
-        <v>168600</v>
+        <v>171600</v>
       </c>
       <c r="G47" s="3">
-        <v>279500</v>
+        <v>284500</v>
       </c>
       <c r="H47" s="3">
-        <v>261700</v>
+        <v>266400</v>
       </c>
       <c r="I47" s="3">
-        <v>230200</v>
+        <v>234300</v>
       </c>
       <c r="J47" s="3">
-        <v>54200</v>
+        <v>55200</v>
       </c>
       <c r="K47" s="3">
         <v>52200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14228400</v>
+        <v>14486000</v>
       </c>
       <c r="E48" s="3">
-        <v>13820200</v>
+        <v>14070400</v>
       </c>
       <c r="F48" s="3">
-        <v>13482700</v>
+        <v>13726900</v>
       </c>
       <c r="G48" s="3">
-        <v>13064000</v>
+        <v>13300500</v>
       </c>
       <c r="H48" s="3">
-        <v>12638900</v>
+        <v>12867800</v>
       </c>
       <c r="I48" s="3">
-        <v>12188000</v>
+        <v>12408700</v>
       </c>
       <c r="J48" s="3">
-        <v>11749800</v>
+        <v>11962500</v>
       </c>
       <c r="K48" s="3">
         <v>11852900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>188300</v>
+        <v>191800</v>
       </c>
       <c r="E49" s="3">
-        <v>212100</v>
+        <v>216000</v>
       </c>
       <c r="F49" s="3">
-        <v>221400</v>
+        <v>225400</v>
       </c>
       <c r="G49" s="3">
-        <v>237400</v>
+        <v>241700</v>
       </c>
       <c r="H49" s="3">
-        <v>231600</v>
+        <v>235800</v>
       </c>
       <c r="I49" s="3">
-        <v>219900</v>
+        <v>223800</v>
       </c>
       <c r="J49" s="3">
-        <v>190200</v>
+        <v>193700</v>
       </c>
       <c r="K49" s="3">
         <v>176800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1659300</v>
+        <v>1689300</v>
       </c>
       <c r="E52" s="3">
-        <v>1287600</v>
+        <v>1310900</v>
       </c>
       <c r="F52" s="3">
-        <v>1606900</v>
+        <v>1636000</v>
       </c>
       <c r="G52" s="3">
-        <v>1021000</v>
+        <v>1039500</v>
       </c>
       <c r="H52" s="3">
-        <v>752000</v>
+        <v>765600</v>
       </c>
       <c r="I52" s="3">
-        <v>1146100</v>
+        <v>1166900</v>
       </c>
       <c r="J52" s="3">
-        <v>1219000</v>
+        <v>1241000</v>
       </c>
       <c r="K52" s="3">
         <v>928100</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16910100</v>
+        <v>17216300</v>
       </c>
       <c r="E54" s="3">
-        <v>16608000</v>
+        <v>16908700</v>
       </c>
       <c r="F54" s="3">
-        <v>16449900</v>
+        <v>16747700</v>
       </c>
       <c r="G54" s="3">
-        <v>15446900</v>
+        <v>15726600</v>
       </c>
       <c r="H54" s="3">
-        <v>15231000</v>
+        <v>15506800</v>
       </c>
       <c r="I54" s="3">
-        <v>14554700</v>
+        <v>14818200</v>
       </c>
       <c r="J54" s="3">
-        <v>13946400</v>
+        <v>14199000</v>
       </c>
       <c r="K54" s="3">
         <v>13789300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33100</v>
+        <v>33700</v>
       </c>
       <c r="E57" s="3">
-        <v>39000</v>
+        <v>39700</v>
       </c>
       <c r="F57" s="3">
-        <v>43000</v>
+        <v>43800</v>
       </c>
       <c r="G57" s="3">
-        <v>40300</v>
+        <v>41000</v>
       </c>
       <c r="H57" s="3">
-        <v>32700</v>
+        <v>33300</v>
       </c>
       <c r="I57" s="3">
-        <v>41200</v>
+        <v>42000</v>
       </c>
       <c r="J57" s="3">
-        <v>51700</v>
+        <v>52600</v>
       </c>
       <c r="K57" s="3">
         <v>48900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>361700</v>
+        <v>368200</v>
       </c>
       <c r="E58" s="3">
-        <v>767000</v>
+        <v>780900</v>
       </c>
       <c r="F58" s="3">
-        <v>989700</v>
+        <v>1007700</v>
       </c>
       <c r="G58" s="3">
-        <v>820100</v>
+        <v>835000</v>
       </c>
       <c r="H58" s="3">
-        <v>983300</v>
+        <v>1001100</v>
       </c>
       <c r="I58" s="3">
-        <v>382000</v>
+        <v>388900</v>
       </c>
       <c r="J58" s="3">
-        <v>549600</v>
+        <v>559500</v>
       </c>
       <c r="K58" s="3">
         <v>705200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>411700</v>
+        <v>419200</v>
       </c>
       <c r="E59" s="3">
-        <v>360100</v>
+        <v>366600</v>
       </c>
       <c r="F59" s="3">
-        <v>378300</v>
+        <v>385200</v>
       </c>
       <c r="G59" s="3">
-        <v>371800</v>
+        <v>378500</v>
       </c>
       <c r="H59" s="3">
-        <v>321100</v>
+        <v>326900</v>
       </c>
       <c r="I59" s="3">
-        <v>384800</v>
+        <v>391700</v>
       </c>
       <c r="J59" s="3">
-        <v>387600</v>
+        <v>394600</v>
       </c>
       <c r="K59" s="3">
         <v>467600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>806600</v>
+        <v>821200</v>
       </c>
       <c r="E60" s="3">
-        <v>1166000</v>
+        <v>1187100</v>
       </c>
       <c r="F60" s="3">
-        <v>1411100</v>
+        <v>1436600</v>
       </c>
       <c r="G60" s="3">
-        <v>1232200</v>
+        <v>1254500</v>
       </c>
       <c r="H60" s="3">
-        <v>1337000</v>
+        <v>1361300</v>
       </c>
       <c r="I60" s="3">
-        <v>808000</v>
+        <v>822600</v>
       </c>
       <c r="J60" s="3">
-        <v>988800</v>
+        <v>1006700</v>
       </c>
       <c r="K60" s="3">
         <v>1221700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8985000</v>
+        <v>9147700</v>
       </c>
       <c r="E61" s="3">
-        <v>9132600</v>
+        <v>9298000</v>
       </c>
       <c r="F61" s="3">
-        <v>8806000</v>
+        <v>8965400</v>
       </c>
       <c r="G61" s="3">
-        <v>8334500</v>
+        <v>8485400</v>
       </c>
       <c r="H61" s="3">
-        <v>8284400</v>
+        <v>8434400</v>
       </c>
       <c r="I61" s="3">
-        <v>8267500</v>
+        <v>8417200</v>
       </c>
       <c r="J61" s="3">
-        <v>7623800</v>
+        <v>7761800</v>
       </c>
       <c r="K61" s="3">
         <v>7401500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3654500</v>
+        <v>3720600</v>
       </c>
       <c r="E62" s="3">
-        <v>2759100</v>
+        <v>2809100</v>
       </c>
       <c r="F62" s="3">
-        <v>2763300</v>
+        <v>2813400</v>
       </c>
       <c r="G62" s="3">
-        <v>2236500</v>
+        <v>2277000</v>
       </c>
       <c r="H62" s="3">
-        <v>2153200</v>
+        <v>2192200</v>
       </c>
       <c r="I62" s="3">
-        <v>2174300</v>
+        <v>2213700</v>
       </c>
       <c r="J62" s="3">
-        <v>2164900</v>
+        <v>2204100</v>
       </c>
       <c r="K62" s="3">
         <v>2196300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13446100</v>
+        <v>13689500</v>
       </c>
       <c r="E66" s="3">
-        <v>13057800</v>
+        <v>13294200</v>
       </c>
       <c r="F66" s="3">
-        <v>12980300</v>
+        <v>13215400</v>
       </c>
       <c r="G66" s="3">
-        <v>11803200</v>
+        <v>12016900</v>
       </c>
       <c r="H66" s="3">
-        <v>11774600</v>
+        <v>11987800</v>
       </c>
       <c r="I66" s="3">
-        <v>11249800</v>
+        <v>11453500</v>
       </c>
       <c r="J66" s="3">
-        <v>10777500</v>
+        <v>10972600</v>
       </c>
       <c r="K66" s="3">
         <v>10819500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2773900</v>
+        <v>2824100</v>
       </c>
       <c r="E72" s="3">
-        <v>2953700</v>
+        <v>3007200</v>
       </c>
       <c r="F72" s="3">
-        <v>2872500</v>
+        <v>2924500</v>
       </c>
       <c r="G72" s="3">
-        <v>3044800</v>
+        <v>3099900</v>
       </c>
       <c r="H72" s="3">
-        <v>2869700</v>
+        <v>2921600</v>
       </c>
       <c r="I72" s="3">
-        <v>2718500</v>
+        <v>2767700</v>
       </c>
       <c r="J72" s="3">
-        <v>2586800</v>
+        <v>2633700</v>
       </c>
       <c r="K72" s="3">
         <v>2367100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3464000</v>
+        <v>3526700</v>
       </c>
       <c r="E76" s="3">
-        <v>3550200</v>
+        <v>3614500</v>
       </c>
       <c r="F76" s="3">
-        <v>3469500</v>
+        <v>3532300</v>
       </c>
       <c r="G76" s="3">
-        <v>3643700</v>
+        <v>3709700</v>
       </c>
       <c r="H76" s="3">
-        <v>3456400</v>
+        <v>3519000</v>
       </c>
       <c r="I76" s="3">
-        <v>3304900</v>
+        <v>3364800</v>
       </c>
       <c r="J76" s="3">
-        <v>3169000</v>
+        <v>3226300</v>
       </c>
       <c r="K76" s="3">
         <v>2969700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-66500</v>
+        <v>-67700</v>
       </c>
       <c r="E81" s="3">
-        <v>531100</v>
+        <v>540700</v>
       </c>
       <c r="F81" s="3">
-        <v>125100</v>
+        <v>127400</v>
       </c>
       <c r="G81" s="3">
-        <v>425700</v>
+        <v>433400</v>
       </c>
       <c r="H81" s="3">
-        <v>415300</v>
+        <v>422900</v>
       </c>
       <c r="I81" s="3">
-        <v>508200</v>
+        <v>517400</v>
       </c>
       <c r="J81" s="3">
-        <v>465600</v>
+        <v>474000</v>
       </c>
       <c r="K81" s="3">
         <v>330800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>489800</v>
+        <v>498700</v>
       </c>
       <c r="E83" s="3">
-        <v>494600</v>
+        <v>503600</v>
       </c>
       <c r="F83" s="3">
-        <v>565500</v>
+        <v>575700</v>
       </c>
       <c r="G83" s="3">
-        <v>460600</v>
+        <v>468900</v>
       </c>
       <c r="H83" s="3">
-        <v>441300</v>
+        <v>449300</v>
       </c>
       <c r="I83" s="3">
-        <v>427400</v>
+        <v>435100</v>
       </c>
       <c r="J83" s="3">
-        <v>426000</v>
+        <v>433700</v>
       </c>
       <c r="K83" s="3">
         <v>430100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1094500</v>
+        <v>1114300</v>
       </c>
       <c r="E89" s="3">
-        <v>1006600</v>
+        <v>1024800</v>
       </c>
       <c r="F89" s="3">
-        <v>949100</v>
+        <v>966300</v>
       </c>
       <c r="G89" s="3">
-        <v>974900</v>
+        <v>992500</v>
       </c>
       <c r="H89" s="3">
-        <v>955300</v>
+        <v>972600</v>
       </c>
       <c r="I89" s="3">
-        <v>961400</v>
+        <v>978800</v>
       </c>
       <c r="J89" s="3">
-        <v>803000</v>
+        <v>817600</v>
       </c>
       <c r="K89" s="3">
         <v>861900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-713300</v>
+        <v>-726200</v>
       </c>
       <c r="E91" s="3">
-        <v>-715000</v>
+        <v>-727900</v>
       </c>
       <c r="F91" s="3">
-        <v>-764600</v>
+        <v>-778500</v>
       </c>
       <c r="G91" s="3">
-        <v>-728900</v>
+        <v>-742100</v>
       </c>
       <c r="H91" s="3">
-        <v>-818300</v>
+        <v>-833100</v>
       </c>
       <c r="I91" s="3">
-        <v>-787600</v>
+        <v>-801800</v>
       </c>
       <c r="J91" s="3">
-        <v>-742800</v>
+        <v>-756300</v>
       </c>
       <c r="K91" s="3">
         <v>-812100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-749300</v>
+        <v>-762800</v>
       </c>
       <c r="E94" s="3">
-        <v>-643400</v>
+        <v>-655000</v>
       </c>
       <c r="F94" s="3">
-        <v>-695600</v>
+        <v>-708200</v>
       </c>
       <c r="G94" s="3">
-        <v>-735200</v>
+        <v>-748500</v>
       </c>
       <c r="H94" s="3">
-        <v>-847100</v>
+        <v>-862400</v>
       </c>
       <c r="I94" s="3">
-        <v>-942400</v>
+        <v>-959500</v>
       </c>
       <c r="J94" s="3">
-        <v>-792700</v>
+        <v>-807100</v>
       </c>
       <c r="K94" s="3">
         <v>-859900</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-346100</v>
+        <v>-352400</v>
       </c>
       <c r="E96" s="3">
-        <v>-341900</v>
+        <v>-348100</v>
       </c>
       <c r="F96" s="3">
-        <v>-333200</v>
+        <v>-339300</v>
       </c>
       <c r="G96" s="3">
-        <v>-321400</v>
+        <v>-327200</v>
       </c>
       <c r="H96" s="3">
-        <v>-312700</v>
+        <v>-318400</v>
       </c>
       <c r="I96" s="3">
-        <v>-308200</v>
+        <v>-313700</v>
       </c>
       <c r="J96" s="3">
-        <v>-303000</v>
+        <v>-308500</v>
       </c>
       <c r="K96" s="3">
         <v>-304200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-948400</v>
+        <v>-965600</v>
       </c>
       <c r="E100" s="3">
-        <v>-105100</v>
+        <v>-107000</v>
       </c>
       <c r="F100" s="3">
-        <v>-32600</v>
+        <v>-33200</v>
       </c>
       <c r="G100" s="3">
-        <v>-442000</v>
+        <v>-450100</v>
       </c>
       <c r="H100" s="3">
-        <v>216300</v>
+        <v>220300</v>
       </c>
       <c r="I100" s="3">
-        <v>25800</v>
+        <v>26200</v>
       </c>
       <c r="J100" s="3">
-        <v>-54300</v>
+        <v>-55300</v>
       </c>
       <c r="K100" s="3">
         <v>169800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-601500</v>
+        <v>-612400</v>
       </c>
       <c r="E102" s="3">
-        <v>258200</v>
+        <v>262800</v>
       </c>
       <c r="F102" s="3">
-        <v>220900</v>
+        <v>224900</v>
       </c>
       <c r="G102" s="3">
-        <v>-202400</v>
+        <v>-206100</v>
       </c>
       <c r="H102" s="3">
-        <v>324600</v>
+        <v>330400</v>
       </c>
       <c r="I102" s="3">
-        <v>44700</v>
+        <v>45600</v>
       </c>
       <c r="J102" s="3">
-        <v>-44000</v>
+        <v>-44800</v>
       </c>
       <c r="K102" s="3">
         <v>171800</v>

--- a/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2221300</v>
+        <v>2311200</v>
       </c>
       <c r="E8" s="3">
-        <v>2156100</v>
+        <v>2243400</v>
       </c>
       <c r="F8" s="3">
-        <v>2217200</v>
+        <v>2307000</v>
       </c>
       <c r="G8" s="3">
-        <v>2168600</v>
+        <v>2256400</v>
       </c>
       <c r="H8" s="3">
-        <v>2070000</v>
+        <v>2153800</v>
       </c>
       <c r="I8" s="3">
-        <v>2032000</v>
+        <v>2114300</v>
       </c>
       <c r="J8" s="3">
-        <v>2063000</v>
+        <v>2146600</v>
       </c>
       <c r="K8" s="3">
         <v>2098500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>340800</v>
+        <v>354600</v>
       </c>
       <c r="E9" s="3">
-        <v>312600</v>
+        <v>325200</v>
       </c>
       <c r="F9" s="3">
-        <v>298800</v>
+        <v>310900</v>
       </c>
       <c r="G9" s="3">
-        <v>313400</v>
+        <v>326100</v>
       </c>
       <c r="H9" s="3">
-        <v>280700</v>
+        <v>292100</v>
       </c>
       <c r="I9" s="3">
-        <v>287300</v>
+        <v>298900</v>
       </c>
       <c r="J9" s="3">
-        <v>304200</v>
+        <v>316500</v>
       </c>
       <c r="K9" s="3">
         <v>261100</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1880500</v>
+        <v>1956600</v>
       </c>
       <c r="E10" s="3">
-        <v>1843500</v>
+        <v>1918200</v>
       </c>
       <c r="F10" s="3">
-        <v>1918400</v>
+        <v>1996100</v>
       </c>
       <c r="G10" s="3">
-        <v>1855200</v>
+        <v>1930300</v>
       </c>
       <c r="H10" s="3">
-        <v>1789200</v>
+        <v>1861700</v>
       </c>
       <c r="I10" s="3">
-        <v>1744800</v>
+        <v>1815400</v>
       </c>
       <c r="J10" s="3">
-        <v>1758800</v>
+        <v>1830100</v>
       </c>
       <c r="K10" s="3">
         <v>1837400</v>
@@ -866,16 +866,16 @@
         <v>24</v>
       </c>
       <c r="G12" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H12" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I12" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="J12" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="K12" s="3">
         <v>2600</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="E14" s="3">
-        <v>-25600</v>
+        <v>-26700</v>
       </c>
       <c r="F14" s="3">
-        <v>54000</v>
+        <v>56200</v>
       </c>
       <c r="G14" s="3">
-        <v>58000</v>
+        <v>60300</v>
       </c>
       <c r="H14" s="3">
-        <v>28100</v>
+        <v>29300</v>
       </c>
       <c r="I14" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="J14" s="3">
-        <v>36800</v>
+        <v>38300</v>
       </c>
       <c r="K14" s="3">
         <v>21000</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>498700</v>
+        <v>518900</v>
       </c>
       <c r="E15" s="3">
-        <v>503600</v>
+        <v>524000</v>
       </c>
       <c r="F15" s="3">
-        <v>575700</v>
+        <v>599100</v>
       </c>
       <c r="G15" s="3">
-        <v>468900</v>
+        <v>487900</v>
       </c>
       <c r="H15" s="3">
-        <v>449300</v>
+        <v>467500</v>
       </c>
       <c r="I15" s="3">
-        <v>435100</v>
+        <v>452800</v>
       </c>
       <c r="J15" s="3">
-        <v>433700</v>
+        <v>451300</v>
       </c>
       <c r="K15" s="3">
         <v>430100</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1493900</v>
+        <v>1554400</v>
       </c>
       <c r="E17" s="3">
-        <v>1394300</v>
+        <v>1450700</v>
       </c>
       <c r="F17" s="3">
-        <v>1465600</v>
+        <v>1524900</v>
       </c>
       <c r="G17" s="3">
-        <v>1411500</v>
+        <v>1468600</v>
       </c>
       <c r="H17" s="3">
-        <v>1311000</v>
+        <v>1364100</v>
       </c>
       <c r="I17" s="3">
-        <v>1283600</v>
+        <v>1335600</v>
       </c>
       <c r="J17" s="3">
-        <v>1385800</v>
+        <v>1441900</v>
       </c>
       <c r="K17" s="3">
         <v>1301500</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>727400</v>
+        <v>756900</v>
       </c>
       <c r="E18" s="3">
-        <v>761800</v>
+        <v>792600</v>
       </c>
       <c r="F18" s="3">
-        <v>751600</v>
+        <v>782100</v>
       </c>
       <c r="G18" s="3">
-        <v>757100</v>
+        <v>787800</v>
       </c>
       <c r="H18" s="3">
-        <v>758900</v>
+        <v>789600</v>
       </c>
       <c r="I18" s="3">
-        <v>748400</v>
+        <v>778700</v>
       </c>
       <c r="J18" s="3">
-        <v>677200</v>
+        <v>704700</v>
       </c>
       <c r="K18" s="3">
         <v>797000</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>191500</v>
+        <v>199300</v>
       </c>
       <c r="E20" s="3">
-        <v>112000</v>
+        <v>116500</v>
       </c>
       <c r="F20" s="3">
-        <v>-113800</v>
+        <v>-118400</v>
       </c>
       <c r="G20" s="3">
-        <v>39700</v>
+        <v>41300</v>
       </c>
       <c r="H20" s="3">
-        <v>73500</v>
+        <v>76400</v>
       </c>
       <c r="I20" s="3">
-        <v>49800</v>
+        <v>51900</v>
       </c>
       <c r="J20" s="3">
-        <v>-19400</v>
+        <v>-20200</v>
       </c>
       <c r="K20" s="3">
         <v>-128800</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1414200</v>
+        <v>1478300</v>
       </c>
       <c r="E21" s="3">
-        <v>1373800</v>
+        <v>1436400</v>
       </c>
       <c r="F21" s="3">
-        <v>1209600</v>
+        <v>1266500</v>
       </c>
       <c r="G21" s="3">
-        <v>1262500</v>
+        <v>1320100</v>
       </c>
       <c r="H21" s="3">
-        <v>1278600</v>
+        <v>1336600</v>
       </c>
       <c r="I21" s="3">
-        <v>1230400</v>
+        <v>1286200</v>
       </c>
       <c r="J21" s="3">
-        <v>1088500</v>
+        <v>1138500</v>
       </c>
       <c r="K21" s="3">
         <v>1100100</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>394400</v>
+        <v>410300</v>
       </c>
       <c r="E22" s="3">
-        <v>216700</v>
+        <v>225500</v>
       </c>
       <c r="F22" s="3">
-        <v>276300</v>
+        <v>287500</v>
       </c>
       <c r="G22" s="3">
-        <v>276700</v>
+        <v>287900</v>
       </c>
       <c r="H22" s="3">
-        <v>317100</v>
+        <v>329900</v>
       </c>
       <c r="I22" s="3">
-        <v>270700</v>
+        <v>281700</v>
       </c>
       <c r="J22" s="3">
-        <v>236200</v>
+        <v>245800</v>
       </c>
       <c r="K22" s="3">
         <v>251400</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>524600</v>
+        <v>545800</v>
       </c>
       <c r="E23" s="3">
-        <v>657100</v>
+        <v>683700</v>
       </c>
       <c r="F23" s="3">
-        <v>361600</v>
+        <v>376200</v>
       </c>
       <c r="G23" s="3">
-        <v>520200</v>
+        <v>541200</v>
       </c>
       <c r="H23" s="3">
-        <v>515300</v>
+        <v>536100</v>
       </c>
       <c r="I23" s="3">
-        <v>527600</v>
+        <v>548900</v>
       </c>
       <c r="J23" s="3">
-        <v>421600</v>
+        <v>438600</v>
       </c>
       <c r="K23" s="3">
         <v>416700</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>592300</v>
+        <v>616300</v>
       </c>
       <c r="E24" s="3">
-        <v>116400</v>
+        <v>121100</v>
       </c>
       <c r="F24" s="3">
-        <v>234200</v>
+        <v>243700</v>
       </c>
       <c r="G24" s="3">
-        <v>86800</v>
+        <v>90300</v>
       </c>
       <c r="H24" s="3">
-        <v>92400</v>
+        <v>96200</v>
       </c>
       <c r="I24" s="3">
-        <v>10100</v>
+        <v>10500</v>
       </c>
       <c r="J24" s="3">
-        <v>-52500</v>
+        <v>-54600</v>
       </c>
       <c r="K24" s="3">
         <v>85900</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-67700</v>
+        <v>-70500</v>
       </c>
       <c r="E26" s="3">
-        <v>540700</v>
+        <v>562600</v>
       </c>
       <c r="F26" s="3">
-        <v>127400</v>
+        <v>132500</v>
       </c>
       <c r="G26" s="3">
-        <v>433400</v>
+        <v>450900</v>
       </c>
       <c r="H26" s="3">
-        <v>422900</v>
+        <v>440000</v>
       </c>
       <c r="I26" s="3">
-        <v>517400</v>
+        <v>538400</v>
       </c>
       <c r="J26" s="3">
-        <v>474000</v>
+        <v>493200</v>
       </c>
       <c r="K26" s="3">
         <v>330800</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-67700</v>
+        <v>-70500</v>
       </c>
       <c r="E27" s="3">
-        <v>540700</v>
+        <v>562600</v>
       </c>
       <c r="F27" s="3">
-        <v>127400</v>
+        <v>132500</v>
       </c>
       <c r="G27" s="3">
-        <v>433400</v>
+        <v>450900</v>
       </c>
       <c r="H27" s="3">
-        <v>422900</v>
+        <v>440000</v>
       </c>
       <c r="I27" s="3">
-        <v>517400</v>
+        <v>538400</v>
       </c>
       <c r="J27" s="3">
-        <v>474000</v>
+        <v>493200</v>
       </c>
       <c r="K27" s="3">
         <v>330800</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-191500</v>
+        <v>-199300</v>
       </c>
       <c r="E32" s="3">
-        <v>-112000</v>
+        <v>-116500</v>
       </c>
       <c r="F32" s="3">
-        <v>113800</v>
+        <v>118400</v>
       </c>
       <c r="G32" s="3">
-        <v>-39700</v>
+        <v>-41300</v>
       </c>
       <c r="H32" s="3">
-        <v>-73500</v>
+        <v>-76400</v>
       </c>
       <c r="I32" s="3">
-        <v>-49800</v>
+        <v>-51900</v>
       </c>
       <c r="J32" s="3">
-        <v>19400</v>
+        <v>20200</v>
       </c>
       <c r="K32" s="3">
         <v>128800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-67700</v>
+        <v>-70500</v>
       </c>
       <c r="E33" s="3">
-        <v>540700</v>
+        <v>562600</v>
       </c>
       <c r="F33" s="3">
-        <v>127400</v>
+        <v>132500</v>
       </c>
       <c r="G33" s="3">
-        <v>433400</v>
+        <v>450900</v>
       </c>
       <c r="H33" s="3">
-        <v>422900</v>
+        <v>440000</v>
       </c>
       <c r="I33" s="3">
-        <v>517400</v>
+        <v>538400</v>
       </c>
       <c r="J33" s="3">
-        <v>474000</v>
+        <v>493200</v>
       </c>
       <c r="K33" s="3">
         <v>330800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-67700</v>
+        <v>-70500</v>
       </c>
       <c r="E35" s="3">
-        <v>540700</v>
+        <v>562600</v>
       </c>
       <c r="F35" s="3">
-        <v>127400</v>
+        <v>132500</v>
       </c>
       <c r="G35" s="3">
-        <v>433400</v>
+        <v>450900</v>
       </c>
       <c r="H35" s="3">
-        <v>422900</v>
+        <v>440000</v>
       </c>
       <c r="I35" s="3">
-        <v>517400</v>
+        <v>538400</v>
       </c>
       <c r="J35" s="3">
-        <v>474000</v>
+        <v>493200</v>
       </c>
       <c r="K35" s="3">
         <v>330800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>287300</v>
+        <v>298900</v>
       </c>
       <c r="E41" s="3">
-        <v>887300</v>
+        <v>923300</v>
       </c>
       <c r="F41" s="3">
-        <v>629800</v>
+        <v>655300</v>
       </c>
       <c r="G41" s="3">
-        <v>404600</v>
+        <v>421000</v>
       </c>
       <c r="H41" s="3">
-        <v>608200</v>
+        <v>632800</v>
       </c>
       <c r="I41" s="3">
-        <v>295500</v>
+        <v>307500</v>
       </c>
       <c r="J41" s="3">
-        <v>254700</v>
+        <v>265000</v>
       </c>
       <c r="K41" s="3">
         <v>297700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>354300</v>
+        <v>368600</v>
       </c>
       <c r="E43" s="3">
-        <v>281600</v>
+        <v>293000</v>
       </c>
       <c r="F43" s="3">
-        <v>338200</v>
+        <v>351900</v>
       </c>
       <c r="G43" s="3">
-        <v>317100</v>
+        <v>329900</v>
       </c>
       <c r="H43" s="3">
-        <v>340300</v>
+        <v>354100</v>
       </c>
       <c r="I43" s="3">
-        <v>370900</v>
+        <v>385900</v>
       </c>
       <c r="J43" s="3">
-        <v>274200</v>
+        <v>285300</v>
       </c>
       <c r="K43" s="3">
         <v>431000</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21200</v>
+        <v>22100</v>
       </c>
       <c r="E44" s="3">
-        <v>21800</v>
+        <v>22700</v>
       </c>
       <c r="F44" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="G44" s="3">
-        <v>17800</v>
+        <v>18500</v>
       </c>
       <c r="H44" s="3">
-        <v>20000</v>
+        <v>20800</v>
       </c>
       <c r="I44" s="3">
-        <v>26700</v>
+        <v>27800</v>
       </c>
       <c r="J44" s="3">
-        <v>34900</v>
+        <v>36400</v>
       </c>
       <c r="K44" s="3">
         <v>49400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>69200</v>
+        <v>72000</v>
       </c>
       <c r="E45" s="3">
-        <v>17200</v>
+        <v>17900</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>120800</v>
+        <v>125700</v>
       </c>
       <c r="H45" s="3">
-        <v>402700</v>
+        <v>419000</v>
       </c>
       <c r="I45" s="3">
-        <v>91500</v>
+        <v>95200</v>
       </c>
       <c r="J45" s="3">
-        <v>182700</v>
+        <v>190100</v>
       </c>
       <c r="K45" s="3">
         <v>1200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>732000</v>
+        <v>761600</v>
       </c>
       <c r="E46" s="3">
-        <v>1207900</v>
+        <v>1256800</v>
       </c>
       <c r="F46" s="3">
-        <v>987900</v>
+        <v>1027900</v>
       </c>
       <c r="G46" s="3">
-        <v>860300</v>
+        <v>895100</v>
       </c>
       <c r="H46" s="3">
-        <v>1371300</v>
+        <v>1426800</v>
       </c>
       <c r="I46" s="3">
-        <v>784600</v>
+        <v>816300</v>
       </c>
       <c r="J46" s="3">
-        <v>746500</v>
+        <v>776700</v>
       </c>
       <c r="K46" s="3">
         <v>779300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>117200</v>
+        <v>122000</v>
       </c>
       <c r="E47" s="3">
-        <v>103500</v>
+        <v>107700</v>
       </c>
       <c r="F47" s="3">
-        <v>171600</v>
+        <v>178600</v>
       </c>
       <c r="G47" s="3">
-        <v>284500</v>
+        <v>296100</v>
       </c>
       <c r="H47" s="3">
-        <v>266400</v>
+        <v>277200</v>
       </c>
       <c r="I47" s="3">
-        <v>234300</v>
+        <v>243800</v>
       </c>
       <c r="J47" s="3">
-        <v>55200</v>
+        <v>57400</v>
       </c>
       <c r="K47" s="3">
         <v>52200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14486000</v>
+        <v>15072600</v>
       </c>
       <c r="E48" s="3">
-        <v>14070400</v>
+        <v>14640200</v>
       </c>
       <c r="F48" s="3">
-        <v>13726900</v>
+        <v>14282700</v>
       </c>
       <c r="G48" s="3">
-        <v>13300500</v>
+        <v>13839100</v>
       </c>
       <c r="H48" s="3">
-        <v>12867800</v>
+        <v>13388900</v>
       </c>
       <c r="I48" s="3">
-        <v>12408700</v>
+        <v>12911100</v>
       </c>
       <c r="J48" s="3">
-        <v>11962500</v>
+        <v>12447000</v>
       </c>
       <c r="K48" s="3">
         <v>11852900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>191800</v>
+        <v>199500</v>
       </c>
       <c r="E49" s="3">
-        <v>216000</v>
+        <v>224700</v>
       </c>
       <c r="F49" s="3">
-        <v>225400</v>
+        <v>234500</v>
       </c>
       <c r="G49" s="3">
-        <v>241700</v>
+        <v>251500</v>
       </c>
       <c r="H49" s="3">
-        <v>235800</v>
+        <v>245300</v>
       </c>
       <c r="I49" s="3">
-        <v>223800</v>
+        <v>232900</v>
       </c>
       <c r="J49" s="3">
-        <v>193700</v>
+        <v>201500</v>
       </c>
       <c r="K49" s="3">
         <v>176800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1689300</v>
+        <v>1757700</v>
       </c>
       <c r="E52" s="3">
-        <v>1310900</v>
+        <v>1364000</v>
       </c>
       <c r="F52" s="3">
-        <v>1636000</v>
+        <v>1702300</v>
       </c>
       <c r="G52" s="3">
-        <v>1039500</v>
+        <v>1081600</v>
       </c>
       <c r="H52" s="3">
-        <v>765600</v>
+        <v>796600</v>
       </c>
       <c r="I52" s="3">
-        <v>1166900</v>
+        <v>1214100</v>
       </c>
       <c r="J52" s="3">
-        <v>1241000</v>
+        <v>1291300</v>
       </c>
       <c r="K52" s="3">
         <v>928100</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17216300</v>
+        <v>17913400</v>
       </c>
       <c r="E54" s="3">
-        <v>16908700</v>
+        <v>17593400</v>
       </c>
       <c r="F54" s="3">
-        <v>16747700</v>
+        <v>17425900</v>
       </c>
       <c r="G54" s="3">
-        <v>15726600</v>
+        <v>16363400</v>
       </c>
       <c r="H54" s="3">
-        <v>15506800</v>
+        <v>16134700</v>
       </c>
       <c r="I54" s="3">
-        <v>14818200</v>
+        <v>15418300</v>
       </c>
       <c r="J54" s="3">
-        <v>14199000</v>
+        <v>14774000</v>
       </c>
       <c r="K54" s="3">
         <v>13789300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33700</v>
+        <v>35100</v>
       </c>
       <c r="E57" s="3">
-        <v>39700</v>
+        <v>41300</v>
       </c>
       <c r="F57" s="3">
-        <v>43800</v>
+        <v>45500</v>
       </c>
       <c r="G57" s="3">
-        <v>41000</v>
+        <v>42700</v>
       </c>
       <c r="H57" s="3">
-        <v>33300</v>
+        <v>34600</v>
       </c>
       <c r="I57" s="3">
-        <v>42000</v>
+        <v>43700</v>
       </c>
       <c r="J57" s="3">
-        <v>52600</v>
+        <v>54700</v>
       </c>
       <c r="K57" s="3">
         <v>48900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>368200</v>
+        <v>383200</v>
       </c>
       <c r="E58" s="3">
-        <v>780900</v>
+        <v>812500</v>
       </c>
       <c r="F58" s="3">
-        <v>1007700</v>
+        <v>1048500</v>
       </c>
       <c r="G58" s="3">
-        <v>835000</v>
+        <v>868800</v>
       </c>
       <c r="H58" s="3">
-        <v>1001100</v>
+        <v>1041700</v>
       </c>
       <c r="I58" s="3">
-        <v>388900</v>
+        <v>404600</v>
       </c>
       <c r="J58" s="3">
-        <v>559500</v>
+        <v>582200</v>
       </c>
       <c r="K58" s="3">
         <v>705200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>419200</v>
+        <v>436100</v>
       </c>
       <c r="E59" s="3">
-        <v>366600</v>
+        <v>381400</v>
       </c>
       <c r="F59" s="3">
-        <v>385200</v>
+        <v>400800</v>
       </c>
       <c r="G59" s="3">
-        <v>378500</v>
+        <v>393800</v>
       </c>
       <c r="H59" s="3">
-        <v>326900</v>
+        <v>340100</v>
       </c>
       <c r="I59" s="3">
-        <v>391700</v>
+        <v>407600</v>
       </c>
       <c r="J59" s="3">
-        <v>394600</v>
+        <v>410600</v>
       </c>
       <c r="K59" s="3">
         <v>467600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>821200</v>
+        <v>854400</v>
       </c>
       <c r="E60" s="3">
-        <v>1187100</v>
+        <v>1235200</v>
       </c>
       <c r="F60" s="3">
-        <v>1436600</v>
+        <v>1494800</v>
       </c>
       <c r="G60" s="3">
-        <v>1254500</v>
+        <v>1305300</v>
       </c>
       <c r="H60" s="3">
-        <v>1361300</v>
+        <v>1416400</v>
       </c>
       <c r="I60" s="3">
-        <v>822600</v>
+        <v>855900</v>
       </c>
       <c r="J60" s="3">
-        <v>1006700</v>
+        <v>1047500</v>
       </c>
       <c r="K60" s="3">
         <v>1221700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9147700</v>
+        <v>9518200</v>
       </c>
       <c r="E61" s="3">
-        <v>9298000</v>
+        <v>9674500</v>
       </c>
       <c r="F61" s="3">
-        <v>8965400</v>
+        <v>9328500</v>
       </c>
       <c r="G61" s="3">
-        <v>8485400</v>
+        <v>8829000</v>
       </c>
       <c r="H61" s="3">
-        <v>8434400</v>
+        <v>8775900</v>
       </c>
       <c r="I61" s="3">
-        <v>8417200</v>
+        <v>8758100</v>
       </c>
       <c r="J61" s="3">
-        <v>7761800</v>
+        <v>8076100</v>
       </c>
       <c r="K61" s="3">
         <v>7401500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3720600</v>
+        <v>3871300</v>
       </c>
       <c r="E62" s="3">
-        <v>2809100</v>
+        <v>2922800</v>
       </c>
       <c r="F62" s="3">
-        <v>2813400</v>
+        <v>2927300</v>
       </c>
       <c r="G62" s="3">
-        <v>2277000</v>
+        <v>2369200</v>
       </c>
       <c r="H62" s="3">
-        <v>2192200</v>
+        <v>2281000</v>
       </c>
       <c r="I62" s="3">
-        <v>2213700</v>
+        <v>2303300</v>
       </c>
       <c r="J62" s="3">
-        <v>2204100</v>
+        <v>2293400</v>
       </c>
       <c r="K62" s="3">
         <v>2196300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13689500</v>
+        <v>14243900</v>
       </c>
       <c r="E66" s="3">
-        <v>13294200</v>
+        <v>13832600</v>
       </c>
       <c r="F66" s="3">
-        <v>13215400</v>
+        <v>13750500</v>
       </c>
       <c r="G66" s="3">
-        <v>12016900</v>
+        <v>12503500</v>
       </c>
       <c r="H66" s="3">
-        <v>11987800</v>
+        <v>12473300</v>
       </c>
       <c r="I66" s="3">
-        <v>11453500</v>
+        <v>11917300</v>
       </c>
       <c r="J66" s="3">
-        <v>10972600</v>
+        <v>11417000</v>
       </c>
       <c r="K66" s="3">
         <v>10819500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2824100</v>
+        <v>2938500</v>
       </c>
       <c r="E72" s="3">
-        <v>3007200</v>
+        <v>3128900</v>
       </c>
       <c r="F72" s="3">
-        <v>2924500</v>
+        <v>3042900</v>
       </c>
       <c r="G72" s="3">
-        <v>3099900</v>
+        <v>3225500</v>
       </c>
       <c r="H72" s="3">
-        <v>2921600</v>
+        <v>3040000</v>
       </c>
       <c r="I72" s="3">
-        <v>2767700</v>
+        <v>2879800</v>
       </c>
       <c r="J72" s="3">
-        <v>2633700</v>
+        <v>2740300</v>
       </c>
       <c r="K72" s="3">
         <v>2367100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3526700</v>
+        <v>3669500</v>
       </c>
       <c r="E76" s="3">
-        <v>3614500</v>
+        <v>3760900</v>
       </c>
       <c r="F76" s="3">
-        <v>3532300</v>
+        <v>3675400</v>
       </c>
       <c r="G76" s="3">
-        <v>3709700</v>
+        <v>3859900</v>
       </c>
       <c r="H76" s="3">
-        <v>3519000</v>
+        <v>3661500</v>
       </c>
       <c r="I76" s="3">
-        <v>3364800</v>
+        <v>3501000</v>
       </c>
       <c r="J76" s="3">
-        <v>3226300</v>
+        <v>3357000</v>
       </c>
       <c r="K76" s="3">
         <v>2969700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-67700</v>
+        <v>-70500</v>
       </c>
       <c r="E81" s="3">
-        <v>540700</v>
+        <v>562600</v>
       </c>
       <c r="F81" s="3">
-        <v>127400</v>
+        <v>132500</v>
       </c>
       <c r="G81" s="3">
-        <v>433400</v>
+        <v>450900</v>
       </c>
       <c r="H81" s="3">
-        <v>422900</v>
+        <v>440000</v>
       </c>
       <c r="I81" s="3">
-        <v>517400</v>
+        <v>538400</v>
       </c>
       <c r="J81" s="3">
-        <v>474000</v>
+        <v>493200</v>
       </c>
       <c r="K81" s="3">
         <v>330800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>498700</v>
+        <v>518900</v>
       </c>
       <c r="E83" s="3">
-        <v>503600</v>
+        <v>524000</v>
       </c>
       <c r="F83" s="3">
-        <v>575700</v>
+        <v>599100</v>
       </c>
       <c r="G83" s="3">
-        <v>468900</v>
+        <v>487900</v>
       </c>
       <c r="H83" s="3">
-        <v>449300</v>
+        <v>467500</v>
       </c>
       <c r="I83" s="3">
-        <v>435100</v>
+        <v>452800</v>
       </c>
       <c r="J83" s="3">
-        <v>433700</v>
+        <v>451300</v>
       </c>
       <c r="K83" s="3">
         <v>430100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1114300</v>
+        <v>1159400</v>
       </c>
       <c r="E89" s="3">
-        <v>1024800</v>
+        <v>1066300</v>
       </c>
       <c r="F89" s="3">
-        <v>966300</v>
+        <v>1005400</v>
       </c>
       <c r="G89" s="3">
-        <v>992500</v>
+        <v>1032700</v>
       </c>
       <c r="H89" s="3">
-        <v>972600</v>
+        <v>1012000</v>
       </c>
       <c r="I89" s="3">
-        <v>978800</v>
+        <v>1018400</v>
       </c>
       <c r="J89" s="3">
-        <v>817600</v>
+        <v>850700</v>
       </c>
       <c r="K89" s="3">
         <v>861900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-726200</v>
+        <v>-755600</v>
       </c>
       <c r="E91" s="3">
-        <v>-727900</v>
+        <v>-757400</v>
       </c>
       <c r="F91" s="3">
-        <v>-778500</v>
+        <v>-810000</v>
       </c>
       <c r="G91" s="3">
-        <v>-742100</v>
+        <v>-772100</v>
       </c>
       <c r="H91" s="3">
-        <v>-833100</v>
+        <v>-866800</v>
       </c>
       <c r="I91" s="3">
-        <v>-801800</v>
+        <v>-834300</v>
       </c>
       <c r="J91" s="3">
-        <v>-756300</v>
+        <v>-786900</v>
       </c>
       <c r="K91" s="3">
         <v>-812100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-762800</v>
+        <v>-793700</v>
       </c>
       <c r="E94" s="3">
-        <v>-655000</v>
+        <v>-681600</v>
       </c>
       <c r="F94" s="3">
-        <v>-708200</v>
+        <v>-736900</v>
       </c>
       <c r="G94" s="3">
-        <v>-748500</v>
+        <v>-778900</v>
       </c>
       <c r="H94" s="3">
-        <v>-862400</v>
+        <v>-897300</v>
       </c>
       <c r="I94" s="3">
-        <v>-959500</v>
+        <v>-998300</v>
       </c>
       <c r="J94" s="3">
-        <v>-807100</v>
+        <v>-839800</v>
       </c>
       <c r="K94" s="3">
         <v>-859900</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-352400</v>
+        <v>-366700</v>
       </c>
       <c r="E96" s="3">
-        <v>-348100</v>
+        <v>-362200</v>
       </c>
       <c r="F96" s="3">
-        <v>-339300</v>
+        <v>-353000</v>
       </c>
       <c r="G96" s="3">
-        <v>-327200</v>
+        <v>-340500</v>
       </c>
       <c r="H96" s="3">
-        <v>-318400</v>
+        <v>-331300</v>
       </c>
       <c r="I96" s="3">
-        <v>-313700</v>
+        <v>-326500</v>
       </c>
       <c r="J96" s="3">
-        <v>-308500</v>
+        <v>-321000</v>
       </c>
       <c r="K96" s="3">
         <v>-304200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-965600</v>
+        <v>-1004700</v>
       </c>
       <c r="E100" s="3">
-        <v>-107000</v>
+        <v>-111300</v>
       </c>
       <c r="F100" s="3">
-        <v>-33200</v>
+        <v>-34500</v>
       </c>
       <c r="G100" s="3">
-        <v>-450100</v>
+        <v>-468300</v>
       </c>
       <c r="H100" s="3">
-        <v>220300</v>
+        <v>229200</v>
       </c>
       <c r="I100" s="3">
-        <v>26200</v>
+        <v>27300</v>
       </c>
       <c r="J100" s="3">
-        <v>-55300</v>
+        <v>-57600</v>
       </c>
       <c r="K100" s="3">
         <v>169800</v>
@@ -3959,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>24</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-612400</v>
+        <v>-637200</v>
       </c>
       <c r="E102" s="3">
-        <v>262800</v>
+        <v>273500</v>
       </c>
       <c r="F102" s="3">
-        <v>224900</v>
+        <v>234000</v>
       </c>
       <c r="G102" s="3">
-        <v>-206100</v>
+        <v>-214400</v>
       </c>
       <c r="H102" s="3">
-        <v>330400</v>
+        <v>343800</v>
       </c>
       <c r="I102" s="3">
-        <v>45600</v>
+        <v>47400</v>
       </c>
       <c r="J102" s="3">
-        <v>-44800</v>
+        <v>-46700</v>
       </c>
       <c r="K102" s="3">
         <v>171800</v>

--- a/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>UUGRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2311200</v>
+        <v>2312100</v>
       </c>
       <c r="E8" s="3">
-        <v>2243400</v>
+        <v>2360600</v>
       </c>
       <c r="F8" s="3">
-        <v>2307000</v>
+        <v>2291300</v>
       </c>
       <c r="G8" s="3">
-        <v>2256400</v>
+        <v>2356300</v>
       </c>
       <c r="H8" s="3">
-        <v>2153800</v>
+        <v>2304600</v>
       </c>
       <c r="I8" s="3">
-        <v>2114300</v>
+        <v>2199800</v>
       </c>
       <c r="J8" s="3">
+        <v>2159500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2146600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2098500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2389800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2014900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2041100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>354600</v>
+        <v>465400</v>
       </c>
       <c r="E9" s="3">
-        <v>325200</v>
+        <v>362200</v>
       </c>
       <c r="F9" s="3">
-        <v>310900</v>
+        <v>332200</v>
       </c>
       <c r="G9" s="3">
-        <v>326100</v>
+        <v>317600</v>
       </c>
       <c r="H9" s="3">
-        <v>292100</v>
+        <v>333000</v>
       </c>
       <c r="I9" s="3">
-        <v>298900</v>
+        <v>298300</v>
       </c>
       <c r="J9" s="3">
+        <v>305300</v>
+      </c>
+      <c r="K9" s="3">
         <v>316500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>261100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>282300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>247700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>308200</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1956600</v>
+        <v>1846700</v>
       </c>
       <c r="E10" s="3">
-        <v>1918200</v>
+        <v>1998400</v>
       </c>
       <c r="F10" s="3">
-        <v>1996100</v>
+        <v>1959100</v>
       </c>
       <c r="G10" s="3">
-        <v>1930300</v>
+        <v>2038700</v>
       </c>
       <c r="H10" s="3">
-        <v>1861700</v>
+        <v>1971500</v>
       </c>
       <c r="I10" s="3">
-        <v>1815400</v>
+        <v>1901500</v>
       </c>
       <c r="J10" s="3">
+        <v>1854200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1830100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1837400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2107500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1767200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1732900</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,33 +878,36 @@
       <c r="F12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="3">
-        <v>1500</v>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H12" s="3">
         <v>1500</v>
       </c>
       <c r="I12" s="3">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="J12" s="3">
         <v>2900</v>
       </c>
       <c r="K12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L12" s="3">
         <v>2600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2100</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>9100</v>
+        <v>-32200</v>
       </c>
       <c r="E14" s="3">
-        <v>-26700</v>
+        <v>9300</v>
       </c>
       <c r="F14" s="3">
-        <v>56200</v>
+        <v>-27200</v>
       </c>
       <c r="G14" s="3">
-        <v>60300</v>
+        <v>57400</v>
       </c>
       <c r="H14" s="3">
-        <v>29300</v>
+        <v>61600</v>
       </c>
       <c r="I14" s="3">
-        <v>7300</v>
+        <v>29900</v>
       </c>
       <c r="J14" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K14" s="3">
         <v>38300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>20800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>28400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>518900</v>
+        <v>536800</v>
       </c>
       <c r="E15" s="3">
-        <v>524000</v>
+        <v>530000</v>
       </c>
       <c r="F15" s="3">
-        <v>599100</v>
+        <v>535200</v>
       </c>
       <c r="G15" s="3">
-        <v>487900</v>
+        <v>611900</v>
       </c>
       <c r="H15" s="3">
-        <v>467500</v>
+        <v>498300</v>
       </c>
       <c r="I15" s="3">
-        <v>452800</v>
+        <v>477500</v>
       </c>
       <c r="J15" s="3">
+        <v>462400</v>
+      </c>
+      <c r="K15" s="3">
         <v>451300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>430100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>953500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>810900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>388400</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1554400</v>
+        <v>1713900</v>
       </c>
       <c r="E17" s="3">
-        <v>1450700</v>
+        <v>1587500</v>
       </c>
       <c r="F17" s="3">
-        <v>1524900</v>
+        <v>1481700</v>
       </c>
       <c r="G17" s="3">
-        <v>1468600</v>
+        <v>1557500</v>
       </c>
       <c r="H17" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1393300</v>
+      </c>
+      <c r="J17" s="3">
         <v>1364100</v>
       </c>
-      <c r="I17" s="3">
-        <v>1335600</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1441900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1301500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1498000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1274000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1269600</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>756900</v>
+        <v>598200</v>
       </c>
       <c r="E18" s="3">
-        <v>792600</v>
+        <v>773100</v>
       </c>
       <c r="F18" s="3">
-        <v>782100</v>
+        <v>809600</v>
       </c>
       <c r="G18" s="3">
-        <v>787800</v>
+        <v>798800</v>
       </c>
       <c r="H18" s="3">
-        <v>789600</v>
+        <v>804600</v>
       </c>
       <c r="I18" s="3">
-        <v>778700</v>
+        <v>806500</v>
       </c>
       <c r="J18" s="3">
+        <v>795400</v>
+      </c>
+      <c r="K18" s="3">
         <v>704700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>797000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>891800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>740900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>771500</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>199300</v>
+        <v>357400</v>
       </c>
       <c r="E20" s="3">
-        <v>116500</v>
+        <v>203500</v>
       </c>
       <c r="F20" s="3">
-        <v>-118400</v>
+        <v>119000</v>
       </c>
       <c r="G20" s="3">
-        <v>41300</v>
+        <v>-120900</v>
       </c>
       <c r="H20" s="3">
-        <v>76400</v>
+        <v>42200</v>
       </c>
       <c r="I20" s="3">
-        <v>51900</v>
+        <v>78100</v>
       </c>
       <c r="J20" s="3">
+        <v>53000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-20200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-128800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>199500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-50100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-54900</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1478300</v>
+        <v>1492400</v>
       </c>
       <c r="E21" s="3">
-        <v>1436400</v>
+        <v>1506600</v>
       </c>
       <c r="F21" s="3">
-        <v>1266500</v>
+        <v>1463700</v>
       </c>
       <c r="G21" s="3">
-        <v>1320100</v>
+        <v>1289700</v>
       </c>
       <c r="H21" s="3">
-        <v>1336600</v>
+        <v>1345100</v>
       </c>
       <c r="I21" s="3">
-        <v>1286200</v>
+        <v>1362100</v>
       </c>
       <c r="J21" s="3">
+        <v>1310800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1138500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1100100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1568200</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1109400</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>410300</v>
+        <v>630700</v>
       </c>
       <c r="E22" s="3">
-        <v>225500</v>
+        <v>419100</v>
       </c>
       <c r="F22" s="3">
-        <v>287500</v>
+        <v>230300</v>
       </c>
       <c r="G22" s="3">
-        <v>287900</v>
+        <v>293600</v>
       </c>
       <c r="H22" s="3">
-        <v>329900</v>
+        <v>294000</v>
       </c>
       <c r="I22" s="3">
-        <v>281700</v>
+        <v>337000</v>
       </c>
       <c r="J22" s="3">
+        <v>287700</v>
+      </c>
+      <c r="K22" s="3">
         <v>245800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>251400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>322500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>306800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>350900</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>545800</v>
+        <v>324800</v>
       </c>
       <c r="E23" s="3">
-        <v>683700</v>
+        <v>557500</v>
       </c>
       <c r="F23" s="3">
-        <v>376200</v>
+        <v>698300</v>
       </c>
       <c r="G23" s="3">
-        <v>541200</v>
+        <v>384200</v>
       </c>
       <c r="H23" s="3">
-        <v>536100</v>
+        <v>552800</v>
       </c>
       <c r="I23" s="3">
-        <v>548900</v>
+        <v>547600</v>
       </c>
       <c r="J23" s="3">
+        <v>560700</v>
+      </c>
+      <c r="K23" s="3">
         <v>438600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>416700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>768800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>384000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>365700</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>616300</v>
+        <v>65100</v>
       </c>
       <c r="E24" s="3">
-        <v>121100</v>
+        <v>629500</v>
       </c>
       <c r="F24" s="3">
-        <v>243700</v>
+        <v>123700</v>
       </c>
       <c r="G24" s="3">
-        <v>90300</v>
+        <v>248900</v>
       </c>
       <c r="H24" s="3">
-        <v>96200</v>
+        <v>92300</v>
       </c>
       <c r="I24" s="3">
-        <v>10500</v>
+        <v>98200</v>
       </c>
       <c r="J24" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-54600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>85900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-276400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-40400</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-70500</v>
+        <v>259700</v>
       </c>
       <c r="E26" s="3">
-        <v>562600</v>
+        <v>-72000</v>
       </c>
       <c r="F26" s="3">
-        <v>132500</v>
+        <v>574600</v>
       </c>
       <c r="G26" s="3">
-        <v>450900</v>
+        <v>135300</v>
       </c>
       <c r="H26" s="3">
-        <v>440000</v>
+        <v>460500</v>
       </c>
       <c r="I26" s="3">
-        <v>538400</v>
+        <v>449400</v>
       </c>
       <c r="J26" s="3">
+        <v>549900</v>
+      </c>
+      <c r="K26" s="3">
         <v>493200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>330800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1045200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>354500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>406200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-70500</v>
+        <v>259700</v>
       </c>
       <c r="E27" s="3">
-        <v>562600</v>
+        <v>-72000</v>
       </c>
       <c r="F27" s="3">
-        <v>132500</v>
+        <v>574600</v>
       </c>
       <c r="G27" s="3">
-        <v>450900</v>
+        <v>135300</v>
       </c>
       <c r="H27" s="3">
-        <v>440000</v>
+        <v>460500</v>
       </c>
       <c r="I27" s="3">
-        <v>538400</v>
+        <v>449400</v>
       </c>
       <c r="J27" s="3">
+        <v>549900</v>
+      </c>
+      <c r="K27" s="3">
         <v>493200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>330800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1045200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>354500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>406200</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1497,17 +1557,20 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>1100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>18000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>6700</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-199300</v>
+        <v>-357400</v>
       </c>
       <c r="E32" s="3">
-        <v>-116500</v>
+        <v>-203500</v>
       </c>
       <c r="F32" s="3">
-        <v>118400</v>
+        <v>-119000</v>
       </c>
       <c r="G32" s="3">
-        <v>-41300</v>
+        <v>120900</v>
       </c>
       <c r="H32" s="3">
-        <v>-76400</v>
+        <v>-42200</v>
       </c>
       <c r="I32" s="3">
-        <v>-51900</v>
+        <v>-78100</v>
       </c>
       <c r="J32" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="K32" s="3">
         <v>20200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>128800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-199500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>50100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>54900</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-70500</v>
+        <v>259700</v>
       </c>
       <c r="E33" s="3">
-        <v>562600</v>
+        <v>-72000</v>
       </c>
       <c r="F33" s="3">
-        <v>132500</v>
+        <v>574600</v>
       </c>
       <c r="G33" s="3">
-        <v>450900</v>
+        <v>135300</v>
       </c>
       <c r="H33" s="3">
-        <v>440000</v>
+        <v>460500</v>
       </c>
       <c r="I33" s="3">
-        <v>538400</v>
+        <v>449400</v>
       </c>
       <c r="J33" s="3">
+        <v>549900</v>
+      </c>
+      <c r="K33" s="3">
         <v>493200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>330800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1046300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>372400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>412800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-70500</v>
+        <v>259700</v>
       </c>
       <c r="E35" s="3">
-        <v>562600</v>
+        <v>-72000</v>
       </c>
       <c r="F35" s="3">
-        <v>132500</v>
+        <v>574600</v>
       </c>
       <c r="G35" s="3">
-        <v>450900</v>
+        <v>135300</v>
       </c>
       <c r="H35" s="3">
-        <v>440000</v>
+        <v>460500</v>
       </c>
       <c r="I35" s="3">
-        <v>538400</v>
+        <v>449400</v>
       </c>
       <c r="J35" s="3">
+        <v>549900</v>
+      </c>
+      <c r="K35" s="3">
         <v>493200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>330800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1046300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>372400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>412800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>298900</v>
+        <v>431400</v>
       </c>
       <c r="E41" s="3">
-        <v>923300</v>
+        <v>305300</v>
       </c>
       <c r="F41" s="3">
-        <v>655300</v>
+        <v>943000</v>
       </c>
       <c r="G41" s="3">
-        <v>421000</v>
+        <v>669300</v>
       </c>
       <c r="H41" s="3">
-        <v>632800</v>
+        <v>430000</v>
       </c>
       <c r="I41" s="3">
-        <v>307500</v>
+        <v>646300</v>
       </c>
       <c r="J41" s="3">
+        <v>314000</v>
+      </c>
+      <c r="K41" s="3">
         <v>265000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>297700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>343900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>249000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>418900</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1895,282 +1984,306 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>368600</v>
+        <v>366800</v>
       </c>
       <c r="E43" s="3">
-        <v>293000</v>
+        <v>376500</v>
       </c>
       <c r="F43" s="3">
-        <v>351900</v>
+        <v>299200</v>
       </c>
       <c r="G43" s="3">
-        <v>329900</v>
+        <v>359400</v>
       </c>
       <c r="H43" s="3">
-        <v>354100</v>
+        <v>337000</v>
       </c>
       <c r="I43" s="3">
-        <v>385900</v>
+        <v>361700</v>
       </c>
       <c r="J43" s="3">
+        <v>394100</v>
+      </c>
+      <c r="K43" s="3">
         <v>285300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>431000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>763300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>660800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>393100</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22100</v>
+        <v>16600</v>
       </c>
       <c r="E44" s="3">
-        <v>22700</v>
+        <v>22600</v>
       </c>
       <c r="F44" s="3">
-        <v>20600</v>
+        <v>23200</v>
       </c>
       <c r="G44" s="3">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="H44" s="3">
-        <v>20800</v>
+        <v>18900</v>
       </c>
       <c r="I44" s="3">
-        <v>27800</v>
+        <v>21300</v>
       </c>
       <c r="J44" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K44" s="3">
         <v>36400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>49400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>116500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>48900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>61800</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>72000</v>
+        <v>61500</v>
       </c>
       <c r="E45" s="3">
-        <v>17900</v>
+        <v>73500</v>
       </c>
       <c r="F45" s="3">
+        <v>18200</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>125700</v>
-      </c>
       <c r="H45" s="3">
-        <v>419000</v>
+        <v>128400</v>
       </c>
       <c r="I45" s="3">
-        <v>95200</v>
+        <v>428000</v>
       </c>
       <c r="J45" s="3">
+        <v>97200</v>
+      </c>
+      <c r="K45" s="3">
         <v>190100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>259500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>222800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>65100</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>761600</v>
+        <v>876200</v>
       </c>
       <c r="E46" s="3">
-        <v>1256800</v>
+        <v>777900</v>
       </c>
       <c r="F46" s="3">
-        <v>1027900</v>
+        <v>1283600</v>
       </c>
       <c r="G46" s="3">
-        <v>895100</v>
+        <v>1049800</v>
       </c>
       <c r="H46" s="3">
-        <v>1426800</v>
+        <v>914200</v>
       </c>
       <c r="I46" s="3">
-        <v>816300</v>
+        <v>1457300</v>
       </c>
       <c r="J46" s="3">
+        <v>833800</v>
+      </c>
+      <c r="K46" s="3">
         <v>776700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>779300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>768300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>777900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>939000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>122000</v>
+        <v>116800</v>
       </c>
       <c r="E47" s="3">
-        <v>107700</v>
+        <v>124600</v>
       </c>
       <c r="F47" s="3">
-        <v>178600</v>
+        <v>110000</v>
       </c>
       <c r="G47" s="3">
-        <v>296100</v>
+        <v>182400</v>
       </c>
       <c r="H47" s="3">
-        <v>277200</v>
+        <v>302400</v>
       </c>
       <c r="I47" s="3">
-        <v>243800</v>
+        <v>283100</v>
       </c>
       <c r="J47" s="3">
+        <v>249000</v>
+      </c>
+      <c r="K47" s="3">
         <v>57400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>52200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>65400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5700</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15072600</v>
+        <v>15930800</v>
       </c>
       <c r="E48" s="3">
-        <v>14640200</v>
+        <v>15394500</v>
       </c>
       <c r="F48" s="3">
-        <v>14282700</v>
+        <v>14952900</v>
       </c>
       <c r="G48" s="3">
-        <v>13839100</v>
+        <v>14587800</v>
       </c>
       <c r="H48" s="3">
-        <v>13388900</v>
+        <v>14134700</v>
       </c>
       <c r="I48" s="3">
-        <v>12911100</v>
+        <v>13674800</v>
       </c>
       <c r="J48" s="3">
+        <v>13186900</v>
+      </c>
+      <c r="K48" s="3">
         <v>12447000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11852900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>26434500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7884000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11275100</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>199500</v>
+        <v>180300</v>
       </c>
       <c r="E49" s="3">
-        <v>224700</v>
+        <v>203800</v>
       </c>
       <c r="F49" s="3">
-        <v>234500</v>
+        <v>229500</v>
       </c>
       <c r="G49" s="3">
-        <v>251500</v>
+        <v>239500</v>
       </c>
       <c r="H49" s="3">
-        <v>245300</v>
+        <v>256900</v>
       </c>
       <c r="I49" s="3">
-        <v>232900</v>
+        <v>250500</v>
       </c>
       <c r="J49" s="3">
+        <v>237900</v>
+      </c>
+      <c r="K49" s="3">
         <v>201500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>176800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>325900</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>123300</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1757700</v>
+        <v>1306100</v>
       </c>
       <c r="E52" s="3">
-        <v>1364000</v>
+        <v>1795300</v>
       </c>
       <c r="F52" s="3">
-        <v>1702300</v>
+        <v>1393100</v>
       </c>
       <c r="G52" s="3">
-        <v>1081600</v>
+        <v>1738600</v>
       </c>
       <c r="H52" s="3">
-        <v>796600</v>
+        <v>1104700</v>
       </c>
       <c r="I52" s="3">
-        <v>1214100</v>
+        <v>813600</v>
       </c>
       <c r="J52" s="3">
+        <v>1240100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1291300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>928100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>645300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>851000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>740200</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17913400</v>
+        <v>18410300</v>
       </c>
       <c r="E54" s="3">
-        <v>17593400</v>
+        <v>18296000</v>
       </c>
       <c r="F54" s="3">
-        <v>17425900</v>
+        <v>17969200</v>
       </c>
       <c r="G54" s="3">
-        <v>16363400</v>
+        <v>17798100</v>
       </c>
       <c r="H54" s="3">
-        <v>16134700</v>
+        <v>16712900</v>
       </c>
       <c r="I54" s="3">
-        <v>15418300</v>
+        <v>16479300</v>
       </c>
       <c r="J54" s="3">
+        <v>15747600</v>
+      </c>
+      <c r="K54" s="3">
         <v>14774000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13789300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14819700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12847600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13083300</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35100</v>
+        <v>33500</v>
       </c>
       <c r="E57" s="3">
-        <v>41300</v>
+        <v>35900</v>
       </c>
       <c r="F57" s="3">
-        <v>45500</v>
+        <v>42200</v>
       </c>
       <c r="G57" s="3">
-        <v>42700</v>
+        <v>46500</v>
       </c>
       <c r="H57" s="3">
-        <v>34600</v>
+        <v>43600</v>
       </c>
       <c r="I57" s="3">
-        <v>43700</v>
+        <v>35400</v>
       </c>
       <c r="J57" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K57" s="3">
         <v>54700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>48900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>605400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>65100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>52400</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>383200</v>
+        <v>223600</v>
       </c>
       <c r="E58" s="3">
-        <v>812500</v>
+        <v>391300</v>
       </c>
       <c r="F58" s="3">
-        <v>1048500</v>
+        <v>829800</v>
       </c>
       <c r="G58" s="3">
-        <v>868800</v>
+        <v>1070900</v>
       </c>
       <c r="H58" s="3">
-        <v>1041700</v>
+        <v>887400</v>
       </c>
       <c r="I58" s="3">
-        <v>404600</v>
+        <v>1063900</v>
       </c>
       <c r="J58" s="3">
+        <v>413300</v>
+      </c>
+      <c r="K58" s="3">
         <v>582200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>705200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>318700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>205000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>165800</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>436100</v>
+        <v>472800</v>
       </c>
       <c r="E59" s="3">
-        <v>381400</v>
+        <v>445500</v>
       </c>
       <c r="F59" s="3">
-        <v>400800</v>
+        <v>389600</v>
       </c>
       <c r="G59" s="3">
-        <v>393800</v>
+        <v>409300</v>
       </c>
       <c r="H59" s="3">
-        <v>340100</v>
+        <v>402200</v>
       </c>
       <c r="I59" s="3">
-        <v>407600</v>
+        <v>347400</v>
       </c>
       <c r="J59" s="3">
+        <v>416300</v>
+      </c>
+      <c r="K59" s="3">
         <v>410600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>467600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>628700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>582000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>641600</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>854400</v>
+        <v>729800</v>
       </c>
       <c r="E60" s="3">
-        <v>1235200</v>
+        <v>872700</v>
       </c>
       <c r="F60" s="3">
-        <v>1494800</v>
+        <v>1261600</v>
       </c>
       <c r="G60" s="3">
-        <v>1305300</v>
+        <v>1526700</v>
       </c>
       <c r="H60" s="3">
-        <v>1416400</v>
+        <v>1333200</v>
       </c>
       <c r="I60" s="3">
-        <v>855900</v>
+        <v>1446600</v>
       </c>
       <c r="J60" s="3">
+        <v>874200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1047500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1221700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>843800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>852100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>859800</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9518200</v>
+        <v>10466600</v>
       </c>
       <c r="E61" s="3">
-        <v>9674500</v>
+        <v>9721500</v>
       </c>
       <c r="F61" s="3">
-        <v>9328500</v>
+        <v>9881100</v>
       </c>
       <c r="G61" s="3">
-        <v>8829000</v>
+        <v>9527700</v>
       </c>
       <c r="H61" s="3">
-        <v>8775900</v>
+        <v>9017600</v>
       </c>
       <c r="I61" s="3">
-        <v>8758100</v>
+        <v>8963400</v>
       </c>
       <c r="J61" s="3">
+        <v>8945100</v>
+      </c>
+      <c r="K61" s="3">
         <v>8076100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7401500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8390500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7415500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7471200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3871300</v>
+        <v>4034600</v>
       </c>
       <c r="E62" s="3">
-        <v>2922800</v>
+        <v>3954000</v>
       </c>
       <c r="F62" s="3">
-        <v>2927300</v>
+        <v>2985300</v>
       </c>
       <c r="G62" s="3">
-        <v>2369200</v>
+        <v>2989800</v>
       </c>
       <c r="H62" s="3">
-        <v>2281000</v>
+        <v>2419800</v>
       </c>
       <c r="I62" s="3">
-        <v>2303300</v>
+        <v>2329700</v>
       </c>
       <c r="J62" s="3">
+        <v>2352500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2293400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2196300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2449700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2787500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2450700</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14243900</v>
+        <v>15231000</v>
       </c>
       <c r="E66" s="3">
-        <v>13832600</v>
+        <v>14548100</v>
       </c>
       <c r="F66" s="3">
-        <v>13750500</v>
+        <v>14128000</v>
       </c>
       <c r="G66" s="3">
-        <v>12503500</v>
+        <v>14044200</v>
       </c>
       <c r="H66" s="3">
-        <v>12473300</v>
+        <v>12770600</v>
       </c>
       <c r="I66" s="3">
-        <v>11917300</v>
+        <v>12739700</v>
       </c>
       <c r="J66" s="3">
+        <v>12171800</v>
+      </c>
+      <c r="K66" s="3">
         <v>11417000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10819500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11684000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10537000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10781700</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2938500</v>
+        <v>2512200</v>
       </c>
       <c r="E72" s="3">
-        <v>3128900</v>
+        <v>3001200</v>
       </c>
       <c r="F72" s="3">
-        <v>3042900</v>
+        <v>3195800</v>
       </c>
       <c r="G72" s="3">
-        <v>3225500</v>
+        <v>3107900</v>
       </c>
       <c r="H72" s="3">
-        <v>3040000</v>
+        <v>3294300</v>
       </c>
       <c r="I72" s="3">
-        <v>2879800</v>
+        <v>3104900</v>
       </c>
       <c r="J72" s="3">
+        <v>2941300</v>
+      </c>
+      <c r="K72" s="3">
         <v>2740300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2367100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2207600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1499500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1446000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3669500</v>
+        <v>3179300</v>
       </c>
       <c r="E76" s="3">
-        <v>3760900</v>
+        <v>3747900</v>
       </c>
       <c r="F76" s="3">
-        <v>3675400</v>
+        <v>3841200</v>
       </c>
       <c r="G76" s="3">
-        <v>3859900</v>
+        <v>3753900</v>
       </c>
       <c r="H76" s="3">
-        <v>3661500</v>
+        <v>3942300</v>
       </c>
       <c r="I76" s="3">
-        <v>3501000</v>
+        <v>3739700</v>
       </c>
       <c r="J76" s="3">
+        <v>3575800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3357000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2969700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3135700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2310700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2301600</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-70500</v>
+        <v>259700</v>
       </c>
       <c r="E81" s="3">
-        <v>562600</v>
+        <v>-72000</v>
       </c>
       <c r="F81" s="3">
-        <v>132500</v>
+        <v>574600</v>
       </c>
       <c r="G81" s="3">
-        <v>450900</v>
+        <v>135300</v>
       </c>
       <c r="H81" s="3">
-        <v>440000</v>
+        <v>460500</v>
       </c>
       <c r="I81" s="3">
-        <v>538400</v>
+        <v>449400</v>
       </c>
       <c r="J81" s="3">
+        <v>549900</v>
+      </c>
+      <c r="K81" s="3">
         <v>493200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>330800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1046300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>372400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>412800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>518900</v>
+        <v>536800</v>
       </c>
       <c r="E83" s="3">
-        <v>524000</v>
+        <v>530000</v>
       </c>
       <c r="F83" s="3">
-        <v>599100</v>
+        <v>535200</v>
       </c>
       <c r="G83" s="3">
-        <v>487900</v>
+        <v>611900</v>
       </c>
       <c r="H83" s="3">
-        <v>467500</v>
+        <v>498300</v>
       </c>
       <c r="I83" s="3">
-        <v>452800</v>
+        <v>477500</v>
       </c>
       <c r="J83" s="3">
+        <v>462400</v>
+      </c>
+      <c r="K83" s="3">
         <v>451300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>430100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>476800</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>388400</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1159400</v>
+        <v>998000</v>
       </c>
       <c r="E89" s="3">
-        <v>1066300</v>
+        <v>1184200</v>
       </c>
       <c r="F89" s="3">
-        <v>1005400</v>
+        <v>1089100</v>
       </c>
       <c r="G89" s="3">
-        <v>1032700</v>
+        <v>1026900</v>
       </c>
       <c r="H89" s="3">
-        <v>1012000</v>
+        <v>1054800</v>
       </c>
       <c r="I89" s="3">
-        <v>1018400</v>
+        <v>1033600</v>
       </c>
       <c r="J89" s="3">
+        <v>1040200</v>
+      </c>
+      <c r="K89" s="3">
         <v>850700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>861900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1127000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>775500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>730200</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-755600</v>
+        <v>-856600</v>
       </c>
       <c r="E91" s="3">
-        <v>-757400</v>
+        <v>-771800</v>
       </c>
       <c r="F91" s="3">
-        <v>-810000</v>
+        <v>-773600</v>
       </c>
       <c r="G91" s="3">
-        <v>-772100</v>
+        <v>-827300</v>
       </c>
       <c r="H91" s="3">
-        <v>-866800</v>
+        <v>-788600</v>
       </c>
       <c r="I91" s="3">
-        <v>-834300</v>
+        <v>-885300</v>
       </c>
       <c r="J91" s="3">
+        <v>-852100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-786900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-812100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-936400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-770500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-655000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-793700</v>
+        <v>-752000</v>
       </c>
       <c r="E94" s="3">
-        <v>-681600</v>
+        <v>-810700</v>
       </c>
       <c r="F94" s="3">
-        <v>-736900</v>
+        <v>-696100</v>
       </c>
       <c r="G94" s="3">
-        <v>-778900</v>
+        <v>-752600</v>
       </c>
       <c r="H94" s="3">
-        <v>-897300</v>
+        <v>-795500</v>
       </c>
       <c r="I94" s="3">
-        <v>-998300</v>
+        <v>-916500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1019700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-839800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-859900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-960300</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-650100</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-366700</v>
+        <v>-381700</v>
       </c>
       <c r="E96" s="3">
-        <v>-362200</v>
+        <v>-374500</v>
       </c>
       <c r="F96" s="3">
-        <v>-353000</v>
+        <v>-369900</v>
       </c>
       <c r="G96" s="3">
-        <v>-340500</v>
+        <v>-360500</v>
       </c>
       <c r="H96" s="3">
-        <v>-331300</v>
+        <v>-347700</v>
       </c>
       <c r="I96" s="3">
-        <v>-326500</v>
+        <v>-338400</v>
       </c>
       <c r="J96" s="3">
+        <v>-333400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-321000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-304200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-336700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-275300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-272600</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,56 +4155,62 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1004700</v>
+        <v>-107700</v>
       </c>
       <c r="E100" s="3">
-        <v>-111300</v>
+        <v>-1026100</v>
       </c>
       <c r="F100" s="3">
-        <v>-34500</v>
+        <v>-113700</v>
       </c>
       <c r="G100" s="3">
-        <v>-468300</v>
+        <v>-35200</v>
       </c>
       <c r="H100" s="3">
-        <v>229200</v>
+        <v>-478300</v>
       </c>
       <c r="I100" s="3">
-        <v>27300</v>
+        <v>234100</v>
       </c>
       <c r="J100" s="3">
+        <v>27900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-57600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>169800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-299300</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7600</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>1900</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>24</v>
@@ -3979,58 +4227,64 @@
       <c r="J101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-637200</v>
+        <v>136600</v>
       </c>
       <c r="E102" s="3">
-        <v>273500</v>
+        <v>-650800</v>
       </c>
       <c r="F102" s="3">
-        <v>234000</v>
+        <v>279300</v>
       </c>
       <c r="G102" s="3">
-        <v>-214400</v>
+        <v>239000</v>
       </c>
       <c r="H102" s="3">
-        <v>343800</v>
+        <v>-219000</v>
       </c>
       <c r="I102" s="3">
-        <v>47400</v>
+        <v>351200</v>
       </c>
       <c r="J102" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-46700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>171800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-132600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-159600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>88300</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UUGRY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2312100</v>
+        <v>2263400</v>
       </c>
       <c r="E8" s="3">
-        <v>2360600</v>
+        <v>2310900</v>
       </c>
       <c r="F8" s="3">
-        <v>2291300</v>
+        <v>2243000</v>
       </c>
       <c r="G8" s="3">
-        <v>2356300</v>
+        <v>2306600</v>
       </c>
       <c r="H8" s="3">
-        <v>2304600</v>
+        <v>2256000</v>
       </c>
       <c r="I8" s="3">
-        <v>2199800</v>
+        <v>2153400</v>
       </c>
       <c r="J8" s="3">
-        <v>2159500</v>
+        <v>2114000</v>
       </c>
       <c r="K8" s="3">
         <v>2146600</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>465400</v>
+        <v>455500</v>
       </c>
       <c r="E9" s="3">
-        <v>362200</v>
+        <v>354600</v>
       </c>
       <c r="F9" s="3">
-        <v>332200</v>
+        <v>325200</v>
       </c>
       <c r="G9" s="3">
-        <v>317600</v>
+        <v>310900</v>
       </c>
       <c r="H9" s="3">
-        <v>333000</v>
+        <v>326000</v>
       </c>
       <c r="I9" s="3">
-        <v>298300</v>
+        <v>292000</v>
       </c>
       <c r="J9" s="3">
-        <v>305300</v>
+        <v>298900</v>
       </c>
       <c r="K9" s="3">
         <v>316500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1846700</v>
+        <v>1807800</v>
       </c>
       <c r="E10" s="3">
-        <v>1998400</v>
+        <v>1956300</v>
       </c>
       <c r="F10" s="3">
-        <v>1959100</v>
+        <v>1917800</v>
       </c>
       <c r="G10" s="3">
-        <v>2038700</v>
+        <v>1995800</v>
       </c>
       <c r="H10" s="3">
-        <v>1971500</v>
+        <v>1930000</v>
       </c>
       <c r="I10" s="3">
-        <v>1901500</v>
+        <v>1861400</v>
       </c>
       <c r="J10" s="3">
-        <v>1854200</v>
+        <v>1815100</v>
       </c>
       <c r="K10" s="3">
         <v>1830100</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-32200</v>
+        <v>-31500</v>
       </c>
       <c r="E14" s="3">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="F14" s="3">
-        <v>-27200</v>
+        <v>-26700</v>
       </c>
       <c r="G14" s="3">
-        <v>57400</v>
+        <v>56200</v>
       </c>
       <c r="H14" s="3">
-        <v>61600</v>
+        <v>60300</v>
       </c>
       <c r="I14" s="3">
-        <v>29900</v>
+        <v>29300</v>
       </c>
       <c r="J14" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="K14" s="3">
         <v>38300</v>
@@ -996,25 +996,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>536800</v>
+        <v>525500</v>
       </c>
       <c r="E15" s="3">
-        <v>530000</v>
+        <v>518800</v>
       </c>
       <c r="F15" s="3">
-        <v>535200</v>
+        <v>523900</v>
       </c>
       <c r="G15" s="3">
-        <v>611900</v>
+        <v>599000</v>
       </c>
       <c r="H15" s="3">
-        <v>498300</v>
+        <v>487800</v>
       </c>
       <c r="I15" s="3">
-        <v>477500</v>
+        <v>467500</v>
       </c>
       <c r="J15" s="3">
-        <v>462400</v>
+        <v>452700</v>
       </c>
       <c r="K15" s="3">
         <v>451300</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1713900</v>
+        <v>1677800</v>
       </c>
       <c r="E17" s="3">
-        <v>1587500</v>
+        <v>1554100</v>
       </c>
       <c r="F17" s="3">
-        <v>1481700</v>
+        <v>1450500</v>
       </c>
       <c r="G17" s="3">
-        <v>1557500</v>
+        <v>1524700</v>
       </c>
       <c r="H17" s="3">
-        <v>1500000</v>
+        <v>1468400</v>
       </c>
       <c r="I17" s="3">
-        <v>1393300</v>
+        <v>1363900</v>
       </c>
       <c r="J17" s="3">
-        <v>1364100</v>
+        <v>1335400</v>
       </c>
       <c r="K17" s="3">
         <v>1441900</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>598200</v>
+        <v>585600</v>
       </c>
       <c r="E18" s="3">
-        <v>773100</v>
+        <v>756800</v>
       </c>
       <c r="F18" s="3">
-        <v>809600</v>
+        <v>792500</v>
       </c>
       <c r="G18" s="3">
-        <v>798800</v>
+        <v>782000</v>
       </c>
       <c r="H18" s="3">
-        <v>804600</v>
+        <v>787700</v>
       </c>
       <c r="I18" s="3">
-        <v>806500</v>
+        <v>789500</v>
       </c>
       <c r="J18" s="3">
-        <v>795400</v>
+        <v>778600</v>
       </c>
       <c r="K18" s="3">
         <v>704700</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>357400</v>
+        <v>349800</v>
       </c>
       <c r="E20" s="3">
-        <v>203500</v>
+        <v>199200</v>
       </c>
       <c r="F20" s="3">
-        <v>119000</v>
+        <v>116500</v>
       </c>
       <c r="G20" s="3">
-        <v>-120900</v>
+        <v>-118400</v>
       </c>
       <c r="H20" s="3">
-        <v>42200</v>
+        <v>41300</v>
       </c>
       <c r="I20" s="3">
-        <v>78100</v>
+        <v>76400</v>
       </c>
       <c r="J20" s="3">
-        <v>53000</v>
+        <v>51900</v>
       </c>
       <c r="K20" s="3">
         <v>-20200</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1492400</v>
+        <v>1461400</v>
       </c>
       <c r="E21" s="3">
-        <v>1506600</v>
+        <v>1475300</v>
       </c>
       <c r="F21" s="3">
-        <v>1463700</v>
+        <v>1433400</v>
       </c>
       <c r="G21" s="3">
-        <v>1289700</v>
+        <v>1263100</v>
       </c>
       <c r="H21" s="3">
-        <v>1345100</v>
+        <v>1317200</v>
       </c>
       <c r="I21" s="3">
-        <v>1362100</v>
+        <v>1333800</v>
       </c>
       <c r="J21" s="3">
-        <v>1310800</v>
+        <v>1283600</v>
       </c>
       <c r="K21" s="3">
         <v>1138500</v>
@@ -1239,25 +1239,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>630700</v>
+        <v>617400</v>
       </c>
       <c r="E22" s="3">
-        <v>419100</v>
+        <v>410300</v>
       </c>
       <c r="F22" s="3">
-        <v>230300</v>
+        <v>225400</v>
       </c>
       <c r="G22" s="3">
-        <v>293600</v>
+        <v>287400</v>
       </c>
       <c r="H22" s="3">
-        <v>294000</v>
+        <v>287800</v>
       </c>
       <c r="I22" s="3">
-        <v>337000</v>
+        <v>329900</v>
       </c>
       <c r="J22" s="3">
-        <v>287700</v>
+        <v>281600</v>
       </c>
       <c r="K22" s="3">
         <v>245800</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>324800</v>
+        <v>318000</v>
       </c>
       <c r="E23" s="3">
-        <v>557500</v>
+        <v>545700</v>
       </c>
       <c r="F23" s="3">
-        <v>698300</v>
+        <v>683600</v>
       </c>
       <c r="G23" s="3">
-        <v>384200</v>
+        <v>376100</v>
       </c>
       <c r="H23" s="3">
-        <v>552800</v>
+        <v>541100</v>
       </c>
       <c r="I23" s="3">
-        <v>547600</v>
+        <v>536100</v>
       </c>
       <c r="J23" s="3">
-        <v>560700</v>
+        <v>548800</v>
       </c>
       <c r="K23" s="3">
         <v>438600</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>65100</v>
+        <v>63800</v>
       </c>
       <c r="E24" s="3">
-        <v>629500</v>
+        <v>616200</v>
       </c>
       <c r="F24" s="3">
-        <v>123700</v>
+        <v>121100</v>
       </c>
       <c r="G24" s="3">
-        <v>248900</v>
+        <v>243700</v>
       </c>
       <c r="H24" s="3">
-        <v>92300</v>
+        <v>90300</v>
       </c>
       <c r="I24" s="3">
-        <v>98200</v>
+        <v>96100</v>
       </c>
       <c r="J24" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="K24" s="3">
         <v>-54600</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>259700</v>
+        <v>254200</v>
       </c>
       <c r="E26" s="3">
-        <v>-72000</v>
+        <v>-70500</v>
       </c>
       <c r="F26" s="3">
-        <v>574600</v>
+        <v>562500</v>
       </c>
       <c r="G26" s="3">
-        <v>135300</v>
+        <v>132500</v>
       </c>
       <c r="H26" s="3">
-        <v>460500</v>
+        <v>450800</v>
       </c>
       <c r="I26" s="3">
-        <v>449400</v>
+        <v>439900</v>
       </c>
       <c r="J26" s="3">
-        <v>549900</v>
+        <v>538300</v>
       </c>
       <c r="K26" s="3">
         <v>493200</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>259700</v>
+        <v>254200</v>
       </c>
       <c r="E27" s="3">
-        <v>-72000</v>
+        <v>-70500</v>
       </c>
       <c r="F27" s="3">
-        <v>574600</v>
+        <v>562500</v>
       </c>
       <c r="G27" s="3">
-        <v>135300</v>
+        <v>132500</v>
       </c>
       <c r="H27" s="3">
-        <v>460500</v>
+        <v>450800</v>
       </c>
       <c r="I27" s="3">
-        <v>449400</v>
+        <v>439900</v>
       </c>
       <c r="J27" s="3">
-        <v>549900</v>
+        <v>538300</v>
       </c>
       <c r="K27" s="3">
         <v>493200</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-357400</v>
+        <v>-349800</v>
       </c>
       <c r="E32" s="3">
-        <v>-203500</v>
+        <v>-199200</v>
       </c>
       <c r="F32" s="3">
-        <v>-119000</v>
+        <v>-116500</v>
       </c>
       <c r="G32" s="3">
-        <v>120900</v>
+        <v>118400</v>
       </c>
       <c r="H32" s="3">
-        <v>-42200</v>
+        <v>-41300</v>
       </c>
       <c r="I32" s="3">
-        <v>-78100</v>
+        <v>-76400</v>
       </c>
       <c r="J32" s="3">
-        <v>-53000</v>
+        <v>-51900</v>
       </c>
       <c r="K32" s="3">
         <v>20200</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>259700</v>
+        <v>254200</v>
       </c>
       <c r="E33" s="3">
-        <v>-72000</v>
+        <v>-70500</v>
       </c>
       <c r="F33" s="3">
-        <v>574600</v>
+        <v>562500</v>
       </c>
       <c r="G33" s="3">
-        <v>135300</v>
+        <v>132500</v>
       </c>
       <c r="H33" s="3">
-        <v>460500</v>
+        <v>450800</v>
       </c>
       <c r="I33" s="3">
-        <v>449400</v>
+        <v>439900</v>
       </c>
       <c r="J33" s="3">
-        <v>549900</v>
+        <v>538300</v>
       </c>
       <c r="K33" s="3">
         <v>493200</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>259700</v>
+        <v>254200</v>
       </c>
       <c r="E35" s="3">
-        <v>-72000</v>
+        <v>-70500</v>
       </c>
       <c r="F35" s="3">
-        <v>574600</v>
+        <v>562500</v>
       </c>
       <c r="G35" s="3">
-        <v>135300</v>
+        <v>132500</v>
       </c>
       <c r="H35" s="3">
-        <v>460500</v>
+        <v>450800</v>
       </c>
       <c r="I35" s="3">
-        <v>449400</v>
+        <v>439900</v>
       </c>
       <c r="J35" s="3">
-        <v>549900</v>
+        <v>538300</v>
       </c>
       <c r="K35" s="3">
         <v>493200</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>431400</v>
+        <v>422300</v>
       </c>
       <c r="E41" s="3">
-        <v>305300</v>
+        <v>298900</v>
       </c>
       <c r="F41" s="3">
-        <v>943000</v>
+        <v>923100</v>
       </c>
       <c r="G41" s="3">
-        <v>669300</v>
+        <v>655200</v>
       </c>
       <c r="H41" s="3">
-        <v>430000</v>
+        <v>420900</v>
       </c>
       <c r="I41" s="3">
-        <v>646300</v>
+        <v>632700</v>
       </c>
       <c r="J41" s="3">
-        <v>314000</v>
+        <v>307400</v>
       </c>
       <c r="K41" s="3">
         <v>265000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>366800</v>
+        <v>359000</v>
       </c>
       <c r="E43" s="3">
-        <v>376500</v>
+        <v>368600</v>
       </c>
       <c r="F43" s="3">
-        <v>299200</v>
+        <v>292900</v>
       </c>
       <c r="G43" s="3">
-        <v>359400</v>
+        <v>351800</v>
       </c>
       <c r="H43" s="3">
-        <v>337000</v>
+        <v>329900</v>
       </c>
       <c r="I43" s="3">
-        <v>361700</v>
+        <v>354100</v>
       </c>
       <c r="J43" s="3">
-        <v>394100</v>
+        <v>385800</v>
       </c>
       <c r="K43" s="3">
         <v>285300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16600</v>
+        <v>16300</v>
       </c>
       <c r="E44" s="3">
-        <v>22600</v>
+        <v>22100</v>
       </c>
       <c r="F44" s="3">
-        <v>23200</v>
+        <v>22700</v>
       </c>
       <c r="G44" s="3">
-        <v>21000</v>
+        <v>20600</v>
       </c>
       <c r="H44" s="3">
-        <v>18900</v>
+        <v>18500</v>
       </c>
       <c r="I44" s="3">
-        <v>21300</v>
+        <v>20800</v>
       </c>
       <c r="J44" s="3">
-        <v>28400</v>
+        <v>27800</v>
       </c>
       <c r="K44" s="3">
         <v>36400</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>61500</v>
+        <v>60200</v>
       </c>
       <c r="E45" s="3">
-        <v>73500</v>
+        <v>72000</v>
       </c>
       <c r="F45" s="3">
-        <v>18200</v>
+        <v>17900</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>128400</v>
+        <v>125700</v>
       </c>
       <c r="I45" s="3">
-        <v>428000</v>
+        <v>419000</v>
       </c>
       <c r="J45" s="3">
-        <v>97200</v>
+        <v>95200</v>
       </c>
       <c r="K45" s="3">
         <v>190100</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>876200</v>
+        <v>857800</v>
       </c>
       <c r="E46" s="3">
-        <v>777900</v>
+        <v>761500</v>
       </c>
       <c r="F46" s="3">
-        <v>1283600</v>
+        <v>1256600</v>
       </c>
       <c r="G46" s="3">
-        <v>1049800</v>
+        <v>1027700</v>
       </c>
       <c r="H46" s="3">
-        <v>914200</v>
+        <v>895000</v>
       </c>
       <c r="I46" s="3">
-        <v>1457300</v>
+        <v>1426600</v>
       </c>
       <c r="J46" s="3">
-        <v>833800</v>
+        <v>816200</v>
       </c>
       <c r="K46" s="3">
         <v>776700</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>116800</v>
+        <v>114400</v>
       </c>
       <c r="E47" s="3">
-        <v>124600</v>
+        <v>122000</v>
       </c>
       <c r="F47" s="3">
-        <v>110000</v>
+        <v>107700</v>
       </c>
       <c r="G47" s="3">
-        <v>182400</v>
+        <v>178500</v>
       </c>
       <c r="H47" s="3">
-        <v>302400</v>
+        <v>296000</v>
       </c>
       <c r="I47" s="3">
-        <v>283100</v>
+        <v>277200</v>
       </c>
       <c r="J47" s="3">
-        <v>249000</v>
+        <v>243800</v>
       </c>
       <c r="K47" s="3">
         <v>57400</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15930800</v>
+        <v>15595200</v>
       </c>
       <c r="E48" s="3">
-        <v>15394500</v>
+        <v>15070200</v>
       </c>
       <c r="F48" s="3">
-        <v>14952900</v>
+        <v>14637800</v>
       </c>
       <c r="G48" s="3">
-        <v>14587800</v>
+        <v>14280400</v>
       </c>
       <c r="H48" s="3">
-        <v>14134700</v>
+        <v>13836900</v>
       </c>
       <c r="I48" s="3">
-        <v>13674800</v>
+        <v>13386700</v>
       </c>
       <c r="J48" s="3">
-        <v>13186900</v>
+        <v>12909100</v>
       </c>
       <c r="K48" s="3">
         <v>12447000</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>180300</v>
+        <v>176500</v>
       </c>
       <c r="E49" s="3">
-        <v>203800</v>
+        <v>199500</v>
       </c>
       <c r="F49" s="3">
-        <v>229500</v>
+        <v>224700</v>
       </c>
       <c r="G49" s="3">
-        <v>239500</v>
+        <v>234500</v>
       </c>
       <c r="H49" s="3">
-        <v>256900</v>
+        <v>251500</v>
       </c>
       <c r="I49" s="3">
-        <v>250500</v>
+        <v>245300</v>
       </c>
       <c r="J49" s="3">
-        <v>237900</v>
+        <v>232900</v>
       </c>
       <c r="K49" s="3">
         <v>201500</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1306100</v>
+        <v>1278600</v>
       </c>
       <c r="E52" s="3">
-        <v>1795300</v>
+        <v>1757400</v>
       </c>
       <c r="F52" s="3">
-        <v>1393100</v>
+        <v>1363800</v>
       </c>
       <c r="G52" s="3">
-        <v>1738600</v>
+        <v>1702000</v>
       </c>
       <c r="H52" s="3">
-        <v>1104700</v>
+        <v>1081400</v>
       </c>
       <c r="I52" s="3">
-        <v>813600</v>
+        <v>796500</v>
       </c>
       <c r="J52" s="3">
-        <v>1240100</v>
+        <v>1213900</v>
       </c>
       <c r="K52" s="3">
         <v>1291300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18410300</v>
+        <v>18022400</v>
       </c>
       <c r="E54" s="3">
-        <v>18296000</v>
+        <v>17910500</v>
       </c>
       <c r="F54" s="3">
-        <v>17969200</v>
+        <v>17590600</v>
       </c>
       <c r="G54" s="3">
-        <v>17798100</v>
+        <v>17423100</v>
       </c>
       <c r="H54" s="3">
-        <v>16712900</v>
+        <v>16360800</v>
       </c>
       <c r="I54" s="3">
-        <v>16479300</v>
+        <v>16132100</v>
       </c>
       <c r="J54" s="3">
-        <v>15747600</v>
+        <v>15415800</v>
       </c>
       <c r="K54" s="3">
         <v>14774000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33500</v>
+        <v>32800</v>
       </c>
       <c r="E57" s="3">
-        <v>35900</v>
+        <v>35100</v>
       </c>
       <c r="F57" s="3">
-        <v>42200</v>
+        <v>41300</v>
       </c>
       <c r="G57" s="3">
-        <v>46500</v>
+        <v>45500</v>
       </c>
       <c r="H57" s="3">
-        <v>43600</v>
+        <v>42700</v>
       </c>
       <c r="I57" s="3">
-        <v>35400</v>
+        <v>34600</v>
       </c>
       <c r="J57" s="3">
-        <v>44600</v>
+        <v>43700</v>
       </c>
       <c r="K57" s="3">
         <v>54700</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>223600</v>
+        <v>218800</v>
       </c>
       <c r="E58" s="3">
-        <v>391300</v>
+        <v>383100</v>
       </c>
       <c r="F58" s="3">
-        <v>829800</v>
+        <v>812300</v>
       </c>
       <c r="G58" s="3">
-        <v>1070900</v>
+        <v>1048300</v>
       </c>
       <c r="H58" s="3">
-        <v>887400</v>
+        <v>868700</v>
       </c>
       <c r="I58" s="3">
-        <v>1063900</v>
+        <v>1041500</v>
       </c>
       <c r="J58" s="3">
-        <v>413300</v>
+        <v>404600</v>
       </c>
       <c r="K58" s="3">
         <v>582200</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>472800</v>
+        <v>462900</v>
       </c>
       <c r="E59" s="3">
-        <v>445500</v>
+        <v>436100</v>
       </c>
       <c r="F59" s="3">
-        <v>389600</v>
+        <v>381400</v>
       </c>
       <c r="G59" s="3">
-        <v>409300</v>
+        <v>400700</v>
       </c>
       <c r="H59" s="3">
-        <v>402200</v>
+        <v>393800</v>
       </c>
       <c r="I59" s="3">
-        <v>347400</v>
+        <v>340000</v>
       </c>
       <c r="J59" s="3">
-        <v>416300</v>
+        <v>407500</v>
       </c>
       <c r="K59" s="3">
         <v>410600</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>729800</v>
+        <v>714500</v>
       </c>
       <c r="E60" s="3">
-        <v>872700</v>
+        <v>854300</v>
       </c>
       <c r="F60" s="3">
-        <v>1261600</v>
+        <v>1235000</v>
       </c>
       <c r="G60" s="3">
-        <v>1526700</v>
+        <v>1494600</v>
       </c>
       <c r="H60" s="3">
-        <v>1333200</v>
+        <v>1305100</v>
       </c>
       <c r="I60" s="3">
-        <v>1446600</v>
+        <v>1416100</v>
       </c>
       <c r="J60" s="3">
-        <v>874200</v>
+        <v>855800</v>
       </c>
       <c r="K60" s="3">
         <v>1047500</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10466600</v>
+        <v>10246100</v>
       </c>
       <c r="E61" s="3">
-        <v>9721500</v>
+        <v>9516600</v>
       </c>
       <c r="F61" s="3">
-        <v>9881100</v>
+        <v>9673000</v>
       </c>
       <c r="G61" s="3">
-        <v>9527700</v>
+        <v>9327000</v>
       </c>
       <c r="H61" s="3">
-        <v>9017600</v>
+        <v>8827600</v>
       </c>
       <c r="I61" s="3">
-        <v>8963400</v>
+        <v>8774500</v>
       </c>
       <c r="J61" s="3">
-        <v>8945100</v>
+        <v>8756700</v>
       </c>
       <c r="K61" s="3">
         <v>8076100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4034600</v>
+        <v>3949600</v>
       </c>
       <c r="E62" s="3">
-        <v>3954000</v>
+        <v>3870700</v>
       </c>
       <c r="F62" s="3">
-        <v>2985300</v>
+        <v>2922400</v>
       </c>
       <c r="G62" s="3">
-        <v>2989800</v>
+        <v>2926800</v>
       </c>
       <c r="H62" s="3">
-        <v>2419800</v>
+        <v>2368800</v>
       </c>
       <c r="I62" s="3">
-        <v>2329700</v>
+        <v>2280600</v>
       </c>
       <c r="J62" s="3">
-        <v>2352500</v>
+        <v>2302900</v>
       </c>
       <c r="K62" s="3">
         <v>2293400</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15231000</v>
+        <v>14910200</v>
       </c>
       <c r="E66" s="3">
-        <v>14548100</v>
+        <v>14241600</v>
       </c>
       <c r="F66" s="3">
-        <v>14128000</v>
+        <v>13830300</v>
       </c>
       <c r="G66" s="3">
-        <v>14044200</v>
+        <v>13748300</v>
       </c>
       <c r="H66" s="3">
-        <v>12770600</v>
+        <v>12501500</v>
       </c>
       <c r="I66" s="3">
-        <v>12739700</v>
+        <v>12471300</v>
       </c>
       <c r="J66" s="3">
-        <v>12171800</v>
+        <v>11915300</v>
       </c>
       <c r="K66" s="3">
         <v>11417000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2512200</v>
+        <v>2459200</v>
       </c>
       <c r="E72" s="3">
-        <v>3001200</v>
+        <v>2938000</v>
       </c>
       <c r="F72" s="3">
-        <v>3195800</v>
+        <v>3128400</v>
       </c>
       <c r="G72" s="3">
-        <v>3107900</v>
+        <v>3042400</v>
       </c>
       <c r="H72" s="3">
-        <v>3294300</v>
+        <v>3224900</v>
       </c>
       <c r="I72" s="3">
-        <v>3104900</v>
+        <v>3039500</v>
       </c>
       <c r="J72" s="3">
-        <v>2941300</v>
+        <v>2879300</v>
       </c>
       <c r="K72" s="3">
         <v>2740300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3179300</v>
+        <v>3112300</v>
       </c>
       <c r="E76" s="3">
-        <v>3747900</v>
+        <v>3669000</v>
       </c>
       <c r="F76" s="3">
-        <v>3841200</v>
+        <v>3760300</v>
       </c>
       <c r="G76" s="3">
-        <v>3753900</v>
+        <v>3674800</v>
       </c>
       <c r="H76" s="3">
-        <v>3942300</v>
+        <v>3859300</v>
       </c>
       <c r="I76" s="3">
-        <v>3739700</v>
+        <v>3660900</v>
       </c>
       <c r="J76" s="3">
-        <v>3575800</v>
+        <v>3500500</v>
       </c>
       <c r="K76" s="3">
         <v>3357000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>259700</v>
+        <v>254200</v>
       </c>
       <c r="E81" s="3">
-        <v>-72000</v>
+        <v>-70500</v>
       </c>
       <c r="F81" s="3">
-        <v>574600</v>
+        <v>562500</v>
       </c>
       <c r="G81" s="3">
-        <v>135300</v>
+        <v>132500</v>
       </c>
       <c r="H81" s="3">
-        <v>460500</v>
+        <v>450800</v>
       </c>
       <c r="I81" s="3">
-        <v>449400</v>
+        <v>439900</v>
       </c>
       <c r="J81" s="3">
-        <v>549900</v>
+        <v>538300</v>
       </c>
       <c r="K81" s="3">
         <v>493200</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>536800</v>
+        <v>525500</v>
       </c>
       <c r="E83" s="3">
-        <v>530000</v>
+        <v>518800</v>
       </c>
       <c r="F83" s="3">
-        <v>535200</v>
+        <v>523900</v>
       </c>
       <c r="G83" s="3">
-        <v>611900</v>
+        <v>599000</v>
       </c>
       <c r="H83" s="3">
-        <v>498300</v>
+        <v>487800</v>
       </c>
       <c r="I83" s="3">
-        <v>477500</v>
+        <v>467500</v>
       </c>
       <c r="J83" s="3">
-        <v>462400</v>
+        <v>452700</v>
       </c>
       <c r="K83" s="3">
         <v>451300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>998000</v>
+        <v>977000</v>
       </c>
       <c r="E89" s="3">
-        <v>1184200</v>
+        <v>1159200</v>
       </c>
       <c r="F89" s="3">
-        <v>1089100</v>
+        <v>1066200</v>
       </c>
       <c r="G89" s="3">
-        <v>1026900</v>
+        <v>1005300</v>
       </c>
       <c r="H89" s="3">
-        <v>1054800</v>
+        <v>1032600</v>
       </c>
       <c r="I89" s="3">
-        <v>1033600</v>
+        <v>1011800</v>
       </c>
       <c r="J89" s="3">
-        <v>1040200</v>
+        <v>1018300</v>
       </c>
       <c r="K89" s="3">
         <v>850700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-856600</v>
+        <v>-838500</v>
       </c>
       <c r="E91" s="3">
-        <v>-771800</v>
+        <v>-755500</v>
       </c>
       <c r="F91" s="3">
-        <v>-773600</v>
+        <v>-757300</v>
       </c>
       <c r="G91" s="3">
-        <v>-827300</v>
+        <v>-809900</v>
       </c>
       <c r="H91" s="3">
-        <v>-788600</v>
+        <v>-772000</v>
       </c>
       <c r="I91" s="3">
-        <v>-885300</v>
+        <v>-866700</v>
       </c>
       <c r="J91" s="3">
-        <v>-852100</v>
+        <v>-834200</v>
       </c>
       <c r="K91" s="3">
         <v>-786900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-752000</v>
+        <v>-736200</v>
       </c>
       <c r="E94" s="3">
-        <v>-810700</v>
+        <v>-793600</v>
       </c>
       <c r="F94" s="3">
-        <v>-696100</v>
+        <v>-681500</v>
       </c>
       <c r="G94" s="3">
-        <v>-752600</v>
+        <v>-736800</v>
       </c>
       <c r="H94" s="3">
-        <v>-795500</v>
+        <v>-778700</v>
       </c>
       <c r="I94" s="3">
-        <v>-916500</v>
+        <v>-897200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1019700</v>
+        <v>-998200</v>
       </c>
       <c r="K94" s="3">
         <v>-839800</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-381700</v>
+        <v>-373700</v>
       </c>
       <c r="E96" s="3">
-        <v>-374500</v>
+        <v>-366600</v>
       </c>
       <c r="F96" s="3">
-        <v>-369900</v>
+        <v>-362100</v>
       </c>
       <c r="G96" s="3">
-        <v>-360500</v>
+        <v>-353000</v>
       </c>
       <c r="H96" s="3">
-        <v>-347700</v>
+        <v>-340400</v>
       </c>
       <c r="I96" s="3">
-        <v>-338400</v>
+        <v>-331200</v>
       </c>
       <c r="J96" s="3">
-        <v>-333400</v>
+        <v>-326400</v>
       </c>
       <c r="K96" s="3">
         <v>-321000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-107700</v>
+        <v>-105500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1026100</v>
+        <v>-1004500</v>
       </c>
       <c r="F100" s="3">
-        <v>-113700</v>
+        <v>-111300</v>
       </c>
       <c r="G100" s="3">
-        <v>-35200</v>
+        <v>-34500</v>
       </c>
       <c r="H100" s="3">
-        <v>-478300</v>
+        <v>-468200</v>
       </c>
       <c r="I100" s="3">
-        <v>234100</v>
+        <v>229100</v>
       </c>
       <c r="J100" s="3">
-        <v>27900</v>
+        <v>27300</v>
       </c>
       <c r="K100" s="3">
         <v>-57600</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>136600</v>
+        <v>133700</v>
       </c>
       <c r="E102" s="3">
-        <v>-650800</v>
+        <v>-637000</v>
       </c>
       <c r="F102" s="3">
-        <v>279300</v>
+        <v>273400</v>
       </c>
       <c r="G102" s="3">
-        <v>239000</v>
+        <v>234000</v>
       </c>
       <c r="H102" s="3">
-        <v>-219000</v>
+        <v>-214400</v>
       </c>
       <c r="I102" s="3">
-        <v>351200</v>
+        <v>343800</v>
       </c>
       <c r="J102" s="3">
-        <v>48400</v>
+        <v>47400</v>
       </c>
       <c r="K102" s="3">
         <v>-46700</v>
